--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,211 +665,223 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5196800</v>
+        <v>5536400</v>
       </c>
       <c r="E8" s="3">
-        <v>5233100</v>
+        <v>5311100</v>
       </c>
       <c r="F8" s="3">
-        <v>4881100</v>
+        <v>5348200</v>
       </c>
       <c r="G8" s="3">
-        <v>5805900</v>
+        <v>4988500</v>
       </c>
       <c r="H8" s="3">
-        <v>4855300</v>
+        <v>5933600</v>
       </c>
       <c r="I8" s="3">
-        <v>5982100</v>
+        <v>4962200</v>
       </c>
       <c r="J8" s="3">
+        <v>6113700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5489600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6037700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6120900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6558500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7162400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6678100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6250200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3181900</v>
+        <v>3504500</v>
       </c>
       <c r="E9" s="3">
-        <v>3182000</v>
+        <v>3251900</v>
       </c>
       <c r="F9" s="3">
-        <v>2905300</v>
+        <v>3252000</v>
       </c>
       <c r="G9" s="3">
-        <v>3745900</v>
+        <v>2969200</v>
       </c>
       <c r="H9" s="3">
-        <v>2993900</v>
+        <v>3828300</v>
       </c>
       <c r="I9" s="3">
-        <v>3866900</v>
+        <v>3059800</v>
       </c>
       <c r="J9" s="3">
+        <v>3952000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3459500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4148400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4173600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4727200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5316600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4878500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4517300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2014900</v>
+        <v>2031900</v>
       </c>
       <c r="E10" s="3">
-        <v>2051100</v>
+        <v>2059200</v>
       </c>
       <c r="F10" s="3">
-        <v>1975800</v>
+        <v>2096200</v>
       </c>
       <c r="G10" s="3">
-        <v>2060000</v>
+        <v>2019300</v>
       </c>
       <c r="H10" s="3">
-        <v>1861400</v>
+        <v>2105300</v>
       </c>
       <c r="I10" s="3">
-        <v>2115200</v>
+        <v>1902400</v>
       </c>
       <c r="J10" s="3">
+        <v>2161700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2030100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1889300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1947200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1831300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1845700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1799600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1732900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +899,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +947,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,55 +997,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4700</v>
+        <v>23100</v>
       </c>
       <c r="E14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>21700</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>22200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>38400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>30100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,46 +1059,49 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>16200</v>
+        <v>17500</v>
       </c>
       <c r="F15" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="G15" s="3">
-        <v>12500</v>
+        <v>16400</v>
       </c>
       <c r="H15" s="3">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="I15" s="3">
-        <v>10300</v>
+        <v>12300</v>
       </c>
       <c r="J15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K15" s="3">
         <v>9900</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>11400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1091,102 +1116,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4514800</v>
+        <v>5230200</v>
       </c>
       <c r="E17" s="3">
-        <v>4450900</v>
+        <v>4614200</v>
       </c>
       <c r="F17" s="3">
-        <v>4193500</v>
+        <v>4548800</v>
       </c>
       <c r="G17" s="3">
-        <v>5158200</v>
+        <v>4285700</v>
       </c>
       <c r="H17" s="3">
-        <v>4281900</v>
+        <v>5271700</v>
       </c>
       <c r="I17" s="3">
-        <v>5044900</v>
+        <v>4376100</v>
       </c>
       <c r="J17" s="3">
+        <v>5155900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4653400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5469000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5359200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5681200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6330900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5953800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5529800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>681900</v>
+        <v>306200</v>
       </c>
       <c r="E18" s="3">
-        <v>782200</v>
+        <v>696900</v>
       </c>
       <c r="F18" s="3">
-        <v>687700</v>
+        <v>799400</v>
       </c>
       <c r="G18" s="3">
-        <v>647700</v>
+        <v>702800</v>
       </c>
       <c r="H18" s="3">
-        <v>573500</v>
+        <v>661900</v>
       </c>
       <c r="I18" s="3">
-        <v>937200</v>
+        <v>586100</v>
       </c>
       <c r="J18" s="3">
+        <v>957800</v>
+      </c>
+      <c r="K18" s="3">
         <v>836200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>568700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>761700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>877300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>831500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>724300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>720400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1204,102 +1236,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>425500</v>
+        <v>270700</v>
       </c>
       <c r="E20" s="3">
-        <v>397400</v>
+        <v>434900</v>
       </c>
       <c r="F20" s="3">
-        <v>211000</v>
+        <v>406100</v>
       </c>
       <c r="G20" s="3">
-        <v>266400</v>
+        <v>215600</v>
       </c>
       <c r="H20" s="3">
-        <v>101200</v>
+        <v>272300</v>
       </c>
       <c r="I20" s="3">
-        <v>62600</v>
+        <v>103400</v>
       </c>
       <c r="J20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K20" s="3">
         <v>172300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>109400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>213500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>180400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>394400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>81700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>298400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1323500</v>
       </c>
       <c r="E21" s="3">
-        <v>1868300</v>
+        <v>1818900</v>
       </c>
       <c r="F21" s="3">
-        <v>1572400</v>
+        <v>1909500</v>
       </c>
       <c r="G21" s="3">
-        <v>1619500</v>
+        <v>1607000</v>
       </c>
       <c r="H21" s="3">
-        <v>1354700</v>
+        <v>1655100</v>
       </c>
       <c r="I21" s="3">
-        <v>1657800</v>
+        <v>1384500</v>
       </c>
       <c r="J21" s="3">
+        <v>1694300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1652200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1376200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1600300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1668200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1822700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1389400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1580800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1345,102 +1384,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1107400</v>
+        <v>576900</v>
       </c>
       <c r="E23" s="3">
-        <v>1179600</v>
+        <v>1131800</v>
       </c>
       <c r="F23" s="3">
-        <v>898600</v>
+        <v>1205600</v>
       </c>
       <c r="G23" s="3">
-        <v>914100</v>
+        <v>918400</v>
       </c>
       <c r="H23" s="3">
-        <v>674700</v>
+        <v>934200</v>
       </c>
       <c r="I23" s="3">
-        <v>999800</v>
+        <v>689500</v>
       </c>
       <c r="J23" s="3">
+        <v>1021800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1008600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>678100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>975200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1057700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1225900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>806000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1018800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>324400</v>
+        <v>29600</v>
       </c>
       <c r="E24" s="3">
-        <v>345500</v>
+        <v>331500</v>
       </c>
       <c r="F24" s="3">
-        <v>263200</v>
+        <v>353100</v>
       </c>
       <c r="G24" s="3">
-        <v>114100</v>
+        <v>269000</v>
       </c>
       <c r="H24" s="3">
-        <v>-74400</v>
+        <v>116600</v>
       </c>
       <c r="I24" s="3">
-        <v>303600</v>
+        <v>-76000</v>
       </c>
       <c r="J24" s="3">
+        <v>310300</v>
+      </c>
+      <c r="K24" s="3">
         <v>281100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>135400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>142100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>348400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>403800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>336300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1486,102 +1534,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>783100</v>
+        <v>547300</v>
       </c>
       <c r="E26" s="3">
-        <v>834100</v>
+        <v>800300</v>
       </c>
       <c r="F26" s="3">
-        <v>635400</v>
+        <v>852500</v>
       </c>
       <c r="G26" s="3">
-        <v>800000</v>
+        <v>649400</v>
       </c>
       <c r="H26" s="3">
-        <v>749100</v>
+        <v>817600</v>
       </c>
       <c r="I26" s="3">
-        <v>696200</v>
+        <v>765600</v>
       </c>
       <c r="J26" s="3">
+        <v>711500</v>
+      </c>
+      <c r="K26" s="3">
         <v>727500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>542700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>833100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>709300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>822100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>506000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>682500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>774200</v>
+        <v>542400</v>
       </c>
       <c r="E27" s="3">
-        <v>817600</v>
+        <v>791200</v>
       </c>
       <c r="F27" s="3">
-        <v>629100</v>
+        <v>835500</v>
       </c>
       <c r="G27" s="3">
-        <v>795700</v>
+        <v>643000</v>
       </c>
       <c r="H27" s="3">
-        <v>737700</v>
+        <v>813200</v>
       </c>
       <c r="I27" s="3">
-        <v>682700</v>
+        <v>753900</v>
       </c>
       <c r="J27" s="3">
+        <v>697700</v>
+      </c>
+      <c r="K27" s="3">
         <v>726700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>513000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>817400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>689400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>811000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>497800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>665000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1627,8 +1684,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1653,8 +1713,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1665,8 +1725,8 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1674,8 +1734,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1721,8 +1784,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1768,102 +1834,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-425500</v>
+        <v>-270700</v>
       </c>
       <c r="E32" s="3">
-        <v>-397400</v>
+        <v>-434900</v>
       </c>
       <c r="F32" s="3">
-        <v>-211000</v>
+        <v>-406100</v>
       </c>
       <c r="G32" s="3">
-        <v>-266400</v>
+        <v>-215600</v>
       </c>
       <c r="H32" s="3">
-        <v>-101200</v>
+        <v>-272300</v>
       </c>
       <c r="I32" s="3">
-        <v>-62600</v>
+        <v>-103400</v>
       </c>
       <c r="J32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-172300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-109400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-213500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-180400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-394400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-81700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-298400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>774200</v>
+        <v>542400</v>
       </c>
       <c r="E33" s="3">
-        <v>817600</v>
+        <v>791200</v>
       </c>
       <c r="F33" s="3">
-        <v>629100</v>
+        <v>835500</v>
       </c>
       <c r="G33" s="3">
-        <v>795700</v>
+        <v>643000</v>
       </c>
       <c r="H33" s="3">
-        <v>737700</v>
+        <v>813200</v>
       </c>
       <c r="I33" s="3">
-        <v>682700</v>
+        <v>753900</v>
       </c>
       <c r="J33" s="3">
+        <v>697700</v>
+      </c>
+      <c r="K33" s="3">
         <v>726700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>513000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>817400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>689400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>811000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>497800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>665000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1909,107 +1984,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>774200</v>
+        <v>542400</v>
       </c>
       <c r="E35" s="3">
-        <v>817600</v>
+        <v>791200</v>
       </c>
       <c r="F35" s="3">
-        <v>629100</v>
+        <v>835500</v>
       </c>
       <c r="G35" s="3">
-        <v>795700</v>
+        <v>643000</v>
       </c>
       <c r="H35" s="3">
-        <v>737700</v>
+        <v>813200</v>
       </c>
       <c r="I35" s="3">
-        <v>682700</v>
+        <v>753900</v>
       </c>
       <c r="J35" s="3">
+        <v>697700</v>
+      </c>
+      <c r="K35" s="3">
         <v>726700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>513000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>817400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>689400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>811000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>497800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>665000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2027,8 +2111,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2046,55 +2131,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9277300</v>
+        <v>10546800</v>
       </c>
       <c r="E41" s="3">
-        <v>10084800</v>
+        <v>9481500</v>
       </c>
       <c r="F41" s="3">
-        <v>10388300</v>
+        <v>10306700</v>
       </c>
       <c r="G41" s="3">
-        <v>11667700</v>
+        <v>10616900</v>
       </c>
       <c r="H41" s="3">
-        <v>12137000</v>
+        <v>11924500</v>
       </c>
       <c r="I41" s="3">
-        <v>11405900</v>
+        <v>12404000</v>
       </c>
       <c r="J41" s="3">
+        <v>11656800</v>
+      </c>
+      <c r="K41" s="3">
         <v>12061800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12702300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11964900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11518800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11731700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10051600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9284500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2140,102 +2229,111 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1995100</v>
+        <v>2377400</v>
       </c>
       <c r="E43" s="3">
-        <v>1858700</v>
+        <v>2039000</v>
       </c>
       <c r="F43" s="3">
-        <v>2120500</v>
+        <v>1899600</v>
       </c>
       <c r="G43" s="3">
-        <v>2023200</v>
+        <v>2167200</v>
       </c>
       <c r="H43" s="3">
-        <v>1858500</v>
+        <v>2067800</v>
       </c>
       <c r="I43" s="3">
-        <v>1996900</v>
+        <v>1899400</v>
       </c>
       <c r="J43" s="3">
+        <v>2040800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2255700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2170500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2281800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1973500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1850500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1988700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1868400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1199500</v>
+        <v>1170700</v>
       </c>
       <c r="E44" s="3">
-        <v>1148400</v>
+        <v>1225900</v>
       </c>
       <c r="F44" s="3">
-        <v>1138000</v>
+        <v>1173600</v>
       </c>
       <c r="G44" s="3">
-        <v>1051700</v>
+        <v>1163000</v>
       </c>
       <c r="H44" s="3">
-        <v>1318200</v>
+        <v>1074800</v>
       </c>
       <c r="I44" s="3">
-        <v>1194200</v>
+        <v>1347200</v>
       </c>
       <c r="J44" s="3">
+        <v>1220500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1117200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1003400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1246700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1174100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1116500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1045400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1265400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2281,8 +2379,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2328,102 +2429,111 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74277800</v>
+        <v>76247400</v>
       </c>
       <c r="E47" s="3">
-        <v>71205800</v>
+        <v>75912000</v>
       </c>
       <c r="F47" s="3">
-        <v>69310600</v>
+        <v>72772500</v>
       </c>
       <c r="G47" s="3">
-        <v>77637100</v>
+        <v>70835500</v>
       </c>
       <c r="H47" s="3">
-        <v>75895400</v>
+        <v>79345300</v>
       </c>
       <c r="I47" s="3">
-        <v>73646000</v>
+        <v>77565300</v>
       </c>
       <c r="J47" s="3">
+        <v>75266400</v>
+      </c>
+      <c r="K47" s="3">
         <v>69855700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>69467000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>71014900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>70684000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>70420000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>69927900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70281800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6573200</v>
+        <v>7120000</v>
       </c>
       <c r="E48" s="3">
-        <v>5968000</v>
+        <v>6717800</v>
       </c>
       <c r="F48" s="3">
-        <v>6323000</v>
+        <v>6099300</v>
       </c>
       <c r="G48" s="3">
-        <v>4999700</v>
+        <v>6462200</v>
       </c>
       <c r="H48" s="3">
-        <v>5438400</v>
+        <v>5109700</v>
       </c>
       <c r="I48" s="3">
-        <v>5121900</v>
+        <v>5558000</v>
       </c>
       <c r="J48" s="3">
+        <v>5234600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5009900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4951600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4682600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4655100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4632500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4521200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4311900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2469,8 +2579,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2516,8 +2629,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2563,8 +2679,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2610,8 +2729,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2657,55 +2779,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>116742500</v>
+        <v>121397300</v>
       </c>
       <c r="E54" s="3">
-        <v>113725700</v>
+        <v>119311100</v>
       </c>
       <c r="F54" s="3">
-        <v>112761000</v>
+        <v>116227900</v>
       </c>
       <c r="G54" s="3">
-        <v>110670000</v>
+        <v>115241900</v>
       </c>
       <c r="H54" s="3">
-        <v>110187100</v>
+        <v>113105000</v>
       </c>
       <c r="I54" s="3">
-        <v>107067000</v>
+        <v>112611400</v>
       </c>
       <c r="J54" s="3">
+        <v>109422700</v>
+      </c>
+      <c r="K54" s="3">
         <v>103370600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>103290900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104429300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103291400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102314200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>99626900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98834300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2723,8 +2851,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2742,149 +2871,159 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2062500</v>
+        <v>2626500</v>
       </c>
       <c r="E57" s="3">
-        <v>2116900</v>
+        <v>2107900</v>
       </c>
       <c r="F57" s="3">
-        <v>2016600</v>
+        <v>2163400</v>
       </c>
       <c r="G57" s="3">
-        <v>2667700</v>
+        <v>2060900</v>
       </c>
       <c r="H57" s="3">
-        <v>2124200</v>
+        <v>2726400</v>
       </c>
       <c r="I57" s="3">
-        <v>2085900</v>
+        <v>2171000</v>
       </c>
       <c r="J57" s="3">
+        <v>2131700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2416200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2371200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1898700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1915700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1891500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2233500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1846800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3491800</v>
+        <v>3129200</v>
       </c>
       <c r="E58" s="3">
-        <v>2498100</v>
+        <v>3568600</v>
       </c>
       <c r="F58" s="3">
-        <v>3060700</v>
+        <v>2553000</v>
       </c>
       <c r="G58" s="3">
-        <v>2813800</v>
+        <v>3128100</v>
       </c>
       <c r="H58" s="3">
-        <v>5897300</v>
+        <v>2875700</v>
       </c>
       <c r="I58" s="3">
-        <v>2949400</v>
+        <v>6027000</v>
       </c>
       <c r="J58" s="3">
+        <v>3014300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2165000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2773100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3241500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3034400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3398100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2514400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2628100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23088100</v>
+        <v>24043000</v>
       </c>
       <c r="E59" s="3">
-        <v>22373000</v>
+        <v>23596100</v>
       </c>
       <c r="F59" s="3">
-        <v>21410100</v>
+        <v>22865200</v>
       </c>
       <c r="G59" s="3">
-        <v>20757800</v>
+        <v>21881200</v>
       </c>
       <c r="H59" s="3">
-        <v>20476300</v>
+        <v>21214500</v>
       </c>
       <c r="I59" s="3">
-        <v>20568500</v>
+        <v>20926800</v>
       </c>
       <c r="J59" s="3">
+        <v>21021000</v>
+      </c>
+      <c r="K59" s="3">
         <v>19682100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19204700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19329900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19044800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18495000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18275000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17244500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2930,55 +3069,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37443300</v>
+        <v>39755200</v>
       </c>
       <c r="E61" s="3">
-        <v>37003600</v>
+        <v>38267200</v>
       </c>
       <c r="F61" s="3">
-        <v>37380600</v>
+        <v>37817800</v>
       </c>
       <c r="G61" s="3">
-        <v>38052800</v>
+        <v>38203100</v>
       </c>
       <c r="H61" s="3">
-        <v>36092200</v>
+        <v>38890000</v>
       </c>
       <c r="I61" s="3">
-        <v>35096800</v>
+        <v>36886400</v>
       </c>
       <c r="J61" s="3">
+        <v>35869000</v>
+      </c>
+      <c r="K61" s="3">
         <v>34202200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34591600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35174700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34962700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35088200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34193700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34384900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3024,8 +3169,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3071,8 +3219,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3118,8 +3269,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3165,55 +3319,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89396000</v>
+        <v>93586700</v>
       </c>
       <c r="E66" s="3">
-        <v>86800400</v>
+        <v>91363000</v>
       </c>
       <c r="F66" s="3">
-        <v>86517500</v>
+        <v>88710200</v>
       </c>
       <c r="G66" s="3">
-        <v>84335600</v>
+        <v>88421100</v>
       </c>
       <c r="H66" s="3">
-        <v>84576000</v>
+        <v>86191200</v>
       </c>
       <c r="I66" s="3">
-        <v>81578900</v>
+        <v>86436900</v>
       </c>
       <c r="J66" s="3">
+        <v>83373800</v>
+      </c>
+      <c r="K66" s="3">
         <v>78716600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79041800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80311500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79690300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79485200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77383600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77218100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3231,8 +3391,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3278,8 +3439,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3325,8 +3489,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3372,8 +3539,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3419,55 +3589,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24507400</v>
+        <v>25588900</v>
       </c>
       <c r="E72" s="3">
-        <v>24141000</v>
+        <v>25046600</v>
       </c>
       <c r="F72" s="3">
-        <v>23323400</v>
+        <v>24672100</v>
       </c>
       <c r="G72" s="3">
-        <v>23230300</v>
+        <v>23836600</v>
       </c>
       <c r="H72" s="3">
-        <v>22453500</v>
+        <v>23741400</v>
       </c>
       <c r="I72" s="3">
-        <v>22065300</v>
+        <v>22947500</v>
       </c>
       <c r="J72" s="3">
+        <v>22550800</v>
+      </c>
+      <c r="K72" s="3">
         <v>21382600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20930200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20440400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19935700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19246400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18427200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17917900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3513,8 +3689,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3560,8 +3739,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3607,55 +3789,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27346400</v>
+        <v>27810600</v>
       </c>
       <c r="E76" s="3">
-        <v>26925200</v>
+        <v>27948100</v>
       </c>
       <c r="F76" s="3">
-        <v>26243500</v>
+        <v>27517700</v>
       </c>
       <c r="G76" s="3">
-        <v>26334400</v>
+        <v>26820900</v>
       </c>
       <c r="H76" s="3">
-        <v>25611100</v>
+        <v>26913800</v>
       </c>
       <c r="I76" s="3">
-        <v>25488100</v>
+        <v>26174600</v>
       </c>
       <c r="J76" s="3">
+        <v>26048900</v>
+      </c>
+      <c r="K76" s="3">
         <v>24653900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24249100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24117900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23601100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22829000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22243300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21616300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3701,107 +3889,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>774200</v>
+        <v>542400</v>
       </c>
       <c r="E81" s="3">
-        <v>817600</v>
+        <v>791200</v>
       </c>
       <c r="F81" s="3">
-        <v>629100</v>
+        <v>835500</v>
       </c>
       <c r="G81" s="3">
-        <v>795700</v>
+        <v>643000</v>
       </c>
       <c r="H81" s="3">
-        <v>737700</v>
+        <v>813200</v>
       </c>
       <c r="I81" s="3">
-        <v>682700</v>
+        <v>753900</v>
       </c>
       <c r="J81" s="3">
+        <v>697700</v>
+      </c>
+      <c r="K81" s="3">
         <v>726700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>513000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>817400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>689400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>811000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>497800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>665000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3819,55 +4016,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>746500</v>
       </c>
       <c r="E83" s="3">
-        <v>688700</v>
+        <v>687100</v>
       </c>
       <c r="F83" s="3">
-        <v>673700</v>
+        <v>703900</v>
       </c>
       <c r="G83" s="3">
-        <v>705300</v>
+        <v>688500</v>
       </c>
       <c r="H83" s="3">
-        <v>680000</v>
+        <v>720900</v>
       </c>
       <c r="I83" s="3">
-        <v>658000</v>
+        <v>694900</v>
       </c>
       <c r="J83" s="3">
+        <v>672500</v>
+      </c>
+      <c r="K83" s="3">
         <v>643600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>698100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>625100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>610500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>596800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>583400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>562000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3913,8 +4114,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3960,8 +4164,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4007,8 +4214,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4054,8 +4264,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4101,55 +4314,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>2989300</v>
       </c>
       <c r="E89" s="3">
-        <v>3219800</v>
+        <v>1745000</v>
       </c>
       <c r="F89" s="3">
-        <v>1623800</v>
+        <v>3290700</v>
       </c>
       <c r="G89" s="3">
-        <v>1873200</v>
+        <v>1659500</v>
       </c>
       <c r="H89" s="3">
-        <v>982300</v>
+        <v>1914400</v>
       </c>
       <c r="I89" s="3">
-        <v>1602400</v>
+        <v>1004000</v>
       </c>
       <c r="J89" s="3">
+        <v>1637600</v>
+      </c>
+      <c r="K89" s="3">
         <v>884100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1772000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1193700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1172300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>803500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1250000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>994000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4167,55 +4386,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-181600</v>
       </c>
       <c r="E91" s="3">
-        <v>-61900</v>
+        <v>-118900</v>
       </c>
       <c r="F91" s="3">
-        <v>-48200</v>
+        <v>-63300</v>
       </c>
       <c r="G91" s="3">
-        <v>-100700</v>
+        <v>-49300</v>
       </c>
       <c r="H91" s="3">
-        <v>-123000</v>
+        <v>-103000</v>
       </c>
       <c r="I91" s="3">
-        <v>-194400</v>
+        <v>-125700</v>
       </c>
       <c r="J91" s="3">
+        <v>-198600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-147500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-155900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-197500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-222200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-148500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4261,8 +4484,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4308,55 +4534,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-3556500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3353000</v>
+        <v>-3569000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3041700</v>
+        <v>-3426700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1606100</v>
+        <v>-3108600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3719900</v>
+        <v>-1641500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2650700</v>
+        <v>-3801700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2709000</v>
+      </c>
+      <c r="K94" s="3">
         <v>32500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-760600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>116900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4374,8 +4606,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4383,46 +4616,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-416800</v>
       </c>
       <c r="F96" s="3">
-        <v>-536000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-547800</v>
       </c>
       <c r="H96" s="3">
-        <v>-349500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-357200</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-454400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-312700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-345000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-267500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4468,8 +4704,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4515,8 +4754,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4562,145 +4804,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>1674000</v>
       </c>
       <c r="E100" s="3">
-        <v>-135400</v>
+        <v>946000</v>
       </c>
       <c r="F100" s="3">
-        <v>196100</v>
+        <v>-138400</v>
       </c>
       <c r="G100" s="3">
-        <v>-728000</v>
+        <v>200400</v>
       </c>
       <c r="H100" s="3">
-        <v>3535800</v>
+        <v>-744100</v>
       </c>
       <c r="I100" s="3">
-        <v>344400</v>
+        <v>3613600</v>
       </c>
       <c r="J100" s="3">
+        <v>352000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-330300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>571200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>434300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>622800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>713600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-108100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-41500</v>
       </c>
       <c r="E101" s="3">
-        <v>-35000</v>
+        <v>52700</v>
       </c>
       <c r="F101" s="3">
-        <v>-57600</v>
+        <v>-35700</v>
       </c>
       <c r="G101" s="3">
-        <v>-8200</v>
+        <v>-58900</v>
       </c>
       <c r="H101" s="3">
-        <v>-67200</v>
+        <v>-8400</v>
       </c>
       <c r="I101" s="3">
-        <v>48000</v>
+        <v>-68700</v>
       </c>
       <c r="J101" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K101" s="3">
         <v>10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-82800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>42100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>41400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>141000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>1065300</v>
       </c>
       <c r="E102" s="3">
-        <v>-303500</v>
+        <v>-825200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1279400</v>
+        <v>-310200</v>
       </c>
       <c r="G102" s="3">
-        <v>-469200</v>
+        <v>-1307600</v>
       </c>
       <c r="H102" s="3">
-        <v>731100</v>
+        <v>-479500</v>
       </c>
       <c r="I102" s="3">
-        <v>-655900</v>
+        <v>747200</v>
       </c>
       <c r="J102" s="3">
+        <v>-670400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-710700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>798800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>424100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-166800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1487500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>874100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-181900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,223 +665,235 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5536400</v>
+        <v>5075300</v>
       </c>
       <c r="E8" s="3">
-        <v>5311100</v>
+        <v>5625800</v>
       </c>
       <c r="F8" s="3">
-        <v>5348200</v>
+        <v>5396900</v>
       </c>
       <c r="G8" s="3">
-        <v>4988500</v>
+        <v>5434600</v>
       </c>
       <c r="H8" s="3">
-        <v>5933600</v>
+        <v>5177400</v>
       </c>
       <c r="I8" s="3">
-        <v>4962200</v>
+        <v>6029400</v>
       </c>
       <c r="J8" s="3">
+        <v>5042300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6113700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5489600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6037700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6120900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6558500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7162400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6678100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6250200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3504500</v>
+        <v>3282300</v>
       </c>
       <c r="E9" s="3">
-        <v>3251900</v>
+        <v>3561100</v>
       </c>
       <c r="F9" s="3">
-        <v>3252000</v>
+        <v>3304400</v>
       </c>
       <c r="G9" s="3">
-        <v>2969200</v>
+        <v>3304500</v>
       </c>
       <c r="H9" s="3">
-        <v>3828300</v>
+        <v>3075500</v>
       </c>
       <c r="I9" s="3">
-        <v>3059800</v>
+        <v>3890100</v>
       </c>
       <c r="J9" s="3">
+        <v>3109200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3952000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3459500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4148400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4173600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4727200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5316600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4878500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4517300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2031900</v>
+        <v>1793000</v>
       </c>
       <c r="E10" s="3">
-        <v>2059200</v>
+        <v>2064700</v>
       </c>
       <c r="F10" s="3">
-        <v>2096200</v>
+        <v>2092500</v>
       </c>
       <c r="G10" s="3">
-        <v>2019300</v>
+        <v>2130100</v>
       </c>
       <c r="H10" s="3">
-        <v>2105300</v>
+        <v>2101900</v>
       </c>
       <c r="I10" s="3">
-        <v>1902400</v>
+        <v>2139300</v>
       </c>
       <c r="J10" s="3">
+        <v>1933100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2161700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2030100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1889300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1947200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1831300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1845700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1799600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1732900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +912,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,108 +1016,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23100</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
-        <v>4800</v>
+        <v>23500</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>4900</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
       </c>
       <c r="H14" s="3">
-        <v>22200</v>
+        <v>200</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>22600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>38400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>30100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>18400</v>
       </c>
       <c r="E15" s="3">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="F15" s="3">
-        <v>16600</v>
+        <v>17800</v>
       </c>
       <c r="G15" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="H15" s="3">
-        <v>12800</v>
+        <v>16700</v>
       </c>
       <c r="I15" s="3">
-        <v>12300</v>
+        <v>13000</v>
       </c>
       <c r="J15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K15" s="3">
         <v>10500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9900</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>11400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>11000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1117,108 +1142,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5230200</v>
+        <v>4645700</v>
       </c>
       <c r="E17" s="3">
-        <v>4614200</v>
+        <v>5314600</v>
       </c>
       <c r="F17" s="3">
-        <v>4548800</v>
+        <v>4688700</v>
       </c>
       <c r="G17" s="3">
-        <v>4285700</v>
+        <v>4622300</v>
       </c>
       <c r="H17" s="3">
-        <v>5271700</v>
+        <v>4463200</v>
       </c>
       <c r="I17" s="3">
-        <v>4376100</v>
+        <v>5356800</v>
       </c>
       <c r="J17" s="3">
+        <v>4446700</v>
+      </c>
+      <c r="K17" s="3">
         <v>5155900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4653400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5469000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5359200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5681200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6330900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5953800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5529800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>306200</v>
+        <v>429700</v>
       </c>
       <c r="E18" s="3">
-        <v>696900</v>
+        <v>311100</v>
       </c>
       <c r="F18" s="3">
-        <v>799400</v>
+        <v>708200</v>
       </c>
       <c r="G18" s="3">
-        <v>702800</v>
+        <v>812300</v>
       </c>
       <c r="H18" s="3">
-        <v>661900</v>
+        <v>714100</v>
       </c>
       <c r="I18" s="3">
-        <v>586100</v>
+        <v>672600</v>
       </c>
       <c r="J18" s="3">
+        <v>595600</v>
+      </c>
+      <c r="K18" s="3">
         <v>957800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>836200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>568700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>761700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>877300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>831500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>724300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>720400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1237,108 +1269,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>270700</v>
+        <v>208800</v>
       </c>
       <c r="E20" s="3">
-        <v>434900</v>
+        <v>275100</v>
       </c>
       <c r="F20" s="3">
-        <v>406100</v>
+        <v>441900</v>
       </c>
       <c r="G20" s="3">
-        <v>215600</v>
+        <v>412700</v>
       </c>
       <c r="H20" s="3">
-        <v>272300</v>
+        <v>219100</v>
       </c>
       <c r="I20" s="3">
-        <v>103400</v>
+        <v>276700</v>
       </c>
       <c r="J20" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K20" s="3">
         <v>64000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>172300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>109400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>213500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>180400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>394400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>81700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>298400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1323500</v>
+        <v>1364900</v>
       </c>
       <c r="E21" s="3">
-        <v>1818900</v>
+        <v>1344900</v>
       </c>
       <c r="F21" s="3">
-        <v>1909500</v>
+        <v>1848200</v>
       </c>
       <c r="G21" s="3">
-        <v>1607000</v>
+        <v>1940300</v>
       </c>
       <c r="H21" s="3">
-        <v>1655100</v>
+        <v>1632900</v>
       </c>
       <c r="I21" s="3">
-        <v>1384500</v>
+        <v>1681800</v>
       </c>
       <c r="J21" s="3">
+        <v>1406800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1694300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1652200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1376200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1600300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1668200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1822700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1389400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1580800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1387,108 +1426,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>576900</v>
+        <v>638400</v>
       </c>
       <c r="E23" s="3">
-        <v>1131800</v>
+        <v>586300</v>
       </c>
       <c r="F23" s="3">
-        <v>1205600</v>
+        <v>1150100</v>
       </c>
       <c r="G23" s="3">
-        <v>918400</v>
+        <v>1225000</v>
       </c>
       <c r="H23" s="3">
-        <v>934200</v>
+        <v>933200</v>
       </c>
       <c r="I23" s="3">
-        <v>689500</v>
+        <v>949300</v>
       </c>
       <c r="J23" s="3">
+        <v>700700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1021800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1008600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>678100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>975200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1057700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1225900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>806000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1018800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29600</v>
+        <v>162100</v>
       </c>
       <c r="E24" s="3">
-        <v>331500</v>
+        <v>92800</v>
       </c>
       <c r="F24" s="3">
-        <v>353100</v>
+        <v>336900</v>
       </c>
       <c r="G24" s="3">
-        <v>269000</v>
+        <v>358800</v>
       </c>
       <c r="H24" s="3">
-        <v>116600</v>
+        <v>273300</v>
       </c>
       <c r="I24" s="3">
-        <v>-76000</v>
+        <v>118500</v>
       </c>
       <c r="J24" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="K24" s="3">
         <v>310300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>281100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>135400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>142100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>348400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>403800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>336300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1537,108 +1585,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>547300</v>
+        <v>476300</v>
       </c>
       <c r="E26" s="3">
-        <v>800300</v>
+        <v>493500</v>
       </c>
       <c r="F26" s="3">
-        <v>852500</v>
+        <v>813200</v>
       </c>
       <c r="G26" s="3">
-        <v>649400</v>
+        <v>866200</v>
       </c>
       <c r="H26" s="3">
-        <v>817600</v>
+        <v>659900</v>
       </c>
       <c r="I26" s="3">
-        <v>765600</v>
+        <v>830800</v>
       </c>
       <c r="J26" s="3">
+        <v>777900</v>
+      </c>
+      <c r="K26" s="3">
         <v>711500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>727500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>542700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>833100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>709300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>822100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>506000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>682500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>542400</v>
+        <v>472500</v>
       </c>
       <c r="E27" s="3">
-        <v>791200</v>
+        <v>488400</v>
       </c>
       <c r="F27" s="3">
-        <v>835500</v>
+        <v>804000</v>
       </c>
       <c r="G27" s="3">
-        <v>643000</v>
+        <v>849000</v>
       </c>
       <c r="H27" s="3">
-        <v>813200</v>
+        <v>653300</v>
       </c>
       <c r="I27" s="3">
-        <v>753900</v>
+        <v>826400</v>
       </c>
       <c r="J27" s="3">
+        <v>766100</v>
+      </c>
+      <c r="K27" s="3">
         <v>697700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>726700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>513000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>817400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>689400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>811000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>497800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>665000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1687,37 +1744,40 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>62700</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1728,8 +1788,8 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1737,8 +1797,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1787,8 +1850,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1837,108 +1903,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-270700</v>
+        <v>-208800</v>
       </c>
       <c r="E32" s="3">
-        <v>-434900</v>
+        <v>-275100</v>
       </c>
       <c r="F32" s="3">
-        <v>-406100</v>
+        <v>-441900</v>
       </c>
       <c r="G32" s="3">
-        <v>-215600</v>
+        <v>-412700</v>
       </c>
       <c r="H32" s="3">
-        <v>-272300</v>
+        <v>-219100</v>
       </c>
       <c r="I32" s="3">
-        <v>-103400</v>
+        <v>-276700</v>
       </c>
       <c r="J32" s="3">
+        <v>-105100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-64000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-172300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-109400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-213500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-180400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-394400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-81700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-298400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>542400</v>
+        <v>472500</v>
       </c>
       <c r="E33" s="3">
-        <v>791200</v>
+        <v>551100</v>
       </c>
       <c r="F33" s="3">
-        <v>835500</v>
+        <v>804000</v>
       </c>
       <c r="G33" s="3">
-        <v>643000</v>
+        <v>849000</v>
       </c>
       <c r="H33" s="3">
-        <v>813200</v>
+        <v>653300</v>
       </c>
       <c r="I33" s="3">
-        <v>753900</v>
+        <v>826400</v>
       </c>
       <c r="J33" s="3">
+        <v>766100</v>
+      </c>
+      <c r="K33" s="3">
         <v>697700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>726700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>513000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>817400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>689400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>811000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>497800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>665000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1987,113 +2062,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>542400</v>
+        <v>472500</v>
       </c>
       <c r="E35" s="3">
-        <v>791200</v>
+        <v>551100</v>
       </c>
       <c r="F35" s="3">
-        <v>835500</v>
+        <v>804000</v>
       </c>
       <c r="G35" s="3">
-        <v>643000</v>
+        <v>849000</v>
       </c>
       <c r="H35" s="3">
-        <v>813200</v>
+        <v>653300</v>
       </c>
       <c r="I35" s="3">
-        <v>753900</v>
+        <v>826400</v>
       </c>
       <c r="J35" s="3">
+        <v>766100</v>
+      </c>
+      <c r="K35" s="3">
         <v>697700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>726700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>513000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>817400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>689400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>811000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>497800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>665000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2112,8 +2196,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2132,58 +2217,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10546800</v>
+        <v>11141500</v>
       </c>
       <c r="E41" s="3">
-        <v>9481500</v>
+        <v>10717100</v>
       </c>
       <c r="F41" s="3">
-        <v>10306700</v>
+        <v>9634500</v>
       </c>
       <c r="G41" s="3">
-        <v>10616900</v>
+        <v>10473100</v>
       </c>
       <c r="H41" s="3">
-        <v>11924500</v>
+        <v>10788300</v>
       </c>
       <c r="I41" s="3">
-        <v>12404000</v>
+        <v>12117000</v>
       </c>
       <c r="J41" s="3">
+        <v>12604300</v>
+      </c>
+      <c r="K41" s="3">
         <v>11656800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12061800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12702300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11964900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11518800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11731700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10051600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9284500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2232,108 +2321,117 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2377400</v>
+        <v>1886400</v>
       </c>
       <c r="E43" s="3">
-        <v>2039000</v>
+        <v>2415800</v>
       </c>
       <c r="F43" s="3">
-        <v>1899600</v>
+        <v>2071900</v>
       </c>
       <c r="G43" s="3">
-        <v>2167200</v>
+        <v>1930300</v>
       </c>
       <c r="H43" s="3">
-        <v>2067800</v>
+        <v>2202200</v>
       </c>
       <c r="I43" s="3">
-        <v>1899400</v>
+        <v>2101100</v>
       </c>
       <c r="J43" s="3">
+        <v>1930100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2040800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2255700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2170500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2281800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1973500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1850500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1988700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1868400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1170700</v>
+        <v>1222800</v>
       </c>
       <c r="E44" s="3">
-        <v>1225900</v>
+        <v>1189600</v>
       </c>
       <c r="F44" s="3">
-        <v>1173600</v>
+        <v>1245700</v>
       </c>
       <c r="G44" s="3">
-        <v>1163000</v>
+        <v>1192600</v>
       </c>
       <c r="H44" s="3">
-        <v>1074800</v>
+        <v>1181800</v>
       </c>
       <c r="I44" s="3">
-        <v>1347200</v>
+        <v>1092200</v>
       </c>
       <c r="J44" s="3">
+        <v>1369000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1220500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1117200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1003400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1246700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1174100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1116500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1045400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1265400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2382,8 +2480,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2432,108 +2533,117 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76247400</v>
+        <v>77697800</v>
       </c>
       <c r="E47" s="3">
-        <v>75912000</v>
+        <v>77478500</v>
       </c>
       <c r="F47" s="3">
-        <v>72772500</v>
+        <v>77137700</v>
       </c>
       <c r="G47" s="3">
-        <v>70835500</v>
+        <v>73947500</v>
       </c>
       <c r="H47" s="3">
-        <v>79345300</v>
+        <v>71979300</v>
       </c>
       <c r="I47" s="3">
-        <v>77565300</v>
+        <v>80626400</v>
       </c>
       <c r="J47" s="3">
+        <v>78817700</v>
+      </c>
+      <c r="K47" s="3">
         <v>75266400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>69855700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>69467000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>71014900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>70684000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>70420000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>69927900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70281800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7120000</v>
+        <v>7275000</v>
       </c>
       <c r="E48" s="3">
-        <v>6717800</v>
+        <v>7235000</v>
       </c>
       <c r="F48" s="3">
-        <v>6099300</v>
+        <v>6826200</v>
       </c>
       <c r="G48" s="3">
-        <v>6462200</v>
+        <v>6197800</v>
       </c>
       <c r="H48" s="3">
-        <v>5109700</v>
+        <v>6566500</v>
       </c>
       <c r="I48" s="3">
-        <v>5558000</v>
+        <v>5192200</v>
       </c>
       <c r="J48" s="3">
+        <v>5647800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5234600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5009900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4951600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4682600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4655100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4632500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4521200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4311900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2582,8 +2692,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2632,8 +2745,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2682,8 +2798,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2732,8 +2851,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2782,58 +2904,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>121397300</v>
+        <v>123593300</v>
       </c>
       <c r="E54" s="3">
-        <v>119311100</v>
+        <v>123357500</v>
       </c>
       <c r="F54" s="3">
-        <v>116227900</v>
+        <v>121237500</v>
       </c>
       <c r="G54" s="3">
-        <v>115241900</v>
+        <v>118104500</v>
       </c>
       <c r="H54" s="3">
-        <v>113105000</v>
+        <v>117102700</v>
       </c>
       <c r="I54" s="3">
-        <v>112611400</v>
+        <v>114931200</v>
       </c>
       <c r="J54" s="3">
+        <v>114429700</v>
+      </c>
+      <c r="K54" s="3">
         <v>109422700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>103370600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>103290900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104429300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103291400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102314200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>99626900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98834300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2852,8 +2980,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2872,158 +3001,168 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2626500</v>
+        <v>1801000</v>
       </c>
       <c r="E57" s="3">
-        <v>2107900</v>
+        <v>2668900</v>
       </c>
       <c r="F57" s="3">
-        <v>2163400</v>
+        <v>2141900</v>
       </c>
       <c r="G57" s="3">
-        <v>2060900</v>
+        <v>2198400</v>
       </c>
       <c r="H57" s="3">
-        <v>2726400</v>
+        <v>2094200</v>
       </c>
       <c r="I57" s="3">
-        <v>2171000</v>
+        <v>2770500</v>
       </c>
       <c r="J57" s="3">
+        <v>2206000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2131700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2416200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2371200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1898700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1915700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1891500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2233500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1846800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3129200</v>
+        <v>3560300</v>
       </c>
       <c r="E58" s="3">
-        <v>3568600</v>
+        <v>3179700</v>
       </c>
       <c r="F58" s="3">
-        <v>2553000</v>
+        <v>3626200</v>
       </c>
       <c r="G58" s="3">
-        <v>3128100</v>
+        <v>2594200</v>
       </c>
       <c r="H58" s="3">
-        <v>2875700</v>
+        <v>3178600</v>
       </c>
       <c r="I58" s="3">
-        <v>6027000</v>
+        <v>2922100</v>
       </c>
       <c r="J58" s="3">
+        <v>6124400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3014300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2165000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2773100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3241500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3034400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3398100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2514400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2628100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24043000</v>
+        <v>24890700</v>
       </c>
       <c r="E59" s="3">
-        <v>23596100</v>
+        <v>24431200</v>
       </c>
       <c r="F59" s="3">
-        <v>22865200</v>
+        <v>23977100</v>
       </c>
       <c r="G59" s="3">
-        <v>21881200</v>
+        <v>23234400</v>
       </c>
       <c r="H59" s="3">
-        <v>21214500</v>
+        <v>22234500</v>
       </c>
       <c r="I59" s="3">
-        <v>20926800</v>
+        <v>21557000</v>
       </c>
       <c r="J59" s="3">
+        <v>21264700</v>
+      </c>
+      <c r="K59" s="3">
         <v>21021000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19682100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19204700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19329900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19044800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18495000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18275000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17244500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3072,58 +3211,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39755200</v>
+        <v>40952200</v>
       </c>
       <c r="E61" s="3">
-        <v>38267200</v>
+        <v>40397100</v>
       </c>
       <c r="F61" s="3">
-        <v>37817800</v>
+        <v>38885000</v>
       </c>
       <c r="G61" s="3">
-        <v>38203100</v>
+        <v>38428400</v>
       </c>
       <c r="H61" s="3">
-        <v>38890000</v>
+        <v>38819900</v>
       </c>
       <c r="I61" s="3">
-        <v>36886400</v>
+        <v>39517900</v>
       </c>
       <c r="J61" s="3">
+        <v>37481900</v>
+      </c>
+      <c r="K61" s="3">
         <v>35869000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34202200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34591600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35174700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34962700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35088200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34193700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34384900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3172,8 +3317,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3222,8 +3370,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3272,8 +3423,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3322,58 +3476,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93586700</v>
+        <v>95885200</v>
       </c>
       <c r="E66" s="3">
-        <v>91363000</v>
+        <v>95097800</v>
       </c>
       <c r="F66" s="3">
-        <v>88710200</v>
+        <v>92838100</v>
       </c>
       <c r="G66" s="3">
-        <v>88421100</v>
+        <v>90142600</v>
       </c>
       <c r="H66" s="3">
-        <v>86191200</v>
+        <v>89848700</v>
       </c>
       <c r="I66" s="3">
-        <v>86436900</v>
+        <v>87582800</v>
       </c>
       <c r="J66" s="3">
+        <v>87832500</v>
+      </c>
+      <c r="K66" s="3">
         <v>83373800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78716600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79041800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80311500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79690300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79485200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77383600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>77218100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3392,8 +3552,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3442,8 +3603,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3492,8 +3656,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3542,8 +3709,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3592,58 +3762,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25588900</v>
+        <v>25583900</v>
       </c>
       <c r="E72" s="3">
-        <v>25046600</v>
+        <v>26002100</v>
       </c>
       <c r="F72" s="3">
-        <v>24672100</v>
+        <v>25451000</v>
       </c>
       <c r="G72" s="3">
-        <v>23836600</v>
+        <v>25070500</v>
       </c>
       <c r="H72" s="3">
-        <v>23741400</v>
+        <v>24221500</v>
       </c>
       <c r="I72" s="3">
-        <v>22947500</v>
+        <v>24124700</v>
       </c>
       <c r="J72" s="3">
+        <v>23318000</v>
+      </c>
+      <c r="K72" s="3">
         <v>22550800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21382600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20930200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20440400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19935700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19246400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18427200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17917900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3692,8 +3868,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3742,8 +3921,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3792,58 +3974,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27810600</v>
+        <v>27708000</v>
       </c>
       <c r="E76" s="3">
-        <v>27948100</v>
+        <v>28259700</v>
       </c>
       <c r="F76" s="3">
-        <v>27517700</v>
+        <v>28399400</v>
       </c>
       <c r="G76" s="3">
-        <v>26820900</v>
+        <v>27962000</v>
       </c>
       <c r="H76" s="3">
-        <v>26913800</v>
+        <v>27253900</v>
       </c>
       <c r="I76" s="3">
-        <v>26174600</v>
+        <v>27348400</v>
       </c>
       <c r="J76" s="3">
+        <v>26597200</v>
+      </c>
+      <c r="K76" s="3">
         <v>26048900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24653900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24249100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24117900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23601100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22829000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22243300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21616300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3892,113 +4080,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>542400</v>
+        <v>472500</v>
       </c>
       <c r="E81" s="3">
-        <v>791200</v>
+        <v>551100</v>
       </c>
       <c r="F81" s="3">
-        <v>835500</v>
+        <v>804000</v>
       </c>
       <c r="G81" s="3">
-        <v>643000</v>
+        <v>849000</v>
       </c>
       <c r="H81" s="3">
-        <v>813200</v>
+        <v>653300</v>
       </c>
       <c r="I81" s="3">
-        <v>753900</v>
+        <v>826400</v>
       </c>
       <c r="J81" s="3">
+        <v>766100</v>
+      </c>
+      <c r="K81" s="3">
         <v>697700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>726700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>513000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>817400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>689400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>811000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>497800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>665000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4017,58 +4214,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>746500</v>
+        <v>726400</v>
       </c>
       <c r="E83" s="3">
-        <v>687100</v>
+        <v>758600</v>
       </c>
       <c r="F83" s="3">
-        <v>703900</v>
+        <v>698200</v>
       </c>
       <c r="G83" s="3">
-        <v>688500</v>
+        <v>715300</v>
       </c>
       <c r="H83" s="3">
-        <v>720900</v>
+        <v>699700</v>
       </c>
       <c r="I83" s="3">
-        <v>694900</v>
+        <v>732500</v>
       </c>
       <c r="J83" s="3">
+        <v>706100</v>
+      </c>
+      <c r="K83" s="3">
         <v>672500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>643600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>698100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>625100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>610500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>596800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>583400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>562000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4117,8 +4318,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4167,8 +4371,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4217,8 +4424,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4267,8 +4477,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4317,58 +4530,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2989300</v>
+        <v>1718200</v>
       </c>
       <c r="E89" s="3">
-        <v>1745000</v>
+        <v>3037600</v>
       </c>
       <c r="F89" s="3">
-        <v>3290700</v>
+        <v>1773200</v>
       </c>
       <c r="G89" s="3">
-        <v>1659500</v>
+        <v>3343800</v>
       </c>
       <c r="H89" s="3">
-        <v>1914400</v>
+        <v>1686300</v>
       </c>
       <c r="I89" s="3">
-        <v>1004000</v>
+        <v>1945300</v>
       </c>
       <c r="J89" s="3">
+        <v>1020200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1637600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>884100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1772000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1193700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1172300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>803500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1250000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>994000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4387,58 +4606,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-181600</v>
+        <v>-87700</v>
       </c>
       <c r="E91" s="3">
-        <v>-118900</v>
+        <v>-184600</v>
       </c>
       <c r="F91" s="3">
-        <v>-63300</v>
+        <v>-120800</v>
       </c>
       <c r="G91" s="3">
-        <v>-49300</v>
+        <v>-64300</v>
       </c>
       <c r="H91" s="3">
-        <v>-103000</v>
+        <v>-50100</v>
       </c>
       <c r="I91" s="3">
-        <v>-125700</v>
+        <v>-104600</v>
       </c>
       <c r="J91" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-198600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-147500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-155900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-197500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-222200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-148500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4487,8 +4710,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4537,58 +4763,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3556500</v>
+        <v>-2239300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3569000</v>
+        <v>-3613900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3426700</v>
+        <v>-3626600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3108600</v>
+        <v>-3482100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1641500</v>
+        <v>-3158800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3801700</v>
+        <v>-1668000</v>
       </c>
       <c r="J94" s="3">
+        <v>-3863100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>32500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-760600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>116900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4607,58 +4839,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-486100</v>
       </c>
       <c r="E96" s="3">
-        <v>-416800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-423500</v>
       </c>
       <c r="G96" s="3">
-        <v>-547800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-556600</v>
       </c>
       <c r="I96" s="3">
-        <v>-357200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-363000</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-454400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-312700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-345000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-267500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4707,8 +4943,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4757,8 +4996,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4807,154 +5049,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1674000</v>
+        <v>943700</v>
       </c>
       <c r="E100" s="3">
-        <v>946000</v>
+        <v>1701100</v>
       </c>
       <c r="F100" s="3">
-        <v>-138400</v>
+        <v>961300</v>
       </c>
       <c r="G100" s="3">
-        <v>200400</v>
+        <v>-140600</v>
       </c>
       <c r="H100" s="3">
-        <v>-744100</v>
+        <v>203600</v>
       </c>
       <c r="I100" s="3">
-        <v>3613600</v>
+        <v>-756100</v>
       </c>
       <c r="J100" s="3">
+        <v>3671900</v>
+      </c>
+      <c r="K100" s="3">
         <v>352000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-330300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>571200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>434300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>622800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>713600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-108100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41500</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>52700</v>
+        <v>-42200</v>
       </c>
       <c r="F101" s="3">
-        <v>-35700</v>
+        <v>53600</v>
       </c>
       <c r="G101" s="3">
-        <v>-58900</v>
+        <v>-36300</v>
       </c>
       <c r="H101" s="3">
-        <v>-8400</v>
+        <v>-59900</v>
       </c>
       <c r="I101" s="3">
-        <v>-68700</v>
+        <v>-8500</v>
       </c>
       <c r="J101" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="K101" s="3">
         <v>49100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-82800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>42100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>41400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>141000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1065300</v>
+        <v>424400</v>
       </c>
       <c r="E102" s="3">
-        <v>-825200</v>
+        <v>1082500</v>
       </c>
       <c r="F102" s="3">
-        <v>-310200</v>
+        <v>-838600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1307600</v>
+        <v>-315200</v>
       </c>
       <c r="H102" s="3">
-        <v>-479500</v>
+        <v>-1328700</v>
       </c>
       <c r="I102" s="3">
-        <v>747200</v>
+        <v>-487300</v>
       </c>
       <c r="J102" s="3">
+        <v>759200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-670400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-710700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>798800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>424100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-166800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1487500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>874100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-181900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,247 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5075300</v>
+        <v>5257600</v>
       </c>
       <c r="E8" s="3">
-        <v>5625800</v>
+        <v>5166700</v>
       </c>
       <c r="F8" s="3">
-        <v>5396900</v>
+        <v>5727100</v>
       </c>
       <c r="G8" s="3">
-        <v>5434600</v>
+        <v>5494000</v>
       </c>
       <c r="H8" s="3">
-        <v>5177400</v>
+        <v>5641000</v>
       </c>
       <c r="I8" s="3">
-        <v>6029400</v>
+        <v>5270600</v>
       </c>
       <c r="J8" s="3">
+        <v>6138000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5042300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6113700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5489600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6037700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6120900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6558500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7162400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6678100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6250200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3282300</v>
+        <v>3236500</v>
       </c>
       <c r="E9" s="3">
-        <v>3561100</v>
+        <v>3341400</v>
       </c>
       <c r="F9" s="3">
-        <v>3304400</v>
+        <v>3625200</v>
       </c>
       <c r="G9" s="3">
-        <v>3304500</v>
+        <v>3363900</v>
       </c>
       <c r="H9" s="3">
-        <v>3075500</v>
+        <v>3425000</v>
       </c>
       <c r="I9" s="3">
-        <v>3890100</v>
+        <v>3130900</v>
       </c>
       <c r="J9" s="3">
+        <v>3960200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3109200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3952000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3459500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4148400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4173600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4727200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5316600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4878500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4517300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1793000</v>
+        <v>2021100</v>
       </c>
       <c r="E10" s="3">
-        <v>2064700</v>
+        <v>1825300</v>
       </c>
       <c r="F10" s="3">
-        <v>2092500</v>
+        <v>2101900</v>
       </c>
       <c r="G10" s="3">
         <v>2130100</v>
       </c>
       <c r="H10" s="3">
-        <v>2101900</v>
+        <v>2216000</v>
       </c>
       <c r="I10" s="3">
-        <v>2139300</v>
+        <v>2139700</v>
       </c>
       <c r="J10" s="3">
+        <v>2177800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1933100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2161700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2030100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1889300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1947200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1831300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1845700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1799600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1732900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +925,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -966,8 +979,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1019,114 +1035,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="E14" s="3">
-        <v>23500</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="3">
-        <v>4900</v>
+        <v>23900</v>
       </c>
       <c r="G14" s="3">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
       </c>
       <c r="I14" s="3">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>22600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>22600</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>38400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>30100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18400</v>
+        <v>20400</v>
       </c>
       <c r="E15" s="3">
-        <v>21500</v>
+        <v>18800</v>
       </c>
       <c r="F15" s="3">
-        <v>17800</v>
+        <v>21900</v>
       </c>
       <c r="G15" s="3">
-        <v>16800</v>
+        <v>18100</v>
       </c>
       <c r="H15" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="I15" s="3">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="J15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K15" s="3">
         <v>12500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9900</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>11400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>11900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1143,114 +1168,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4645700</v>
+        <v>4543400</v>
       </c>
       <c r="E17" s="3">
-        <v>5314600</v>
+        <v>4729300</v>
       </c>
       <c r="F17" s="3">
-        <v>4688700</v>
+        <v>5410300</v>
       </c>
       <c r="G17" s="3">
-        <v>4622300</v>
+        <v>4773100</v>
       </c>
       <c r="H17" s="3">
-        <v>4463200</v>
+        <v>4814100</v>
       </c>
       <c r="I17" s="3">
-        <v>5356800</v>
+        <v>4543600</v>
       </c>
       <c r="J17" s="3">
+        <v>5453200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4446700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5155900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4653400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5469000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5359200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5681200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6330900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5953800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5529800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>429700</v>
+        <v>714200</v>
       </c>
       <c r="E18" s="3">
-        <v>311100</v>
+        <v>437400</v>
       </c>
       <c r="F18" s="3">
-        <v>708200</v>
+        <v>316700</v>
       </c>
       <c r="G18" s="3">
-        <v>812300</v>
+        <v>720900</v>
       </c>
       <c r="H18" s="3">
-        <v>714100</v>
+        <v>827000</v>
       </c>
       <c r="I18" s="3">
-        <v>672600</v>
+        <v>727000</v>
       </c>
       <c r="J18" s="3">
+        <v>684800</v>
+      </c>
+      <c r="K18" s="3">
         <v>595600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>957800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>836200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>568700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>761700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>877300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>831500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>724300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>720400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1270,114 +1302,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>208800</v>
+        <v>-74800</v>
       </c>
       <c r="E20" s="3">
-        <v>275100</v>
+        <v>212500</v>
       </c>
       <c r="F20" s="3">
-        <v>441900</v>
+        <v>280100</v>
       </c>
       <c r="G20" s="3">
-        <v>412700</v>
+        <v>449800</v>
       </c>
       <c r="H20" s="3">
-        <v>219100</v>
+        <v>420100</v>
       </c>
       <c r="I20" s="3">
-        <v>276700</v>
+        <v>223000</v>
       </c>
       <c r="J20" s="3">
+        <v>281600</v>
+      </c>
+      <c r="K20" s="3">
         <v>105100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>64000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>172300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>109400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>213500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>180400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>394400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>81700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>298400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1364900</v>
+        <v>1389300</v>
       </c>
       <c r="E21" s="3">
-        <v>1344900</v>
+        <v>1389400</v>
       </c>
       <c r="F21" s="3">
-        <v>1848200</v>
+        <v>1369100</v>
       </c>
       <c r="G21" s="3">
-        <v>1940300</v>
+        <v>1881500</v>
       </c>
       <c r="H21" s="3">
-        <v>1632900</v>
+        <v>1975200</v>
       </c>
       <c r="I21" s="3">
-        <v>1681800</v>
+        <v>1662300</v>
       </c>
       <c r="J21" s="3">
+        <v>1712100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1406800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1694300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1652200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1376200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1600300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1668200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1822700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1389400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1580800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1429,114 +1468,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>638400</v>
+        <v>639500</v>
       </c>
       <c r="E23" s="3">
-        <v>586300</v>
+        <v>649900</v>
       </c>
       <c r="F23" s="3">
-        <v>1150100</v>
+        <v>596800</v>
       </c>
       <c r="G23" s="3">
-        <v>1225000</v>
+        <v>1170800</v>
       </c>
       <c r="H23" s="3">
-        <v>933200</v>
+        <v>1247100</v>
       </c>
       <c r="I23" s="3">
-        <v>949300</v>
+        <v>950000</v>
       </c>
       <c r="J23" s="3">
+        <v>966400</v>
+      </c>
+      <c r="K23" s="3">
         <v>700700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1021800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1008600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>678100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>975200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1057700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1225900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>806000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1018800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>162100</v>
+        <v>206700</v>
       </c>
       <c r="E24" s="3">
-        <v>92800</v>
+        <v>165100</v>
       </c>
       <c r="F24" s="3">
-        <v>336900</v>
+        <v>94500</v>
       </c>
       <c r="G24" s="3">
-        <v>358800</v>
+        <v>342900</v>
       </c>
       <c r="H24" s="3">
-        <v>273300</v>
+        <v>365300</v>
       </c>
       <c r="I24" s="3">
-        <v>118500</v>
+        <v>278300</v>
       </c>
       <c r="J24" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-77300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>310300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>281100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>135400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>142100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>348400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>403800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>336300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1588,114 +1636,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>476300</v>
+        <v>432800</v>
       </c>
       <c r="E26" s="3">
-        <v>493500</v>
+        <v>484900</v>
       </c>
       <c r="F26" s="3">
-        <v>813200</v>
+        <v>502300</v>
       </c>
       <c r="G26" s="3">
-        <v>866200</v>
+        <v>827900</v>
       </c>
       <c r="H26" s="3">
-        <v>659900</v>
+        <v>881800</v>
       </c>
       <c r="I26" s="3">
-        <v>830800</v>
+        <v>671800</v>
       </c>
       <c r="J26" s="3">
+        <v>845800</v>
+      </c>
+      <c r="K26" s="3">
         <v>777900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>711500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>727500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>542700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>833100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>709300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>822100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>506000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>682500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>472500</v>
+        <v>420900</v>
       </c>
       <c r="E27" s="3">
-        <v>488400</v>
+        <v>481000</v>
       </c>
       <c r="F27" s="3">
-        <v>804000</v>
+        <v>497200</v>
       </c>
       <c r="G27" s="3">
-        <v>849000</v>
+        <v>818500</v>
       </c>
       <c r="H27" s="3">
-        <v>653300</v>
+        <v>864300</v>
       </c>
       <c r="I27" s="3">
-        <v>826400</v>
+        <v>665100</v>
       </c>
       <c r="J27" s="3">
+        <v>841200</v>
+      </c>
+      <c r="K27" s="3">
         <v>766100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>697700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>726700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>513000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>817400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>689400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>811000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>497800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>665000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1747,19 +1804,22 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>62700</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>63800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1773,14 +1833,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1791,8 +1851,8 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1800,8 +1860,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1853,8 +1916,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1906,114 +1972,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-208800</v>
+        <v>74800</v>
       </c>
       <c r="E32" s="3">
-        <v>-275100</v>
+        <v>-212500</v>
       </c>
       <c r="F32" s="3">
-        <v>-441900</v>
+        <v>-280100</v>
       </c>
       <c r="G32" s="3">
-        <v>-412700</v>
+        <v>-449800</v>
       </c>
       <c r="H32" s="3">
-        <v>-219100</v>
+        <v>-420100</v>
       </c>
       <c r="I32" s="3">
-        <v>-276700</v>
+        <v>-223000</v>
       </c>
       <c r="J32" s="3">
+        <v>-281600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-105100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-64000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-172300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-109400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-213500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-180400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-394400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-81700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-298400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>472500</v>
+        <v>420900</v>
       </c>
       <c r="E33" s="3">
-        <v>551100</v>
+        <v>481000</v>
       </c>
       <c r="F33" s="3">
-        <v>804000</v>
+        <v>561000</v>
       </c>
       <c r="G33" s="3">
-        <v>849000</v>
+        <v>818500</v>
       </c>
       <c r="H33" s="3">
-        <v>653300</v>
+        <v>864300</v>
       </c>
       <c r="I33" s="3">
-        <v>826400</v>
+        <v>665100</v>
       </c>
       <c r="J33" s="3">
+        <v>841200</v>
+      </c>
+      <c r="K33" s="3">
         <v>766100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>697700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>726700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>513000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>817400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>689400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>811000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>497800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>665000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2065,119 +2140,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>472500</v>
+        <v>420900</v>
       </c>
       <c r="E35" s="3">
-        <v>551100</v>
+        <v>481000</v>
       </c>
       <c r="F35" s="3">
-        <v>804000</v>
+        <v>561000</v>
       </c>
       <c r="G35" s="3">
-        <v>849000</v>
+        <v>818500</v>
       </c>
       <c r="H35" s="3">
-        <v>653300</v>
+        <v>864300</v>
       </c>
       <c r="I35" s="3">
-        <v>826400</v>
+        <v>665100</v>
       </c>
       <c r="J35" s="3">
+        <v>841200</v>
+      </c>
+      <c r="K35" s="3">
         <v>766100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>697700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>726700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>513000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>817400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>689400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>811000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>497800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>665000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2197,8 +2281,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2218,61 +2303,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11141500</v>
+        <v>12563200</v>
       </c>
       <c r="E41" s="3">
-        <v>10717100</v>
+        <v>11342100</v>
       </c>
       <c r="F41" s="3">
-        <v>9634500</v>
+        <v>10910100</v>
       </c>
       <c r="G41" s="3">
-        <v>10473100</v>
+        <v>9808100</v>
       </c>
       <c r="H41" s="3">
-        <v>10788300</v>
+        <v>10661700</v>
       </c>
       <c r="I41" s="3">
-        <v>12117000</v>
+        <v>10982600</v>
       </c>
       <c r="J41" s="3">
+        <v>12335200</v>
+      </c>
+      <c r="K41" s="3">
         <v>12604300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11656800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12061800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12702300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11964900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11518800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11731700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10051600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9284500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2324,114 +2413,123 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1886400</v>
+        <v>1618900</v>
       </c>
       <c r="E43" s="3">
-        <v>2415800</v>
+        <v>1920400</v>
       </c>
       <c r="F43" s="3">
-        <v>2071900</v>
+        <v>2459300</v>
       </c>
       <c r="G43" s="3">
-        <v>1930300</v>
+        <v>2109200</v>
       </c>
       <c r="H43" s="3">
-        <v>2202200</v>
+        <v>1965100</v>
       </c>
       <c r="I43" s="3">
-        <v>2101100</v>
+        <v>2241800</v>
       </c>
       <c r="J43" s="3">
+        <v>2139000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1930100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2040800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2255700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2170500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2281800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1973500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1850500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1988700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1868400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1222800</v>
+        <v>1299600</v>
       </c>
       <c r="E44" s="3">
-        <v>1189600</v>
+        <v>1244900</v>
       </c>
       <c r="F44" s="3">
-        <v>1245700</v>
+        <v>1211000</v>
       </c>
       <c r="G44" s="3">
-        <v>1192600</v>
+        <v>1268100</v>
       </c>
       <c r="H44" s="3">
-        <v>1181800</v>
+        <v>1214100</v>
       </c>
       <c r="I44" s="3">
-        <v>1092200</v>
+        <v>1203100</v>
       </c>
       <c r="J44" s="3">
+        <v>1111800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1369000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1220500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1117200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1003400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1246700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1174100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1116500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1045400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1265400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2483,8 +2581,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2536,114 +2637,123 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77697800</v>
+        <v>79273600</v>
       </c>
       <c r="E47" s="3">
-        <v>77478500</v>
+        <v>79097000</v>
       </c>
       <c r="F47" s="3">
-        <v>77137700</v>
+        <v>78873800</v>
       </c>
       <c r="G47" s="3">
-        <v>73947500</v>
+        <v>78526900</v>
       </c>
       <c r="H47" s="3">
-        <v>71979300</v>
+        <v>75279200</v>
       </c>
       <c r="I47" s="3">
-        <v>80626400</v>
+        <v>73275500</v>
       </c>
       <c r="J47" s="3">
+        <v>82078400</v>
+      </c>
+      <c r="K47" s="3">
         <v>78817700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75266400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>69855700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>69467000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71014900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>70684000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70420000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>69927900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>70281800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7275000</v>
+        <v>7286200</v>
       </c>
       <c r="E48" s="3">
-        <v>7235000</v>
+        <v>7406100</v>
       </c>
       <c r="F48" s="3">
-        <v>6826200</v>
+        <v>7365200</v>
       </c>
       <c r="G48" s="3">
-        <v>6197800</v>
+        <v>6949200</v>
       </c>
       <c r="H48" s="3">
-        <v>6566500</v>
+        <v>6309400</v>
       </c>
       <c r="I48" s="3">
-        <v>5192200</v>
+        <v>6684800</v>
       </c>
       <c r="J48" s="3">
+        <v>5285700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5647800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5234600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5009900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4951600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4682600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4655100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4632500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4521200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4311900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2695,8 +2805,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2748,8 +2861,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2801,8 +2917,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2854,8 +2973,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2907,61 +3029,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>123593300</v>
+        <v>126545200</v>
       </c>
       <c r="E54" s="3">
-        <v>123357500</v>
+        <v>125819000</v>
       </c>
       <c r="F54" s="3">
-        <v>121237500</v>
+        <v>125578900</v>
       </c>
       <c r="G54" s="3">
-        <v>118104500</v>
+        <v>123420800</v>
       </c>
       <c r="H54" s="3">
-        <v>117102700</v>
+        <v>120231400</v>
       </c>
       <c r="I54" s="3">
-        <v>114931200</v>
+        <v>119211500</v>
       </c>
       <c r="J54" s="3">
+        <v>117001000</v>
+      </c>
+      <c r="K54" s="3">
         <v>114429700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109422700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>103370600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103290900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104429300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>103291400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>102314200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>99626900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98834300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2981,8 +3109,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3002,167 +3131,177 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1801000</v>
+        <v>1893800</v>
       </c>
       <c r="E57" s="3">
-        <v>2668900</v>
+        <v>1833400</v>
       </c>
       <c r="F57" s="3">
-        <v>2141900</v>
+        <v>2717000</v>
       </c>
       <c r="G57" s="3">
-        <v>2198400</v>
+        <v>2180500</v>
       </c>
       <c r="H57" s="3">
-        <v>2094200</v>
+        <v>2237900</v>
       </c>
       <c r="I57" s="3">
-        <v>2770500</v>
+        <v>2131900</v>
       </c>
       <c r="J57" s="3">
+        <v>2820300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2206000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2131700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2416200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2371200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1898700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1915700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1891500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2233500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1846800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3560300</v>
+        <v>3474300</v>
       </c>
       <c r="E58" s="3">
-        <v>3179700</v>
+        <v>3624400</v>
       </c>
       <c r="F58" s="3">
-        <v>3626200</v>
+        <v>3237000</v>
       </c>
       <c r="G58" s="3">
-        <v>2594200</v>
+        <v>3691500</v>
       </c>
       <c r="H58" s="3">
-        <v>3178600</v>
+        <v>2641000</v>
       </c>
       <c r="I58" s="3">
-        <v>2922100</v>
+        <v>3235800</v>
       </c>
       <c r="J58" s="3">
+        <v>2974800</v>
+      </c>
+      <c r="K58" s="3">
         <v>6124400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3014300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2165000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2773100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3241500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3034400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3398100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2514400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2628100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24890700</v>
+        <v>25716600</v>
       </c>
       <c r="E59" s="3">
-        <v>24431200</v>
+        <v>25338900</v>
       </c>
       <c r="F59" s="3">
-        <v>23977100</v>
+        <v>24871200</v>
       </c>
       <c r="G59" s="3">
-        <v>23234400</v>
+        <v>24408900</v>
       </c>
       <c r="H59" s="3">
-        <v>22234500</v>
+        <v>23652800</v>
       </c>
       <c r="I59" s="3">
-        <v>21557000</v>
+        <v>22634900</v>
       </c>
       <c r="J59" s="3">
+        <v>21945200</v>
+      </c>
+      <c r="K59" s="3">
         <v>21264700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21021000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19682100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19204700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19329900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19044800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18495000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18275000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17244500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3214,61 +3353,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40952200</v>
+        <v>40971900</v>
       </c>
       <c r="E61" s="3">
-        <v>40397100</v>
+        <v>41689700</v>
       </c>
       <c r="F61" s="3">
-        <v>38885000</v>
+        <v>41124600</v>
       </c>
       <c r="G61" s="3">
-        <v>38428400</v>
+        <v>39585300</v>
       </c>
       <c r="H61" s="3">
-        <v>38819900</v>
+        <v>39120400</v>
       </c>
       <c r="I61" s="3">
-        <v>39517900</v>
+        <v>39519000</v>
       </c>
       <c r="J61" s="3">
+        <v>40229600</v>
+      </c>
+      <c r="K61" s="3">
         <v>37481900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35869000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34202200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34591600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35174700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34962700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35088200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34193700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34384900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3320,8 +3465,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3373,8 +3521,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3426,8 +3577,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3479,61 +3633,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95885200</v>
+        <v>97910400</v>
       </c>
       <c r="E66" s="3">
-        <v>95097800</v>
+        <v>97612000</v>
       </c>
       <c r="F66" s="3">
-        <v>92838100</v>
+        <v>96810400</v>
       </c>
       <c r="G66" s="3">
-        <v>90142600</v>
+        <v>94510000</v>
       </c>
       <c r="H66" s="3">
-        <v>89848700</v>
+        <v>91765900</v>
       </c>
       <c r="I66" s="3">
-        <v>87582800</v>
+        <v>91466800</v>
       </c>
       <c r="J66" s="3">
+        <v>89160100</v>
+      </c>
+      <c r="K66" s="3">
         <v>87832500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83373800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78716600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79041800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>80311500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79690300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79485200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>77383600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77218100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3553,8 +3713,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3606,8 +3767,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3659,8 +3823,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3712,8 +3879,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3765,61 +3935,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25583900</v>
+        <v>26465500</v>
       </c>
       <c r="E72" s="3">
-        <v>26002100</v>
+        <v>26044600</v>
       </c>
       <c r="F72" s="3">
-        <v>25451000</v>
+        <v>26470400</v>
       </c>
       <c r="G72" s="3">
-        <v>25070500</v>
+        <v>25909300</v>
       </c>
       <c r="H72" s="3">
-        <v>24221500</v>
+        <v>25522000</v>
       </c>
       <c r="I72" s="3">
-        <v>24124700</v>
+        <v>24657700</v>
       </c>
       <c r="J72" s="3">
+        <v>24559200</v>
+      </c>
+      <c r="K72" s="3">
         <v>23318000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22550800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21382600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20930200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20440400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19935700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19246400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18427200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17917900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3871,8 +4047,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3924,8 +4103,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3977,61 +4159,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27708000</v>
+        <v>28634800</v>
       </c>
       <c r="E76" s="3">
-        <v>28259700</v>
+        <v>28207000</v>
       </c>
       <c r="F76" s="3">
-        <v>28399400</v>
+        <v>28768600</v>
       </c>
       <c r="G76" s="3">
-        <v>27962000</v>
+        <v>28910800</v>
       </c>
       <c r="H76" s="3">
-        <v>27253900</v>
+        <v>28465500</v>
       </c>
       <c r="I76" s="3">
-        <v>27348400</v>
+        <v>27744700</v>
       </c>
       <c r="J76" s="3">
+        <v>27840900</v>
+      </c>
+      <c r="K76" s="3">
         <v>26597200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26048900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24653900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24249100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24117900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23601100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22829000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22243300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21616300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4083,119 +4271,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>472500</v>
+        <v>420900</v>
       </c>
       <c r="E81" s="3">
-        <v>551100</v>
+        <v>481000</v>
       </c>
       <c r="F81" s="3">
-        <v>804000</v>
+        <v>561000</v>
       </c>
       <c r="G81" s="3">
-        <v>849000</v>
+        <v>818500</v>
       </c>
       <c r="H81" s="3">
-        <v>653300</v>
+        <v>864300</v>
       </c>
       <c r="I81" s="3">
-        <v>826400</v>
+        <v>665100</v>
       </c>
       <c r="J81" s="3">
+        <v>841200</v>
+      </c>
+      <c r="K81" s="3">
         <v>766100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>697700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>726700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>513000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>817400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>689400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>811000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>497800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>665000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4215,61 +4412,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>726400</v>
+        <v>749800</v>
       </c>
       <c r="E83" s="3">
-        <v>758600</v>
+        <v>739500</v>
       </c>
       <c r="F83" s="3">
-        <v>698200</v>
+        <v>772300</v>
       </c>
       <c r="G83" s="3">
-        <v>715300</v>
+        <v>710700</v>
       </c>
       <c r="H83" s="3">
-        <v>699700</v>
+        <v>728100</v>
       </c>
       <c r="I83" s="3">
-        <v>732500</v>
+        <v>712300</v>
       </c>
       <c r="J83" s="3">
+        <v>745700</v>
+      </c>
+      <c r="K83" s="3">
         <v>706100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>672500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>643600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>698100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>625100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>610500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>596800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>583400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>562000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4321,8 +4522,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4374,8 +4578,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4427,8 +4634,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4480,8 +4690,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4533,61 +4746,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1718200</v>
+        <v>3245800</v>
       </c>
       <c r="E89" s="3">
-        <v>3037600</v>
+        <v>1749200</v>
       </c>
       <c r="F89" s="3">
-        <v>1773200</v>
+        <v>3092300</v>
       </c>
       <c r="G89" s="3">
-        <v>3343800</v>
+        <v>1805100</v>
       </c>
       <c r="H89" s="3">
-        <v>1686300</v>
+        <v>3404000</v>
       </c>
       <c r="I89" s="3">
-        <v>1945300</v>
+        <v>1716700</v>
       </c>
       <c r="J89" s="3">
+        <v>1980300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1020200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1637600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>884100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1772000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1193700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1172300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>803500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1250000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>994000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4607,61 +4826,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-87700</v>
+        <v>-164400</v>
       </c>
       <c r="E91" s="3">
-        <v>-184600</v>
+        <v>-89200</v>
       </c>
       <c r="F91" s="3">
-        <v>-120800</v>
+        <v>-187900</v>
       </c>
       <c r="G91" s="3">
-        <v>-64300</v>
+        <v>-123000</v>
       </c>
       <c r="H91" s="3">
-        <v>-50100</v>
+        <v>-65400</v>
       </c>
       <c r="I91" s="3">
-        <v>-104600</v>
+        <v>-51000</v>
       </c>
       <c r="J91" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-127700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-198600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-147500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-155900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-197500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-222200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-148500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4713,8 +4936,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4766,61 +4992,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2239300</v>
+        <v>-1758000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3613900</v>
+        <v>-2279600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3626600</v>
+        <v>-3679000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3482100</v>
+        <v>-3691900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3158800</v>
+        <v>-3544800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1668000</v>
+        <v>-3215700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1698000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>32500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-760600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>116900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4840,61 +5072,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-486100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-494800</v>
       </c>
       <c r="F96" s="3">
-        <v>-423500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-431100</v>
       </c>
       <c r="H96" s="3">
-        <v>-556600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-566600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-363000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-454400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-312700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-345000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-267500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4946,8 +5182,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4999,8 +5238,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5052,163 +5294,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>943700</v>
+        <v>-267300</v>
       </c>
       <c r="E100" s="3">
-        <v>1701100</v>
+        <v>960700</v>
       </c>
       <c r="F100" s="3">
-        <v>961300</v>
+        <v>1731700</v>
       </c>
       <c r="G100" s="3">
-        <v>-140600</v>
+        <v>978600</v>
       </c>
       <c r="H100" s="3">
-        <v>203600</v>
+        <v>-143200</v>
       </c>
       <c r="I100" s="3">
-        <v>-756100</v>
+        <v>207300</v>
       </c>
       <c r="J100" s="3">
+        <v>-769700</v>
+      </c>
+      <c r="K100" s="3">
         <v>3671900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>352000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-330300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>571200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>434300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>622800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>713600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-108100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-42200</v>
-      </c>
       <c r="F101" s="3">
-        <v>53600</v>
+        <v>-42900</v>
       </c>
       <c r="G101" s="3">
-        <v>-36300</v>
+        <v>54500</v>
       </c>
       <c r="H101" s="3">
-        <v>-59900</v>
+        <v>-37000</v>
       </c>
       <c r="I101" s="3">
-        <v>-8500</v>
+        <v>-60900</v>
       </c>
       <c r="J101" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-69800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>49100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-82800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>42100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>41400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>141000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>424400</v>
+        <v>1221100</v>
       </c>
       <c r="E102" s="3">
-        <v>1082500</v>
+        <v>432100</v>
       </c>
       <c r="F102" s="3">
-        <v>-838600</v>
+        <v>1102000</v>
       </c>
       <c r="G102" s="3">
-        <v>-315200</v>
+        <v>-853700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1328700</v>
+        <v>-320900</v>
       </c>
       <c r="I102" s="3">
-        <v>-487300</v>
+        <v>-1352600</v>
       </c>
       <c r="J102" s="3">
+        <v>-496100</v>
+      </c>
+      <c r="K102" s="3">
         <v>759200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-670400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-710700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>798800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>424100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-166800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1487500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>874100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-181900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,247 +665,259 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5257600</v>
+        <v>5321600</v>
       </c>
       <c r="E8" s="3">
-        <v>5166700</v>
+        <v>5011400</v>
       </c>
       <c r="F8" s="3">
-        <v>5727100</v>
+        <v>4924800</v>
       </c>
       <c r="G8" s="3">
-        <v>5494000</v>
+        <v>5458900</v>
       </c>
       <c r="H8" s="3">
-        <v>5641000</v>
+        <v>5236800</v>
       </c>
       <c r="I8" s="3">
-        <v>5270600</v>
+        <v>5376900</v>
       </c>
       <c r="J8" s="3">
+        <v>5023800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6138000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5042300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6113700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5489600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6037700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6120900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6558500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7162400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6678100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6250200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3236500</v>
+        <v>3313900</v>
       </c>
       <c r="E9" s="3">
-        <v>3341400</v>
+        <v>3085000</v>
       </c>
       <c r="F9" s="3">
-        <v>3625200</v>
+        <v>3185000</v>
       </c>
       <c r="G9" s="3">
-        <v>3363900</v>
+        <v>3455500</v>
       </c>
       <c r="H9" s="3">
-        <v>3425000</v>
+        <v>3206400</v>
       </c>
       <c r="I9" s="3">
-        <v>3130900</v>
+        <v>3264600</v>
       </c>
       <c r="J9" s="3">
+        <v>2984300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3960200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3109200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3952000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3459500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4148400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4173600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4727200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5316600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4878500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4517300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2021100</v>
+        <v>2007600</v>
       </c>
       <c r="E10" s="3">
-        <v>1825300</v>
+        <v>1926400</v>
       </c>
       <c r="F10" s="3">
-        <v>2101900</v>
+        <v>1739800</v>
       </c>
       <c r="G10" s="3">
-        <v>2130100</v>
+        <v>2003400</v>
       </c>
       <c r="H10" s="3">
-        <v>2216000</v>
+        <v>2030400</v>
       </c>
       <c r="I10" s="3">
-        <v>2139700</v>
+        <v>2112300</v>
       </c>
       <c r="J10" s="3">
+        <v>2039500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2177800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1933100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2161700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2030100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1889300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1947200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1831300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1845700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1799600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1732900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +938,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -982,8 +995,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1038,120 +1054,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
-        <v>23900</v>
+        <v>2400</v>
       </c>
       <c r="G14" s="3">
-        <v>5000</v>
+        <v>22800</v>
       </c>
       <c r="H14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>23000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>200</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>38400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>30100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="E15" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="F15" s="3">
-        <v>21900</v>
+        <v>17900</v>
       </c>
       <c r="G15" s="3">
-        <v>18100</v>
+        <v>20900</v>
       </c>
       <c r="H15" s="3">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="I15" s="3">
-        <v>17000</v>
+        <v>16300</v>
       </c>
       <c r="J15" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K15" s="3">
         <v>13200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9900</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>11400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>11900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1169,120 +1194,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4543400</v>
+        <v>4645000</v>
       </c>
       <c r="E17" s="3">
-        <v>4729300</v>
+        <v>4330600</v>
       </c>
       <c r="F17" s="3">
-        <v>5410300</v>
+        <v>4507900</v>
       </c>
       <c r="G17" s="3">
-        <v>4773100</v>
+        <v>5157000</v>
       </c>
       <c r="H17" s="3">
-        <v>4814100</v>
+        <v>4549600</v>
       </c>
       <c r="I17" s="3">
-        <v>4543600</v>
+        <v>4588700</v>
       </c>
       <c r="J17" s="3">
+        <v>4330800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5453200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4446700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5155900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4653400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5469000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5359200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5681200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6330900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5953800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5529800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>714200</v>
+        <v>676600</v>
       </c>
       <c r="E18" s="3">
-        <v>437400</v>
+        <v>680800</v>
       </c>
       <c r="F18" s="3">
-        <v>316700</v>
+        <v>416900</v>
       </c>
       <c r="G18" s="3">
-        <v>720900</v>
+        <v>301900</v>
       </c>
       <c r="H18" s="3">
-        <v>827000</v>
+        <v>687200</v>
       </c>
       <c r="I18" s="3">
-        <v>727000</v>
+        <v>788200</v>
       </c>
       <c r="J18" s="3">
+        <v>693000</v>
+      </c>
+      <c r="K18" s="3">
         <v>684800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>595600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>957800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>836200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>568700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>761700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>877300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>831500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>724300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>720400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1303,120 +1335,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-74800</v>
+        <v>14100</v>
       </c>
       <c r="E20" s="3">
-        <v>212500</v>
+        <v>-71300</v>
       </c>
       <c r="F20" s="3">
-        <v>280100</v>
+        <v>202600</v>
       </c>
       <c r="G20" s="3">
-        <v>449800</v>
+        <v>267000</v>
       </c>
       <c r="H20" s="3">
-        <v>420100</v>
+        <v>428800</v>
       </c>
       <c r="I20" s="3">
-        <v>223000</v>
+        <v>400500</v>
       </c>
       <c r="J20" s="3">
+        <v>212600</v>
+      </c>
+      <c r="K20" s="3">
         <v>281600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>105100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>64000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>172300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>109400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>213500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>180400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>394400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>81700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>298400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1389300</v>
+        <v>1430800</v>
       </c>
       <c r="E21" s="3">
+        <v>1324300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1324400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1793400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1882700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1584500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1712100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1406800</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1694300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1652200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1376200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1600300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1668200</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1822700</v>
+      </c>
+      <c r="S21" s="3">
         <v>1389400</v>
       </c>
-      <c r="F21" s="3">
-        <v>1369100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1881500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1975200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1662300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1712100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1406800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1694300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1652200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1376200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1600300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1668200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1822700</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1389400</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1580800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1471,120 +1510,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>639500</v>
+        <v>690700</v>
       </c>
       <c r="E23" s="3">
-        <v>649900</v>
+        <v>609500</v>
       </c>
       <c r="F23" s="3">
-        <v>596800</v>
+        <v>619500</v>
       </c>
       <c r="G23" s="3">
-        <v>1170800</v>
+        <v>568900</v>
       </c>
       <c r="H23" s="3">
-        <v>1247100</v>
+        <v>1116000</v>
       </c>
       <c r="I23" s="3">
-        <v>950000</v>
+        <v>1188700</v>
       </c>
       <c r="J23" s="3">
+        <v>905600</v>
+      </c>
+      <c r="K23" s="3">
         <v>966400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1021800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1008600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>678100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>975200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1057700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1225900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>806000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1018800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>206700</v>
+        <v>234300</v>
       </c>
       <c r="E24" s="3">
-        <v>165100</v>
+        <v>197000</v>
       </c>
       <c r="F24" s="3">
-        <v>94500</v>
+        <v>157300</v>
       </c>
       <c r="G24" s="3">
-        <v>342900</v>
+        <v>90000</v>
       </c>
       <c r="H24" s="3">
-        <v>365300</v>
+        <v>326900</v>
       </c>
       <c r="I24" s="3">
-        <v>278300</v>
+        <v>348200</v>
       </c>
       <c r="J24" s="3">
+        <v>265200</v>
+      </c>
+      <c r="K24" s="3">
         <v>120600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-77300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>310300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>281100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>135400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>142100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>348400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>403800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>336300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1639,120 +1687,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>432800</v>
+        <v>456400</v>
       </c>
       <c r="E26" s="3">
-        <v>484900</v>
+        <v>412500</v>
       </c>
       <c r="F26" s="3">
-        <v>502300</v>
+        <v>462200</v>
       </c>
       <c r="G26" s="3">
-        <v>827900</v>
+        <v>478800</v>
       </c>
       <c r="H26" s="3">
-        <v>881800</v>
+        <v>789100</v>
       </c>
       <c r="I26" s="3">
-        <v>671800</v>
+        <v>840500</v>
       </c>
       <c r="J26" s="3">
+        <v>640300</v>
+      </c>
+      <c r="K26" s="3">
         <v>845800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>777900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>711500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>727500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>542700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>833100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>709300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>822100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>506000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>682500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>420900</v>
+        <v>441300</v>
       </c>
       <c r="E27" s="3">
-        <v>481000</v>
+        <v>401200</v>
       </c>
       <c r="F27" s="3">
-        <v>497200</v>
+        <v>458400</v>
       </c>
       <c r="G27" s="3">
-        <v>818500</v>
+        <v>473900</v>
       </c>
       <c r="H27" s="3">
-        <v>864300</v>
+        <v>780100</v>
       </c>
       <c r="I27" s="3">
-        <v>665100</v>
+        <v>823900</v>
       </c>
       <c r="J27" s="3">
+        <v>634000</v>
+      </c>
+      <c r="K27" s="3">
         <v>841200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>766100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>697700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>726700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>513000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>817400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>689400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>811000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>497800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>665000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1807,8 +1864,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1818,11 +1878,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>63800</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>60800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1836,14 +1896,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1854,8 +1914,8 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -1863,8 +1923,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1919,8 +1982,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1975,120 +2041,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>74800</v>
+        <v>-14100</v>
       </c>
       <c r="E32" s="3">
-        <v>-212500</v>
+        <v>71300</v>
       </c>
       <c r="F32" s="3">
-        <v>-280100</v>
+        <v>-202600</v>
       </c>
       <c r="G32" s="3">
-        <v>-449800</v>
+        <v>-267000</v>
       </c>
       <c r="H32" s="3">
-        <v>-420100</v>
+        <v>-428800</v>
       </c>
       <c r="I32" s="3">
-        <v>-223000</v>
+        <v>-400500</v>
       </c>
       <c r="J32" s="3">
+        <v>-212600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-281600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-105100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-64000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-172300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-109400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-213500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-180400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-394400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-81700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-298400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>420900</v>
+        <v>441300</v>
       </c>
       <c r="E33" s="3">
-        <v>481000</v>
+        <v>401200</v>
       </c>
       <c r="F33" s="3">
-        <v>561000</v>
+        <v>458400</v>
       </c>
       <c r="G33" s="3">
-        <v>818500</v>
+        <v>534800</v>
       </c>
       <c r="H33" s="3">
-        <v>864300</v>
+        <v>780100</v>
       </c>
       <c r="I33" s="3">
-        <v>665100</v>
+        <v>823900</v>
       </c>
       <c r="J33" s="3">
+        <v>634000</v>
+      </c>
+      <c r="K33" s="3">
         <v>841200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>766100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>697700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>726700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>513000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>817400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>689400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>811000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>497800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>665000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2143,125 +2218,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>420900</v>
+        <v>441300</v>
       </c>
       <c r="E35" s="3">
-        <v>481000</v>
+        <v>401200</v>
       </c>
       <c r="F35" s="3">
-        <v>561000</v>
+        <v>458400</v>
       </c>
       <c r="G35" s="3">
-        <v>818500</v>
+        <v>534800</v>
       </c>
       <c r="H35" s="3">
-        <v>864300</v>
+        <v>780100</v>
       </c>
       <c r="I35" s="3">
-        <v>665100</v>
+        <v>823900</v>
       </c>
       <c r="J35" s="3">
+        <v>634000</v>
+      </c>
+      <c r="K35" s="3">
         <v>841200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>766100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>697700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>726700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>513000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>817400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>689400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>811000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>497800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>665000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2282,8 +2366,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2304,64 +2389,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12563200</v>
+        <v>10378600</v>
       </c>
       <c r="E41" s="3">
-        <v>11342100</v>
+        <v>11974900</v>
       </c>
       <c r="F41" s="3">
-        <v>10910100</v>
+        <v>10811000</v>
       </c>
       <c r="G41" s="3">
-        <v>9808100</v>
+        <v>10399200</v>
       </c>
       <c r="H41" s="3">
-        <v>10661700</v>
+        <v>9348800</v>
       </c>
       <c r="I41" s="3">
-        <v>10982600</v>
+        <v>10162500</v>
       </c>
       <c r="J41" s="3">
+        <v>10468300</v>
+      </c>
+      <c r="K41" s="3">
         <v>12335200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12604300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11656800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12061800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12702300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11964900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11518800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11731700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10051600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9284500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2416,120 +2505,129 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1618900</v>
+        <v>1957900</v>
       </c>
       <c r="E43" s="3">
-        <v>1920400</v>
+        <v>1543100</v>
       </c>
       <c r="F43" s="3">
-        <v>2459300</v>
+        <v>1830400</v>
       </c>
       <c r="G43" s="3">
-        <v>2109200</v>
+        <v>2344100</v>
       </c>
       <c r="H43" s="3">
-        <v>1965100</v>
+        <v>2010500</v>
       </c>
       <c r="I43" s="3">
-        <v>2241800</v>
+        <v>1873000</v>
       </c>
       <c r="J43" s="3">
+        <v>2136800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2139000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1930100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2040800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2255700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2170500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2281800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1973500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1850500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1988700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1868400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1299600</v>
+        <v>1349700</v>
       </c>
       <c r="E44" s="3">
-        <v>1244900</v>
+        <v>1238700</v>
       </c>
       <c r="F44" s="3">
-        <v>1211000</v>
+        <v>1186600</v>
       </c>
       <c r="G44" s="3">
-        <v>1268100</v>
+        <v>1154300</v>
       </c>
       <c r="H44" s="3">
-        <v>1214100</v>
+        <v>1208700</v>
       </c>
       <c r="I44" s="3">
-        <v>1203100</v>
+        <v>1157200</v>
       </c>
       <c r="J44" s="3">
+        <v>1146700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1111800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1369000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1220500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1117200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1003400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1246700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1174100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1116500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1045400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1265400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2584,8 +2682,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2640,120 +2741,129 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79273600</v>
+        <v>77145300</v>
       </c>
       <c r="E47" s="3">
-        <v>79097000</v>
+        <v>75561500</v>
       </c>
       <c r="F47" s="3">
-        <v>78873800</v>
+        <v>75393200</v>
       </c>
       <c r="G47" s="3">
-        <v>78526900</v>
+        <v>75180400</v>
       </c>
       <c r="H47" s="3">
-        <v>75279200</v>
+        <v>74849700</v>
       </c>
       <c r="I47" s="3">
-        <v>73275500</v>
+        <v>71754200</v>
       </c>
       <c r="J47" s="3">
+        <v>69844300</v>
+      </c>
+      <c r="K47" s="3">
         <v>82078400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>78817700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>75266400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>69855700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>69467000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>71014900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70684000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70420000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>69927900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>70281800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7286200</v>
+        <v>7250000</v>
       </c>
       <c r="E48" s="3">
-        <v>7406100</v>
+        <v>6945000</v>
       </c>
       <c r="F48" s="3">
-        <v>7365200</v>
+        <v>7059300</v>
       </c>
       <c r="G48" s="3">
-        <v>6949200</v>
+        <v>7020400</v>
       </c>
       <c r="H48" s="3">
-        <v>6309400</v>
+        <v>6623800</v>
       </c>
       <c r="I48" s="3">
-        <v>6684800</v>
+        <v>6014000</v>
       </c>
       <c r="J48" s="3">
+        <v>6371700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5285700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5647800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5234600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5009900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4951600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4682600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4655100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4632500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4521200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4311900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2808,8 +2918,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2864,8 +2977,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2920,8 +3036,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2976,8 +3095,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3032,64 +3154,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>126545200</v>
+        <v>122052300</v>
       </c>
       <c r="E54" s="3">
-        <v>125819000</v>
+        <v>120619500</v>
       </c>
       <c r="F54" s="3">
-        <v>125578900</v>
+        <v>119927400</v>
       </c>
       <c r="G54" s="3">
-        <v>123420800</v>
+        <v>119698600</v>
       </c>
       <c r="H54" s="3">
-        <v>120231400</v>
+        <v>117641500</v>
       </c>
       <c r="I54" s="3">
-        <v>119211500</v>
+        <v>114601400</v>
       </c>
       <c r="J54" s="3">
+        <v>113629300</v>
+      </c>
+      <c r="K54" s="3">
         <v>117001000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>114429700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109422700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103370600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103290900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104429300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>103291400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>102314200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>99626900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>98834300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3110,8 +3238,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3132,176 +3261,186 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1893800</v>
+        <v>1947600</v>
       </c>
       <c r="E57" s="3">
-        <v>1833400</v>
+        <v>1805100</v>
       </c>
       <c r="F57" s="3">
-        <v>2717000</v>
+        <v>1747600</v>
       </c>
       <c r="G57" s="3">
-        <v>2180500</v>
+        <v>2589800</v>
       </c>
       <c r="H57" s="3">
-        <v>2237900</v>
+        <v>2078400</v>
       </c>
       <c r="I57" s="3">
-        <v>2131900</v>
+        <v>2133200</v>
       </c>
       <c r="J57" s="3">
+        <v>2032100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2820300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2206000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2131700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2416200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2371200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1898700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1915700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1891500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2233500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1846800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3474300</v>
+        <v>3402500</v>
       </c>
       <c r="E58" s="3">
-        <v>3624400</v>
+        <v>3311600</v>
       </c>
       <c r="F58" s="3">
-        <v>3237000</v>
+        <v>3454700</v>
       </c>
       <c r="G58" s="3">
-        <v>3691500</v>
+        <v>3085400</v>
       </c>
       <c r="H58" s="3">
-        <v>2641000</v>
+        <v>3518600</v>
       </c>
       <c r="I58" s="3">
-        <v>3235800</v>
+        <v>2517300</v>
       </c>
       <c r="J58" s="3">
+        <v>3084300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2974800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6124400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3014300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2165000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2773100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3241500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3034400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3398100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2514400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2628100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25716600</v>
+        <v>24816000</v>
       </c>
       <c r="E59" s="3">
-        <v>25338900</v>
+        <v>24512400</v>
       </c>
       <c r="F59" s="3">
-        <v>24871200</v>
+        <v>24152400</v>
       </c>
       <c r="G59" s="3">
-        <v>24408900</v>
+        <v>23706600</v>
       </c>
       <c r="H59" s="3">
-        <v>23652800</v>
+        <v>23265900</v>
       </c>
       <c r="I59" s="3">
-        <v>22634900</v>
+        <v>22545300</v>
       </c>
       <c r="J59" s="3">
+        <v>21575000</v>
+      </c>
+      <c r="K59" s="3">
         <v>21945200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21264700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21021000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19682100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19204700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19329900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19044800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18495000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18275000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17244500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3356,64 +3495,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40971900</v>
+        <v>39722200</v>
       </c>
       <c r="E61" s="3">
-        <v>41689700</v>
+        <v>39053300</v>
       </c>
       <c r="F61" s="3">
-        <v>41124600</v>
+        <v>39737600</v>
       </c>
       <c r="G61" s="3">
-        <v>39585300</v>
+        <v>39198900</v>
       </c>
       <c r="H61" s="3">
-        <v>39120400</v>
+        <v>37731700</v>
       </c>
       <c r="I61" s="3">
-        <v>39519000</v>
+        <v>37288500</v>
       </c>
       <c r="J61" s="3">
+        <v>37668500</v>
+      </c>
+      <c r="K61" s="3">
         <v>40229600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37481900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35869000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34202200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34591600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35174700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34962700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35088200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34193700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34384900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3468,8 +3613,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3524,8 +3672,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3580,8 +3731,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3636,64 +3790,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97910400</v>
+        <v>95137900</v>
       </c>
       <c r="E66" s="3">
-        <v>97612000</v>
+        <v>93325600</v>
       </c>
       <c r="F66" s="3">
-        <v>96810400</v>
+        <v>93041200</v>
       </c>
       <c r="G66" s="3">
-        <v>94510000</v>
+        <v>92277100</v>
       </c>
       <c r="H66" s="3">
-        <v>91765900</v>
+        <v>90084500</v>
       </c>
       <c r="I66" s="3">
-        <v>91466800</v>
+        <v>87468800</v>
       </c>
       <c r="J66" s="3">
+        <v>87183700</v>
+      </c>
+      <c r="K66" s="3">
         <v>89160100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87832500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83373800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78716600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79041800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>80311500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79690300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79485200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77383600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77218100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3714,8 +3874,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3770,8 +3931,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3826,8 +3990,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3882,8 +4049,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3938,64 +4108,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26465500</v>
+        <v>25267500</v>
       </c>
       <c r="E72" s="3">
-        <v>26044600</v>
+        <v>25226200</v>
       </c>
       <c r="F72" s="3">
-        <v>26470400</v>
+        <v>24825100</v>
       </c>
       <c r="G72" s="3">
-        <v>25909300</v>
+        <v>25230900</v>
       </c>
       <c r="H72" s="3">
-        <v>25522000</v>
+        <v>24696100</v>
       </c>
       <c r="I72" s="3">
-        <v>24657700</v>
+        <v>24326900</v>
       </c>
       <c r="J72" s="3">
+        <v>23503000</v>
+      </c>
+      <c r="K72" s="3">
         <v>24559200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23318000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22550800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21382600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20930200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20440400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19935700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19246400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18427200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17917900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4050,8 +4226,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4106,8 +4285,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4162,64 +4344,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28634800</v>
+        <v>26914500</v>
       </c>
       <c r="E76" s="3">
-        <v>28207000</v>
+        <v>27293900</v>
       </c>
       <c r="F76" s="3">
-        <v>28768600</v>
+        <v>26886200</v>
       </c>
       <c r="G76" s="3">
-        <v>28910800</v>
+        <v>27421400</v>
       </c>
       <c r="H76" s="3">
-        <v>28465500</v>
+        <v>27557000</v>
       </c>
       <c r="I76" s="3">
-        <v>27744700</v>
+        <v>27132600</v>
       </c>
       <c r="J76" s="3">
+        <v>26445600</v>
+      </c>
+      <c r="K76" s="3">
         <v>27840900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26597200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26048900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24653900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24249100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24117900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23601100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22829000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22243300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21616300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4274,125 +4462,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>420900</v>
+        <v>441300</v>
       </c>
       <c r="E81" s="3">
-        <v>481000</v>
+        <v>401200</v>
       </c>
       <c r="F81" s="3">
-        <v>561000</v>
+        <v>458400</v>
       </c>
       <c r="G81" s="3">
-        <v>818500</v>
+        <v>534800</v>
       </c>
       <c r="H81" s="3">
-        <v>864300</v>
+        <v>780100</v>
       </c>
       <c r="I81" s="3">
-        <v>665100</v>
+        <v>823900</v>
       </c>
       <c r="J81" s="3">
+        <v>634000</v>
+      </c>
+      <c r="K81" s="3">
         <v>841200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>766100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>697700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>726700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>513000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>817400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>689400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>811000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>497800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>665000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4413,64 +4610,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>749800</v>
+        <v>740000</v>
       </c>
       <c r="E83" s="3">
-        <v>739500</v>
+        <v>714700</v>
       </c>
       <c r="F83" s="3">
-        <v>772300</v>
+        <v>704900</v>
       </c>
       <c r="G83" s="3">
-        <v>710700</v>
+        <v>736100</v>
       </c>
       <c r="H83" s="3">
-        <v>728100</v>
+        <v>677400</v>
       </c>
       <c r="I83" s="3">
-        <v>712300</v>
+        <v>694100</v>
       </c>
       <c r="J83" s="3">
+        <v>678900</v>
+      </c>
+      <c r="K83" s="3">
         <v>745700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>706100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>672500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>643600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>698100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>625100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>610500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>596800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>583400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>562000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4525,8 +4726,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4581,8 +4785,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4637,8 +4844,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4693,8 +4903,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4749,64 +4962,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3245800</v>
+        <v>2164400</v>
       </c>
       <c r="E89" s="3">
-        <v>1749200</v>
+        <v>3093800</v>
       </c>
       <c r="F89" s="3">
-        <v>3092300</v>
+        <v>1667300</v>
       </c>
       <c r="G89" s="3">
-        <v>1805100</v>
+        <v>2947500</v>
       </c>
       <c r="H89" s="3">
-        <v>3404000</v>
+        <v>1720600</v>
       </c>
       <c r="I89" s="3">
-        <v>1716700</v>
+        <v>3244600</v>
       </c>
       <c r="J89" s="3">
+        <v>1636300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1980300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1020200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1637600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>884100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1772000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1193700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1172300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>803500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1250000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>994000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4827,64 +5046,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-164400</v>
+        <v>-105700</v>
       </c>
       <c r="E91" s="3">
-        <v>-89200</v>
+        <v>-156700</v>
       </c>
       <c r="F91" s="3">
-        <v>-187900</v>
+        <v>-85100</v>
       </c>
       <c r="G91" s="3">
-        <v>-123000</v>
+        <v>-179100</v>
       </c>
       <c r="H91" s="3">
-        <v>-65400</v>
+        <v>-117200</v>
       </c>
       <c r="I91" s="3">
-        <v>-51000</v>
+        <v>-62400</v>
       </c>
       <c r="J91" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-106500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-127700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-198600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-147500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-155900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-197500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-222200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-148500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4939,8 +5162,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4995,64 +5221,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1758000</v>
+        <v>-3924700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2279600</v>
+        <v>-1675700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3679000</v>
+        <v>-2172900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3691900</v>
+        <v>-3506700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3544800</v>
+        <v>-3519100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3215700</v>
+        <v>-3378800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3065100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>32500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-760600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>116900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5073,64 +5305,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-400000</v>
       </c>
       <c r="E96" s="3">
-        <v>-494800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-471700</v>
       </c>
       <c r="G96" s="3">
-        <v>-431100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-410900</v>
       </c>
       <c r="I96" s="3">
-        <v>-566600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-540100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-363000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-454400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-312700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-345000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-267500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5185,8 +5421,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5241,8 +5480,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5297,172 +5539,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-267300</v>
+        <v>164400</v>
       </c>
       <c r="E100" s="3">
-        <v>960700</v>
+        <v>-254800</v>
       </c>
       <c r="F100" s="3">
-        <v>1731700</v>
+        <v>915700</v>
       </c>
       <c r="G100" s="3">
-        <v>978600</v>
+        <v>1650600</v>
       </c>
       <c r="H100" s="3">
-        <v>-143200</v>
+        <v>932800</v>
       </c>
       <c r="I100" s="3">
-        <v>207300</v>
+        <v>-136400</v>
       </c>
       <c r="J100" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-769700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3671900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>352000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-330300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>571200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>434300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>622800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>713600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-108100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
-        <v>1800</v>
-      </c>
       <c r="F101" s="3">
-        <v>-42900</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3">
-        <v>54500</v>
+        <v>-40900</v>
       </c>
       <c r="H101" s="3">
-        <v>-37000</v>
+        <v>52000</v>
       </c>
       <c r="I101" s="3">
-        <v>-60900</v>
+        <v>-35200</v>
       </c>
       <c r="J101" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-69800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>49100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-82800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>42100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>41400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>141000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1221100</v>
+        <v>-1596300</v>
       </c>
       <c r="E102" s="3">
-        <v>432100</v>
+        <v>1163900</v>
       </c>
       <c r="F102" s="3">
-        <v>1102000</v>
+        <v>411800</v>
       </c>
       <c r="G102" s="3">
-        <v>-853700</v>
+        <v>1050400</v>
       </c>
       <c r="H102" s="3">
-        <v>-320900</v>
+        <v>-813700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1352600</v>
+        <v>-305900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1289300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-496100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>759200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-670400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-710700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>798800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>424100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-166800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1487500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>874100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-181900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,259 +665,271 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5321600</v>
+        <v>5762300</v>
       </c>
       <c r="E8" s="3">
-        <v>5011400</v>
+        <v>5339000</v>
       </c>
       <c r="F8" s="3">
-        <v>4924800</v>
+        <v>5027800</v>
       </c>
       <c r="G8" s="3">
-        <v>5458900</v>
+        <v>4940900</v>
       </c>
       <c r="H8" s="3">
-        <v>5236800</v>
+        <v>5476800</v>
       </c>
       <c r="I8" s="3">
-        <v>5376900</v>
+        <v>5253900</v>
       </c>
       <c r="J8" s="3">
+        <v>5394500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5023800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6138000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5042300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6113700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5489600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6037700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6120900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6558500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7162400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6678100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6250200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3313900</v>
+        <v>3773900</v>
       </c>
       <c r="E9" s="3">
-        <v>3085000</v>
+        <v>3324800</v>
       </c>
       <c r="F9" s="3">
-        <v>3185000</v>
+        <v>3095100</v>
       </c>
       <c r="G9" s="3">
-        <v>3455500</v>
+        <v>3195400</v>
       </c>
       <c r="H9" s="3">
-        <v>3206400</v>
+        <v>3466800</v>
       </c>
       <c r="I9" s="3">
-        <v>3264600</v>
+        <v>3216900</v>
       </c>
       <c r="J9" s="3">
+        <v>3275300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2984300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3960200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3109200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3952000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3459500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4148400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4173600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4727200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5316600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4878500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4517300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2007600</v>
+        <v>1988300</v>
       </c>
       <c r="E10" s="3">
-        <v>1926400</v>
+        <v>2014200</v>
       </c>
       <c r="F10" s="3">
-        <v>1739800</v>
+        <v>1932800</v>
       </c>
       <c r="G10" s="3">
-        <v>2003400</v>
+        <v>1745500</v>
       </c>
       <c r="H10" s="3">
-        <v>2030400</v>
+        <v>2010000</v>
       </c>
       <c r="I10" s="3">
-        <v>2112300</v>
+        <v>2037000</v>
       </c>
       <c r="J10" s="3">
+        <v>2119200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2039500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2177800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1933100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2161700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2030100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1889300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1947200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1831300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1845700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1799600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1732900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +951,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,8 +1011,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1057,126 +1073,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
-        <v>22800</v>
-      </c>
       <c r="H14" s="3">
-        <v>4700</v>
+        <v>22900</v>
       </c>
       <c r="I14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>38400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>30100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>18800</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F15" s="3">
         <v>19500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>17900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20900</v>
       </c>
-      <c r="H15" s="3">
-        <v>17300</v>
-      </c>
       <c r="I15" s="3">
-        <v>16300</v>
+        <v>17400</v>
       </c>
       <c r="J15" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K15" s="3">
         <v>16200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9900</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
         <v>11400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>11000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1195,126 +1220,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4645000</v>
+        <v>5163900</v>
       </c>
       <c r="E17" s="3">
-        <v>4330600</v>
+        <v>4660200</v>
       </c>
       <c r="F17" s="3">
-        <v>4507900</v>
+        <v>4344800</v>
       </c>
       <c r="G17" s="3">
-        <v>5157000</v>
+        <v>4522600</v>
       </c>
       <c r="H17" s="3">
-        <v>4549600</v>
+        <v>5173900</v>
       </c>
       <c r="I17" s="3">
-        <v>4588700</v>
+        <v>4564500</v>
       </c>
       <c r="J17" s="3">
+        <v>4603700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4330800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5453200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4446700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5155900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4653400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5469000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5359200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5681200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6330900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5953800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5529800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>676600</v>
+        <v>598400</v>
       </c>
       <c r="E18" s="3">
-        <v>680800</v>
+        <v>678800</v>
       </c>
       <c r="F18" s="3">
-        <v>416900</v>
+        <v>683000</v>
       </c>
       <c r="G18" s="3">
-        <v>301900</v>
+        <v>418300</v>
       </c>
       <c r="H18" s="3">
-        <v>687200</v>
+        <v>302900</v>
       </c>
       <c r="I18" s="3">
-        <v>788200</v>
+        <v>689400</v>
       </c>
       <c r="J18" s="3">
+        <v>790800</v>
+      </c>
+      <c r="K18" s="3">
         <v>693000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>684800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>595600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>957800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>836200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>568700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>761700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>877300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>831500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>724300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>720400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1336,126 +1368,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14100</v>
+        <v>118300</v>
       </c>
       <c r="E20" s="3">
-        <v>-71300</v>
+        <v>14200</v>
       </c>
       <c r="F20" s="3">
-        <v>202600</v>
+        <v>-71500</v>
       </c>
       <c r="G20" s="3">
-        <v>267000</v>
+        <v>203200</v>
       </c>
       <c r="H20" s="3">
-        <v>428800</v>
+        <v>267800</v>
       </c>
       <c r="I20" s="3">
-        <v>400500</v>
+        <v>430200</v>
       </c>
       <c r="J20" s="3">
+        <v>401800</v>
+      </c>
+      <c r="K20" s="3">
         <v>212600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>281600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>105100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>64000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>172300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>109400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>213500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>180400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>394400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>81700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>298400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1430800</v>
+        <v>1453500</v>
       </c>
       <c r="E21" s="3">
-        <v>1324300</v>
+        <v>1435500</v>
       </c>
       <c r="F21" s="3">
-        <v>1324400</v>
+        <v>1328600</v>
       </c>
       <c r="G21" s="3">
-        <v>1305000</v>
+        <v>1328700</v>
       </c>
       <c r="H21" s="3">
-        <v>1793400</v>
+        <v>1309200</v>
       </c>
       <c r="I21" s="3">
-        <v>1882700</v>
+        <v>1799300</v>
       </c>
       <c r="J21" s="3">
+        <v>1888900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1584500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1712100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1406800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1694300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1652200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1376200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1600300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1668200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1822700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1389400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1580800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,126 +1552,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>690700</v>
+        <v>716600</v>
       </c>
       <c r="E23" s="3">
-        <v>609500</v>
+        <v>693000</v>
       </c>
       <c r="F23" s="3">
-        <v>619500</v>
+        <v>611500</v>
       </c>
       <c r="G23" s="3">
-        <v>568900</v>
+        <v>621500</v>
       </c>
       <c r="H23" s="3">
-        <v>1116000</v>
+        <v>570700</v>
       </c>
       <c r="I23" s="3">
-        <v>1188700</v>
+        <v>1119600</v>
       </c>
       <c r="J23" s="3">
+        <v>1192600</v>
+      </c>
+      <c r="K23" s="3">
         <v>905600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>966400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1021800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1008600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>678100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>975200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1057700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1225900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>806000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1018800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>234300</v>
+        <v>243400</v>
       </c>
       <c r="E24" s="3">
-        <v>197000</v>
+        <v>235100</v>
       </c>
       <c r="F24" s="3">
-        <v>157300</v>
+        <v>197600</v>
       </c>
       <c r="G24" s="3">
-        <v>90000</v>
+        <v>157800</v>
       </c>
       <c r="H24" s="3">
-        <v>326900</v>
+        <v>90300</v>
       </c>
       <c r="I24" s="3">
-        <v>348200</v>
+        <v>327900</v>
       </c>
       <c r="J24" s="3">
+        <v>349300</v>
+      </c>
+      <c r="K24" s="3">
         <v>265200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>120600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-77300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>310300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>281100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>135400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>142100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>348400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>403800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>336300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1690,126 +1738,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>456400</v>
+        <v>473300</v>
       </c>
       <c r="E26" s="3">
-        <v>412500</v>
+        <v>457900</v>
       </c>
       <c r="F26" s="3">
-        <v>462200</v>
+        <v>413900</v>
       </c>
       <c r="G26" s="3">
-        <v>478800</v>
+        <v>463700</v>
       </c>
       <c r="H26" s="3">
-        <v>789100</v>
+        <v>480400</v>
       </c>
       <c r="I26" s="3">
-        <v>840500</v>
+        <v>791700</v>
       </c>
       <c r="J26" s="3">
+        <v>843300</v>
+      </c>
+      <c r="K26" s="3">
         <v>640300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>845800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>777900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>711500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>727500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>542700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>833100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>709300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>822100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>506000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>682500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>441300</v>
+        <v>462900</v>
       </c>
       <c r="E27" s="3">
-        <v>401200</v>
+        <v>442700</v>
       </c>
       <c r="F27" s="3">
-        <v>458400</v>
+        <v>402500</v>
       </c>
       <c r="G27" s="3">
-        <v>473900</v>
+        <v>459900</v>
       </c>
       <c r="H27" s="3">
-        <v>780100</v>
+        <v>475500</v>
       </c>
       <c r="I27" s="3">
-        <v>823900</v>
+        <v>782700</v>
       </c>
       <c r="J27" s="3">
+        <v>826500</v>
+      </c>
+      <c r="K27" s="3">
         <v>634000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>841200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>766100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>697700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>726700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>513000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>817400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>689400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>811000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>497800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>665000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1867,8 +1924,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1881,11 +1941,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>60800</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>61000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1899,14 +1959,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1917,8 +1977,8 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -1926,8 +1986,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +2048,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2044,126 +2110,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14100</v>
+        <v>-118300</v>
       </c>
       <c r="E32" s="3">
-        <v>71300</v>
+        <v>-14200</v>
       </c>
       <c r="F32" s="3">
-        <v>-202600</v>
+        <v>71500</v>
       </c>
       <c r="G32" s="3">
-        <v>-267000</v>
+        <v>-203200</v>
       </c>
       <c r="H32" s="3">
-        <v>-428800</v>
+        <v>-267800</v>
       </c>
       <c r="I32" s="3">
-        <v>-400500</v>
+        <v>-430200</v>
       </c>
       <c r="J32" s="3">
+        <v>-401800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-212600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-281600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-105100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-64000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-172300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-109400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-213500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-180400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-394400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-81700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-298400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>441300</v>
+        <v>462900</v>
       </c>
       <c r="E33" s="3">
-        <v>401200</v>
+        <v>442700</v>
       </c>
       <c r="F33" s="3">
-        <v>458400</v>
+        <v>402500</v>
       </c>
       <c r="G33" s="3">
-        <v>534800</v>
+        <v>459900</v>
       </c>
       <c r="H33" s="3">
-        <v>780100</v>
+        <v>536500</v>
       </c>
       <c r="I33" s="3">
-        <v>823900</v>
+        <v>782700</v>
       </c>
       <c r="J33" s="3">
+        <v>826500</v>
+      </c>
+      <c r="K33" s="3">
         <v>634000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>841200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>766100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>697700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>726700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>513000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>817400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>689400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>811000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>497800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>665000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2221,131 +2296,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>441300</v>
+        <v>462900</v>
       </c>
       <c r="E35" s="3">
-        <v>401200</v>
+        <v>442700</v>
       </c>
       <c r="F35" s="3">
-        <v>458400</v>
+        <v>402500</v>
       </c>
       <c r="G35" s="3">
-        <v>534800</v>
+        <v>459900</v>
       </c>
       <c r="H35" s="3">
-        <v>780100</v>
+        <v>536500</v>
       </c>
       <c r="I35" s="3">
-        <v>823900</v>
+        <v>782700</v>
       </c>
       <c r="J35" s="3">
+        <v>826500</v>
+      </c>
+      <c r="K35" s="3">
         <v>634000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>841200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>766100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>697700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>726700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>513000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>817400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>689400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>811000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>497800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>665000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2367,8 +2451,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2390,67 +2475,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10378600</v>
+        <v>9921300</v>
       </c>
       <c r="E41" s="3">
-        <v>11974900</v>
+        <v>10412600</v>
       </c>
       <c r="F41" s="3">
-        <v>10811000</v>
+        <v>12014100</v>
       </c>
       <c r="G41" s="3">
-        <v>10399200</v>
+        <v>10846400</v>
       </c>
       <c r="H41" s="3">
-        <v>9348800</v>
+        <v>10433300</v>
       </c>
       <c r="I41" s="3">
-        <v>10162500</v>
+        <v>9379400</v>
       </c>
       <c r="J41" s="3">
+        <v>10195800</v>
+      </c>
+      <c r="K41" s="3">
         <v>10468300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12335200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12604300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11656800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12061800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12702300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11964900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11518800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11731700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10051600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9284500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2508,126 +2597,135 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1957900</v>
+        <v>2530800</v>
       </c>
       <c r="E43" s="3">
-        <v>1543100</v>
+        <v>1964400</v>
       </c>
       <c r="F43" s="3">
-        <v>1830400</v>
+        <v>1548100</v>
       </c>
       <c r="G43" s="3">
-        <v>2344100</v>
+        <v>1836400</v>
       </c>
       <c r="H43" s="3">
-        <v>2010500</v>
+        <v>2351800</v>
       </c>
       <c r="I43" s="3">
-        <v>1873000</v>
+        <v>2017000</v>
       </c>
       <c r="J43" s="3">
+        <v>1879200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2136800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2139000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1930100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2040800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2255700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2170500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2281800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1973500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1850500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1988700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1868400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1349700</v>
+        <v>1306400</v>
       </c>
       <c r="E44" s="3">
-        <v>1238700</v>
+        <v>1354100</v>
       </c>
       <c r="F44" s="3">
-        <v>1186600</v>
+        <v>1242800</v>
       </c>
       <c r="G44" s="3">
-        <v>1154300</v>
+        <v>1190500</v>
       </c>
       <c r="H44" s="3">
-        <v>1208700</v>
+        <v>1158100</v>
       </c>
       <c r="I44" s="3">
-        <v>1157200</v>
+        <v>1212700</v>
       </c>
       <c r="J44" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1146700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1111800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1369000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1220500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1117200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1003400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1246700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1174100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1116500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1045400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1265400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2685,8 +2783,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2744,126 +2845,135 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77145300</v>
+        <v>79283800</v>
       </c>
       <c r="E47" s="3">
-        <v>75561500</v>
+        <v>77398000</v>
       </c>
       <c r="F47" s="3">
-        <v>75393200</v>
+        <v>75808900</v>
       </c>
       <c r="G47" s="3">
-        <v>75180400</v>
+        <v>75640100</v>
       </c>
       <c r="H47" s="3">
-        <v>74849700</v>
+        <v>75426700</v>
       </c>
       <c r="I47" s="3">
-        <v>71754200</v>
+        <v>75094900</v>
       </c>
       <c r="J47" s="3">
+        <v>71989200</v>
+      </c>
+      <c r="K47" s="3">
         <v>69844300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82078400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>78817700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>75266400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>69855700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>69467000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>71014900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70684000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>70420000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>69927900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>70281800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7250000</v>
+        <v>6784600</v>
       </c>
       <c r="E48" s="3">
-        <v>6945000</v>
+        <v>7273700</v>
       </c>
       <c r="F48" s="3">
-        <v>7059300</v>
+        <v>6967800</v>
       </c>
       <c r="G48" s="3">
-        <v>7020400</v>
+        <v>7082400</v>
       </c>
       <c r="H48" s="3">
-        <v>6623800</v>
+        <v>7043400</v>
       </c>
       <c r="I48" s="3">
-        <v>6014000</v>
+        <v>6645500</v>
       </c>
       <c r="J48" s="3">
+        <v>6033700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6371700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5285700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5647800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5234600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5009900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4951600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4682600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4655100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4632500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4521200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4311900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2921,8 +3031,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2980,8 +3093,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3039,8 +3155,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3098,8 +3217,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3157,67 +3279,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>122052300</v>
+        <v>124644700</v>
       </c>
       <c r="E54" s="3">
-        <v>120619500</v>
+        <v>122452100</v>
       </c>
       <c r="F54" s="3">
-        <v>119927400</v>
+        <v>121014600</v>
       </c>
       <c r="G54" s="3">
-        <v>119698600</v>
+        <v>120320100</v>
       </c>
       <c r="H54" s="3">
-        <v>117641500</v>
+        <v>120090600</v>
       </c>
       <c r="I54" s="3">
-        <v>114601400</v>
+        <v>118026800</v>
       </c>
       <c r="J54" s="3">
+        <v>114976800</v>
+      </c>
+      <c r="K54" s="3">
         <v>113629300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117001000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114429700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109422700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103370600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>103290900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104429300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>103291400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>102314200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>99626900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>98834300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3239,8 +3367,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3262,185 +3391,195 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1947600</v>
+        <v>2395900</v>
       </c>
       <c r="E57" s="3">
-        <v>1805100</v>
+        <v>1954000</v>
       </c>
       <c r="F57" s="3">
-        <v>1747600</v>
+        <v>1811000</v>
       </c>
       <c r="G57" s="3">
-        <v>2589800</v>
+        <v>1753300</v>
       </c>
       <c r="H57" s="3">
-        <v>2078400</v>
+        <v>2598300</v>
       </c>
       <c r="I57" s="3">
-        <v>2133200</v>
+        <v>2085200</v>
       </c>
       <c r="J57" s="3">
+        <v>2140100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2032100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2820300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2206000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2131700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2416200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2371200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1898700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1915700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1891500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2233500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1846800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3402500</v>
+        <v>2823800</v>
       </c>
       <c r="E58" s="3">
-        <v>3311600</v>
+        <v>3413700</v>
       </c>
       <c r="F58" s="3">
-        <v>3454700</v>
+        <v>3322400</v>
       </c>
       <c r="G58" s="3">
-        <v>3085400</v>
+        <v>3466000</v>
       </c>
       <c r="H58" s="3">
-        <v>3518600</v>
+        <v>3095500</v>
       </c>
       <c r="I58" s="3">
-        <v>2517300</v>
+        <v>3530200</v>
       </c>
       <c r="J58" s="3">
+        <v>2525500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3084300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2974800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6124400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3014300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2165000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2773100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3241500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3034400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3398100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2514400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2628100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24816000</v>
+        <v>24640600</v>
       </c>
       <c r="E59" s="3">
-        <v>24512400</v>
+        <v>24897300</v>
       </c>
       <c r="F59" s="3">
-        <v>24152400</v>
+        <v>24592700</v>
       </c>
       <c r="G59" s="3">
-        <v>23706600</v>
+        <v>24231500</v>
       </c>
       <c r="H59" s="3">
-        <v>23265900</v>
+        <v>23784200</v>
       </c>
       <c r="I59" s="3">
-        <v>22545300</v>
+        <v>23342100</v>
       </c>
       <c r="J59" s="3">
+        <v>22619100</v>
+      </c>
+      <c r="K59" s="3">
         <v>21575000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21945200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21264700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21021000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19682100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19204700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19329900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19044800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18495000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18275000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17244500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3498,67 +3637,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39722200</v>
+        <v>40590700</v>
       </c>
       <c r="E61" s="3">
-        <v>39053300</v>
+        <v>39852300</v>
       </c>
       <c r="F61" s="3">
-        <v>39737600</v>
+        <v>39181200</v>
       </c>
       <c r="G61" s="3">
-        <v>39198900</v>
+        <v>39867700</v>
       </c>
       <c r="H61" s="3">
-        <v>37731700</v>
+        <v>39327300</v>
       </c>
       <c r="I61" s="3">
-        <v>37288500</v>
+        <v>37855300</v>
       </c>
       <c r="J61" s="3">
+        <v>37410700</v>
+      </c>
+      <c r="K61" s="3">
         <v>37668500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40229600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37481900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35869000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34202200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34591600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35174700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34962700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35088200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34193700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34384900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3616,8 +3761,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3675,8 +3823,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3734,8 +3885,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3793,67 +3947,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95137900</v>
+        <v>96813200</v>
       </c>
       <c r="E66" s="3">
-        <v>93325600</v>
+        <v>95449500</v>
       </c>
       <c r="F66" s="3">
-        <v>93041200</v>
+        <v>93631300</v>
       </c>
       <c r="G66" s="3">
-        <v>92277100</v>
+        <v>93345900</v>
       </c>
       <c r="H66" s="3">
-        <v>90084500</v>
+        <v>92579300</v>
       </c>
       <c r="I66" s="3">
-        <v>87468800</v>
+        <v>90379500</v>
       </c>
       <c r="J66" s="3">
+        <v>87755300</v>
+      </c>
+      <c r="K66" s="3">
         <v>87183700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89160100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87832500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83373800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78716600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79041800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>80311500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79690300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79485200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77383600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>77218100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3875,8 +4035,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3934,8 +4095,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3993,8 +4157,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4052,8 +4219,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4111,67 +4281,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25267500</v>
+        <v>25222800</v>
       </c>
       <c r="E72" s="3">
-        <v>25226200</v>
+        <v>25350200</v>
       </c>
       <c r="F72" s="3">
-        <v>24825100</v>
+        <v>25308800</v>
       </c>
       <c r="G72" s="3">
-        <v>25230900</v>
+        <v>24906400</v>
       </c>
       <c r="H72" s="3">
-        <v>24696100</v>
+        <v>25313500</v>
       </c>
       <c r="I72" s="3">
-        <v>24326900</v>
+        <v>24777000</v>
       </c>
       <c r="J72" s="3">
+        <v>24406600</v>
+      </c>
+      <c r="K72" s="3">
         <v>23503000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24559200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23318000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22550800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21382600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20930200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20440400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19935700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19246400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18427200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17917900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4229,8 +4405,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4288,8 +4467,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4347,67 +4529,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26914500</v>
+        <v>27831500</v>
       </c>
       <c r="E76" s="3">
-        <v>27293900</v>
+        <v>27002600</v>
       </c>
       <c r="F76" s="3">
-        <v>26886200</v>
+        <v>27383300</v>
       </c>
       <c r="G76" s="3">
-        <v>27421400</v>
+        <v>26974200</v>
       </c>
       <c r="H76" s="3">
-        <v>27557000</v>
+        <v>27511300</v>
       </c>
       <c r="I76" s="3">
-        <v>27132600</v>
+        <v>27647300</v>
       </c>
       <c r="J76" s="3">
+        <v>27221500</v>
+      </c>
+      <c r="K76" s="3">
         <v>26445600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27840900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26597200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26048900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24653900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24249100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24117900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23601100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22829000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22243300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21616300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4465,131 +4653,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>441300</v>
+        <v>462900</v>
       </c>
       <c r="E81" s="3">
-        <v>401200</v>
+        <v>442700</v>
       </c>
       <c r="F81" s="3">
-        <v>458400</v>
+        <v>402500</v>
       </c>
       <c r="G81" s="3">
-        <v>534800</v>
+        <v>459900</v>
       </c>
       <c r="H81" s="3">
-        <v>780100</v>
+        <v>536500</v>
       </c>
       <c r="I81" s="3">
-        <v>823900</v>
+        <v>782700</v>
       </c>
       <c r="J81" s="3">
+        <v>826500</v>
+      </c>
+      <c r="K81" s="3">
         <v>634000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>841200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>766100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>697700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>726700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>513000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>817400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>689400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>811000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>497800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>665000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4611,67 +4808,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>740000</v>
+        <v>736900</v>
       </c>
       <c r="E83" s="3">
-        <v>714700</v>
+        <v>742500</v>
       </c>
       <c r="F83" s="3">
-        <v>704900</v>
+        <v>717100</v>
       </c>
       <c r="G83" s="3">
-        <v>736100</v>
+        <v>707200</v>
       </c>
       <c r="H83" s="3">
-        <v>677400</v>
+        <v>738500</v>
       </c>
       <c r="I83" s="3">
-        <v>694100</v>
+        <v>679700</v>
       </c>
       <c r="J83" s="3">
+        <v>696300</v>
+      </c>
+      <c r="K83" s="3">
         <v>678900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>745700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>706100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>672500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>643600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>698100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>625100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>610500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>596800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>583400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>562000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4729,8 +4930,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4788,8 +4992,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4847,8 +5054,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4906,8 +5116,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4965,67 +5178,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2164400</v>
+        <v>3121100</v>
       </c>
       <c r="E89" s="3">
-        <v>3093800</v>
+        <v>2171500</v>
       </c>
       <c r="F89" s="3">
-        <v>1667300</v>
+        <v>3104000</v>
       </c>
       <c r="G89" s="3">
-        <v>2947500</v>
+        <v>1672700</v>
       </c>
       <c r="H89" s="3">
-        <v>1720600</v>
+        <v>2957100</v>
       </c>
       <c r="I89" s="3">
-        <v>3244600</v>
+        <v>1726200</v>
       </c>
       <c r="J89" s="3">
+        <v>3255200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1636300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1980300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1020200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1637600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>884100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1772000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1193700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1172300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>803500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1250000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>994000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5047,67 +5266,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-105700</v>
+        <v>-55300</v>
       </c>
       <c r="E91" s="3">
-        <v>-156700</v>
+        <v>-106000</v>
       </c>
       <c r="F91" s="3">
-        <v>-85100</v>
+        <v>-157200</v>
       </c>
       <c r="G91" s="3">
-        <v>-179100</v>
+        <v>-85300</v>
       </c>
       <c r="H91" s="3">
-        <v>-117200</v>
+        <v>-179700</v>
       </c>
       <c r="I91" s="3">
-        <v>-62400</v>
+        <v>-117600</v>
       </c>
       <c r="J91" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-48600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-106500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-198600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-147500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-155900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-197500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-222200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-148500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5165,8 +5388,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5224,67 +5450,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3924700</v>
+        <v>-3259100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1675700</v>
+        <v>-3937600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2172900</v>
+        <v>-1681200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3506700</v>
+        <v>-2180000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3519100</v>
+        <v>-3518200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3378800</v>
+        <v>-3530600</v>
       </c>
       <c r="J94" s="3">
+        <v>-3389900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>32500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-760600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>116900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5306,67 +5538,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-400000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-401300</v>
       </c>
       <c r="F96" s="3">
-        <v>-471700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-473200</v>
       </c>
       <c r="H96" s="3">
-        <v>-410900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-412300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-540100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-363000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-454400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-312700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-345000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-267500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5424,8 +5660,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5483,8 +5722,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5542,181 +5784,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>164400</v>
+        <v>-461400</v>
       </c>
       <c r="E100" s="3">
-        <v>-254800</v>
+        <v>164900</v>
       </c>
       <c r="F100" s="3">
-        <v>915700</v>
+        <v>-255700</v>
       </c>
       <c r="G100" s="3">
-        <v>1650600</v>
+        <v>918700</v>
       </c>
       <c r="H100" s="3">
-        <v>932800</v>
+        <v>1656000</v>
       </c>
       <c r="I100" s="3">
-        <v>-136400</v>
+        <v>935800</v>
       </c>
       <c r="J100" s="3">
+        <v>-136900</v>
+      </c>
+      <c r="K100" s="3">
         <v>197600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-769700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3671900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>352000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-330300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>571200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>434300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>622800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>713600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-108100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-40900</v>
-      </c>
       <c r="H101" s="3">
-        <v>52000</v>
+        <v>-41100</v>
       </c>
       <c r="I101" s="3">
-        <v>-35200</v>
+        <v>52200</v>
       </c>
       <c r="J101" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-58100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-69800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>49100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-82800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>42100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>41400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>141000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1596300</v>
+        <v>-491300</v>
       </c>
       <c r="E102" s="3">
-        <v>1163900</v>
+        <v>-1601500</v>
       </c>
       <c r="F102" s="3">
-        <v>411800</v>
+        <v>1167700</v>
       </c>
       <c r="G102" s="3">
-        <v>1050400</v>
+        <v>413200</v>
       </c>
       <c r="H102" s="3">
-        <v>-813700</v>
+        <v>1053900</v>
       </c>
       <c r="I102" s="3">
-        <v>-305900</v>
+        <v>-816400</v>
       </c>
       <c r="J102" s="3">
+        <v>-306900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-496100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>759200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-670400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-710700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>798800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>424100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-166800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1487500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>874100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-181900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5762300</v>
+        <v>5546300</v>
       </c>
       <c r="E8" s="3">
-        <v>5339000</v>
+        <v>5712100</v>
       </c>
       <c r="F8" s="3">
-        <v>5027800</v>
+        <v>5292500</v>
       </c>
       <c r="G8" s="3">
-        <v>4940900</v>
+        <v>4984100</v>
       </c>
       <c r="H8" s="3">
-        <v>5476800</v>
+        <v>4897900</v>
       </c>
       <c r="I8" s="3">
-        <v>5253900</v>
+        <v>5429100</v>
       </c>
       <c r="J8" s="3">
+        <v>5208200</v>
+      </c>
+      <c r="K8" s="3">
         <v>5394500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5023800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6138000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5042300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6113700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5489600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6037700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6120900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6558500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7162400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6678100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6250200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3773900</v>
+        <v>3320400</v>
       </c>
       <c r="E9" s="3">
-        <v>3324800</v>
+        <v>3741100</v>
       </c>
       <c r="F9" s="3">
-        <v>3095100</v>
+        <v>3295800</v>
       </c>
       <c r="G9" s="3">
-        <v>3195400</v>
+        <v>3068100</v>
       </c>
       <c r="H9" s="3">
-        <v>3466800</v>
+        <v>3167600</v>
       </c>
       <c r="I9" s="3">
-        <v>3216900</v>
+        <v>3436600</v>
       </c>
       <c r="J9" s="3">
+        <v>3188900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3275300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2984300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3960200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3109200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3952000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3459500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4148400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4173600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4727200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5316600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4878500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4517300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1988300</v>
+        <v>2225900</v>
       </c>
       <c r="E10" s="3">
-        <v>2014200</v>
+        <v>1971000</v>
       </c>
       <c r="F10" s="3">
-        <v>1932800</v>
+        <v>1996700</v>
       </c>
       <c r="G10" s="3">
-        <v>1745500</v>
+        <v>1915900</v>
       </c>
       <c r="H10" s="3">
-        <v>2010000</v>
+        <v>1730300</v>
       </c>
       <c r="I10" s="3">
-        <v>2037000</v>
+        <v>1992500</v>
       </c>
       <c r="J10" s="3">
+        <v>2019300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2119200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2039500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2177800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1933100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2161700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2030100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1889300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1947200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1831300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1845700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1799600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1732900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +964,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,8 +1027,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1076,132 +1092,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22300</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
-        <v>2400</v>
-      </c>
       <c r="H14" s="3">
-        <v>22900</v>
+        <v>-37400</v>
       </c>
       <c r="I14" s="3">
-        <v>4800</v>
+        <v>23300</v>
       </c>
       <c r="J14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>38400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>30100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>21700</v>
       </c>
       <c r="E15" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="F15" s="3">
-        <v>19500</v>
+        <v>18700</v>
       </c>
       <c r="G15" s="3">
-        <v>17900</v>
+        <v>19300</v>
       </c>
       <c r="H15" s="3">
-        <v>20900</v>
+        <v>17800</v>
       </c>
       <c r="I15" s="3">
-        <v>17400</v>
+        <v>20800</v>
       </c>
       <c r="J15" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K15" s="3">
         <v>16400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9900</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>11400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>11000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>11900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1221,132 +1246,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5163900</v>
+        <v>4617300</v>
       </c>
       <c r="E17" s="3">
-        <v>4660200</v>
+        <v>5113500</v>
       </c>
       <c r="F17" s="3">
-        <v>4344800</v>
+        <v>4619600</v>
       </c>
       <c r="G17" s="3">
-        <v>4522600</v>
+        <v>4307000</v>
       </c>
       <c r="H17" s="3">
-        <v>5173900</v>
+        <v>4443500</v>
       </c>
       <c r="I17" s="3">
-        <v>4564500</v>
+        <v>5129500</v>
       </c>
       <c r="J17" s="3">
+        <v>4524800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4603700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4330800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5453200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4446700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5155900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4653400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5469000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5359200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5681200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6330900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5953800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5529800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>598400</v>
+        <v>929000</v>
       </c>
       <c r="E18" s="3">
-        <v>678800</v>
+        <v>598600</v>
       </c>
       <c r="F18" s="3">
-        <v>683000</v>
+        <v>672900</v>
       </c>
       <c r="G18" s="3">
-        <v>418300</v>
+        <v>677100</v>
       </c>
       <c r="H18" s="3">
-        <v>302900</v>
+        <v>454400</v>
       </c>
       <c r="I18" s="3">
-        <v>689400</v>
+        <v>299600</v>
       </c>
       <c r="J18" s="3">
+        <v>683400</v>
+      </c>
+      <c r="K18" s="3">
         <v>790800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>693000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>684800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>595600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>957800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>836200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>568700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>761700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>877300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>831500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>724300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>720400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,132 +1401,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>118300</v>
+        <v>-17500</v>
       </c>
       <c r="E20" s="3">
-        <v>14200</v>
+        <v>111800</v>
       </c>
       <c r="F20" s="3">
-        <v>-71500</v>
+        <v>14100</v>
       </c>
       <c r="G20" s="3">
-        <v>203200</v>
+        <v>-70900</v>
       </c>
       <c r="H20" s="3">
-        <v>267800</v>
+        <v>161700</v>
       </c>
       <c r="I20" s="3">
-        <v>430200</v>
+        <v>266100</v>
       </c>
       <c r="J20" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K20" s="3">
         <v>401800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>212600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>281600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>105100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>64000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>172300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>109400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>213500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>180400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>394400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>81700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>298400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1453500</v>
+        <v>1655700</v>
       </c>
       <c r="E21" s="3">
-        <v>1435500</v>
+        <v>1440900</v>
       </c>
       <c r="F21" s="3">
-        <v>1328600</v>
+        <v>1423000</v>
       </c>
       <c r="G21" s="3">
-        <v>1328700</v>
+        <v>1317000</v>
       </c>
       <c r="H21" s="3">
-        <v>1309200</v>
+        <v>1317200</v>
       </c>
       <c r="I21" s="3">
-        <v>1799300</v>
+        <v>1297800</v>
       </c>
       <c r="J21" s="3">
+        <v>1783600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1888900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1584500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1712100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1406800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1694300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1652200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1376200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1600300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1668200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1822700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1389400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1580800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,132 +1594,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>716600</v>
+        <v>911500</v>
       </c>
       <c r="E23" s="3">
-        <v>693000</v>
+        <v>710400</v>
       </c>
       <c r="F23" s="3">
-        <v>611500</v>
+        <v>687000</v>
       </c>
       <c r="G23" s="3">
-        <v>621500</v>
+        <v>606200</v>
       </c>
       <c r="H23" s="3">
-        <v>570700</v>
+        <v>616100</v>
       </c>
       <c r="I23" s="3">
-        <v>1119600</v>
+        <v>565800</v>
       </c>
       <c r="J23" s="3">
+        <v>1109900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1192600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>905600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>966400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1021800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1008600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>678100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>975200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1057700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1225900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>806000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1018800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>243400</v>
+        <v>268300</v>
       </c>
       <c r="E24" s="3">
-        <v>235100</v>
+        <v>230700</v>
       </c>
       <c r="F24" s="3">
-        <v>197600</v>
+        <v>233100</v>
       </c>
       <c r="G24" s="3">
-        <v>157800</v>
+        <v>195900</v>
       </c>
       <c r="H24" s="3">
-        <v>90300</v>
+        <v>156500</v>
       </c>
       <c r="I24" s="3">
-        <v>327900</v>
+        <v>89600</v>
       </c>
       <c r="J24" s="3">
+        <v>325100</v>
+      </c>
+      <c r="K24" s="3">
         <v>349300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>265200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>120600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-77300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>310300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>281100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>135400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>142100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>348400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>403800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>336300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1741,132 +1789,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>473300</v>
+        <v>643200</v>
       </c>
       <c r="E26" s="3">
-        <v>457900</v>
+        <v>479700</v>
       </c>
       <c r="F26" s="3">
-        <v>413900</v>
+        <v>453900</v>
       </c>
       <c r="G26" s="3">
-        <v>463700</v>
+        <v>410300</v>
       </c>
       <c r="H26" s="3">
-        <v>480400</v>
+        <v>459600</v>
       </c>
       <c r="I26" s="3">
-        <v>791700</v>
+        <v>476200</v>
       </c>
       <c r="J26" s="3">
+        <v>784800</v>
+      </c>
+      <c r="K26" s="3">
         <v>843300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>640300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>845800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>777900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>711500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>727500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>542700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>833100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>709300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>822100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>506000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>682500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>462900</v>
+        <v>594100</v>
       </c>
       <c r="E27" s="3">
-        <v>442700</v>
+        <v>469400</v>
       </c>
       <c r="F27" s="3">
-        <v>402500</v>
+        <v>438900</v>
       </c>
       <c r="G27" s="3">
-        <v>459900</v>
+        <v>399000</v>
       </c>
       <c r="H27" s="3">
-        <v>475500</v>
+        <v>455900</v>
       </c>
       <c r="I27" s="3">
-        <v>782700</v>
+        <v>471300</v>
       </c>
       <c r="J27" s="3">
+        <v>775900</v>
+      </c>
+      <c r="K27" s="3">
         <v>826500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>634000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>841200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>766100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>697700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>726700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>513000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>817400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>689400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>811000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>497800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>665000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1927,16 +1984,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>-10500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1944,11 +2004,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>61000</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>60500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1962,14 +2022,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1980,8 +2040,8 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -1989,8 +2049,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,8 +2114,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2113,132 +2179,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-118300</v>
+        <v>17500</v>
       </c>
       <c r="E32" s="3">
-        <v>-14200</v>
+        <v>-111800</v>
       </c>
       <c r="F32" s="3">
-        <v>71500</v>
+        <v>-14100</v>
       </c>
       <c r="G32" s="3">
-        <v>-203200</v>
+        <v>70900</v>
       </c>
       <c r="H32" s="3">
-        <v>-267800</v>
+        <v>-161700</v>
       </c>
       <c r="I32" s="3">
-        <v>-430200</v>
+        <v>-266100</v>
       </c>
       <c r="J32" s="3">
+        <v>-426400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-401800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-212600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-281600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-105100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-64000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-172300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-109400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-213500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-180400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-394400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-81700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-298400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>462900</v>
+        <v>594100</v>
       </c>
       <c r="E33" s="3">
-        <v>442700</v>
+        <v>458900</v>
       </c>
       <c r="F33" s="3">
-        <v>402500</v>
+        <v>438900</v>
       </c>
       <c r="G33" s="3">
-        <v>459900</v>
+        <v>399000</v>
       </c>
       <c r="H33" s="3">
-        <v>536500</v>
+        <v>455900</v>
       </c>
       <c r="I33" s="3">
-        <v>782700</v>
+        <v>531900</v>
       </c>
       <c r="J33" s="3">
+        <v>775900</v>
+      </c>
+      <c r="K33" s="3">
         <v>826500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>634000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>841200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>766100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>697700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>726700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>513000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>817400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>689400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>811000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>497800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>665000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2299,137 +2374,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>462900</v>
+        <v>594100</v>
       </c>
       <c r="E35" s="3">
-        <v>442700</v>
+        <v>458900</v>
       </c>
       <c r="F35" s="3">
-        <v>402500</v>
+        <v>438900</v>
       </c>
       <c r="G35" s="3">
-        <v>459900</v>
+        <v>399000</v>
       </c>
       <c r="H35" s="3">
-        <v>536500</v>
+        <v>455900</v>
       </c>
       <c r="I35" s="3">
-        <v>782700</v>
+        <v>531900</v>
       </c>
       <c r="J35" s="3">
+        <v>775900</v>
+      </c>
+      <c r="K35" s="3">
         <v>826500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>634000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>841200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>766100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>697700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>726700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>513000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>817400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>689400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>811000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>497800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>665000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2452,8 +2536,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2476,70 +2561,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9921300</v>
+        <v>10349000</v>
       </c>
       <c r="E41" s="3">
-        <v>10412600</v>
+        <v>9834900</v>
       </c>
       <c r="F41" s="3">
-        <v>12014100</v>
+        <v>10322000</v>
       </c>
       <c r="G41" s="3">
-        <v>10846400</v>
+        <v>11909600</v>
       </c>
       <c r="H41" s="3">
-        <v>10433300</v>
+        <v>10752000</v>
       </c>
       <c r="I41" s="3">
-        <v>9379400</v>
+        <v>10342400</v>
       </c>
       <c r="J41" s="3">
+        <v>9297700</v>
+      </c>
+      <c r="K41" s="3">
         <v>10195800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10468300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12335200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12604300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11656800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12061800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12702300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11964900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11518800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11731700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10051600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9284500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2600,132 +2689,141 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2530800</v>
+        <v>2206200</v>
       </c>
       <c r="E43" s="3">
-        <v>1964400</v>
+        <v>2508800</v>
       </c>
       <c r="F43" s="3">
-        <v>1548100</v>
+        <v>1947300</v>
       </c>
       <c r="G43" s="3">
-        <v>1836400</v>
+        <v>1534700</v>
       </c>
       <c r="H43" s="3">
-        <v>2351800</v>
+        <v>1820400</v>
       </c>
       <c r="I43" s="3">
-        <v>2017000</v>
+        <v>2331300</v>
       </c>
       <c r="J43" s="3">
+        <v>1999500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1879200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2136800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2139000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1930100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2040800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2255700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2170500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2281800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1973500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1850500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1988700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1868400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1306400</v>
+        <v>1247100</v>
       </c>
       <c r="E44" s="3">
-        <v>1354100</v>
+        <v>1295000</v>
       </c>
       <c r="F44" s="3">
-        <v>1242800</v>
+        <v>1342300</v>
       </c>
       <c r="G44" s="3">
-        <v>1190500</v>
+        <v>1232000</v>
       </c>
       <c r="H44" s="3">
-        <v>1158100</v>
+        <v>1180100</v>
       </c>
       <c r="I44" s="3">
-        <v>1212700</v>
+        <v>1148000</v>
       </c>
       <c r="J44" s="3">
+        <v>1202100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1161000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1146700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1111800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1369000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1220500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1117200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1003400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1246700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1174100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1116500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1045400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1265400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2786,8 +2884,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2848,132 +2949,141 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79283800</v>
+        <v>78474800</v>
       </c>
       <c r="E47" s="3">
-        <v>77398000</v>
+        <v>78593600</v>
       </c>
       <c r="F47" s="3">
-        <v>75808900</v>
+        <v>76724200</v>
       </c>
       <c r="G47" s="3">
-        <v>75640100</v>
+        <v>75149000</v>
       </c>
       <c r="H47" s="3">
-        <v>75426700</v>
+        <v>74981700</v>
       </c>
       <c r="I47" s="3">
-        <v>75094900</v>
+        <v>74770100</v>
       </c>
       <c r="J47" s="3">
+        <v>74441200</v>
+      </c>
+      <c r="K47" s="3">
         <v>71989200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>69844300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82078400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>78817700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>75266400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>69855700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>69467000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>71014900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>70684000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>70420000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>69927900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>70281800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6784600</v>
+        <v>6703100</v>
       </c>
       <c r="E48" s="3">
-        <v>7273700</v>
+        <v>6725500</v>
       </c>
       <c r="F48" s="3">
-        <v>6967800</v>
+        <v>7210400</v>
       </c>
       <c r="G48" s="3">
-        <v>7082400</v>
+        <v>6907100</v>
       </c>
       <c r="H48" s="3">
-        <v>7043400</v>
+        <v>7020700</v>
       </c>
       <c r="I48" s="3">
-        <v>6645500</v>
+        <v>6982000</v>
       </c>
       <c r="J48" s="3">
+        <v>6587600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6033700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6371700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5285700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5647800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5234600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5009900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4951600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4682600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4655100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4632500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4521200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4311900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3034,8 +3144,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3096,8 +3209,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3158,8 +3274,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3220,8 +3339,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3282,70 +3404,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>124644700</v>
+        <v>123731700</v>
       </c>
       <c r="E54" s="3">
-        <v>122452100</v>
+        <v>123559700</v>
       </c>
       <c r="F54" s="3">
-        <v>121014600</v>
+        <v>121386100</v>
       </c>
       <c r="G54" s="3">
-        <v>120320100</v>
+        <v>119961100</v>
       </c>
       <c r="H54" s="3">
-        <v>120090600</v>
+        <v>119272700</v>
       </c>
       <c r="I54" s="3">
-        <v>118026800</v>
+        <v>119045200</v>
       </c>
       <c r="J54" s="3">
+        <v>116999300</v>
+      </c>
+      <c r="K54" s="3">
         <v>114976800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113629300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117001000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114429700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109422700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>103370600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>103290900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104429300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>103291400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>102314200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>99626900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>98834300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3368,8 +3496,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3392,194 +3521,204 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2395900</v>
+        <v>1916700</v>
       </c>
       <c r="E57" s="3">
-        <v>1954000</v>
+        <v>2375100</v>
       </c>
       <c r="F57" s="3">
-        <v>1811000</v>
+        <v>1936900</v>
       </c>
       <c r="G57" s="3">
-        <v>1753300</v>
+        <v>1795200</v>
       </c>
       <c r="H57" s="3">
-        <v>2598300</v>
+        <v>1738000</v>
       </c>
       <c r="I57" s="3">
-        <v>2085200</v>
+        <v>2575600</v>
       </c>
       <c r="J57" s="3">
+        <v>2067100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2140100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2032100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2820300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2206000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2131700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2416200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2371200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1898700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1915700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1891500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2233500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1846800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2823800</v>
+        <v>4158400</v>
       </c>
       <c r="E58" s="3">
-        <v>3413700</v>
+        <v>2799200</v>
       </c>
       <c r="F58" s="3">
-        <v>3322400</v>
+        <v>3384000</v>
       </c>
       <c r="G58" s="3">
-        <v>3466000</v>
+        <v>3293500</v>
       </c>
       <c r="H58" s="3">
-        <v>3095500</v>
+        <v>3435800</v>
       </c>
       <c r="I58" s="3">
-        <v>3530200</v>
+        <v>3068500</v>
       </c>
       <c r="J58" s="3">
+        <v>3499400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2525500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3084300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2974800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6124400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3014300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2165000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2773100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3241500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3034400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3398100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2514400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2628100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24640600</v>
+        <v>24440500</v>
       </c>
       <c r="E59" s="3">
-        <v>24897300</v>
+        <v>24426100</v>
       </c>
       <c r="F59" s="3">
-        <v>24592700</v>
+        <v>24680500</v>
       </c>
       <c r="G59" s="3">
-        <v>24231500</v>
+        <v>24378600</v>
       </c>
       <c r="H59" s="3">
-        <v>23784200</v>
+        <v>24020600</v>
       </c>
       <c r="I59" s="3">
-        <v>23342100</v>
+        <v>23577200</v>
       </c>
       <c r="J59" s="3">
+        <v>23138900</v>
+      </c>
+      <c r="K59" s="3">
         <v>22619100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21575000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21945200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21264700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21021000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19682100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19204700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19329900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19044800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18495000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18275000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17244500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3640,70 +3779,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40590700</v>
+        <v>39346300</v>
       </c>
       <c r="E61" s="3">
-        <v>39852300</v>
+        <v>40237300</v>
       </c>
       <c r="F61" s="3">
-        <v>39181200</v>
+        <v>39505400</v>
       </c>
       <c r="G61" s="3">
-        <v>39867700</v>
+        <v>38840100</v>
       </c>
       <c r="H61" s="3">
-        <v>39327300</v>
+        <v>39520700</v>
       </c>
       <c r="I61" s="3">
-        <v>37855300</v>
+        <v>38984900</v>
       </c>
       <c r="J61" s="3">
+        <v>37525700</v>
+      </c>
+      <c r="K61" s="3">
         <v>37410700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37668500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40229600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37481900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35869000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34202200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34591600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35174700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34962700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>35088200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34193700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34384900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3764,8 +3909,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3826,8 +3974,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3888,8 +4039,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3950,70 +4104,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>96813200</v>
+        <v>95968700</v>
       </c>
       <c r="E66" s="3">
-        <v>95449500</v>
+        <v>95970400</v>
       </c>
       <c r="F66" s="3">
-        <v>93631300</v>
+        <v>94618600</v>
       </c>
       <c r="G66" s="3">
-        <v>93345900</v>
+        <v>92816200</v>
       </c>
       <c r="H66" s="3">
-        <v>92579300</v>
+        <v>92533300</v>
       </c>
       <c r="I66" s="3">
-        <v>90379500</v>
+        <v>91773400</v>
       </c>
       <c r="J66" s="3">
+        <v>89592700</v>
+      </c>
+      <c r="K66" s="3">
         <v>87755300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87183700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89160100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87832500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>83373800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78716600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79041800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>80311500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79690300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79485200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>77383600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>77218100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4036,8 +4196,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4098,8 +4259,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4160,8 +4324,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4222,8 +4389,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4284,70 +4454,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25222800</v>
+        <v>25121600</v>
       </c>
       <c r="E72" s="3">
-        <v>25350200</v>
+        <v>25003200</v>
       </c>
       <c r="F72" s="3">
-        <v>25308800</v>
+        <v>25129500</v>
       </c>
       <c r="G72" s="3">
-        <v>24906400</v>
+        <v>25088500</v>
       </c>
       <c r="H72" s="3">
-        <v>25313500</v>
+        <v>24689600</v>
       </c>
       <c r="I72" s="3">
-        <v>24777000</v>
+        <v>25093100</v>
       </c>
       <c r="J72" s="3">
+        <v>24561300</v>
+      </c>
+      <c r="K72" s="3">
         <v>24406600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23503000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24559200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23318000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22550800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21382600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20930200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20440400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19935700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19246400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18427200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17917900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4408,8 +4584,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4470,8 +4649,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4532,70 +4714,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27831500</v>
+        <v>27763000</v>
       </c>
       <c r="E76" s="3">
-        <v>27002600</v>
+        <v>27589200</v>
       </c>
       <c r="F76" s="3">
-        <v>27383300</v>
+        <v>26767600</v>
       </c>
       <c r="G76" s="3">
-        <v>26974200</v>
+        <v>27144900</v>
       </c>
       <c r="H76" s="3">
-        <v>27511300</v>
+        <v>26739400</v>
       </c>
       <c r="I76" s="3">
-        <v>27647300</v>
+        <v>27271800</v>
       </c>
       <c r="J76" s="3">
+        <v>27406600</v>
+      </c>
+      <c r="K76" s="3">
         <v>27221500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26445600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27840900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26597200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26048900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24653900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24249100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24117900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23601100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22829000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22243300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21616300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4656,137 +4844,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>462900</v>
+        <v>594100</v>
       </c>
       <c r="E81" s="3">
-        <v>442700</v>
+        <v>458900</v>
       </c>
       <c r="F81" s="3">
-        <v>402500</v>
+        <v>438900</v>
       </c>
       <c r="G81" s="3">
-        <v>459900</v>
+        <v>399000</v>
       </c>
       <c r="H81" s="3">
-        <v>536500</v>
+        <v>455900</v>
       </c>
       <c r="I81" s="3">
-        <v>782700</v>
+        <v>531900</v>
       </c>
       <c r="J81" s="3">
+        <v>775900</v>
+      </c>
+      <c r="K81" s="3">
         <v>826500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>634000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>841200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>766100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>697700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>726700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>513000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>817400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>689400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>811000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>497800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>665000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4809,70 +5006,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>736900</v>
+        <v>744200</v>
       </c>
       <c r="E83" s="3">
-        <v>742500</v>
+        <v>730500</v>
       </c>
       <c r="F83" s="3">
-        <v>717100</v>
+        <v>736000</v>
       </c>
       <c r="G83" s="3">
-        <v>707200</v>
+        <v>710800</v>
       </c>
       <c r="H83" s="3">
-        <v>738500</v>
+        <v>701000</v>
       </c>
       <c r="I83" s="3">
-        <v>679700</v>
+        <v>732100</v>
       </c>
       <c r="J83" s="3">
+        <v>673700</v>
+      </c>
+      <c r="K83" s="3">
         <v>696300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>678900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>745700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>706100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>672500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>643600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>698100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>625100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>610500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>596800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>583400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>562000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4933,8 +5134,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4995,8 +5199,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5057,8 +5264,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5119,8 +5329,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5181,70 +5394,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3121100</v>
+        <v>1993800</v>
       </c>
       <c r="E89" s="3">
-        <v>2171500</v>
+        <v>3093900</v>
       </c>
       <c r="F89" s="3">
-        <v>3104000</v>
+        <v>2152600</v>
       </c>
       <c r="G89" s="3">
-        <v>1672700</v>
+        <v>3076900</v>
       </c>
       <c r="H89" s="3">
-        <v>2957100</v>
+        <v>1658200</v>
       </c>
       <c r="I89" s="3">
-        <v>1726200</v>
+        <v>2931400</v>
       </c>
       <c r="J89" s="3">
+        <v>1711200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3255200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1636300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1980300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1020200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1637600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>884100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1772000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1193700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1172300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>803500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1250000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>994000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5267,70 +5486,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55300</v>
+        <v>-48900</v>
       </c>
       <c r="E91" s="3">
-        <v>-106000</v>
+        <v>-54800</v>
       </c>
       <c r="F91" s="3">
-        <v>-157200</v>
+        <v>-105100</v>
       </c>
       <c r="G91" s="3">
-        <v>-85300</v>
+        <v>-155900</v>
       </c>
       <c r="H91" s="3">
-        <v>-179700</v>
+        <v>-84600</v>
       </c>
       <c r="I91" s="3">
-        <v>-117600</v>
+        <v>-178100</v>
       </c>
       <c r="J91" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-62600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-106500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-127700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-198600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-147500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-155900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-197500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-222200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-148500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5391,8 +5614,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5453,70 +5679,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3259100</v>
+        <v>-1056200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3937600</v>
+        <v>-3230800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1681200</v>
+        <v>-3903300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2180000</v>
+        <v>-1666600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3518200</v>
+        <v>-2161000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3530600</v>
+        <v>-3487600</v>
       </c>
       <c r="J94" s="3">
+        <v>-3499800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>32500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-760600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>116900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5539,70 +5771,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-477700</v>
       </c>
       <c r="E96" s="3">
-        <v>-401300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-397800</v>
       </c>
       <c r="G96" s="3">
-        <v>-473200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-469100</v>
       </c>
       <c r="I96" s="3">
-        <v>-412300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-408700</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-540100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-363000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-454400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-312700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-345000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-267500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5663,8 +5899,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5725,8 +5964,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5787,190 +6029,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-461400</v>
+        <v>-434100</v>
       </c>
       <c r="E100" s="3">
-        <v>164900</v>
+        <v>-457400</v>
       </c>
       <c r="F100" s="3">
-        <v>-255700</v>
+        <v>163500</v>
       </c>
       <c r="G100" s="3">
-        <v>918700</v>
+        <v>-253400</v>
       </c>
       <c r="H100" s="3">
-        <v>1656000</v>
+        <v>910700</v>
       </c>
       <c r="I100" s="3">
-        <v>935800</v>
+        <v>1641600</v>
       </c>
       <c r="J100" s="3">
+        <v>927700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-136900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>197600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-769700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3671900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>352000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-330300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>571200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>434300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>622800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>713600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-108100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>108100</v>
+        <v>10600</v>
       </c>
       <c r="E101" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
-        <v>-41100</v>
-      </c>
       <c r="I101" s="3">
-        <v>52200</v>
+        <v>-40700</v>
       </c>
       <c r="J101" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-35300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-58100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-69800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>49100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-82800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>42100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>41400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>141000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-491300</v>
+        <v>514100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1601500</v>
+        <v>-487000</v>
       </c>
       <c r="F102" s="3">
-        <v>1167700</v>
+        <v>-1587600</v>
       </c>
       <c r="G102" s="3">
-        <v>413200</v>
+        <v>1157500</v>
       </c>
       <c r="H102" s="3">
-        <v>1053900</v>
+        <v>409600</v>
       </c>
       <c r="I102" s="3">
-        <v>-816400</v>
+        <v>1044700</v>
       </c>
       <c r="J102" s="3">
+        <v>-809300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-306900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-496100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>759200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-670400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-710700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>798800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>424100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-166800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1487500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>874100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-181900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5546300</v>
+        <v>5574300</v>
       </c>
       <c r="E8" s="3">
-        <v>5712100</v>
+        <v>5363600</v>
       </c>
       <c r="F8" s="3">
-        <v>5292500</v>
+        <v>5524000</v>
       </c>
       <c r="G8" s="3">
-        <v>4984100</v>
+        <v>5118200</v>
       </c>
       <c r="H8" s="3">
-        <v>4897900</v>
+        <v>4819900</v>
       </c>
       <c r="I8" s="3">
-        <v>5429100</v>
+        <v>4736600</v>
       </c>
       <c r="J8" s="3">
+        <v>5250300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5208200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5394500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5023800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6138000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5042300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6113700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5489600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6037700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6120900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6558500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7162400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6678100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6250200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3320400</v>
+        <v>3498700</v>
       </c>
       <c r="E9" s="3">
-        <v>3741100</v>
+        <v>3211100</v>
       </c>
       <c r="F9" s="3">
-        <v>3295800</v>
+        <v>3617900</v>
       </c>
       <c r="G9" s="3">
-        <v>3068100</v>
+        <v>3187300</v>
       </c>
       <c r="H9" s="3">
-        <v>3167600</v>
+        <v>2967100</v>
       </c>
       <c r="I9" s="3">
-        <v>3436600</v>
+        <v>3063300</v>
       </c>
       <c r="J9" s="3">
+        <v>3323400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3188900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3275300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2984300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3960200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3109200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3952000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3459500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4148400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4173600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4727200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5316600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4878500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4517300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2225900</v>
+        <v>2075600</v>
       </c>
       <c r="E10" s="3">
-        <v>1971000</v>
+        <v>2152600</v>
       </c>
       <c r="F10" s="3">
-        <v>1996700</v>
+        <v>1906100</v>
       </c>
       <c r="G10" s="3">
-        <v>1915900</v>
+        <v>1930900</v>
       </c>
       <c r="H10" s="3">
-        <v>1730300</v>
+        <v>1852800</v>
       </c>
       <c r="I10" s="3">
-        <v>1992500</v>
+        <v>1673300</v>
       </c>
       <c r="J10" s="3">
+        <v>1926900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2019300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2119200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2039500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2177800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1933100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2161700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2030100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1889300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1947200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1831300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1845700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1799600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1732900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +977,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1043,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,138 +1111,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
-        <v>16700</v>
-      </c>
       <c r="F14" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>3000</v>
-      </c>
       <c r="H14" s="3">
-        <v>-37400</v>
+        <v>2900</v>
       </c>
       <c r="I14" s="3">
-        <v>23300</v>
+        <v>-36200</v>
       </c>
       <c r="J14" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>38400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>30100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21700</v>
+        <v>18100</v>
       </c>
       <c r="E15" s="3">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="F15" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H15" s="3">
         <v>18700</v>
       </c>
-      <c r="G15" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>17800</v>
-      </c>
       <c r="I15" s="3">
-        <v>20800</v>
+        <v>17200</v>
       </c>
       <c r="J15" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K15" s="3">
         <v>17200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9900</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3">
         <v>11400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>11900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1247,138 +1272,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4617300</v>
+        <v>4632100</v>
       </c>
       <c r="E17" s="3">
-        <v>5113500</v>
+        <v>4465200</v>
       </c>
       <c r="F17" s="3">
-        <v>4619600</v>
+        <v>4945100</v>
       </c>
       <c r="G17" s="3">
-        <v>4307000</v>
+        <v>4467500</v>
       </c>
       <c r="H17" s="3">
-        <v>4443500</v>
+        <v>4165100</v>
       </c>
       <c r="I17" s="3">
-        <v>5129500</v>
+        <v>4297200</v>
       </c>
       <c r="J17" s="3">
+        <v>4960500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4524800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4603700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4330800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5453200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4446700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5155900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4653400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5469000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5359200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5681200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6330900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5953800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5529800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>929000</v>
+        <v>942100</v>
       </c>
       <c r="E18" s="3">
-        <v>598600</v>
+        <v>898400</v>
       </c>
       <c r="F18" s="3">
-        <v>672900</v>
+        <v>578900</v>
       </c>
       <c r="G18" s="3">
-        <v>677100</v>
+        <v>650700</v>
       </c>
       <c r="H18" s="3">
-        <v>454400</v>
+        <v>654800</v>
       </c>
       <c r="I18" s="3">
-        <v>299600</v>
+        <v>439500</v>
       </c>
       <c r="J18" s="3">
+        <v>289800</v>
+      </c>
+      <c r="K18" s="3">
         <v>683400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>790800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>693000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>684800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>595600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>957800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>836200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>568700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>761700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>877300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>831500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>724300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>720400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1402,138 +1434,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17500</v>
+        <v>121500</v>
       </c>
       <c r="E20" s="3">
-        <v>111800</v>
+        <v>-16900</v>
       </c>
       <c r="F20" s="3">
-        <v>14100</v>
+        <v>108100</v>
       </c>
       <c r="G20" s="3">
-        <v>-70900</v>
+        <v>13600</v>
       </c>
       <c r="H20" s="3">
-        <v>161700</v>
+        <v>-68500</v>
       </c>
       <c r="I20" s="3">
-        <v>266100</v>
+        <v>156400</v>
       </c>
       <c r="J20" s="3">
+        <v>257300</v>
+      </c>
+      <c r="K20" s="3">
         <v>426400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>401800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>212600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>281600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>105100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>64000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>172300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>109400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>213500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>180400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>394400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>81700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>298400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1655700</v>
+        <v>1790900</v>
       </c>
       <c r="E21" s="3">
-        <v>1440900</v>
+        <v>1601200</v>
       </c>
       <c r="F21" s="3">
-        <v>1423000</v>
+        <v>1393400</v>
       </c>
       <c r="G21" s="3">
-        <v>1317000</v>
+        <v>1376100</v>
       </c>
       <c r="H21" s="3">
-        <v>1317200</v>
+        <v>1273700</v>
       </c>
       <c r="I21" s="3">
-        <v>1297800</v>
+        <v>1273800</v>
       </c>
       <c r="J21" s="3">
+        <v>1255100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1783600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1888900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1584500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1712100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1406800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1694300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1652200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1376200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1600300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1668200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1822700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1389400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1580800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,138 +1636,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>911500</v>
+        <v>1063700</v>
       </c>
       <c r="E23" s="3">
-        <v>710400</v>
+        <v>881500</v>
       </c>
       <c r="F23" s="3">
         <v>687000</v>
       </c>
       <c r="G23" s="3">
-        <v>606200</v>
+        <v>664300</v>
       </c>
       <c r="H23" s="3">
-        <v>616100</v>
+        <v>586200</v>
       </c>
       <c r="I23" s="3">
-        <v>565800</v>
+        <v>595800</v>
       </c>
       <c r="J23" s="3">
+        <v>547100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1109900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1192600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>905600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>966400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1021800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1008600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>678100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>975200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1057700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1225900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>806000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1018800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>268300</v>
+        <v>340200</v>
       </c>
       <c r="E24" s="3">
-        <v>230700</v>
+        <v>259500</v>
       </c>
       <c r="F24" s="3">
-        <v>233100</v>
+        <v>223100</v>
       </c>
       <c r="G24" s="3">
-        <v>195900</v>
+        <v>225400</v>
       </c>
       <c r="H24" s="3">
-        <v>156500</v>
+        <v>189500</v>
       </c>
       <c r="I24" s="3">
-        <v>89600</v>
+        <v>151300</v>
       </c>
       <c r="J24" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K24" s="3">
         <v>325100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>349300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>265200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>120600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-77300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>310300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>281100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>135400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>142100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>348400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>403800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>336300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1792,138 +1840,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>643200</v>
+        <v>723500</v>
       </c>
       <c r="E26" s="3">
-        <v>479700</v>
+        <v>622000</v>
       </c>
       <c r="F26" s="3">
-        <v>453900</v>
+        <v>463900</v>
       </c>
       <c r="G26" s="3">
-        <v>410300</v>
+        <v>438900</v>
       </c>
       <c r="H26" s="3">
-        <v>459600</v>
+        <v>396800</v>
       </c>
       <c r="I26" s="3">
-        <v>476200</v>
+        <v>444500</v>
       </c>
       <c r="J26" s="3">
+        <v>460500</v>
+      </c>
+      <c r="K26" s="3">
         <v>784800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>843300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>640300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>845800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>777900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>711500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>727500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>542700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>833100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>709300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>822100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>506000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>682500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>594100</v>
+        <v>717700</v>
       </c>
       <c r="E27" s="3">
-        <v>469400</v>
+        <v>574600</v>
       </c>
       <c r="F27" s="3">
-        <v>438900</v>
+        <v>454000</v>
       </c>
       <c r="G27" s="3">
-        <v>399000</v>
+        <v>424400</v>
       </c>
       <c r="H27" s="3">
-        <v>455900</v>
+        <v>385800</v>
       </c>
       <c r="I27" s="3">
-        <v>471300</v>
+        <v>440900</v>
       </c>
       <c r="J27" s="3">
+        <v>455800</v>
+      </c>
+      <c r="K27" s="3">
         <v>775900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>826500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>634000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>841200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>766100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>697700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>726700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>513000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>817400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>689400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>811000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>497800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>665000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1987,19 +2044,22 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-10200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2007,11 +2067,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>60500</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>58500</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2025,14 +2085,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2043,8 +2103,8 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2052,8 +2112,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2117,8 +2180,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2182,138 +2248,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17500</v>
+        <v>-121500</v>
       </c>
       <c r="E32" s="3">
-        <v>-111800</v>
+        <v>16900</v>
       </c>
       <c r="F32" s="3">
-        <v>-14100</v>
+        <v>-108100</v>
       </c>
       <c r="G32" s="3">
-        <v>70900</v>
+        <v>-13600</v>
       </c>
       <c r="H32" s="3">
-        <v>-161700</v>
+        <v>68500</v>
       </c>
       <c r="I32" s="3">
-        <v>-266100</v>
+        <v>-156400</v>
       </c>
       <c r="J32" s="3">
+        <v>-257300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-426400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-401800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-212600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-281600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-105100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-64000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-172300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-109400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-213500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-180400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-394400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-81700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-298400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>594100</v>
+        <v>717700</v>
       </c>
       <c r="E33" s="3">
-        <v>458900</v>
+        <v>574600</v>
       </c>
       <c r="F33" s="3">
-        <v>438900</v>
+        <v>443800</v>
       </c>
       <c r="G33" s="3">
-        <v>399000</v>
+        <v>424400</v>
       </c>
       <c r="H33" s="3">
-        <v>455900</v>
+        <v>385800</v>
       </c>
       <c r="I33" s="3">
-        <v>531900</v>
+        <v>440900</v>
       </c>
       <c r="J33" s="3">
+        <v>514300</v>
+      </c>
+      <c r="K33" s="3">
         <v>775900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>826500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>634000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>841200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>766100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>697700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>726700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>513000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>817400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>689400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>811000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>497800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>665000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2377,143 +2452,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>594100</v>
+        <v>717700</v>
       </c>
       <c r="E35" s="3">
-        <v>458900</v>
+        <v>574600</v>
       </c>
       <c r="F35" s="3">
-        <v>438900</v>
+        <v>443800</v>
       </c>
       <c r="G35" s="3">
-        <v>399000</v>
+        <v>424400</v>
       </c>
       <c r="H35" s="3">
-        <v>455900</v>
+        <v>385800</v>
       </c>
       <c r="I35" s="3">
-        <v>531900</v>
+        <v>440900</v>
       </c>
       <c r="J35" s="3">
+        <v>514300</v>
+      </c>
+      <c r="K35" s="3">
         <v>775900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>826500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>634000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>841200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>766100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>697700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>726700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>513000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>817400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>689400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>811000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>497800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>665000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2537,8 +2621,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2562,73 +2647,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10349000</v>
+        <v>10236300</v>
       </c>
       <c r="E41" s="3">
-        <v>9834900</v>
+        <v>10008200</v>
       </c>
       <c r="F41" s="3">
-        <v>10322000</v>
+        <v>9511100</v>
       </c>
       <c r="G41" s="3">
-        <v>11909600</v>
+        <v>9982100</v>
       </c>
       <c r="H41" s="3">
-        <v>10752000</v>
+        <v>11517400</v>
       </c>
       <c r="I41" s="3">
-        <v>10342400</v>
+        <v>10397900</v>
       </c>
       <c r="J41" s="3">
+        <v>10001900</v>
+      </c>
+      <c r="K41" s="3">
         <v>9297700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10195800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10468300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12335200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12604300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11656800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12061800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12702300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11964900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11518800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11731700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10051600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9284500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2692,138 +2781,147 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2206200</v>
+        <v>1856600</v>
       </c>
       <c r="E43" s="3">
-        <v>2508800</v>
+        <v>2133500</v>
       </c>
       <c r="F43" s="3">
-        <v>1947300</v>
+        <v>2426200</v>
       </c>
       <c r="G43" s="3">
-        <v>1534700</v>
+        <v>1883100</v>
       </c>
       <c r="H43" s="3">
-        <v>1820400</v>
+        <v>1484100</v>
       </c>
       <c r="I43" s="3">
-        <v>2331300</v>
+        <v>1760500</v>
       </c>
       <c r="J43" s="3">
+        <v>2254500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1999500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1879200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2136800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2139000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1930100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2040800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2255700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2170500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2281800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1973500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1850500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1988700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1868400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1247100</v>
+        <v>1170800</v>
       </c>
       <c r="E44" s="3">
-        <v>1295000</v>
+        <v>1206100</v>
       </c>
       <c r="F44" s="3">
-        <v>1342300</v>
+        <v>1252400</v>
       </c>
       <c r="G44" s="3">
-        <v>1232000</v>
+        <v>1298100</v>
       </c>
       <c r="H44" s="3">
-        <v>1180100</v>
+        <v>1191400</v>
       </c>
       <c r="I44" s="3">
-        <v>1148000</v>
+        <v>1141200</v>
       </c>
       <c r="J44" s="3">
+        <v>1110200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1202100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1161000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1146700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1111800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1369000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1220500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1117200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1003400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1246700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1174100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1116500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1045400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1265400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2887,8 +2985,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2952,138 +3053,147 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78474800</v>
+        <v>64154700</v>
       </c>
       <c r="E47" s="3">
-        <v>78593600</v>
+        <v>63495800</v>
       </c>
       <c r="F47" s="3">
-        <v>76724200</v>
+        <v>63599300</v>
       </c>
       <c r="G47" s="3">
-        <v>75149000</v>
+        <v>61854200</v>
       </c>
       <c r="H47" s="3">
-        <v>74981700</v>
+        <v>60552100</v>
       </c>
       <c r="I47" s="3">
-        <v>74770100</v>
+        <v>60302700</v>
       </c>
       <c r="J47" s="3">
+        <v>59973800</v>
+      </c>
+      <c r="K47" s="3">
         <v>74441200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71989200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>69844300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82078400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>78817700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>75266400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>69855700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>69467000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71014900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>70684000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>70420000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>69927900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>70281800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6703100</v>
+        <v>20028100</v>
       </c>
       <c r="E48" s="3">
-        <v>6725500</v>
+        <v>18877200</v>
       </c>
       <c r="F48" s="3">
-        <v>7210400</v>
+        <v>18910200</v>
       </c>
       <c r="G48" s="3">
-        <v>6907100</v>
+        <v>19316400</v>
       </c>
       <c r="H48" s="3">
-        <v>7020700</v>
+        <v>18801800</v>
       </c>
       <c r="I48" s="3">
-        <v>6982000</v>
+        <v>18999300</v>
       </c>
       <c r="J48" s="3">
+        <v>19086100</v>
+      </c>
+      <c r="K48" s="3">
         <v>6587600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6033700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6371700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5285700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5647800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5234600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5009900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4951600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4682600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4655100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4632500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4521200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4311900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3147,8 +3257,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3212,8 +3325,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3277,8 +3393,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3342,8 +3461,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3407,73 +3529,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>123731700</v>
+        <v>121883500</v>
       </c>
       <c r="E54" s="3">
-        <v>123559700</v>
+        <v>119657100</v>
       </c>
       <c r="F54" s="3">
-        <v>121386100</v>
+        <v>119490800</v>
       </c>
       <c r="G54" s="3">
-        <v>119961100</v>
+        <v>117388800</v>
       </c>
       <c r="H54" s="3">
-        <v>119272700</v>
+        <v>116010700</v>
       </c>
       <c r="I54" s="3">
-        <v>119045200</v>
+        <v>115345000</v>
       </c>
       <c r="J54" s="3">
+        <v>115124900</v>
+      </c>
+      <c r="K54" s="3">
         <v>116999300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>114976800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113629300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117001000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114429700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109422700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>103370600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>103290900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104429300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>103291400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>102314200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>99626900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>98834300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3497,8 +3625,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3522,203 +3651,213 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1916700</v>
+        <v>2028800</v>
       </c>
       <c r="E57" s="3">
-        <v>2375100</v>
+        <v>1853600</v>
       </c>
       <c r="F57" s="3">
-        <v>1936900</v>
+        <v>2296900</v>
       </c>
       <c r="G57" s="3">
-        <v>1795200</v>
+        <v>1873200</v>
       </c>
       <c r="H57" s="3">
-        <v>1738000</v>
+        <v>1736100</v>
       </c>
       <c r="I57" s="3">
-        <v>2575600</v>
+        <v>1680800</v>
       </c>
       <c r="J57" s="3">
+        <v>2490800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2067100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2140100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2032100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2820300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2206000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2131700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2416200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2371200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1898700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1915700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1891500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2233500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1846800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4158400</v>
+        <v>4351900</v>
       </c>
       <c r="E58" s="3">
-        <v>2799200</v>
+        <v>4021500</v>
       </c>
       <c r="F58" s="3">
-        <v>3384000</v>
+        <v>2707000</v>
       </c>
       <c r="G58" s="3">
-        <v>3293500</v>
+        <v>3272500</v>
       </c>
       <c r="H58" s="3">
-        <v>3435800</v>
+        <v>3185000</v>
       </c>
       <c r="I58" s="3">
-        <v>3068500</v>
+        <v>3322700</v>
       </c>
       <c r="J58" s="3">
+        <v>2967500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3499400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2525500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3084300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2974800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6124400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3014300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2165000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2773100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3241500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3034400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3398100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2514400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2628100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24440500</v>
+        <v>23772500</v>
       </c>
       <c r="E59" s="3">
-        <v>24426100</v>
+        <v>23635700</v>
       </c>
       <c r="F59" s="3">
-        <v>24680500</v>
+        <v>23621800</v>
       </c>
       <c r="G59" s="3">
-        <v>24378600</v>
+        <v>23867800</v>
       </c>
       <c r="H59" s="3">
-        <v>24020600</v>
+        <v>23575800</v>
       </c>
       <c r="I59" s="3">
-        <v>23577200</v>
+        <v>23229500</v>
       </c>
       <c r="J59" s="3">
+        <v>22800700</v>
+      </c>
+      <c r="K59" s="3">
         <v>23138900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22619100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21575000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21945200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21264700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21021000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19682100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19204700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19329900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19044800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18495000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18275000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17244500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3782,73 +3921,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39346300</v>
+        <v>38336700</v>
       </c>
       <c r="E61" s="3">
-        <v>40237300</v>
+        <v>38050600</v>
       </c>
       <c r="F61" s="3">
-        <v>39505400</v>
+        <v>38912300</v>
       </c>
       <c r="G61" s="3">
-        <v>38840100</v>
+        <v>38204500</v>
       </c>
       <c r="H61" s="3">
-        <v>39520700</v>
+        <v>37561100</v>
       </c>
       <c r="I61" s="3">
-        <v>38984900</v>
+        <v>38219200</v>
       </c>
       <c r="J61" s="3">
+        <v>37701100</v>
+      </c>
+      <c r="K61" s="3">
         <v>37525700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37410700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37668500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40229600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37481900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35869000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34202200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34591600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35174700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34962700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>35088200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34193700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>34384900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3912,8 +4057,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3977,8 +4125,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4042,8 +4193,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4107,73 +4261,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95968700</v>
+        <v>94417000</v>
       </c>
       <c r="E66" s="3">
-        <v>95970400</v>
+        <v>92808400</v>
       </c>
       <c r="F66" s="3">
-        <v>94618600</v>
+        <v>92810100</v>
       </c>
       <c r="G66" s="3">
-        <v>92816200</v>
+        <v>91502700</v>
       </c>
       <c r="H66" s="3">
-        <v>92533300</v>
+        <v>89759700</v>
       </c>
       <c r="I66" s="3">
-        <v>91773400</v>
+        <v>89486100</v>
       </c>
       <c r="J66" s="3">
+        <v>88751200</v>
+      </c>
+      <c r="K66" s="3">
         <v>89592700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87755300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87183700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89160100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87832500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>83373800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78716600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79041800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>80311500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79690300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79485200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>77383600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>77218100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4197,8 +4357,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4262,8 +4423,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4327,8 +4491,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4392,8 +4559,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4457,73 +4627,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25121600</v>
+        <v>25012000</v>
       </c>
       <c r="E72" s="3">
-        <v>25003200</v>
+        <v>24294300</v>
       </c>
       <c r="F72" s="3">
-        <v>25129500</v>
+        <v>24179800</v>
       </c>
       <c r="G72" s="3">
-        <v>25088500</v>
+        <v>24302000</v>
       </c>
       <c r="H72" s="3">
-        <v>24689600</v>
+        <v>24262300</v>
       </c>
       <c r="I72" s="3">
-        <v>25093100</v>
+        <v>23876500</v>
       </c>
       <c r="J72" s="3">
+        <v>24266800</v>
+      </c>
+      <c r="K72" s="3">
         <v>24561300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24406600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23503000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24559200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23318000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22550800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21382600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20930200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20440400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19935700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19246400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18427200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17917900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4587,8 +4763,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4652,8 +4831,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4717,73 +4899,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27763000</v>
+        <v>27466500</v>
       </c>
       <c r="E76" s="3">
-        <v>27589200</v>
+        <v>26848800</v>
       </c>
       <c r="F76" s="3">
-        <v>26767600</v>
+        <v>26680700</v>
       </c>
       <c r="G76" s="3">
-        <v>27144900</v>
+        <v>25886100</v>
       </c>
       <c r="H76" s="3">
-        <v>26739400</v>
+        <v>26251000</v>
       </c>
       <c r="I76" s="3">
-        <v>27271800</v>
+        <v>25858900</v>
       </c>
       <c r="J76" s="3">
+        <v>26373700</v>
+      </c>
+      <c r="K76" s="3">
         <v>27406600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27221500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26445600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27840900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26597200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26048900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24653900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24249100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24117900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23601100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22829000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22243300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21616300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4847,143 +5035,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>594100</v>
+        <v>717700</v>
       </c>
       <c r="E81" s="3">
-        <v>458900</v>
+        <v>574600</v>
       </c>
       <c r="F81" s="3">
-        <v>438900</v>
+        <v>443800</v>
       </c>
       <c r="G81" s="3">
-        <v>399000</v>
+        <v>424400</v>
       </c>
       <c r="H81" s="3">
-        <v>455900</v>
+        <v>385800</v>
       </c>
       <c r="I81" s="3">
-        <v>531900</v>
+        <v>440900</v>
       </c>
       <c r="J81" s="3">
+        <v>514300</v>
+      </c>
+      <c r="K81" s="3">
         <v>775900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>826500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>634000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>841200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>766100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>697700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>726700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>513000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>817400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>689400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>811000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>497800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>665000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5007,73 +5204,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>744200</v>
+        <v>727300</v>
       </c>
       <c r="E83" s="3">
-        <v>730500</v>
+        <v>719700</v>
       </c>
       <c r="F83" s="3">
-        <v>736000</v>
+        <v>706400</v>
       </c>
       <c r="G83" s="3">
-        <v>710800</v>
+        <v>711800</v>
       </c>
       <c r="H83" s="3">
-        <v>701000</v>
+        <v>687400</v>
       </c>
       <c r="I83" s="3">
-        <v>732100</v>
+        <v>677900</v>
       </c>
       <c r="J83" s="3">
+        <v>708000</v>
+      </c>
+      <c r="K83" s="3">
         <v>673700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>696300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>678900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>745700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>706100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>672500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>643600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>698100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>625100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>610500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>596800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>583400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>562000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5137,8 +5338,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5202,8 +5406,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5267,8 +5474,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5332,8 +5542,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5397,73 +5610,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1993800</v>
+        <v>3297600</v>
       </c>
       <c r="E89" s="3">
-        <v>3093900</v>
+        <v>1928100</v>
       </c>
       <c r="F89" s="3">
-        <v>2152600</v>
+        <v>2992000</v>
       </c>
       <c r="G89" s="3">
-        <v>3076900</v>
+        <v>2081700</v>
       </c>
       <c r="H89" s="3">
-        <v>1658200</v>
+        <v>2975600</v>
       </c>
       <c r="I89" s="3">
-        <v>2931400</v>
+        <v>1603600</v>
       </c>
       <c r="J89" s="3">
+        <v>2834900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1711200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3255200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1636300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1980300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1020200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1637600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>884100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1772000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1193700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1172300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>803500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1250000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>994000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5487,73 +5706,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-48900</v>
+        <v>-65400</v>
       </c>
       <c r="E91" s="3">
-        <v>-54800</v>
+        <v>-47300</v>
       </c>
       <c r="F91" s="3">
-        <v>-105100</v>
+        <v>-53000</v>
       </c>
       <c r="G91" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-150700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-172200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-198600</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-147500</v>
+      </c>
+      <c r="R91" s="3">
         <v>-155900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-84600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-178100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-116600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-62600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-48600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-106500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-127700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-198600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-147500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-155900</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-197500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-222200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-148500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5617,8 +5840,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5682,73 +5908,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1056200</v>
+        <v>-2822900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3230800</v>
+        <v>-1021500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3903300</v>
+        <v>-3124400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1666600</v>
+        <v>-3774800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2161000</v>
+        <v>-1611700</v>
       </c>
       <c r="I94" s="3">
-        <v>-3487600</v>
+        <v>-2089800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3372700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>32500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-760600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>116900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5772,73 +6004,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-477700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-462000</v>
       </c>
       <c r="F96" s="3">
-        <v>-397800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-384700</v>
       </c>
       <c r="H96" s="3">
-        <v>-469100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-453700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-408700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-540100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-363000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-454400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-312700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-345000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-267500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5902,8 +6138,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5967,8 +6206,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6032,199 +6274,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-434100</v>
+        <v>-251600</v>
       </c>
       <c r="E100" s="3">
-        <v>-457400</v>
+        <v>-419800</v>
       </c>
       <c r="F100" s="3">
-        <v>163500</v>
+        <v>-442300</v>
       </c>
       <c r="G100" s="3">
-        <v>-253400</v>
+        <v>158100</v>
       </c>
       <c r="H100" s="3">
-        <v>910700</v>
+        <v>-245100</v>
       </c>
       <c r="I100" s="3">
-        <v>1641600</v>
+        <v>880700</v>
       </c>
       <c r="J100" s="3">
+        <v>1587500</v>
+      </c>
+      <c r="K100" s="3">
         <v>927700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-136900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>197600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-769700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3671900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>352000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-330300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>571200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>434300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>622800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>713600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-108100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10600</v>
+        <v>4900</v>
       </c>
       <c r="E101" s="3">
-        <v>107200</v>
+        <v>10300</v>
       </c>
       <c r="F101" s="3">
+        <v>103700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-40700</v>
-      </c>
       <c r="J101" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="K101" s="3">
         <v>51700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-35300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-58100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-69800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>49100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-82800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>24000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>42100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>41400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>141000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>514100</v>
+        <v>228000</v>
       </c>
       <c r="E102" s="3">
-        <v>-487000</v>
+        <v>497200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1587600</v>
+        <v>-471000</v>
       </c>
       <c r="G102" s="3">
-        <v>1157500</v>
+        <v>-1535300</v>
       </c>
       <c r="H102" s="3">
-        <v>409600</v>
+        <v>1119400</v>
       </c>
       <c r="I102" s="3">
-        <v>1044700</v>
+        <v>396100</v>
       </c>
       <c r="J102" s="3">
+        <v>1010300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-809300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-306900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-496100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>759200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-670400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-710700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>798800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>424100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-166800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1487500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>874100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-181900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5574300</v>
+        <v>5344700</v>
       </c>
       <c r="E8" s="3">
-        <v>5363600</v>
+        <v>5397100</v>
       </c>
       <c r="F8" s="3">
-        <v>5524000</v>
+        <v>5193200</v>
       </c>
       <c r="G8" s="3">
-        <v>5118200</v>
+        <v>5348400</v>
       </c>
       <c r="H8" s="3">
-        <v>4819900</v>
+        <v>4955600</v>
       </c>
       <c r="I8" s="3">
-        <v>4736600</v>
+        <v>4666700</v>
       </c>
       <c r="J8" s="3">
+        <v>4586100</v>
+      </c>
+      <c r="K8" s="3">
         <v>5250300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5208200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5394500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5023800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6138000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5042300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6113700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5489600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6037700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6120900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6558500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7162400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6678100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6250200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3498700</v>
+        <v>3277400</v>
       </c>
       <c r="E9" s="3">
-        <v>3211100</v>
+        <v>3387500</v>
       </c>
       <c r="F9" s="3">
-        <v>3617900</v>
+        <v>3109000</v>
       </c>
       <c r="G9" s="3">
-        <v>3187300</v>
+        <v>3502900</v>
       </c>
       <c r="H9" s="3">
-        <v>2967100</v>
+        <v>3086000</v>
       </c>
       <c r="I9" s="3">
-        <v>3063300</v>
+        <v>2872800</v>
       </c>
       <c r="J9" s="3">
+        <v>2965900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3323400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3188900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3275300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2984300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3960200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3109200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3952000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3459500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4148400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4173600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4727200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5316600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4878500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4517300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2075600</v>
+        <v>2067300</v>
       </c>
       <c r="E10" s="3">
-        <v>2152600</v>
+        <v>2009600</v>
       </c>
       <c r="F10" s="3">
-        <v>1906100</v>
+        <v>2084200</v>
       </c>
       <c r="G10" s="3">
-        <v>1930900</v>
+        <v>1845500</v>
       </c>
       <c r="H10" s="3">
-        <v>1852800</v>
+        <v>1869500</v>
       </c>
       <c r="I10" s="3">
-        <v>1673300</v>
+        <v>1794000</v>
       </c>
       <c r="J10" s="3">
+        <v>1620200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1926900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2019300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2119200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2039500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2177800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1933100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2161700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2030100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1889300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1947200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1831300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1845700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1799600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1732900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,144 +1130,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>127800</v>
       </c>
       <c r="E14" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>16100</v>
+        <v>700</v>
       </c>
       <c r="G14" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>2900</v>
-      </c>
       <c r="I14" s="3">
-        <v>-36200</v>
+        <v>2800</v>
       </c>
       <c r="J14" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K14" s="3">
         <v>22500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>38400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>30100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I15" s="3">
         <v>18100</v>
       </c>
-      <c r="E15" s="3">
-        <v>21000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>18800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>18100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>18700</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K15" s="3">
+        <v>20100</v>
+      </c>
+      <c r="L15" s="3">
         <v>17200</v>
       </c>
-      <c r="J15" s="3">
-        <v>20100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>17200</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9900</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
         <v>11400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>11000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1273,144 +1298,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4632100</v>
+        <v>4720300</v>
       </c>
       <c r="E17" s="3">
-        <v>4465200</v>
+        <v>4484900</v>
       </c>
       <c r="F17" s="3">
-        <v>4945100</v>
+        <v>4323300</v>
       </c>
       <c r="G17" s="3">
-        <v>4467500</v>
+        <v>4787900</v>
       </c>
       <c r="H17" s="3">
-        <v>4165100</v>
+        <v>4325500</v>
       </c>
       <c r="I17" s="3">
-        <v>4297200</v>
+        <v>4032800</v>
       </c>
       <c r="J17" s="3">
+        <v>4160600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4960500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4524800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4603700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4330800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5453200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4446700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5155900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4653400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5469000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5359200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5681200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6330900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5953800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5529800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>942100</v>
+        <v>624400</v>
       </c>
       <c r="E18" s="3">
-        <v>898400</v>
+        <v>912200</v>
       </c>
       <c r="F18" s="3">
-        <v>578900</v>
+        <v>869900</v>
       </c>
       <c r="G18" s="3">
-        <v>650700</v>
+        <v>560500</v>
       </c>
       <c r="H18" s="3">
-        <v>654800</v>
+        <v>630100</v>
       </c>
       <c r="I18" s="3">
-        <v>439500</v>
+        <v>634000</v>
       </c>
       <c r="J18" s="3">
+        <v>425500</v>
+      </c>
+      <c r="K18" s="3">
         <v>289800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>683400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>790800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>693000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>684800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>595600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>957800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>836200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>568700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>761700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>877300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>831500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>724300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>720400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1435,144 +1467,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>121500</v>
+        <v>193600</v>
       </c>
       <c r="E20" s="3">
-        <v>-16900</v>
+        <v>117700</v>
       </c>
       <c r="F20" s="3">
-        <v>108100</v>
+        <v>-16400</v>
       </c>
       <c r="G20" s="3">
-        <v>13600</v>
+        <v>104600</v>
       </c>
       <c r="H20" s="3">
-        <v>-68500</v>
+        <v>13200</v>
       </c>
       <c r="I20" s="3">
-        <v>156400</v>
+        <v>-66400</v>
       </c>
       <c r="J20" s="3">
+        <v>151400</v>
+      </c>
+      <c r="K20" s="3">
         <v>257300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>426400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>401800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>212600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>281600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>105100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>64000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>172300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>109400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>213500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>180400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>394400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>81700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>298400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1790900</v>
+        <v>1522200</v>
       </c>
       <c r="E21" s="3">
-        <v>1601200</v>
+        <v>1734000</v>
       </c>
       <c r="F21" s="3">
-        <v>1393400</v>
+        <v>1550300</v>
       </c>
       <c r="G21" s="3">
-        <v>1376100</v>
+        <v>1349200</v>
       </c>
       <c r="H21" s="3">
-        <v>1273700</v>
+        <v>1332400</v>
       </c>
       <c r="I21" s="3">
-        <v>1273800</v>
+        <v>1233200</v>
       </c>
       <c r="J21" s="3">
+        <v>1233300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1255100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1783600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1888900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1584500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1712100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1406800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1694300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1652200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1376200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1600300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1668200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1822700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1389400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1580800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1639,144 +1678,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1063700</v>
+        <v>818000</v>
       </c>
       <c r="E23" s="3">
-        <v>881500</v>
+        <v>1029900</v>
       </c>
       <c r="F23" s="3">
-        <v>687000</v>
+        <v>853500</v>
       </c>
       <c r="G23" s="3">
-        <v>664300</v>
+        <v>665200</v>
       </c>
       <c r="H23" s="3">
-        <v>586200</v>
+        <v>643200</v>
       </c>
       <c r="I23" s="3">
-        <v>595800</v>
+        <v>567600</v>
       </c>
       <c r="J23" s="3">
+        <v>576900</v>
+      </c>
+      <c r="K23" s="3">
         <v>547100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1109900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1192600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>905600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>966400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1021800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1008600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>678100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>975200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1057700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1225900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>806000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1018800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>340200</v>
+        <v>280600</v>
       </c>
       <c r="E24" s="3">
-        <v>259500</v>
+        <v>329400</v>
       </c>
       <c r="F24" s="3">
-        <v>223100</v>
+        <v>251300</v>
       </c>
       <c r="G24" s="3">
-        <v>225400</v>
+        <v>216000</v>
       </c>
       <c r="H24" s="3">
-        <v>189500</v>
+        <v>218200</v>
       </c>
       <c r="I24" s="3">
-        <v>151300</v>
+        <v>183400</v>
       </c>
       <c r="J24" s="3">
+        <v>146500</v>
+      </c>
+      <c r="K24" s="3">
         <v>86600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>325100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>349300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>265200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>120600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-77300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>310300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>281100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>135400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>142100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>348400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>403800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>336300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,144 +1891,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>723500</v>
+        <v>537500</v>
       </c>
       <c r="E26" s="3">
-        <v>622000</v>
+        <v>700500</v>
       </c>
       <c r="F26" s="3">
-        <v>463900</v>
+        <v>602200</v>
       </c>
       <c r="G26" s="3">
-        <v>438900</v>
+        <v>449200</v>
       </c>
       <c r="H26" s="3">
-        <v>396800</v>
+        <v>425000</v>
       </c>
       <c r="I26" s="3">
-        <v>444500</v>
+        <v>384200</v>
       </c>
       <c r="J26" s="3">
+        <v>430400</v>
+      </c>
+      <c r="K26" s="3">
         <v>460500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>784800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>843300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>640300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>845800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>777900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>711500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>727500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>542700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>833100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>709300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>822100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>506000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>682500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>717700</v>
+        <v>551500</v>
       </c>
       <c r="E27" s="3">
-        <v>574600</v>
+        <v>694900</v>
       </c>
       <c r="F27" s="3">
-        <v>454000</v>
+        <v>556300</v>
       </c>
       <c r="G27" s="3">
-        <v>424400</v>
+        <v>439500</v>
       </c>
       <c r="H27" s="3">
-        <v>385800</v>
+        <v>410900</v>
       </c>
       <c r="I27" s="3">
-        <v>440900</v>
+        <v>373600</v>
       </c>
       <c r="J27" s="3">
+        <v>426900</v>
+      </c>
+      <c r="K27" s="3">
         <v>455800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>775900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>826500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>634000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>841200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>766100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>697700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>726700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>513000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>817400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>689400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>811000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>497800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>665000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2047,8 +2104,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2058,11 +2118,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-9900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2070,11 +2130,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>58500</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2088,14 +2148,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2106,8 +2166,8 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2115,8 +2175,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2183,8 +2246,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2251,144 +2317,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-121500</v>
+        <v>-193600</v>
       </c>
       <c r="E32" s="3">
-        <v>16900</v>
+        <v>-117700</v>
       </c>
       <c r="F32" s="3">
-        <v>-108100</v>
+        <v>16400</v>
       </c>
       <c r="G32" s="3">
-        <v>-13600</v>
+        <v>-104600</v>
       </c>
       <c r="H32" s="3">
-        <v>68500</v>
+        <v>-13200</v>
       </c>
       <c r="I32" s="3">
-        <v>-156400</v>
+        <v>66400</v>
       </c>
       <c r="J32" s="3">
+        <v>-151400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-257300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-426400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-401800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-212600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-281600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-105100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-172300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-109400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-213500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-180400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-394400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-81700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-298400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>717700</v>
+        <v>551500</v>
       </c>
       <c r="E33" s="3">
-        <v>574600</v>
+        <v>694900</v>
       </c>
       <c r="F33" s="3">
-        <v>443800</v>
+        <v>556300</v>
       </c>
       <c r="G33" s="3">
-        <v>424400</v>
+        <v>429600</v>
       </c>
       <c r="H33" s="3">
-        <v>385800</v>
+        <v>410900</v>
       </c>
       <c r="I33" s="3">
-        <v>440900</v>
+        <v>373600</v>
       </c>
       <c r="J33" s="3">
+        <v>426900</v>
+      </c>
+      <c r="K33" s="3">
         <v>514300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>775900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>826500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>634000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>841200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>766100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>697700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>726700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>513000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>817400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>689400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>811000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>497800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>665000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2455,149 +2530,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>717700</v>
+        <v>551500</v>
       </c>
       <c r="E35" s="3">
-        <v>574600</v>
+        <v>694900</v>
       </c>
       <c r="F35" s="3">
-        <v>443800</v>
+        <v>556300</v>
       </c>
       <c r="G35" s="3">
-        <v>424400</v>
+        <v>429600</v>
       </c>
       <c r="H35" s="3">
-        <v>385800</v>
+        <v>410900</v>
       </c>
       <c r="I35" s="3">
-        <v>440900</v>
+        <v>373600</v>
       </c>
       <c r="J35" s="3">
+        <v>426900</v>
+      </c>
+      <c r="K35" s="3">
         <v>514300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>775900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>826500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>634000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>841200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>766100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>697700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>726700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>513000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>817400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>689400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>811000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>497800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>665000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2622,8 +2706,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2648,76 +2733,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10236300</v>
+        <v>8795800</v>
       </c>
       <c r="E41" s="3">
-        <v>10008200</v>
+        <v>9910900</v>
       </c>
       <c r="F41" s="3">
-        <v>9511100</v>
+        <v>9690100</v>
       </c>
       <c r="G41" s="3">
-        <v>9982100</v>
+        <v>9208800</v>
       </c>
       <c r="H41" s="3">
-        <v>11517400</v>
+        <v>9664800</v>
       </c>
       <c r="I41" s="3">
-        <v>10397900</v>
+        <v>11151300</v>
       </c>
       <c r="J41" s="3">
+        <v>10067500</v>
+      </c>
+      <c r="K41" s="3">
         <v>10001900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9297700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10195800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10468300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12335200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12604300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11656800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12061800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12702300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11964900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11518800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11731700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10051600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9284500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2784,144 +2873,153 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1856600</v>
+        <v>1959500</v>
       </c>
       <c r="E43" s="3">
-        <v>2133500</v>
+        <v>1797600</v>
       </c>
       <c r="F43" s="3">
-        <v>2426200</v>
+        <v>2065700</v>
       </c>
       <c r="G43" s="3">
-        <v>1883100</v>
+        <v>2349100</v>
       </c>
       <c r="H43" s="3">
-        <v>1484100</v>
+        <v>1823300</v>
       </c>
       <c r="I43" s="3">
-        <v>1760500</v>
+        <v>1437000</v>
       </c>
       <c r="J43" s="3">
+        <v>1704500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2254500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1999500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1879200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2136800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2139000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1930100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2040800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2255700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2170500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2281800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1973500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1850500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1988700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1868400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1170800</v>
+        <v>1177300</v>
       </c>
       <c r="E44" s="3">
-        <v>1206100</v>
+        <v>1133600</v>
       </c>
       <c r="F44" s="3">
-        <v>1252400</v>
+        <v>1167700</v>
       </c>
       <c r="G44" s="3">
-        <v>1298100</v>
+        <v>1212600</v>
       </c>
       <c r="H44" s="3">
-        <v>1191400</v>
+        <v>1256800</v>
       </c>
       <c r="I44" s="3">
-        <v>1141200</v>
+        <v>1153500</v>
       </c>
       <c r="J44" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1110200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1202100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1161000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1146700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1111800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1369000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1220500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1117200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1003400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1246700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1174100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1116500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1045400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1265400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2988,8 +3086,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3056,144 +3157,153 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>64154700</v>
+        <v>64956900</v>
       </c>
       <c r="E47" s="3">
-        <v>63495800</v>
+        <v>62115800</v>
       </c>
       <c r="F47" s="3">
-        <v>63599300</v>
+        <v>61477800</v>
       </c>
       <c r="G47" s="3">
-        <v>61854200</v>
+        <v>61578000</v>
       </c>
       <c r="H47" s="3">
-        <v>60552100</v>
+        <v>59888400</v>
       </c>
       <c r="I47" s="3">
-        <v>60302700</v>
+        <v>58627600</v>
       </c>
       <c r="J47" s="3">
+        <v>58386100</v>
+      </c>
+      <c r="K47" s="3">
         <v>59973800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>74441200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>71989200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>69844300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>82078400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>78817700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>75266400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>69855700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>69467000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>71014900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>70684000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>70420000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>69927900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>70281800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20028100</v>
+        <v>19231800</v>
       </c>
       <c r="E48" s="3">
-        <v>18877200</v>
+        <v>19391500</v>
       </c>
       <c r="F48" s="3">
-        <v>18910200</v>
+        <v>18277200</v>
       </c>
       <c r="G48" s="3">
-        <v>19316400</v>
+        <v>18309200</v>
       </c>
       <c r="H48" s="3">
-        <v>18801800</v>
+        <v>18702500</v>
       </c>
       <c r="I48" s="3">
-        <v>18999300</v>
+        <v>18204300</v>
       </c>
       <c r="J48" s="3">
+        <v>18395500</v>
+      </c>
+      <c r="K48" s="3">
         <v>19086100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6587600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6033700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6371700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5285700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5647800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5234600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5009900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4951600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4682600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4655100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4632500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4521200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4311900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3260,8 +3370,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3328,8 +3441,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3396,8 +3512,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3464,8 +3583,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3532,76 +3654,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>121883500</v>
+        <v>120197600</v>
       </c>
       <c r="E54" s="3">
-        <v>119657100</v>
+        <v>118009800</v>
       </c>
       <c r="F54" s="3">
-        <v>119490800</v>
+        <v>115854200</v>
       </c>
       <c r="G54" s="3">
-        <v>117388800</v>
+        <v>115693100</v>
       </c>
       <c r="H54" s="3">
-        <v>116010700</v>
+        <v>113657900</v>
       </c>
       <c r="I54" s="3">
-        <v>115345000</v>
+        <v>112323600</v>
       </c>
       <c r="J54" s="3">
+        <v>111679100</v>
+      </c>
+      <c r="K54" s="3">
         <v>115124900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>116999300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114976800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113629300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117001000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114429700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>109422700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>103370600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>103290900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104429300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>103291400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>102314200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>99626900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>98834300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3626,8 +3754,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3652,212 +3781,222 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2028800</v>
+        <v>1932000</v>
       </c>
       <c r="E57" s="3">
-        <v>1853600</v>
+        <v>1964300</v>
       </c>
       <c r="F57" s="3">
-        <v>2296900</v>
+        <v>1794700</v>
       </c>
       <c r="G57" s="3">
-        <v>1873200</v>
+        <v>2223900</v>
       </c>
       <c r="H57" s="3">
-        <v>1736100</v>
+        <v>1813600</v>
       </c>
       <c r="I57" s="3">
-        <v>1680800</v>
+        <v>1680900</v>
       </c>
       <c r="J57" s="3">
+        <v>1627400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2490800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2067100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2140100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2032100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2820300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2206000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2131700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2416200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2371200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1898700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1915700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1891500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2233500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1846800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4351900</v>
+        <v>5680000</v>
       </c>
       <c r="E58" s="3">
-        <v>4021500</v>
+        <v>4213600</v>
       </c>
       <c r="F58" s="3">
-        <v>2707000</v>
+        <v>3893600</v>
       </c>
       <c r="G58" s="3">
-        <v>3272500</v>
+        <v>2621000</v>
       </c>
       <c r="H58" s="3">
-        <v>3185000</v>
+        <v>3168500</v>
       </c>
       <c r="I58" s="3">
-        <v>3322700</v>
+        <v>3083800</v>
       </c>
       <c r="J58" s="3">
+        <v>3217100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2967500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3499400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2525500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3084300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2974800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6124400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3014300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2165000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2773100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3241500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3034400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3398100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2514400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2628100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23772500</v>
+        <v>23043400</v>
       </c>
       <c r="E59" s="3">
-        <v>23635700</v>
+        <v>23016900</v>
       </c>
       <c r="F59" s="3">
-        <v>23621800</v>
+        <v>22884500</v>
       </c>
       <c r="G59" s="3">
-        <v>23867800</v>
+        <v>22871000</v>
       </c>
       <c r="H59" s="3">
-        <v>23575800</v>
+        <v>23109200</v>
       </c>
       <c r="I59" s="3">
-        <v>23229500</v>
+        <v>22826500</v>
       </c>
       <c r="J59" s="3">
+        <v>22491300</v>
+      </c>
+      <c r="K59" s="3">
         <v>22800700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23138900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22619100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21575000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21945200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21264700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21021000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19682100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19204700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19329900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19044800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18495000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18275000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17244500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3924,76 +4063,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38336700</v>
+        <v>37111800</v>
       </c>
       <c r="E61" s="3">
-        <v>38050600</v>
+        <v>37118200</v>
       </c>
       <c r="F61" s="3">
-        <v>38912300</v>
+        <v>36841300</v>
       </c>
       <c r="G61" s="3">
-        <v>38204500</v>
+        <v>37675600</v>
       </c>
       <c r="H61" s="3">
-        <v>37561100</v>
+        <v>36990300</v>
       </c>
       <c r="I61" s="3">
-        <v>38219200</v>
+        <v>36367300</v>
       </c>
       <c r="J61" s="3">
+        <v>37004500</v>
+      </c>
+      <c r="K61" s="3">
         <v>37701100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37525700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37410700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37668500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40229600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37481900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35869000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34202200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34591600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>35174700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34962700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>35088200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>34193700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34384900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4060,8 +4205,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4128,8 +4276,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4196,8 +4347,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4264,76 +4418,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94417000</v>
+        <v>93345500</v>
       </c>
       <c r="E66" s="3">
-        <v>92808400</v>
+        <v>91416200</v>
       </c>
       <c r="F66" s="3">
-        <v>92810100</v>
+        <v>89858700</v>
       </c>
       <c r="G66" s="3">
-        <v>91502700</v>
+        <v>89860400</v>
       </c>
       <c r="H66" s="3">
-        <v>89759700</v>
+        <v>88594500</v>
       </c>
       <c r="I66" s="3">
-        <v>89486100</v>
+        <v>86906900</v>
       </c>
       <c r="J66" s="3">
+        <v>86642100</v>
+      </c>
+      <c r="K66" s="3">
         <v>88751200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89592700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87755300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87183700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89160100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87832500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>83373800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78716600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79041800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>80311500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79690300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79485200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>77383600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>77218100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4358,8 +4518,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4426,8 +4587,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4494,8 +4658,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4562,8 +4729,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4630,76 +4800,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25012000</v>
+        <v>24368100</v>
       </c>
       <c r="E72" s="3">
-        <v>24294300</v>
+        <v>24217100</v>
       </c>
       <c r="F72" s="3">
-        <v>24179800</v>
+        <v>23522200</v>
       </c>
       <c r="G72" s="3">
-        <v>24302000</v>
+        <v>23411300</v>
       </c>
       <c r="H72" s="3">
-        <v>24262300</v>
+        <v>23529600</v>
       </c>
       <c r="I72" s="3">
-        <v>23876500</v>
+        <v>23491200</v>
       </c>
       <c r="J72" s="3">
+        <v>23117700</v>
+      </c>
+      <c r="K72" s="3">
         <v>24266800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24561300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24406600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23503000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24559200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23318000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22550800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21382600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20930200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20440400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19935700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19246400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18427200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17917900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4766,8 +4942,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4834,8 +5013,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4902,76 +5084,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27466500</v>
+        <v>26852100</v>
       </c>
       <c r="E76" s="3">
-        <v>26848800</v>
+        <v>26593600</v>
       </c>
       <c r="F76" s="3">
-        <v>26680700</v>
+        <v>25995400</v>
       </c>
       <c r="G76" s="3">
-        <v>25886100</v>
+        <v>25832700</v>
       </c>
       <c r="H76" s="3">
-        <v>26251000</v>
+        <v>25063400</v>
       </c>
       <c r="I76" s="3">
-        <v>25858900</v>
+        <v>25416700</v>
       </c>
       <c r="J76" s="3">
+        <v>25037000</v>
+      </c>
+      <c r="K76" s="3">
         <v>26373700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27406600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27221500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26445600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27840900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26597200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26048900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24653900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24249100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24117900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23601100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22829000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22243300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21616300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5038,149 +5226,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>717700</v>
+        <v>551500</v>
       </c>
       <c r="E81" s="3">
-        <v>574600</v>
+        <v>694900</v>
       </c>
       <c r="F81" s="3">
-        <v>443800</v>
+        <v>556300</v>
       </c>
       <c r="G81" s="3">
-        <v>424400</v>
+        <v>429600</v>
       </c>
       <c r="H81" s="3">
-        <v>385800</v>
+        <v>410900</v>
       </c>
       <c r="I81" s="3">
-        <v>440900</v>
+        <v>373600</v>
       </c>
       <c r="J81" s="3">
+        <v>426900</v>
+      </c>
+      <c r="K81" s="3">
         <v>514300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>775900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>826500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>634000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>841200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>766100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>697700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>726700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>513000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>817400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>689400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>811000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>497800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>665000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5205,76 +5402,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>727300</v>
+        <v>704100</v>
       </c>
       <c r="E83" s="3">
-        <v>719700</v>
+        <v>704200</v>
       </c>
       <c r="F83" s="3">
-        <v>706400</v>
+        <v>696800</v>
       </c>
       <c r="G83" s="3">
-        <v>711800</v>
+        <v>684000</v>
       </c>
       <c r="H83" s="3">
-        <v>687400</v>
+        <v>689100</v>
       </c>
       <c r="I83" s="3">
-        <v>677900</v>
+        <v>665600</v>
       </c>
       <c r="J83" s="3">
+        <v>656400</v>
+      </c>
+      <c r="K83" s="3">
         <v>708000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>673700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>696300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>678900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>745700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>706100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>672500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>643600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>698100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>625100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>610500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>596800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>583400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>562000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5341,8 +5542,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5409,8 +5613,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5477,8 +5684,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5545,8 +5755,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5613,76 +5826,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3297600</v>
+        <v>1470300</v>
       </c>
       <c r="E89" s="3">
-        <v>1928100</v>
+        <v>3192800</v>
       </c>
       <c r="F89" s="3">
-        <v>2992000</v>
+        <v>1866900</v>
       </c>
       <c r="G89" s="3">
-        <v>2081700</v>
+        <v>2897000</v>
       </c>
       <c r="H89" s="3">
-        <v>2975600</v>
+        <v>2015500</v>
       </c>
       <c r="I89" s="3">
-        <v>1603600</v>
+        <v>2881100</v>
       </c>
       <c r="J89" s="3">
+        <v>1552600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2834900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1711200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3255200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1636300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1980300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1020200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1637600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>884100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1772000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1193700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1172300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>803500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1250000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>994000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5707,76 +5926,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65400</v>
+        <v>-120200</v>
       </c>
       <c r="E91" s="3">
-        <v>-47300</v>
+        <v>-63400</v>
       </c>
       <c r="F91" s="3">
-        <v>-53000</v>
+        <v>-45800</v>
       </c>
       <c r="G91" s="3">
-        <v>-101700</v>
+        <v>-51300</v>
       </c>
       <c r="H91" s="3">
-        <v>-150700</v>
+        <v>-98400</v>
       </c>
       <c r="I91" s="3">
-        <v>-81800</v>
+        <v>-145900</v>
       </c>
       <c r="J91" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-172200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-116600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-106500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-127700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-198600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-147500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-155900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-197500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-222200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-148500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5843,8 +6066,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5911,76 +6137,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2822900</v>
+        <v>-2873800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1021500</v>
+        <v>-2733200</v>
       </c>
       <c r="F94" s="3">
-        <v>-3124400</v>
+        <v>-989000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3774800</v>
+        <v>-3025100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1611700</v>
+        <v>-3654800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2089800</v>
+        <v>-1560500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2023400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3372700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>32500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-760600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>116900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6005,76 +6237,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-400500</v>
       </c>
       <c r="E96" s="3">
-        <v>-462000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-447300</v>
       </c>
       <c r="G96" s="3">
-        <v>-384700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-372500</v>
       </c>
       <c r="I96" s="3">
-        <v>-453700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-439200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-408700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-540100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-363000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-454400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-312700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-345000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-267500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6141,8 +6377,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6209,8 +6448,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6277,208 +6519,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-251600</v>
+        <v>238800</v>
       </c>
       <c r="E100" s="3">
-        <v>-419800</v>
+        <v>-243600</v>
       </c>
       <c r="F100" s="3">
-        <v>-442300</v>
+        <v>-406500</v>
       </c>
       <c r="G100" s="3">
-        <v>158100</v>
+        <v>-428300</v>
       </c>
       <c r="H100" s="3">
-        <v>-245100</v>
+        <v>153100</v>
       </c>
       <c r="I100" s="3">
-        <v>880700</v>
+        <v>-237300</v>
       </c>
       <c r="J100" s="3">
+        <v>852700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1587500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>927700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-136900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>197600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-769700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3671900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>352000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-330300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>571200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>434300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>622800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>713600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-108100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4900</v>
+        <v>49500</v>
       </c>
       <c r="E101" s="3">
-        <v>10300</v>
+        <v>4800</v>
       </c>
       <c r="F101" s="3">
-        <v>103700</v>
+        <v>10000</v>
       </c>
       <c r="G101" s="3">
+        <v>100400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>600</v>
-      </c>
       <c r="I101" s="3">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="J101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-39400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>51700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-35300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-58100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-69800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>49100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-82800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>24000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>42100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>41400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>141000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>228000</v>
+        <v>-1115100</v>
       </c>
       <c r="E102" s="3">
-        <v>497200</v>
+        <v>220800</v>
       </c>
       <c r="F102" s="3">
-        <v>-471000</v>
+        <v>481400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1535300</v>
+        <v>-456000</v>
       </c>
       <c r="H102" s="3">
-        <v>1119400</v>
+        <v>-1486500</v>
       </c>
       <c r="I102" s="3">
-        <v>396100</v>
+        <v>1083800</v>
       </c>
       <c r="J102" s="3">
+        <v>383500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1010300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-809300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-306900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-496100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>759200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-670400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-710700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>798800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>424100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-166800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1487500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>874100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-181900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5344700</v>
+        <v>5081000</v>
       </c>
       <c r="E8" s="3">
-        <v>5397100</v>
+        <v>4881100</v>
       </c>
       <c r="F8" s="3">
-        <v>5193200</v>
+        <v>4928900</v>
       </c>
       <c r="G8" s="3">
-        <v>5348400</v>
+        <v>4742700</v>
       </c>
       <c r="H8" s="3">
-        <v>4955600</v>
+        <v>4884400</v>
       </c>
       <c r="I8" s="3">
-        <v>4666700</v>
+        <v>4525600</v>
       </c>
       <c r="J8" s="3">
+        <v>4261900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4586100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5250300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5208200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5394500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5023800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6138000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5042300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6113700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5489600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6037700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6120900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6558500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7162400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6678100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6250200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3277400</v>
+        <v>3276600</v>
       </c>
       <c r="E9" s="3">
-        <v>3387500</v>
+        <v>2993100</v>
       </c>
       <c r="F9" s="3">
-        <v>3109000</v>
+        <v>3093600</v>
       </c>
       <c r="G9" s="3">
-        <v>3502900</v>
+        <v>2839300</v>
       </c>
       <c r="H9" s="3">
-        <v>3086000</v>
+        <v>3199000</v>
       </c>
       <c r="I9" s="3">
-        <v>2872800</v>
+        <v>2818300</v>
       </c>
       <c r="J9" s="3">
+        <v>2623600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2965900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3323400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3188900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3275300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2984300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3960200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3109200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3952000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3459500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4148400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4173600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4727200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5316600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4878500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4517300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2067300</v>
+        <v>1804500</v>
       </c>
       <c r="E10" s="3">
-        <v>2009600</v>
+        <v>1888000</v>
       </c>
       <c r="F10" s="3">
-        <v>2084200</v>
+        <v>1835300</v>
       </c>
       <c r="G10" s="3">
-        <v>1845500</v>
+        <v>1903300</v>
       </c>
       <c r="H10" s="3">
-        <v>1869500</v>
+        <v>1685400</v>
       </c>
       <c r="I10" s="3">
-        <v>1794000</v>
+        <v>1707400</v>
       </c>
       <c r="J10" s="3">
+        <v>1638300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1620200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1926900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2019300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2119200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2039500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2177800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1933100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2161700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2030100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1889300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1947200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1831300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1845700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1799600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1732900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1062,8 +1075,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,150 +1149,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>127800</v>
+        <v>160500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>116700</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
-        <v>15600</v>
-      </c>
       <c r="H14" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>2800</v>
-      </c>
       <c r="J14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-35000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>38400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>30100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>19900</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="F15" s="3">
-        <v>20300</v>
+        <v>16000</v>
       </c>
       <c r="G15" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="H15" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="I15" s="3">
-        <v>18100</v>
+        <v>16000</v>
       </c>
       <c r="J15" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K15" s="3">
         <v>16700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9900</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
         <v>11400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>11000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>11900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1299,150 +1324,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4720300</v>
+        <v>4925500</v>
       </c>
       <c r="E17" s="3">
-        <v>4484900</v>
+        <v>4310800</v>
       </c>
       <c r="F17" s="3">
-        <v>4323300</v>
+        <v>4095800</v>
       </c>
       <c r="G17" s="3">
-        <v>4787900</v>
+        <v>3948200</v>
       </c>
       <c r="H17" s="3">
-        <v>4325500</v>
+        <v>4372500</v>
       </c>
       <c r="I17" s="3">
-        <v>4032800</v>
+        <v>3950200</v>
       </c>
       <c r="J17" s="3">
+        <v>3682900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4160600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4960500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4524800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4603700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4330800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5453200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4446700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5155900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4653400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5469000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5359200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5681200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6330900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5953800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5529800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>624400</v>
+        <v>155500</v>
       </c>
       <c r="E18" s="3">
-        <v>912200</v>
+        <v>570200</v>
       </c>
       <c r="F18" s="3">
-        <v>869900</v>
+        <v>833000</v>
       </c>
       <c r="G18" s="3">
-        <v>560500</v>
+        <v>794400</v>
       </c>
       <c r="H18" s="3">
-        <v>630100</v>
+        <v>511900</v>
       </c>
       <c r="I18" s="3">
-        <v>634000</v>
+        <v>575400</v>
       </c>
       <c r="J18" s="3">
+        <v>579000</v>
+      </c>
+      <c r="K18" s="3">
         <v>425500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>289800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>683400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>790800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>693000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>684800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>595600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>957800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>836200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>568700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>761700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>877300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>831500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>724300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>720400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,150 +1500,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>193600</v>
+        <v>1310500</v>
       </c>
       <c r="E20" s="3">
-        <v>117700</v>
+        <v>176800</v>
       </c>
       <c r="F20" s="3">
-        <v>-16400</v>
+        <v>107500</v>
       </c>
       <c r="G20" s="3">
-        <v>104600</v>
+        <v>-15000</v>
       </c>
       <c r="H20" s="3">
-        <v>13200</v>
+        <v>95600</v>
       </c>
       <c r="I20" s="3">
-        <v>-66400</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K20" s="3">
         <v>151400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>257300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>426400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>401800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>212600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>281600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>105100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>64000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>172300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>109400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>213500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>180400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>394400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>81700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>298400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1522200</v>
+        <v>2117000</v>
       </c>
       <c r="E21" s="3">
-        <v>1734000</v>
+        <v>1390100</v>
       </c>
       <c r="F21" s="3">
-        <v>1550300</v>
+        <v>1583600</v>
       </c>
       <c r="G21" s="3">
-        <v>1349200</v>
+        <v>1415800</v>
       </c>
       <c r="H21" s="3">
-        <v>1332400</v>
+        <v>1232100</v>
       </c>
       <c r="I21" s="3">
-        <v>1233200</v>
+        <v>1216800</v>
       </c>
       <c r="J21" s="3">
+        <v>1126200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1233300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1255100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1783600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1888900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1584500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1712100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1406800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1694300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1652200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1376200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1600300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1668200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1822700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1389400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1580800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1681,150 +1720,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>818000</v>
+        <v>1466000</v>
       </c>
       <c r="E23" s="3">
-        <v>1029900</v>
+        <v>747100</v>
       </c>
       <c r="F23" s="3">
-        <v>853500</v>
+        <v>940500</v>
       </c>
       <c r="G23" s="3">
-        <v>665200</v>
+        <v>779400</v>
       </c>
       <c r="H23" s="3">
-        <v>643200</v>
+        <v>607500</v>
       </c>
       <c r="I23" s="3">
-        <v>567600</v>
+        <v>587400</v>
       </c>
       <c r="J23" s="3">
+        <v>518400</v>
+      </c>
+      <c r="K23" s="3">
         <v>576900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>547100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1109900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1192600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>905600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>966400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1021800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1008600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>678100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>975200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1057700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1225900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>806000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1018800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>280600</v>
+        <v>672300</v>
       </c>
       <c r="E24" s="3">
-        <v>329400</v>
+        <v>256200</v>
       </c>
       <c r="F24" s="3">
-        <v>251300</v>
+        <v>300800</v>
       </c>
       <c r="G24" s="3">
-        <v>216000</v>
+        <v>229500</v>
       </c>
       <c r="H24" s="3">
-        <v>218200</v>
+        <v>197300</v>
       </c>
       <c r="I24" s="3">
-        <v>183400</v>
+        <v>199300</v>
       </c>
       <c r="J24" s="3">
+        <v>167500</v>
+      </c>
+      <c r="K24" s="3">
         <v>146500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>86600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>325100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>349300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>265200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>120600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-77300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>310300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>281100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>135400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>142100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>348400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>403800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>336300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,150 +1942,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>537500</v>
+        <v>793700</v>
       </c>
       <c r="E26" s="3">
-        <v>700500</v>
+        <v>490800</v>
       </c>
       <c r="F26" s="3">
-        <v>602200</v>
+        <v>639700</v>
       </c>
       <c r="G26" s="3">
-        <v>449200</v>
+        <v>550000</v>
       </c>
       <c r="H26" s="3">
-        <v>425000</v>
+        <v>410200</v>
       </c>
       <c r="I26" s="3">
-        <v>384200</v>
+        <v>388100</v>
       </c>
       <c r="J26" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K26" s="3">
         <v>430400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>460500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>784800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>843300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>640300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>845800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>777900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>711500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>727500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>542700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>833100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>709300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>822100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>506000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>682500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>551500</v>
+        <v>785200</v>
       </c>
       <c r="E27" s="3">
-        <v>694900</v>
+        <v>503700</v>
       </c>
       <c r="F27" s="3">
-        <v>556300</v>
+        <v>634600</v>
       </c>
       <c r="G27" s="3">
-        <v>439500</v>
+        <v>508000</v>
       </c>
       <c r="H27" s="3">
-        <v>410900</v>
+        <v>401400</v>
       </c>
       <c r="I27" s="3">
-        <v>373600</v>
+        <v>375300</v>
       </c>
       <c r="J27" s="3">
+        <v>341200</v>
+      </c>
+      <c r="K27" s="3">
         <v>426900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>455800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>775900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>826500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>634000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>841200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>766100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>697700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>726700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>513000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>817400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>689400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>811000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>497800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>665000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,8 +2164,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2121,11 +2181,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-9000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2133,11 +2193,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>58500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2151,14 +2211,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2169,8 +2229,8 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2178,8 +2238,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2249,8 +2312,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2320,150 +2386,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-193600</v>
+        <v>-1310500</v>
       </c>
       <c r="E32" s="3">
-        <v>-117700</v>
+        <v>-176800</v>
       </c>
       <c r="F32" s="3">
-        <v>16400</v>
+        <v>-107500</v>
       </c>
       <c r="G32" s="3">
-        <v>-104600</v>
+        <v>15000</v>
       </c>
       <c r="H32" s="3">
-        <v>-13200</v>
+        <v>-95600</v>
       </c>
       <c r="I32" s="3">
-        <v>66400</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-151400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-257300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-426400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-401800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-212600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-281600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-105100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-64000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-172300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-109400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-213500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-180400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-394400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-81700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-298400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>551500</v>
+        <v>785200</v>
       </c>
       <c r="E33" s="3">
-        <v>694900</v>
+        <v>503700</v>
       </c>
       <c r="F33" s="3">
-        <v>556300</v>
+        <v>634600</v>
       </c>
       <c r="G33" s="3">
-        <v>429600</v>
+        <v>508000</v>
       </c>
       <c r="H33" s="3">
-        <v>410900</v>
+        <v>392400</v>
       </c>
       <c r="I33" s="3">
-        <v>373600</v>
+        <v>375300</v>
       </c>
       <c r="J33" s="3">
+        <v>341200</v>
+      </c>
+      <c r="K33" s="3">
         <v>426900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>514300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>775900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>826500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>634000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>841200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>766100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>697700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>726700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>513000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>817400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>689400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>811000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>497800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>665000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2533,155 +2608,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>551500</v>
+        <v>785200</v>
       </c>
       <c r="E35" s="3">
-        <v>694900</v>
+        <v>503700</v>
       </c>
       <c r="F35" s="3">
-        <v>556300</v>
+        <v>634600</v>
       </c>
       <c r="G35" s="3">
-        <v>429600</v>
+        <v>508000</v>
       </c>
       <c r="H35" s="3">
-        <v>410900</v>
+        <v>392400</v>
       </c>
       <c r="I35" s="3">
-        <v>373600</v>
+        <v>375300</v>
       </c>
       <c r="J35" s="3">
+        <v>341200</v>
+      </c>
+      <c r="K35" s="3">
         <v>426900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>514300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>775900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>826500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>634000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>841200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>766100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>697700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>726700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>513000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>817400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>689400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>811000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>497800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>665000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2707,8 +2791,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2734,79 +2819,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8795800</v>
+        <v>8505200</v>
       </c>
       <c r="E41" s="3">
-        <v>9910900</v>
+        <v>8032800</v>
       </c>
       <c r="F41" s="3">
-        <v>9690100</v>
+        <v>9051100</v>
       </c>
       <c r="G41" s="3">
-        <v>9208800</v>
+        <v>8849500</v>
       </c>
       <c r="H41" s="3">
-        <v>9664800</v>
+        <v>8409900</v>
       </c>
       <c r="I41" s="3">
-        <v>11151300</v>
+        <v>8826400</v>
       </c>
       <c r="J41" s="3">
+        <v>10183900</v>
+      </c>
+      <c r="K41" s="3">
         <v>10067500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10001900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9297700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10195800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10468300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12335200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12604300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11656800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12061800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12702300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11964900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11518800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11731700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10051600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9284500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2876,150 +2965,159 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1959500</v>
+        <v>2262900</v>
       </c>
       <c r="E43" s="3">
-        <v>1797600</v>
+        <v>1789500</v>
       </c>
       <c r="F43" s="3">
-        <v>2065700</v>
+        <v>1641700</v>
       </c>
       <c r="G43" s="3">
-        <v>2349100</v>
+        <v>1886500</v>
       </c>
       <c r="H43" s="3">
-        <v>1823300</v>
+        <v>2145300</v>
       </c>
       <c r="I43" s="3">
-        <v>1437000</v>
+        <v>1665100</v>
       </c>
       <c r="J43" s="3">
+        <v>1312300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1704500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2254500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1999500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1879200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2136800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2139000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1930100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2040800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2255700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2170500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2281800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1973500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1850500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1988700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1868400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1177300</v>
+        <v>1087200</v>
       </c>
       <c r="E44" s="3">
-        <v>1133600</v>
+        <v>1075200</v>
       </c>
       <c r="F44" s="3">
-        <v>1167700</v>
+        <v>1035200</v>
       </c>
       <c r="G44" s="3">
-        <v>1212600</v>
+        <v>1066400</v>
       </c>
       <c r="H44" s="3">
-        <v>1256800</v>
+        <v>1107400</v>
       </c>
       <c r="I44" s="3">
-        <v>1153500</v>
+        <v>1147800</v>
       </c>
       <c r="J44" s="3">
+        <v>1053500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1105000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1110200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1202100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1161000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1146700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1111800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1369000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1220500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1117200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1003400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1246700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1174100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1116500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1045400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1265400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3089,8 +3187,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3160,150 +3261,159 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>64956900</v>
+        <v>59928400</v>
       </c>
       <c r="E47" s="3">
-        <v>62115800</v>
+        <v>59321700</v>
       </c>
       <c r="F47" s="3">
-        <v>61477800</v>
+        <v>56727100</v>
       </c>
       <c r="G47" s="3">
-        <v>61578000</v>
+        <v>56144400</v>
       </c>
       <c r="H47" s="3">
-        <v>59888400</v>
+        <v>56235900</v>
       </c>
       <c r="I47" s="3">
-        <v>58627600</v>
+        <v>54692900</v>
       </c>
       <c r="J47" s="3">
+        <v>53541500</v>
+      </c>
+      <c r="K47" s="3">
         <v>58386100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>59973800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>74441200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>71989200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>69844300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82078400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>78817700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>75266400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>69855700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>69467000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>71014900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>70684000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>70420000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>69927900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>70281800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19231800</v>
+        <v>17571000</v>
       </c>
       <c r="E48" s="3">
-        <v>19391500</v>
+        <v>17563400</v>
       </c>
       <c r="F48" s="3">
-        <v>18277200</v>
+        <v>17709300</v>
       </c>
       <c r="G48" s="3">
-        <v>18309200</v>
+        <v>16691600</v>
       </c>
       <c r="H48" s="3">
-        <v>18702500</v>
+        <v>16720800</v>
       </c>
       <c r="I48" s="3">
-        <v>18204300</v>
+        <v>17080000</v>
       </c>
       <c r="J48" s="3">
+        <v>16625000</v>
+      </c>
+      <c r="K48" s="3">
         <v>18395500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19086100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6587600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6033700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6371700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5285700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5647800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5234600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5009900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4951600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4682600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4655100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4632500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4521200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4311900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3373,8 +3483,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3444,8 +3557,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3515,8 +3631,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3586,8 +3705,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3657,79 +3779,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>120197600</v>
+        <v>111168500</v>
       </c>
       <c r="E54" s="3">
-        <v>118009800</v>
+        <v>109770100</v>
       </c>
       <c r="F54" s="3">
-        <v>115854200</v>
+        <v>107772100</v>
       </c>
       <c r="G54" s="3">
-        <v>115693100</v>
+        <v>105803500</v>
       </c>
       <c r="H54" s="3">
-        <v>113657900</v>
+        <v>105656400</v>
       </c>
       <c r="I54" s="3">
-        <v>112323600</v>
+        <v>103797800</v>
       </c>
       <c r="J54" s="3">
+        <v>102579300</v>
+      </c>
+      <c r="K54" s="3">
         <v>111679100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>115124900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>116999300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114976800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113629300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117001000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114429700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>109422700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>103370600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>103290900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104429300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>103291400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>102314200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>99626900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>98834300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3755,8 +3883,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3782,221 +3911,231 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1932000</v>
+        <v>2270200</v>
       </c>
       <c r="E57" s="3">
-        <v>1964300</v>
+        <v>1764400</v>
       </c>
       <c r="F57" s="3">
-        <v>1794700</v>
+        <v>1793900</v>
       </c>
       <c r="G57" s="3">
-        <v>2223900</v>
+        <v>1639000</v>
       </c>
       <c r="H57" s="3">
-        <v>1813600</v>
+        <v>2030900</v>
       </c>
       <c r="I57" s="3">
-        <v>1680900</v>
+        <v>1656300</v>
       </c>
       <c r="J57" s="3">
+        <v>1535100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1627400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2490800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2067100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2140100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2032100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2820300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2206000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2131700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2416200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2371200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1898700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1915700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1891500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2233500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1846800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5680000</v>
+        <v>3424800</v>
       </c>
       <c r="E58" s="3">
-        <v>4213600</v>
+        <v>5187300</v>
       </c>
       <c r="F58" s="3">
-        <v>3893600</v>
+        <v>3848100</v>
       </c>
       <c r="G58" s="3">
-        <v>2621000</v>
+        <v>3555900</v>
       </c>
       <c r="H58" s="3">
-        <v>3168500</v>
+        <v>2393600</v>
       </c>
       <c r="I58" s="3">
-        <v>3083800</v>
+        <v>2893600</v>
       </c>
       <c r="J58" s="3">
+        <v>2816300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3217100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2967500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3499400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2525500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3084300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2974800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6124400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3014300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2165000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2773100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3241500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3034400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3398100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2514400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2628100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23043400</v>
+        <v>21323900</v>
       </c>
       <c r="E59" s="3">
-        <v>23016900</v>
+        <v>21044300</v>
       </c>
       <c r="F59" s="3">
-        <v>22884500</v>
+        <v>21020100</v>
       </c>
       <c r="G59" s="3">
-        <v>22871000</v>
+        <v>20899200</v>
       </c>
       <c r="H59" s="3">
-        <v>23109200</v>
+        <v>20886900</v>
       </c>
       <c r="I59" s="3">
-        <v>22826500</v>
+        <v>21104400</v>
       </c>
       <c r="J59" s="3">
+        <v>20846200</v>
+      </c>
+      <c r="K59" s="3">
         <v>22491300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22800700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23138900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22619100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21575000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21945200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21264700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21021000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19682100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19204700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19329900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19044800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18495000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18275000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17244500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4066,79 +4205,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37111800</v>
+        <v>34486700</v>
       </c>
       <c r="E61" s="3">
-        <v>37118200</v>
+        <v>33892300</v>
       </c>
       <c r="F61" s="3">
-        <v>36841300</v>
+        <v>33898100</v>
       </c>
       <c r="G61" s="3">
-        <v>37675600</v>
+        <v>33645200</v>
       </c>
       <c r="H61" s="3">
-        <v>36990300</v>
+        <v>34433700</v>
       </c>
       <c r="I61" s="3">
-        <v>36367300</v>
+        <v>33781300</v>
       </c>
       <c r="J61" s="3">
+        <v>33212400</v>
+      </c>
+      <c r="K61" s="3">
         <v>37004500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37701100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37525700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37410700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37668500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40229600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37481900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35869000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34202200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34591600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>35174700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34962700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>35088200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34193700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>34384900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4208,8 +4353,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4279,8 +4427,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4350,8 +4501,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4421,79 +4575,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93345500</v>
+        <v>85762100</v>
       </c>
       <c r="E66" s="3">
-        <v>91416200</v>
+        <v>85247500</v>
       </c>
       <c r="F66" s="3">
-        <v>89858700</v>
+        <v>83485600</v>
       </c>
       <c r="G66" s="3">
-        <v>89860400</v>
+        <v>82063200</v>
       </c>
       <c r="H66" s="3">
-        <v>88594500</v>
+        <v>82064700</v>
       </c>
       <c r="I66" s="3">
-        <v>86906900</v>
+        <v>80908700</v>
       </c>
       <c r="J66" s="3">
+        <v>79367500</v>
+      </c>
+      <c r="K66" s="3">
         <v>86642100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88751200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89592700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87755300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87183700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89160100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87832500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>83373800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78716600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79041800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>80311500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79690300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>79485200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>77383600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>77218100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4519,8 +4679,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4590,8 +4751,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4661,8 +4825,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4732,8 +4899,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4803,79 +4973,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24368100</v>
+        <v>22663600</v>
       </c>
       <c r="E72" s="3">
-        <v>24217100</v>
+        <v>22254100</v>
       </c>
       <c r="F72" s="3">
-        <v>23522200</v>
+        <v>22116200</v>
       </c>
       <c r="G72" s="3">
-        <v>23411300</v>
+        <v>21481600</v>
       </c>
       <c r="H72" s="3">
-        <v>23529600</v>
+        <v>21380300</v>
       </c>
       <c r="I72" s="3">
-        <v>23491200</v>
+        <v>21488400</v>
       </c>
       <c r="J72" s="3">
+        <v>21453300</v>
+      </c>
+      <c r="K72" s="3">
         <v>23117700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24266800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24561300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24406600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23503000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24559200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23318000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22550800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21382600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20930200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20440400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19935700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19246400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18427200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17917900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,8 +5121,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5016,8 +5195,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5087,79 +5269,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26852100</v>
+        <v>25406500</v>
       </c>
       <c r="E76" s="3">
-        <v>26593600</v>
+        <v>24522600</v>
       </c>
       <c r="F76" s="3">
-        <v>25995400</v>
+        <v>24286500</v>
       </c>
       <c r="G76" s="3">
-        <v>25832700</v>
+        <v>23740300</v>
       </c>
       <c r="H76" s="3">
-        <v>25063400</v>
+        <v>23591700</v>
       </c>
       <c r="I76" s="3">
-        <v>25416700</v>
+        <v>22889100</v>
       </c>
       <c r="J76" s="3">
+        <v>23211700</v>
+      </c>
+      <c r="K76" s="3">
         <v>25037000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26373700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27406600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27221500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26445600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27840900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26597200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26048900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24653900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24249100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24117900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23601100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22829000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22243300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21616300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5229,155 +5417,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>551500</v>
+        <v>785200</v>
       </c>
       <c r="E81" s="3">
-        <v>694900</v>
+        <v>503700</v>
       </c>
       <c r="F81" s="3">
-        <v>556300</v>
+        <v>634600</v>
       </c>
       <c r="G81" s="3">
-        <v>429600</v>
+        <v>508000</v>
       </c>
       <c r="H81" s="3">
-        <v>410900</v>
+        <v>392400</v>
       </c>
       <c r="I81" s="3">
-        <v>373600</v>
+        <v>375300</v>
       </c>
       <c r="J81" s="3">
+        <v>341200</v>
+      </c>
+      <c r="K81" s="3">
         <v>426900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>514300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>775900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>826500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>634000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>841200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>766100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>697700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>726700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>513000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>817400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>689400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>811000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>497800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>665000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5403,79 +5600,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>704100</v>
+        <v>651000</v>
       </c>
       <c r="E83" s="3">
-        <v>704200</v>
+        <v>643000</v>
       </c>
       <c r="F83" s="3">
-        <v>696800</v>
+        <v>643100</v>
       </c>
       <c r="G83" s="3">
-        <v>684000</v>
+        <v>636300</v>
       </c>
       <c r="H83" s="3">
-        <v>689100</v>
+        <v>624600</v>
       </c>
       <c r="I83" s="3">
-        <v>665600</v>
+        <v>629400</v>
       </c>
       <c r="J83" s="3">
+        <v>607800</v>
+      </c>
+      <c r="K83" s="3">
         <v>656400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>708000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>673700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>696300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>678900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>745700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>706100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>672500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>643600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>698100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>625100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>610500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>596800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>583400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>562000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5545,8 +5746,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5616,8 +5820,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5687,8 +5894,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5758,8 +5968,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5829,79 +6042,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1470300</v>
+        <v>2631800</v>
       </c>
       <c r="E89" s="3">
-        <v>3192800</v>
+        <v>1342800</v>
       </c>
       <c r="F89" s="3">
-        <v>1866900</v>
+        <v>2915800</v>
       </c>
       <c r="G89" s="3">
-        <v>2897000</v>
+        <v>1704900</v>
       </c>
       <c r="H89" s="3">
-        <v>2015500</v>
+        <v>2645600</v>
       </c>
       <c r="I89" s="3">
-        <v>2881100</v>
+        <v>1840700</v>
       </c>
       <c r="J89" s="3">
+        <v>2631100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1552600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2834900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1711200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3255200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1636300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1980300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1020200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1637600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>884100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1772000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1193700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1172300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>803500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1250000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>994000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5927,79 +6146,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-120200</v>
+        <v>-135600</v>
       </c>
       <c r="E91" s="3">
-        <v>-63400</v>
+        <v>-109800</v>
       </c>
       <c r="F91" s="3">
-        <v>-45800</v>
+        <v>-57900</v>
       </c>
       <c r="G91" s="3">
-        <v>-51300</v>
+        <v>-41800</v>
       </c>
       <c r="H91" s="3">
-        <v>-98400</v>
+        <v>-46900</v>
       </c>
       <c r="I91" s="3">
-        <v>-145900</v>
+        <v>-89900</v>
       </c>
       <c r="J91" s="3">
+        <v>-133300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-79200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-172200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-116600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-106500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-127700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-198600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-147500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-155900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-197500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-222200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-148500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6069,8 +6292,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6140,79 +6366,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2873800</v>
+        <v>-277200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2733200</v>
+        <v>-2624500</v>
       </c>
       <c r="F94" s="3">
-        <v>-989000</v>
+        <v>-2496100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3025100</v>
+        <v>-903200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3654800</v>
+        <v>-2762600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1560500</v>
+        <v>-3337700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1425100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2023400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3372700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>32500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-760600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>116900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6238,79 +6470,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-400500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-365800</v>
       </c>
       <c r="F96" s="3">
-        <v>-447300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-408500</v>
       </c>
       <c r="H96" s="3">
-        <v>-372500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-340200</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-439200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-408700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-540100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-363000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-454400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-312700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-345000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-267500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6380,8 +6616,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6451,8 +6690,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6522,217 +6764,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>238800</v>
+        <v>-2013000</v>
       </c>
       <c r="E100" s="3">
-        <v>-243600</v>
+        <v>218100</v>
       </c>
       <c r="F100" s="3">
-        <v>-406500</v>
+        <v>-222400</v>
       </c>
       <c r="G100" s="3">
-        <v>-428300</v>
+        <v>-371200</v>
       </c>
       <c r="H100" s="3">
-        <v>153100</v>
+        <v>-391100</v>
       </c>
       <c r="I100" s="3">
-        <v>-237300</v>
+        <v>139800</v>
       </c>
       <c r="J100" s="3">
+        <v>-216700</v>
+      </c>
+      <c r="K100" s="3">
         <v>852700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1587500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>927700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-136900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>197600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-769700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3671900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>352000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-330300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>571200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>434300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>622800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>713600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-108100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49500</v>
+        <v>130900</v>
       </c>
       <c r="E101" s="3">
-        <v>4800</v>
+        <v>45200</v>
       </c>
       <c r="F101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>91700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>51700</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="R101" s="3">
+        <v>49100</v>
+      </c>
+      <c r="S101" s="3">
         <v>10000</v>
       </c>
-      <c r="G101" s="3">
-        <v>100400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-39400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>51700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-35300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-58100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-69800</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>49100</v>
-      </c>
-      <c r="R101" s="3">
-        <v>10000</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-82800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>24000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>42100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>41400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>141000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1115100</v>
+        <v>472400</v>
       </c>
       <c r="E102" s="3">
-        <v>220800</v>
+        <v>-1018400</v>
       </c>
       <c r="F102" s="3">
-        <v>481400</v>
+        <v>201600</v>
       </c>
       <c r="G102" s="3">
-        <v>-456000</v>
+        <v>439600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1486500</v>
+        <v>-416500</v>
       </c>
       <c r="I102" s="3">
-        <v>1083800</v>
+        <v>-1357500</v>
       </c>
       <c r="J102" s="3">
+        <v>989800</v>
+      </c>
+      <c r="K102" s="3">
         <v>383500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1010300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-809300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-306900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-496100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>759200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-670400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-710700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>798800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>424100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-166800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1487500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>874100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-181900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,335 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5081000</v>
+        <v>4821800</v>
       </c>
       <c r="E8" s="3">
-        <v>4881100</v>
+        <v>4781000</v>
       </c>
       <c r="F8" s="3">
-        <v>4928900</v>
+        <v>4592800</v>
       </c>
       <c r="G8" s="3">
-        <v>4742700</v>
+        <v>4637800</v>
       </c>
       <c r="H8" s="3">
-        <v>4884400</v>
+        <v>4462600</v>
       </c>
       <c r="I8" s="3">
-        <v>4525600</v>
+        <v>4596000</v>
       </c>
       <c r="J8" s="3">
+        <v>4258400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4261900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4586100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5250300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5208200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5394500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5023800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6138000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5042300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6113700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5489600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6037700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6120900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6558500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7162400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6678100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6250200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3276600</v>
+        <v>3067000</v>
       </c>
       <c r="E9" s="3">
-        <v>2993100</v>
+        <v>3083100</v>
       </c>
       <c r="F9" s="3">
-        <v>3093600</v>
+        <v>2816300</v>
       </c>
       <c r="G9" s="3">
-        <v>2839300</v>
+        <v>2910900</v>
       </c>
       <c r="H9" s="3">
-        <v>3199000</v>
+        <v>2671600</v>
       </c>
       <c r="I9" s="3">
-        <v>2818300</v>
+        <v>3010100</v>
       </c>
       <c r="J9" s="3">
+        <v>2651900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2623600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2965900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3323400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3188900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3275300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2984300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3960200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3109200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3952000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3459500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4148400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4173600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4727200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5316600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4878500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4517300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1804500</v>
+        <v>1754700</v>
       </c>
       <c r="E10" s="3">
-        <v>1888000</v>
+        <v>1697900</v>
       </c>
       <c r="F10" s="3">
-        <v>1835300</v>
+        <v>1776500</v>
       </c>
       <c r="G10" s="3">
-        <v>1903300</v>
+        <v>1726900</v>
       </c>
       <c r="H10" s="3">
-        <v>1685400</v>
+        <v>1791000</v>
       </c>
       <c r="I10" s="3">
-        <v>1707400</v>
+        <v>1585900</v>
       </c>
       <c r="J10" s="3">
+        <v>1606500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1638300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1620200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1926900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2019300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2119200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2039500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2177800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1933100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2161700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2030100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1889300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1947200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1831300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1845700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1799600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1732900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1020,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1095,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1152,156 +1172,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>160500</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>116700</v>
+        <v>151000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>109800</v>
       </c>
       <c r="G14" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>14200</v>
+        <v>600</v>
       </c>
       <c r="I14" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-35000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>38400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>30100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>18100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>18600</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>16500</v>
+      </c>
+      <c r="L15" s="3">
         <v>16700</v>
       </c>
-      <c r="I15" s="3">
-        <v>16000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>16500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>16700</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>16200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9900</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3">
         <v>11400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>13300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>11900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1325,156 +1354,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4925500</v>
+        <v>4211200</v>
       </c>
       <c r="E17" s="3">
-        <v>4310800</v>
+        <v>4634700</v>
       </c>
       <c r="F17" s="3">
-        <v>4095800</v>
+        <v>4056300</v>
       </c>
       <c r="G17" s="3">
-        <v>3948200</v>
+        <v>3854000</v>
       </c>
       <c r="H17" s="3">
-        <v>4372500</v>
+        <v>3715100</v>
       </c>
       <c r="I17" s="3">
-        <v>3950200</v>
+        <v>4114300</v>
       </c>
       <c r="J17" s="3">
+        <v>3717000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3682900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4160600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4960500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4524800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4603700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4330800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5453200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4446700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5155900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4653400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5469000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5359200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5681200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6330900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5953800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5529800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>155500</v>
+        <v>610500</v>
       </c>
       <c r="E18" s="3">
-        <v>570200</v>
+        <v>146300</v>
       </c>
       <c r="F18" s="3">
-        <v>833000</v>
+        <v>536600</v>
       </c>
       <c r="G18" s="3">
-        <v>794400</v>
+        <v>783900</v>
       </c>
       <c r="H18" s="3">
-        <v>511900</v>
+        <v>747500</v>
       </c>
       <c r="I18" s="3">
-        <v>575400</v>
+        <v>481700</v>
       </c>
       <c r="J18" s="3">
+        <v>541400</v>
+      </c>
+      <c r="K18" s="3">
         <v>579000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>425500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>289800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>683400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>790800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>693000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>684800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>595600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>957800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>836200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>568700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>761700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>877300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>831500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>724300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>720400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,156 +1537,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1310500</v>
+        <v>12600</v>
       </c>
       <c r="E20" s="3">
-        <v>176800</v>
+        <v>1233100</v>
       </c>
       <c r="F20" s="3">
-        <v>107500</v>
+        <v>166400</v>
       </c>
       <c r="G20" s="3">
-        <v>-15000</v>
+        <v>101100</v>
       </c>
       <c r="H20" s="3">
-        <v>95600</v>
+        <v>-14100</v>
       </c>
       <c r="I20" s="3">
-        <v>12000</v>
+        <v>89900</v>
       </c>
       <c r="J20" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-60600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>151400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>257300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>426400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>401800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>212600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>281600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>105100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>64000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>172300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>109400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>213500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>180400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>394400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>81700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>298400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2117000</v>
+        <v>1225500</v>
       </c>
       <c r="E21" s="3">
-        <v>1390100</v>
+        <v>1992000</v>
       </c>
       <c r="F21" s="3">
-        <v>1583600</v>
+        <v>1308000</v>
       </c>
       <c r="G21" s="3">
-        <v>1415800</v>
+        <v>1490100</v>
       </c>
       <c r="H21" s="3">
-        <v>1232100</v>
+        <v>1332200</v>
       </c>
       <c r="I21" s="3">
-        <v>1216800</v>
+        <v>1159400</v>
       </c>
       <c r="J21" s="3">
+        <v>1144900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1126200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1233300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1255100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1783600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1888900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1584500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1712100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1406800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1694300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1652200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1376200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1600300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1668200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1822700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1389400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1580800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,156 +1766,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1466000</v>
+        <v>623200</v>
       </c>
       <c r="E23" s="3">
-        <v>747100</v>
+        <v>1379400</v>
       </c>
       <c r="F23" s="3">
-        <v>940500</v>
+        <v>702900</v>
       </c>
       <c r="G23" s="3">
-        <v>779400</v>
+        <v>885000</v>
       </c>
       <c r="H23" s="3">
-        <v>607500</v>
+        <v>733400</v>
       </c>
       <c r="I23" s="3">
-        <v>587400</v>
+        <v>571600</v>
       </c>
       <c r="J23" s="3">
+        <v>552700</v>
+      </c>
+      <c r="K23" s="3">
         <v>518400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>576900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>547100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1109900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1192600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>905600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>966400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1021800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1008600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>678100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>975200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1057700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1225900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>806000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1018800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>672300</v>
+        <v>151900</v>
       </c>
       <c r="E24" s="3">
-        <v>256200</v>
+        <v>633600</v>
       </c>
       <c r="F24" s="3">
-        <v>300800</v>
+        <v>241100</v>
       </c>
       <c r="G24" s="3">
-        <v>229500</v>
+        <v>283000</v>
       </c>
       <c r="H24" s="3">
-        <v>197300</v>
+        <v>215900</v>
       </c>
       <c r="I24" s="3">
-        <v>199300</v>
+        <v>185600</v>
       </c>
       <c r="J24" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K24" s="3">
         <v>167500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>146500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>86600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>325100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>349300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>265200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>120600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-77300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>310300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>281100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>135400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>142100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>348400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>403800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>336300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1945,156 +1997,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>793700</v>
+        <v>471200</v>
       </c>
       <c r="E26" s="3">
-        <v>490800</v>
+        <v>745800</v>
       </c>
       <c r="F26" s="3">
-        <v>639700</v>
+        <v>461900</v>
       </c>
       <c r="G26" s="3">
-        <v>550000</v>
+        <v>601900</v>
       </c>
       <c r="H26" s="3">
-        <v>410200</v>
+        <v>517500</v>
       </c>
       <c r="I26" s="3">
-        <v>388100</v>
+        <v>386000</v>
       </c>
       <c r="J26" s="3">
+        <v>365200</v>
+      </c>
+      <c r="K26" s="3">
         <v>350800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>430400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>460500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>784800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>843300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>640300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>845800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>777900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>711500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>727500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>542700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>833100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>709300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>822100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>506000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>682500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>785200</v>
+        <v>453400</v>
       </c>
       <c r="E27" s="3">
-        <v>503700</v>
+        <v>737800</v>
       </c>
       <c r="F27" s="3">
-        <v>634600</v>
+        <v>474000</v>
       </c>
       <c r="G27" s="3">
-        <v>508000</v>
+        <v>597100</v>
       </c>
       <c r="H27" s="3">
-        <v>401400</v>
+        <v>478000</v>
       </c>
       <c r="I27" s="3">
-        <v>375300</v>
+        <v>377700</v>
       </c>
       <c r="J27" s="3">
+        <v>353100</v>
+      </c>
+      <c r="K27" s="3">
         <v>341200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>426900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>455800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>775900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>826500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>634000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>841200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>766100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>697700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>726700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>513000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>817400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>689400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>811000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>497800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>665000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2167,16 +2228,19 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>1000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2184,11 +2248,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-8500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -2196,11 +2260,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>58500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2214,14 +2278,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2232,8 +2296,8 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2241,8 +2305,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2315,8 +2382,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2389,156 +2459,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1310500</v>
+        <v>-12600</v>
       </c>
       <c r="E32" s="3">
-        <v>-176800</v>
+        <v>-1233100</v>
       </c>
       <c r="F32" s="3">
-        <v>-107500</v>
+        <v>-166400</v>
       </c>
       <c r="G32" s="3">
-        <v>15000</v>
+        <v>-101100</v>
       </c>
       <c r="H32" s="3">
-        <v>-95600</v>
+        <v>14100</v>
       </c>
       <c r="I32" s="3">
-        <v>-12000</v>
+        <v>-89900</v>
       </c>
       <c r="J32" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K32" s="3">
         <v>60600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-151400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-257300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-426400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-401800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-212600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-281600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-105100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-64000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-172300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-109400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-213500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-180400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-394400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-81700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-298400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>785200</v>
+        <v>453400</v>
       </c>
       <c r="E33" s="3">
-        <v>503700</v>
+        <v>738800</v>
       </c>
       <c r="F33" s="3">
-        <v>634600</v>
+        <v>474000</v>
       </c>
       <c r="G33" s="3">
-        <v>508000</v>
+        <v>597100</v>
       </c>
       <c r="H33" s="3">
-        <v>392400</v>
+        <v>478000</v>
       </c>
       <c r="I33" s="3">
-        <v>375300</v>
+        <v>369200</v>
       </c>
       <c r="J33" s="3">
+        <v>353100</v>
+      </c>
+      <c r="K33" s="3">
         <v>341200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>426900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>514300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>775900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>826500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>634000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>841200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>766100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>697700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>726700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>513000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>817400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>689400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>811000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>497800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>665000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2611,161 +2690,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>785200</v>
+        <v>453400</v>
       </c>
       <c r="E35" s="3">
-        <v>503700</v>
+        <v>738800</v>
       </c>
       <c r="F35" s="3">
-        <v>634600</v>
+        <v>474000</v>
       </c>
       <c r="G35" s="3">
-        <v>508000</v>
+        <v>597100</v>
       </c>
       <c r="H35" s="3">
-        <v>392400</v>
+        <v>478000</v>
       </c>
       <c r="I35" s="3">
-        <v>375300</v>
+        <v>369200</v>
       </c>
       <c r="J35" s="3">
+        <v>353100</v>
+      </c>
+      <c r="K35" s="3">
         <v>341200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>426900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>514300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>775900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>826500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>634000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>841200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>766100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>697700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>726700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>513000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>817400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>689400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>811000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>497800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>665000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2792,8 +2880,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2820,82 +2909,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8505200</v>
+        <v>7293300</v>
       </c>
       <c r="E41" s="3">
-        <v>8032800</v>
+        <v>8003000</v>
       </c>
       <c r="F41" s="3">
-        <v>9051100</v>
+        <v>7558400</v>
       </c>
       <c r="G41" s="3">
-        <v>8849500</v>
+        <v>8516700</v>
       </c>
       <c r="H41" s="3">
-        <v>8409900</v>
+        <v>8326900</v>
       </c>
       <c r="I41" s="3">
-        <v>8826400</v>
+        <v>7913300</v>
       </c>
       <c r="J41" s="3">
+        <v>8305200</v>
+      </c>
+      <c r="K41" s="3">
         <v>10183900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10067500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10001900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9297700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10195800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10468300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12335200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12604300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11656800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12061800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12702300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11964900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11518800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11731700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10051600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9284500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2968,156 +3061,165 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2262900</v>
+        <v>2448300</v>
       </c>
       <c r="E43" s="3">
-        <v>1789500</v>
+        <v>2129300</v>
       </c>
       <c r="F43" s="3">
-        <v>1641700</v>
+        <v>1683800</v>
       </c>
       <c r="G43" s="3">
-        <v>1886500</v>
+        <v>1544700</v>
       </c>
       <c r="H43" s="3">
-        <v>2145300</v>
+        <v>1775100</v>
       </c>
       <c r="I43" s="3">
-        <v>1665100</v>
+        <v>2018600</v>
       </c>
       <c r="J43" s="3">
+        <v>1566800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1312300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1704500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2254500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1999500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1879200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2136800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2139000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1930100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2040800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2255700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2170500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2281800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1973500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1850500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1988700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1868400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1087200</v>
+        <v>1073500</v>
       </c>
       <c r="E44" s="3">
-        <v>1075200</v>
+        <v>1023000</v>
       </c>
       <c r="F44" s="3">
-        <v>1035200</v>
+        <v>1011700</v>
       </c>
       <c r="G44" s="3">
-        <v>1066400</v>
+        <v>974100</v>
       </c>
       <c r="H44" s="3">
-        <v>1107400</v>
+        <v>1003500</v>
       </c>
       <c r="I44" s="3">
-        <v>1147800</v>
+        <v>1042000</v>
       </c>
       <c r="J44" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1053500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1105000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1110200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1202100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1161000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1146700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1111800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1369000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1220500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1117200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1003400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1246700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1174100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1116500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1045400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1265400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3190,8 +3292,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3264,156 +3369,165 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59928400</v>
+        <v>58107600</v>
       </c>
       <c r="E47" s="3">
-        <v>59321700</v>
+        <v>56389600</v>
       </c>
       <c r="F47" s="3">
-        <v>56727100</v>
+        <v>55818800</v>
       </c>
       <c r="G47" s="3">
-        <v>56144400</v>
+        <v>53377300</v>
       </c>
       <c r="H47" s="3">
-        <v>56235900</v>
+        <v>52829100</v>
       </c>
       <c r="I47" s="3">
-        <v>54692900</v>
+        <v>52915200</v>
       </c>
       <c r="J47" s="3">
+        <v>51463300</v>
+      </c>
+      <c r="K47" s="3">
         <v>53541500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>58386100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>59973800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>74441200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71989200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>69844300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82078400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>78817700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>75266400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>69855700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>69467000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>71014900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>70684000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>70420000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>69927900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>70281800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17571000</v>
+        <v>16715700</v>
       </c>
       <c r="E48" s="3">
-        <v>17563400</v>
+        <v>16605900</v>
       </c>
       <c r="F48" s="3">
-        <v>17709300</v>
+        <v>16526300</v>
       </c>
       <c r="G48" s="3">
-        <v>16691600</v>
+        <v>16663500</v>
       </c>
       <c r="H48" s="3">
-        <v>16720800</v>
+        <v>15706000</v>
       </c>
       <c r="I48" s="3">
-        <v>17080000</v>
+        <v>15733400</v>
       </c>
       <c r="J48" s="3">
+        <v>16071400</v>
+      </c>
+      <c r="K48" s="3">
         <v>16625000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18395500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19086100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6587600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6033700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6371700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5285700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5647800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5234600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5009900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4951600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4682600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4655100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4632500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4521200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4311900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3486,8 +3600,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3560,8 +3677,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3634,8 +3754,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3708,8 +3831,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3782,82 +3908,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>111168500</v>
+        <v>107182800</v>
       </c>
       <c r="E54" s="3">
-        <v>109770100</v>
+        <v>104604000</v>
       </c>
       <c r="F54" s="3">
-        <v>107772100</v>
+        <v>103288200</v>
       </c>
       <c r="G54" s="3">
-        <v>105803500</v>
+        <v>101408200</v>
       </c>
       <c r="H54" s="3">
-        <v>105656400</v>
+        <v>99555800</v>
       </c>
       <c r="I54" s="3">
-        <v>103797800</v>
+        <v>99417400</v>
       </c>
       <c r="J54" s="3">
+        <v>97668500</v>
+      </c>
+      <c r="K54" s="3">
         <v>102579300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>111679100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115124900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>116999300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114976800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113629300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117001000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>114429700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>109422700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>103370600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>103290900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104429300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>103291400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>102314200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>99626900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>98834300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3884,8 +4016,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3912,230 +4045,240 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2270200</v>
+        <v>1929900</v>
       </c>
       <c r="E57" s="3">
-        <v>1764400</v>
+        <v>2136100</v>
       </c>
       <c r="F57" s="3">
-        <v>1793900</v>
+        <v>1660200</v>
       </c>
       <c r="G57" s="3">
-        <v>1639000</v>
+        <v>1688000</v>
       </c>
       <c r="H57" s="3">
-        <v>2030900</v>
+        <v>1542200</v>
       </c>
       <c r="I57" s="3">
-        <v>1656300</v>
+        <v>1911000</v>
       </c>
       <c r="J57" s="3">
+        <v>1558500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1535100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1627400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2490800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2067100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2140100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2032100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2820300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2206000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2131700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2416200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2371200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1898700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1915700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1891500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2233500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1846800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3424800</v>
+        <v>4333300</v>
       </c>
       <c r="E58" s="3">
-        <v>5187300</v>
+        <v>3222600</v>
       </c>
       <c r="F58" s="3">
-        <v>3848100</v>
+        <v>4880900</v>
       </c>
       <c r="G58" s="3">
-        <v>3555900</v>
+        <v>3620800</v>
       </c>
       <c r="H58" s="3">
-        <v>2393600</v>
+        <v>3345900</v>
       </c>
       <c r="I58" s="3">
-        <v>2893600</v>
+        <v>2252300</v>
       </c>
       <c r="J58" s="3">
+        <v>2722800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2816300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3217100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2967500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3499400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2525500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3084300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2974800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6124400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3014300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2165000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2773100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3241500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3034400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3398100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2514400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2628100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21323900</v>
+        <v>19112900</v>
       </c>
       <c r="E59" s="3">
-        <v>21044300</v>
+        <v>22081100</v>
       </c>
       <c r="F59" s="3">
-        <v>21020100</v>
+        <v>19801700</v>
       </c>
       <c r="G59" s="3">
-        <v>20899200</v>
+        <v>19778900</v>
       </c>
       <c r="H59" s="3">
-        <v>20886900</v>
+        <v>19665100</v>
       </c>
       <c r="I59" s="3">
-        <v>21104400</v>
+        <v>21794000</v>
       </c>
       <c r="J59" s="3">
+        <v>19858200</v>
+      </c>
+      <c r="K59" s="3">
         <v>20846200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22491300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22800700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23138900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22619100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21575000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21945200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21264700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21021000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19682100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19204700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19329900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19044800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18495000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>18275000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17244500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4208,82 +4351,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34486700</v>
+        <v>34567900</v>
       </c>
       <c r="E61" s="3">
-        <v>33892300</v>
+        <v>32506700</v>
       </c>
       <c r="F61" s="3">
-        <v>33898100</v>
+        <v>31890900</v>
       </c>
       <c r="G61" s="3">
-        <v>33645200</v>
+        <v>31896500</v>
       </c>
       <c r="H61" s="3">
-        <v>34433700</v>
+        <v>31658400</v>
       </c>
       <c r="I61" s="3">
-        <v>33781300</v>
+        <v>32400400</v>
       </c>
       <c r="J61" s="3">
+        <v>31786500</v>
+      </c>
+      <c r="K61" s="3">
         <v>33212400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37004500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37701100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37525700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37410700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37668500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>40229600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37481900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35869000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34202200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34591600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>35174700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>34962700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>35088200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>34193700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>34384900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4356,8 +4505,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4430,8 +4582,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4504,8 +4659,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4578,82 +4736,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85762100</v>
+        <v>83039800</v>
       </c>
       <c r="E66" s="3">
-        <v>85247500</v>
+        <v>80697800</v>
       </c>
       <c r="F66" s="3">
-        <v>83485600</v>
+        <v>80213700</v>
       </c>
       <c r="G66" s="3">
-        <v>82063200</v>
+        <v>78555800</v>
       </c>
       <c r="H66" s="3">
-        <v>82064700</v>
+        <v>77217400</v>
       </c>
       <c r="I66" s="3">
-        <v>80908700</v>
+        <v>77218800</v>
       </c>
       <c r="J66" s="3">
+        <v>76131100</v>
+      </c>
+      <c r="K66" s="3">
         <v>79367500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86642100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88751200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89592700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87755300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87183700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89160100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87832500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>83373800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78716600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79041800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>80311500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>79690300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>79485200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>77383600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>77218100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4680,8 +4844,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4754,8 +4919,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4828,8 +4996,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4902,8 +5073,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4976,82 +5150,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22663600</v>
+        <v>21370400</v>
       </c>
       <c r="E72" s="3">
-        <v>22254100</v>
+        <v>21325300</v>
       </c>
       <c r="F72" s="3">
-        <v>22116200</v>
+        <v>20940000</v>
       </c>
       <c r="G72" s="3">
-        <v>21481600</v>
+        <v>20810200</v>
       </c>
       <c r="H72" s="3">
-        <v>21380300</v>
+        <v>20213100</v>
       </c>
       <c r="I72" s="3">
-        <v>21488400</v>
+        <v>20117800</v>
       </c>
       <c r="J72" s="3">
+        <v>20219500</v>
+      </c>
+      <c r="K72" s="3">
         <v>21453300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23117700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24266800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24561300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24406600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23503000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24559200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23318000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22550800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21382600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20930200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20440400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19935700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19246400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18427200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>17917900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5124,8 +5304,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5198,8 +5381,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5272,82 +5458,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25406500</v>
+        <v>24143000</v>
       </c>
       <c r="E76" s="3">
-        <v>24522600</v>
+        <v>23906200</v>
       </c>
       <c r="F76" s="3">
-        <v>24286500</v>
+        <v>23074500</v>
       </c>
       <c r="G76" s="3">
-        <v>23740300</v>
+        <v>22852400</v>
       </c>
       <c r="H76" s="3">
-        <v>23591700</v>
+        <v>22338400</v>
       </c>
       <c r="I76" s="3">
-        <v>22889100</v>
+        <v>22198600</v>
       </c>
       <c r="J76" s="3">
+        <v>21537500</v>
+      </c>
+      <c r="K76" s="3">
         <v>23211700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25037000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26373700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27406600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27221500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26445600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27840900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26597200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26048900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24653900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24249100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24117900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23601100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22829000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>22243300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21616300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5420,161 +5612,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>785200</v>
+        <v>453400</v>
       </c>
       <c r="E81" s="3">
-        <v>503700</v>
+        <v>738800</v>
       </c>
       <c r="F81" s="3">
-        <v>634600</v>
+        <v>474000</v>
       </c>
       <c r="G81" s="3">
-        <v>508000</v>
+        <v>597100</v>
       </c>
       <c r="H81" s="3">
-        <v>392400</v>
+        <v>478000</v>
       </c>
       <c r="I81" s="3">
-        <v>375300</v>
+        <v>369200</v>
       </c>
       <c r="J81" s="3">
+        <v>353100</v>
+      </c>
+      <c r="K81" s="3">
         <v>341200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>426900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>514300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>775900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>826500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>634000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>841200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>766100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>697700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>726700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>513000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>817400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>689400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>811000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>497800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>665000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5601,82 +5802,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>651000</v>
+        <v>602400</v>
       </c>
       <c r="E83" s="3">
-        <v>643000</v>
+        <v>612500</v>
       </c>
       <c r="F83" s="3">
-        <v>643100</v>
+        <v>605100</v>
       </c>
       <c r="G83" s="3">
-        <v>636300</v>
+        <v>605100</v>
       </c>
       <c r="H83" s="3">
-        <v>624600</v>
+        <v>598800</v>
       </c>
       <c r="I83" s="3">
-        <v>629400</v>
+        <v>587800</v>
       </c>
       <c r="J83" s="3">
+        <v>592200</v>
+      </c>
+      <c r="K83" s="3">
         <v>607800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>656400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>708000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>673700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>696300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>678900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>745700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>706100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>672500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>643600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>698100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>625100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>610500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>596800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>583400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>562000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5749,8 +5954,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5823,8 +6031,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5897,8 +6108,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5971,8 +6185,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6045,82 +6262,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2631800</v>
+        <v>-232700</v>
       </c>
       <c r="E89" s="3">
-        <v>1342800</v>
+        <v>2476400</v>
       </c>
       <c r="F89" s="3">
-        <v>2915800</v>
+        <v>1263500</v>
       </c>
       <c r="G89" s="3">
-        <v>1704900</v>
+        <v>2743600</v>
       </c>
       <c r="H89" s="3">
-        <v>2645600</v>
+        <v>1604200</v>
       </c>
       <c r="I89" s="3">
-        <v>1840700</v>
+        <v>2489400</v>
       </c>
       <c r="J89" s="3">
+        <v>1732000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2631100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1552600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2834900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1711200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3255200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1636300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1980300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1020200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1637600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>884100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1772000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1193700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1172300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>803500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1250000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>994000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6147,82 +6370,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-135600</v>
+        <v>-124700</v>
       </c>
       <c r="E91" s="3">
-        <v>-109800</v>
+        <v>-127600</v>
       </c>
       <c r="F91" s="3">
-        <v>-57900</v>
+        <v>-103300</v>
       </c>
       <c r="G91" s="3">
-        <v>-41800</v>
+        <v>-54400</v>
       </c>
       <c r="H91" s="3">
-        <v>-46900</v>
+        <v>-39400</v>
       </c>
       <c r="I91" s="3">
-        <v>-89900</v>
+        <v>-44100</v>
       </c>
       <c r="J91" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-133300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-172200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-116600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-106500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-127700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-198600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-147500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-155900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-197500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-222200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-148500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6295,8 +6522,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6369,82 +6599,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-277200</v>
+        <v>-1663600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2624500</v>
+        <v>-260800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2496100</v>
+        <v>-2469500</v>
       </c>
       <c r="G94" s="3">
-        <v>-903200</v>
+        <v>-2348700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2762600</v>
+        <v>-849900</v>
       </c>
       <c r="I94" s="3">
-        <v>-3337700</v>
+        <v>-2599500</v>
       </c>
       <c r="J94" s="3">
+        <v>-3140600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1425100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2023400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3372700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>32500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-760600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>116900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6471,82 +6707,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-408300</v>
       </c>
       <c r="E96" s="3">
-        <v>-365800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-344200</v>
       </c>
       <c r="G96" s="3">
-        <v>-408500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-384400</v>
       </c>
       <c r="I96" s="3">
-        <v>-340200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-320100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-439200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-408700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-540100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-363000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-454400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-312700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-345000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-267500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6619,8 +6859,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6693,8 +6936,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6767,226 +7013,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2013000</v>
+        <v>1015600</v>
       </c>
       <c r="E100" s="3">
-        <v>218100</v>
+        <v>-1894200</v>
       </c>
       <c r="F100" s="3">
-        <v>-222400</v>
+        <v>205200</v>
       </c>
       <c r="G100" s="3">
-        <v>-371200</v>
+        <v>-209300</v>
       </c>
       <c r="H100" s="3">
-        <v>-391100</v>
+        <v>-349300</v>
       </c>
       <c r="I100" s="3">
-        <v>139800</v>
+        <v>-368000</v>
       </c>
       <c r="J100" s="3">
+        <v>131600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-216700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>852700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1587500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>927700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-136900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>197600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-769700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3671900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>352000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-330300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>571200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>434300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>622800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>713600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-108100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>130900</v>
+        <v>171000</v>
       </c>
       <c r="E101" s="3">
-        <v>45200</v>
+        <v>123200</v>
       </c>
       <c r="F101" s="3">
-        <v>4400</v>
+        <v>42500</v>
       </c>
       <c r="G101" s="3">
-        <v>9100</v>
+        <v>4100</v>
       </c>
       <c r="H101" s="3">
-        <v>91700</v>
+        <v>8600</v>
       </c>
       <c r="I101" s="3">
+        <v>86300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-39400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>51700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-35300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-58100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-69800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>49100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-82800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>24000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>42100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>41400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>141000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>472400</v>
+        <v>-709700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1018400</v>
+        <v>444500</v>
       </c>
       <c r="F102" s="3">
-        <v>201600</v>
+        <v>-958200</v>
       </c>
       <c r="G102" s="3">
-        <v>439600</v>
+        <v>189700</v>
       </c>
       <c r="H102" s="3">
-        <v>-416500</v>
+        <v>413700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1357500</v>
+        <v>-391900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1277400</v>
+      </c>
+      <c r="K102" s="3">
         <v>989800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>383500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1010300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-809300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-306900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-496100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>759200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-670400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-710700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>798800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>424100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-166800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1487500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>874100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-181900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,348 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4821800</v>
+        <v>5012700</v>
       </c>
       <c r="E8" s="3">
-        <v>4781000</v>
+        <v>4663900</v>
       </c>
       <c r="F8" s="3">
-        <v>4592800</v>
+        <v>4624500</v>
       </c>
       <c r="G8" s="3">
-        <v>4637800</v>
+        <v>4442400</v>
       </c>
       <c r="H8" s="3">
-        <v>4462600</v>
+        <v>4486000</v>
       </c>
       <c r="I8" s="3">
-        <v>4596000</v>
+        <v>4316500</v>
       </c>
       <c r="J8" s="3">
+        <v>4445500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4258400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4261900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4586100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5250300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5208200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5394500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5023800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6138000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5042300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6113700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5489600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6037700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6120900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6558500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7162400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6678100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6250200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3067000</v>
+        <v>3324500</v>
       </c>
       <c r="E9" s="3">
-        <v>3083100</v>
+        <v>2966600</v>
       </c>
       <c r="F9" s="3">
-        <v>2816300</v>
+        <v>2982100</v>
       </c>
       <c r="G9" s="3">
-        <v>2910900</v>
+        <v>2724100</v>
       </c>
       <c r="H9" s="3">
-        <v>2671600</v>
+        <v>2815600</v>
       </c>
       <c r="I9" s="3">
-        <v>3010100</v>
+        <v>2584200</v>
       </c>
       <c r="J9" s="3">
+        <v>2911600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2651900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2623600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2965900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3323400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3188900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3275300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2984300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3960200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3109200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3952000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3459500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4148400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4173600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4727200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5316600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4878500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4517300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1754700</v>
+        <v>1688200</v>
       </c>
       <c r="E10" s="3">
-        <v>1697900</v>
+        <v>1697300</v>
       </c>
       <c r="F10" s="3">
-        <v>1776500</v>
+        <v>1642300</v>
       </c>
       <c r="G10" s="3">
-        <v>1726900</v>
+        <v>1718300</v>
       </c>
       <c r="H10" s="3">
-        <v>1791000</v>
+        <v>1670400</v>
       </c>
       <c r="I10" s="3">
-        <v>1585900</v>
+        <v>1732300</v>
       </c>
       <c r="J10" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1606500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1638300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1620200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1926900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2019300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2119200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2039500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2177800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1933100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2161700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2030100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1889300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1947200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1831300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1845700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1799600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1732900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1021,8 +1034,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1098,8 +1112,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1175,162 +1192,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
-        <v>151000</v>
-      </c>
       <c r="F14" s="3">
-        <v>109800</v>
+        <v>146000</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
-        <v>13400</v>
-      </c>
       <c r="J14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-35000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>22600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>38400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>30100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="E15" s="3">
-        <v>17000</v>
+        <v>15400</v>
       </c>
       <c r="F15" s="3">
-        <v>17100</v>
+        <v>16400</v>
       </c>
       <c r="G15" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>15100</v>
       </c>
-      <c r="H15" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3">
-        <v>15100</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>17200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>16400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>16200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9900</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3">
         <v>11400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>11000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>11900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1355,162 +1381,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4211200</v>
+        <v>4545800</v>
       </c>
       <c r="E17" s="3">
-        <v>4634700</v>
+        <v>4073300</v>
       </c>
       <c r="F17" s="3">
-        <v>4056300</v>
+        <v>4482900</v>
       </c>
       <c r="G17" s="3">
-        <v>3854000</v>
+        <v>3923400</v>
       </c>
       <c r="H17" s="3">
-        <v>3715100</v>
+        <v>3727800</v>
       </c>
       <c r="I17" s="3">
-        <v>4114300</v>
+        <v>3593500</v>
       </c>
       <c r="J17" s="3">
+        <v>3979600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3717000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3682900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4160600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4960500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4524800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4603700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4330800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5453200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4446700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5155900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4653400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5469000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5359200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5681200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6330900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5953800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5529800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>610500</v>
+        <v>466800</v>
       </c>
       <c r="E18" s="3">
-        <v>146300</v>
+        <v>590500</v>
       </c>
       <c r="F18" s="3">
-        <v>536600</v>
+        <v>141500</v>
       </c>
       <c r="G18" s="3">
-        <v>783900</v>
+        <v>519000</v>
       </c>
       <c r="H18" s="3">
-        <v>747500</v>
+        <v>758200</v>
       </c>
       <c r="I18" s="3">
-        <v>481700</v>
+        <v>723000</v>
       </c>
       <c r="J18" s="3">
+        <v>465900</v>
+      </c>
+      <c r="K18" s="3">
         <v>541400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>579000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>425500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>289800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>683400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>790800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>693000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>684800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>595600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>957800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>836200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>568700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>761700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>877300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>831500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>724300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>720400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1538,162 +1571,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12600</v>
+        <v>95700</v>
       </c>
       <c r="E20" s="3">
-        <v>1233100</v>
+        <v>12200</v>
       </c>
       <c r="F20" s="3">
-        <v>166400</v>
+        <v>1192700</v>
       </c>
       <c r="G20" s="3">
-        <v>101100</v>
+        <v>160900</v>
       </c>
       <c r="H20" s="3">
-        <v>-14100</v>
+        <v>97800</v>
       </c>
       <c r="I20" s="3">
-        <v>89900</v>
+        <v>-13600</v>
       </c>
       <c r="J20" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K20" s="3">
         <v>11300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-60600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>151400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>257300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>426400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>401800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>212600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>281600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>105100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>64000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>172300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>109400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>213500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>180400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>394400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>81700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>298400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1225500</v>
+        <v>1165900</v>
       </c>
       <c r="E21" s="3">
-        <v>1992000</v>
+        <v>1185400</v>
       </c>
       <c r="F21" s="3">
-        <v>1308000</v>
+        <v>1926700</v>
       </c>
       <c r="G21" s="3">
-        <v>1490100</v>
+        <v>1265200</v>
       </c>
       <c r="H21" s="3">
-        <v>1332200</v>
+        <v>1441300</v>
       </c>
       <c r="I21" s="3">
-        <v>1159400</v>
+        <v>1288600</v>
       </c>
       <c r="J21" s="3">
+        <v>1121400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1144900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1126200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1233300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1255100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1783600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1888900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1584500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1712100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1406800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1694300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1652200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1376200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1600300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1668200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1822700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1389400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1580800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1769,162 +1809,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>623200</v>
+        <v>562500</v>
       </c>
       <c r="E23" s="3">
-        <v>1379400</v>
+        <v>602800</v>
       </c>
       <c r="F23" s="3">
-        <v>702900</v>
+        <v>1334200</v>
       </c>
       <c r="G23" s="3">
-        <v>885000</v>
+        <v>679900</v>
       </c>
       <c r="H23" s="3">
-        <v>733400</v>
+        <v>856000</v>
       </c>
       <c r="I23" s="3">
-        <v>571600</v>
+        <v>709400</v>
       </c>
       <c r="J23" s="3">
+        <v>552900</v>
+      </c>
+      <c r="K23" s="3">
         <v>552700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>518400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>576900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>547100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1109900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1192600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>905600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>966400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1021800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1008600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>678100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>975200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1057700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1225900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>806000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1018800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>151900</v>
+        <v>127700</v>
       </c>
       <c r="E24" s="3">
-        <v>633600</v>
+        <v>147000</v>
       </c>
       <c r="F24" s="3">
-        <v>241100</v>
+        <v>612900</v>
       </c>
       <c r="G24" s="3">
-        <v>283000</v>
+        <v>233200</v>
       </c>
       <c r="H24" s="3">
-        <v>215900</v>
+        <v>273800</v>
       </c>
       <c r="I24" s="3">
-        <v>185600</v>
+        <v>208800</v>
       </c>
       <c r="J24" s="3">
+        <v>179500</v>
+      </c>
+      <c r="K24" s="3">
         <v>187500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>167500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>146500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>86600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>325100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>349300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>265200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>120600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-77300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>310300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>281100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>135400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>142100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>348400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>403800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>336300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2000,162 +2049,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>471200</v>
+        <v>434800</v>
       </c>
       <c r="E26" s="3">
-        <v>745800</v>
+        <v>455800</v>
       </c>
       <c r="F26" s="3">
-        <v>461900</v>
+        <v>721400</v>
       </c>
       <c r="G26" s="3">
-        <v>601900</v>
+        <v>446700</v>
       </c>
       <c r="H26" s="3">
-        <v>517500</v>
+        <v>582200</v>
       </c>
       <c r="I26" s="3">
-        <v>386000</v>
+        <v>500600</v>
       </c>
       <c r="J26" s="3">
+        <v>373300</v>
+      </c>
+      <c r="K26" s="3">
         <v>365200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>350800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>430400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>460500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>784800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>843300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>640300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>845800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>777900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>711500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>727500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>542700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>833100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>709300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>822100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>506000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>682500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>453400</v>
+        <v>424800</v>
       </c>
       <c r="E27" s="3">
-        <v>737800</v>
+        <v>438600</v>
       </c>
       <c r="F27" s="3">
-        <v>474000</v>
+        <v>713600</v>
       </c>
       <c r="G27" s="3">
-        <v>597100</v>
+        <v>458400</v>
       </c>
       <c r="H27" s="3">
-        <v>478000</v>
+        <v>577600</v>
       </c>
       <c r="I27" s="3">
-        <v>377700</v>
+        <v>462400</v>
       </c>
       <c r="J27" s="3">
+        <v>365300</v>
+      </c>
+      <c r="K27" s="3">
         <v>353100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>341200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>426900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>455800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>775900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>826500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>634000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>841200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>766100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>697700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>726700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>513000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>817400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>689400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>811000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>497800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>665000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2231,19 +2289,22 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>1000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2251,11 +2312,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-8200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2263,11 +2324,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>58500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2281,14 +2342,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2299,8 +2360,8 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2308,8 +2369,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2385,8 +2449,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2462,162 +2529,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12600</v>
+        <v>-95700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1233100</v>
+        <v>-12200</v>
       </c>
       <c r="F32" s="3">
-        <v>-166400</v>
+        <v>-1192700</v>
       </c>
       <c r="G32" s="3">
-        <v>-101100</v>
+        <v>-160900</v>
       </c>
       <c r="H32" s="3">
-        <v>14100</v>
+        <v>-97800</v>
       </c>
       <c r="I32" s="3">
-        <v>-89900</v>
+        <v>13600</v>
       </c>
       <c r="J32" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>60600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-151400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-257300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-426400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-401800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-212600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-281600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-105100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-64000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-172300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-109400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-213500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-180400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-394400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-81700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-298400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>453400</v>
+        <v>424800</v>
       </c>
       <c r="E33" s="3">
-        <v>738800</v>
+        <v>438600</v>
       </c>
       <c r="F33" s="3">
-        <v>474000</v>
+        <v>714600</v>
       </c>
       <c r="G33" s="3">
-        <v>597100</v>
+        <v>458400</v>
       </c>
       <c r="H33" s="3">
-        <v>478000</v>
+        <v>577600</v>
       </c>
       <c r="I33" s="3">
-        <v>369200</v>
+        <v>462400</v>
       </c>
       <c r="J33" s="3">
+        <v>357100</v>
+      </c>
+      <c r="K33" s="3">
         <v>353100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>341200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>426900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>514300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>775900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>826500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>634000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>841200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>766100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>697700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>726700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>513000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>817400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>689400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>811000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>497800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>665000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2693,167 +2769,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>453400</v>
+        <v>424800</v>
       </c>
       <c r="E35" s="3">
-        <v>738800</v>
+        <v>438600</v>
       </c>
       <c r="F35" s="3">
-        <v>474000</v>
+        <v>714600</v>
       </c>
       <c r="G35" s="3">
-        <v>597100</v>
+        <v>458400</v>
       </c>
       <c r="H35" s="3">
-        <v>478000</v>
+        <v>577600</v>
       </c>
       <c r="I35" s="3">
-        <v>369200</v>
+        <v>462400</v>
       </c>
       <c r="J35" s="3">
+        <v>357100</v>
+      </c>
+      <c r="K35" s="3">
         <v>353100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>341200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>426900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>514300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>775900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>826500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>634000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>841200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>766100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>697700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>726700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>513000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>817400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>689400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>811000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>497800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>665000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2881,8 +2966,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2910,85 +2996,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7293300</v>
+        <v>7416300</v>
       </c>
       <c r="E41" s="3">
-        <v>8003000</v>
+        <v>7054500</v>
       </c>
       <c r="F41" s="3">
-        <v>7558400</v>
+        <v>7740900</v>
       </c>
       <c r="G41" s="3">
-        <v>8516700</v>
+        <v>7311000</v>
       </c>
       <c r="H41" s="3">
-        <v>8326900</v>
+        <v>8237800</v>
       </c>
       <c r="I41" s="3">
-        <v>7913300</v>
+        <v>8054300</v>
       </c>
       <c r="J41" s="3">
+        <v>7654200</v>
+      </c>
+      <c r="K41" s="3">
         <v>8305200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10183900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10067500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10001900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9297700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10195800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10468300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12335200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12604300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11656800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12061800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12702300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11964900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11518800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11731700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10051600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9284500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3064,162 +3154,171 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2448300</v>
+        <v>2055500</v>
       </c>
       <c r="E43" s="3">
-        <v>2129300</v>
+        <v>2368100</v>
       </c>
       <c r="F43" s="3">
-        <v>1683800</v>
+        <v>2059600</v>
       </c>
       <c r="G43" s="3">
-        <v>1544700</v>
+        <v>1628700</v>
       </c>
       <c r="H43" s="3">
-        <v>1775100</v>
+        <v>1494100</v>
       </c>
       <c r="I43" s="3">
-        <v>2018600</v>
+        <v>1717000</v>
       </c>
       <c r="J43" s="3">
+        <v>1952500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1566800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1312300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1704500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2254500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1999500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1879200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2136800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2139000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1930100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2040800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2255700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2170500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2281800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1973500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1850500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1988700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1868400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1073500</v>
+        <v>1095900</v>
       </c>
       <c r="E44" s="3">
-        <v>1023000</v>
+        <v>1038400</v>
       </c>
       <c r="F44" s="3">
-        <v>1011700</v>
+        <v>989500</v>
       </c>
       <c r="G44" s="3">
-        <v>974100</v>
+        <v>978600</v>
       </c>
       <c r="H44" s="3">
-        <v>1003500</v>
+        <v>942200</v>
       </c>
       <c r="I44" s="3">
-        <v>1042000</v>
+        <v>970600</v>
       </c>
       <c r="J44" s="3">
+        <v>1007900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1080000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1053500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1105000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1110200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1202100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1161000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1146700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1111800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1369000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1220500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1117200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1003400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1246700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1174100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1116500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1045400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1265400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3295,8 +3394,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3372,185 +3474,194 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>58107600</v>
+        <v>56706400</v>
       </c>
       <c r="E47" s="3">
-        <v>56389600</v>
+        <v>56205100</v>
       </c>
       <c r="F47" s="3">
-        <v>55818800</v>
+        <v>54543300</v>
       </c>
       <c r="G47" s="3">
-        <v>53377300</v>
+        <v>53991100</v>
       </c>
       <c r="H47" s="3">
-        <v>52829100</v>
+        <v>51629600</v>
       </c>
       <c r="I47" s="3">
-        <v>52915200</v>
+        <v>51099400</v>
       </c>
       <c r="J47" s="3">
+        <v>51182600</v>
+      </c>
+      <c r="K47" s="3">
         <v>51463300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53541500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>58386100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>59973800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>74441200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>71989200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>69844300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82078400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>78817700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>75266400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>69855700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>69467000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>71014900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>70684000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>70420000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>69927900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>70281800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16715700</v>
+        <v>16147600</v>
       </c>
       <c r="E48" s="3">
-        <v>16605900</v>
+        <v>16168400</v>
       </c>
       <c r="F48" s="3">
-        <v>16526300</v>
+        <v>16062200</v>
       </c>
       <c r="G48" s="3">
-        <v>16663500</v>
+        <v>15985200</v>
       </c>
       <c r="H48" s="3">
-        <v>15706000</v>
+        <v>16117900</v>
       </c>
       <c r="I48" s="3">
-        <v>15733400</v>
+        <v>15191700</v>
       </c>
       <c r="J48" s="3">
+        <v>15218300</v>
+      </c>
+      <c r="K48" s="3">
         <v>16071400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16625000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18395500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19086100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6587600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6033700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6371700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5285700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5647800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5234600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5009900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4951600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4682600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4655100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4632500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4521200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4311900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>6782800</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>6327700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3603,8 +3714,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3680,8 +3794,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3757,8 +3874,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3834,8 +3954,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3911,85 +4034,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107182800</v>
+        <v>104832800</v>
       </c>
       <c r="E54" s="3">
-        <v>104604000</v>
+        <v>103673400</v>
       </c>
       <c r="F54" s="3">
-        <v>103288200</v>
+        <v>101179100</v>
       </c>
       <c r="G54" s="3">
-        <v>101408200</v>
+        <v>99906300</v>
       </c>
       <c r="H54" s="3">
-        <v>99555800</v>
+        <v>98087900</v>
       </c>
       <c r="I54" s="3">
-        <v>99417400</v>
+        <v>96296100</v>
       </c>
       <c r="J54" s="3">
+        <v>96162300</v>
+      </c>
+      <c r="K54" s="3">
         <v>97668500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102579300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>111679100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115124900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116999300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114976800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113629300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117001000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>114429700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>109422700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>103370600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>103290900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>104429300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>103291400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>102314200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>99626900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>98834300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4017,8 +4146,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4046,239 +4176,249 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1929900</v>
+        <v>1762000</v>
       </c>
       <c r="E57" s="3">
-        <v>2136100</v>
+        <v>1866700</v>
       </c>
       <c r="F57" s="3">
-        <v>1660200</v>
+        <v>2066200</v>
       </c>
       <c r="G57" s="3">
-        <v>1688000</v>
+        <v>1605800</v>
       </c>
       <c r="H57" s="3">
-        <v>1542200</v>
+        <v>1632700</v>
       </c>
       <c r="I57" s="3">
-        <v>1911000</v>
+        <v>1491700</v>
       </c>
       <c r="J57" s="3">
+        <v>1848400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1558500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1535100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1627400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2490800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2067100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2140100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2032100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2820300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2206000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2131700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2416200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2371200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1898700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1915700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1891500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2233500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1846800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4333300</v>
+        <v>3273300</v>
       </c>
       <c r="E58" s="3">
-        <v>3222600</v>
+        <v>4191500</v>
       </c>
       <c r="F58" s="3">
-        <v>4880900</v>
+        <v>3117000</v>
       </c>
       <c r="G58" s="3">
-        <v>3620800</v>
+        <v>4721100</v>
       </c>
       <c r="H58" s="3">
-        <v>3345900</v>
+        <v>3502300</v>
       </c>
       <c r="I58" s="3">
-        <v>2252300</v>
+        <v>3236300</v>
       </c>
       <c r="J58" s="3">
+        <v>2178500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2722800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2816300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3217100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2967500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3499400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2525500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3084300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2974800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6124400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3014300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2165000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2773100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3241500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3034400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3398100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2514400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2628100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19112900</v>
+        <v>18206800</v>
       </c>
       <c r="E59" s="3">
-        <v>22081100</v>
+        <v>18487100</v>
       </c>
       <c r="F59" s="3">
-        <v>19801700</v>
+        <v>21358100</v>
       </c>
       <c r="G59" s="3">
-        <v>19778900</v>
+        <v>19153300</v>
       </c>
       <c r="H59" s="3">
-        <v>19665100</v>
+        <v>19131300</v>
       </c>
       <c r="I59" s="3">
-        <v>21794000</v>
+        <v>19021200</v>
       </c>
       <c r="J59" s="3">
+        <v>21080400</v>
+      </c>
+      <c r="K59" s="3">
         <v>19858200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20846200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22491300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22800700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23138900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22619100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21575000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21945200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21264700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21021000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19682100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19204700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19329900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19044800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>18495000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>18275000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17244500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4354,85 +4494,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34567900</v>
+        <v>35086400</v>
       </c>
       <c r="E61" s="3">
-        <v>32506700</v>
+        <v>33436100</v>
       </c>
       <c r="F61" s="3">
-        <v>31890900</v>
+        <v>31442300</v>
       </c>
       <c r="G61" s="3">
-        <v>31896500</v>
+        <v>30846800</v>
       </c>
       <c r="H61" s="3">
-        <v>31658400</v>
+        <v>30852100</v>
       </c>
       <c r="I61" s="3">
-        <v>32400400</v>
+        <v>30621900</v>
       </c>
       <c r="J61" s="3">
+        <v>31339600</v>
+      </c>
+      <c r="K61" s="3">
         <v>31786500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33212400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37004500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37701100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37525700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37410700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37668500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>40229600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37481900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>35869000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34202200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34591600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>35174700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34962700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>35088200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>34193700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>34384900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4508,8 +4654,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4585,8 +4734,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4662,8 +4814,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4739,85 +4894,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83039800</v>
+        <v>81118100</v>
       </c>
       <c r="E66" s="3">
-        <v>80697800</v>
+        <v>80320900</v>
       </c>
       <c r="F66" s="3">
-        <v>80213700</v>
+        <v>78055600</v>
       </c>
       <c r="G66" s="3">
-        <v>78555800</v>
+        <v>77587300</v>
       </c>
       <c r="H66" s="3">
-        <v>77217400</v>
+        <v>75983700</v>
       </c>
       <c r="I66" s="3">
-        <v>77218800</v>
+        <v>74689100</v>
       </c>
       <c r="J66" s="3">
+        <v>74690500</v>
+      </c>
+      <c r="K66" s="3">
         <v>76131100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79367500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86642100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>88751200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89592700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87755300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87183700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89160100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87832500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>83373800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78716600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79041800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>80311500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>79690300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79485200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>77383600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>77218100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4845,8 +5006,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4922,8 +5084,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4999,8 +5164,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5076,8 +5244,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5153,85 +5324,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21370400</v>
+        <v>21095500</v>
       </c>
       <c r="E72" s="3">
-        <v>21325300</v>
+        <v>20670700</v>
       </c>
       <c r="F72" s="3">
-        <v>20940000</v>
+        <v>20627100</v>
       </c>
       <c r="G72" s="3">
-        <v>20810200</v>
+        <v>20254300</v>
       </c>
       <c r="H72" s="3">
-        <v>20213100</v>
+        <v>20128800</v>
       </c>
       <c r="I72" s="3">
-        <v>20117800</v>
+        <v>19551200</v>
       </c>
       <c r="J72" s="3">
+        <v>19459100</v>
+      </c>
+      <c r="K72" s="3">
         <v>20219500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21453300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23117700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24266800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24561300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24406600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23503000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24559200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23318000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22550800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21382600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20930200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20440400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19935700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19246400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18427200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>17917900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5307,8 +5484,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5384,8 +5564,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5461,85 +5644,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24143000</v>
+        <v>23714700</v>
       </c>
       <c r="E76" s="3">
-        <v>23906200</v>
+        <v>23352500</v>
       </c>
       <c r="F76" s="3">
-        <v>23074500</v>
+        <v>23123500</v>
       </c>
       <c r="G76" s="3">
-        <v>22852400</v>
+        <v>22319000</v>
       </c>
       <c r="H76" s="3">
-        <v>22338400</v>
+        <v>22104200</v>
       </c>
       <c r="I76" s="3">
-        <v>22198600</v>
+        <v>21607000</v>
       </c>
       <c r="J76" s="3">
+        <v>21471800</v>
+      </c>
+      <c r="K76" s="3">
         <v>21537500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23211700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25037000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26373700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27406600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27221500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26445600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27840900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26597200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26048900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24653900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24249100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24117900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23601100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>22829000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>22243300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21616300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5615,167 +5804,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>453400</v>
+        <v>424800</v>
       </c>
       <c r="E81" s="3">
-        <v>738800</v>
+        <v>438600</v>
       </c>
       <c r="F81" s="3">
-        <v>474000</v>
+        <v>714600</v>
       </c>
       <c r="G81" s="3">
-        <v>597100</v>
+        <v>458400</v>
       </c>
       <c r="H81" s="3">
-        <v>478000</v>
+        <v>577600</v>
       </c>
       <c r="I81" s="3">
-        <v>369200</v>
+        <v>462400</v>
       </c>
       <c r="J81" s="3">
+        <v>357100</v>
+      </c>
+      <c r="K81" s="3">
         <v>353100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>341200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>426900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>514300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>775900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>826500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>634000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>841200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>766100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>697700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>726700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>513000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>817400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>689400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>811000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>497800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>665000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5803,85 +6001,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>602400</v>
+        <v>603400</v>
       </c>
       <c r="E83" s="3">
-        <v>612500</v>
+        <v>582600</v>
       </c>
       <c r="F83" s="3">
-        <v>605100</v>
+        <v>592500</v>
       </c>
       <c r="G83" s="3">
-        <v>605100</v>
+        <v>585300</v>
       </c>
       <c r="H83" s="3">
-        <v>598800</v>
+        <v>585300</v>
       </c>
       <c r="I83" s="3">
-        <v>587800</v>
+        <v>579200</v>
       </c>
       <c r="J83" s="3">
+        <v>568500</v>
+      </c>
+      <c r="K83" s="3">
         <v>592200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>607800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>656400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>708000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>673700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>696300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>678900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>745700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>706100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>672500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>643600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>698100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>625100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>610500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>596800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>583400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>562000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5957,8 +6159,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6034,8 +6239,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6111,8 +6319,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6188,8 +6399,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6265,85 +6479,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-232700</v>
+        <v>2089100</v>
       </c>
       <c r="E89" s="3">
-        <v>2476400</v>
+        <v>-225100</v>
       </c>
       <c r="F89" s="3">
-        <v>1263500</v>
+        <v>2395300</v>
       </c>
       <c r="G89" s="3">
-        <v>2743600</v>
+        <v>1222100</v>
       </c>
       <c r="H89" s="3">
-        <v>1604200</v>
+        <v>2653800</v>
       </c>
       <c r="I89" s="3">
-        <v>2489400</v>
+        <v>1551700</v>
       </c>
       <c r="J89" s="3">
+        <v>2407900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1732000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2631100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1552600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2834900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1711200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3255200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1636300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1980300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1020200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1637600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>884100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1772000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1193700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1172300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>803500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1250000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>994000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6371,85 +6591,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-124700</v>
+        <v>-125300</v>
       </c>
       <c r="E91" s="3">
-        <v>-127600</v>
+        <v>-120600</v>
       </c>
       <c r="F91" s="3">
-        <v>-103300</v>
+        <v>-123500</v>
       </c>
       <c r="G91" s="3">
-        <v>-54400</v>
+        <v>-99900</v>
       </c>
       <c r="H91" s="3">
-        <v>-39400</v>
+        <v>-52700</v>
       </c>
       <c r="I91" s="3">
-        <v>-44100</v>
+        <v>-38100</v>
       </c>
       <c r="J91" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-84600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-133300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-79200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-172200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-116600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-62600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-106500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-127700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-198600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-147500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-155900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-197500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-222200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-148500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6525,8 +6749,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6602,85 +6829,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1663600</v>
+        <v>-1514400</v>
       </c>
       <c r="E94" s="3">
-        <v>-260800</v>
+        <v>-1609200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2469500</v>
+        <v>-252300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2348700</v>
+        <v>-2388600</v>
       </c>
       <c r="H94" s="3">
-        <v>-849900</v>
+        <v>-2271800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2599500</v>
+        <v>-822000</v>
       </c>
       <c r="J94" s="3">
+        <v>-2514400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3140600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1425100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2023400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3372700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>32500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-760600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>116900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6708,85 +6941,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-408300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-394900</v>
       </c>
       <c r="F96" s="3">
-        <v>-344200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-332900</v>
       </c>
       <c r="H96" s="3">
-        <v>-384400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-371800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-320100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-439200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-408700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-540100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-363000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-454400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-312700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-345000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-267500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6862,8 +7099,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6939,8 +7179,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7016,235 +7259,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1015600</v>
+        <v>-301400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1894200</v>
+        <v>982300</v>
       </c>
       <c r="F100" s="3">
-        <v>205200</v>
+        <v>-1832200</v>
       </c>
       <c r="G100" s="3">
-        <v>-209300</v>
+        <v>198500</v>
       </c>
       <c r="H100" s="3">
-        <v>-349300</v>
+        <v>-202400</v>
       </c>
       <c r="I100" s="3">
-        <v>-368000</v>
+        <v>-337800</v>
       </c>
       <c r="J100" s="3">
+        <v>-356000</v>
+      </c>
+      <c r="K100" s="3">
         <v>131600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-216700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>852700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1587500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>927700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-136900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>197600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-769700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3671900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>352000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-330300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>571200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>434300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>622800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>713600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-108100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>171000</v>
+        <v>88600</v>
       </c>
       <c r="E101" s="3">
-        <v>123200</v>
+        <v>165400</v>
       </c>
       <c r="F101" s="3">
-        <v>42500</v>
+        <v>119100</v>
       </c>
       <c r="G101" s="3">
-        <v>4100</v>
+        <v>41200</v>
       </c>
       <c r="H101" s="3">
-        <v>8600</v>
+        <v>4000</v>
       </c>
       <c r="I101" s="3">
-        <v>86300</v>
+        <v>8300</v>
       </c>
       <c r="J101" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-39400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>51700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-35300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-58100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-69800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>49100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-82800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>24000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>42100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>41400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-11800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>141000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-709700</v>
+        <v>361800</v>
       </c>
       <c r="E102" s="3">
-        <v>444500</v>
+        <v>-686500</v>
       </c>
       <c r="F102" s="3">
-        <v>-958200</v>
+        <v>430000</v>
       </c>
       <c r="G102" s="3">
-        <v>189700</v>
+        <v>-926900</v>
       </c>
       <c r="H102" s="3">
-        <v>413700</v>
+        <v>183500</v>
       </c>
       <c r="I102" s="3">
-        <v>-391900</v>
+        <v>400100</v>
       </c>
       <c r="J102" s="3">
+        <v>-379100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1277400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>989800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>383500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1010300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-809300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-306900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-496100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>759200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-670400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-710700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>798800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>424100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-166800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1487500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>874100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-181900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,359 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5012700</v>
+        <v>4630700</v>
       </c>
       <c r="E8" s="3">
-        <v>4663900</v>
+        <v>5196500</v>
       </c>
       <c r="F8" s="3">
-        <v>4624500</v>
+        <v>4834900</v>
       </c>
       <c r="G8" s="3">
-        <v>4442400</v>
+        <v>4794100</v>
       </c>
       <c r="H8" s="3">
-        <v>4486000</v>
+        <v>4605400</v>
       </c>
       <c r="I8" s="3">
-        <v>4316500</v>
+        <v>4650500</v>
       </c>
       <c r="J8" s="3">
+        <v>4474800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4445500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4258400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4261900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4586100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5250300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5208200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5394500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5023800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6138000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5042300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6113700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5489600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6037700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6120900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6558500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7162400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6678100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6250200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3324500</v>
+        <v>2549000</v>
       </c>
       <c r="E9" s="3">
-        <v>2966600</v>
+        <v>3446400</v>
       </c>
       <c r="F9" s="3">
-        <v>2982100</v>
+        <v>3075400</v>
       </c>
       <c r="G9" s="3">
-        <v>2724100</v>
+        <v>3091500</v>
       </c>
       <c r="H9" s="3">
-        <v>2815600</v>
+        <v>2824000</v>
       </c>
       <c r="I9" s="3">
-        <v>2584200</v>
+        <v>2918900</v>
       </c>
       <c r="J9" s="3">
+        <v>2678900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2911600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2651900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2623600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2965900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3323400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3188900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3275300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2984300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3960200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3109200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3952000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3459500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4148400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4173600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4727200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5316600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4878500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4517300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1688200</v>
+        <v>2081700</v>
       </c>
       <c r="E10" s="3">
-        <v>1697300</v>
+        <v>1750100</v>
       </c>
       <c r="F10" s="3">
-        <v>1642300</v>
+        <v>1759500</v>
       </c>
       <c r="G10" s="3">
-        <v>1718300</v>
+        <v>1702500</v>
       </c>
       <c r="H10" s="3">
-        <v>1670400</v>
+        <v>1781300</v>
       </c>
       <c r="I10" s="3">
-        <v>1732300</v>
+        <v>1731600</v>
       </c>
       <c r="J10" s="3">
+        <v>1795800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1534000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1606500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1638300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1620200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1926900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2019300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2119200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2039500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2177800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1933100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2161700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2030100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1889300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1947200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1831300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1845700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1799600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1732900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,8 +1046,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1115,8 +1127,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,168 +1210,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>146000</v>
-      </c>
       <c r="G14" s="3">
-        <v>106200</v>
+        <v>151400</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>110100</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-35000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>22600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>38400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>30100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15400</v>
+        <v>16300</v>
       </c>
       <c r="E15" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="F15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>16500</v>
+      </c>
+      <c r="N15" s="3">
+        <v>16700</v>
+      </c>
+      <c r="O15" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>17200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>16400</v>
       </c>
-      <c r="G15" s="3">
-        <v>16500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>16900</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>15100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>16500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>16700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>20100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>17200</v>
-      </c>
-      <c r="P15" s="3">
-        <v>16400</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>16200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>9900</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3">
         <v>11400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>11000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>13300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>11900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1382,168 +1406,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4545800</v>
+        <v>3975100</v>
       </c>
       <c r="E17" s="3">
-        <v>4073300</v>
+        <v>4712500</v>
       </c>
       <c r="F17" s="3">
-        <v>4482900</v>
+        <v>4222700</v>
       </c>
       <c r="G17" s="3">
-        <v>3923400</v>
+        <v>4647300</v>
       </c>
       <c r="H17" s="3">
-        <v>3727800</v>
+        <v>4067300</v>
       </c>
       <c r="I17" s="3">
-        <v>3593500</v>
+        <v>3864500</v>
       </c>
       <c r="J17" s="3">
+        <v>3725200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3979600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3717000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3682900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4160600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4960500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4524800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4603700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4330800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5453200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4446700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5155900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4653400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5469000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5359200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5681200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6330900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5953800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5529800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>466800</v>
+        <v>655600</v>
       </c>
       <c r="E18" s="3">
-        <v>590500</v>
+        <v>483900</v>
       </c>
       <c r="F18" s="3">
-        <v>141500</v>
+        <v>612200</v>
       </c>
       <c r="G18" s="3">
-        <v>519000</v>
+        <v>146700</v>
       </c>
       <c r="H18" s="3">
-        <v>758200</v>
+        <v>538000</v>
       </c>
       <c r="I18" s="3">
-        <v>723000</v>
+        <v>786000</v>
       </c>
       <c r="J18" s="3">
+        <v>749500</v>
+      </c>
+      <c r="K18" s="3">
         <v>465900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>541400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>579000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>425500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>289800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>683400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>790800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>693000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>684800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>595600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>957800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>836200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>568700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>761700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>877300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>831500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>724300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>720400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1572,168 +1603,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>95700</v>
+        <v>220000</v>
       </c>
       <c r="E20" s="3">
-        <v>12200</v>
+        <v>99200</v>
       </c>
       <c r="F20" s="3">
-        <v>1192700</v>
+        <v>12700</v>
       </c>
       <c r="G20" s="3">
-        <v>160900</v>
+        <v>1236400</v>
       </c>
       <c r="H20" s="3">
-        <v>97800</v>
+        <v>166800</v>
       </c>
       <c r="I20" s="3">
-        <v>-13600</v>
+        <v>101400</v>
       </c>
       <c r="J20" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K20" s="3">
         <v>87000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-60600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>151400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>257300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>426400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>401800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>212600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>281600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>105100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>64000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>172300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>109400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>213500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>180400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>394400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>81700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>298400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1165900</v>
+        <v>1560100</v>
       </c>
       <c r="E21" s="3">
-        <v>1185400</v>
+        <v>1208600</v>
       </c>
       <c r="F21" s="3">
-        <v>1926700</v>
+        <v>1228900</v>
       </c>
       <c r="G21" s="3">
-        <v>1265200</v>
+        <v>1997400</v>
       </c>
       <c r="H21" s="3">
-        <v>1441300</v>
+        <v>1311600</v>
       </c>
       <c r="I21" s="3">
-        <v>1288600</v>
+        <v>1494100</v>
       </c>
       <c r="J21" s="3">
+        <v>1335800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1121400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1144900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1126200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1233300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1255100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1783600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1888900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1584500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1712100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1406800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1694300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1652200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1376200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1600300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1668200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1822700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1389400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1580800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1812,168 +1850,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>562500</v>
+        <v>875600</v>
       </c>
       <c r="E23" s="3">
-        <v>602800</v>
+        <v>583100</v>
       </c>
       <c r="F23" s="3">
-        <v>1334200</v>
+        <v>624900</v>
       </c>
       <c r="G23" s="3">
-        <v>679900</v>
+        <v>1383200</v>
       </c>
       <c r="H23" s="3">
-        <v>856000</v>
+        <v>704900</v>
       </c>
       <c r="I23" s="3">
-        <v>709400</v>
+        <v>887400</v>
       </c>
       <c r="J23" s="3">
+        <v>735400</v>
+      </c>
+      <c r="K23" s="3">
         <v>552900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>552700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>518400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>576900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>547100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1109900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1192600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>905600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>966400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1021800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1008600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>678100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>975200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1057700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1225900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>806000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1018800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>127700</v>
+        <v>206400</v>
       </c>
       <c r="E24" s="3">
-        <v>147000</v>
+        <v>132400</v>
       </c>
       <c r="F24" s="3">
-        <v>612900</v>
+        <v>152300</v>
       </c>
       <c r="G24" s="3">
-        <v>233200</v>
+        <v>635400</v>
       </c>
       <c r="H24" s="3">
-        <v>273800</v>
+        <v>241700</v>
       </c>
       <c r="I24" s="3">
-        <v>208800</v>
+        <v>283800</v>
       </c>
       <c r="J24" s="3">
+        <v>216500</v>
+      </c>
+      <c r="K24" s="3">
         <v>179500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>187500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>167500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>146500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>86600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>325100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>349300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>265200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>120600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-77300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>310300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>281100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>135400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>142100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>348400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>403800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>336300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2052,168 +2099,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>434800</v>
+        <v>669200</v>
       </c>
       <c r="E26" s="3">
-        <v>455800</v>
+        <v>450700</v>
       </c>
       <c r="F26" s="3">
-        <v>721400</v>
+        <v>472500</v>
       </c>
       <c r="G26" s="3">
-        <v>446700</v>
+        <v>747800</v>
       </c>
       <c r="H26" s="3">
-        <v>582200</v>
+        <v>463100</v>
       </c>
       <c r="I26" s="3">
-        <v>500600</v>
+        <v>603600</v>
       </c>
       <c r="J26" s="3">
+        <v>518900</v>
+      </c>
+      <c r="K26" s="3">
         <v>373300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>365200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>350800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>430400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>460500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>784800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>843300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>640300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>845800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>777900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>711500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>727500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>542700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>833100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>709300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>822100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>506000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>682500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>424800</v>
+        <v>658600</v>
       </c>
       <c r="E27" s="3">
-        <v>438600</v>
+        <v>440400</v>
       </c>
       <c r="F27" s="3">
-        <v>713600</v>
+        <v>454700</v>
       </c>
       <c r="G27" s="3">
-        <v>458400</v>
+        <v>739800</v>
       </c>
       <c r="H27" s="3">
-        <v>577600</v>
+        <v>475200</v>
       </c>
       <c r="I27" s="3">
-        <v>462400</v>
+        <v>598800</v>
       </c>
       <c r="J27" s="3">
+        <v>479300</v>
+      </c>
+      <c r="K27" s="3">
         <v>365300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>353100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>341200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>426900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>455800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>775900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>826500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>634000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>841200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>766100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>697700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>726700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>513000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>817400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>689400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>811000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>497800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>665000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2292,8 +2348,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2303,11 +2362,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>1000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2315,11 +2374,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-8200</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2327,11 +2386,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>58500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2345,14 +2404,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2363,8 +2422,8 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
@@ -2372,8 +2431,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2452,8 +2514,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2532,168 +2597,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-95700</v>
+        <v>-220000</v>
       </c>
       <c r="E32" s="3">
-        <v>-12200</v>
+        <v>-99200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1192700</v>
+        <v>-12700</v>
       </c>
       <c r="G32" s="3">
-        <v>-160900</v>
+        <v>-1236400</v>
       </c>
       <c r="H32" s="3">
-        <v>-97800</v>
+        <v>-166800</v>
       </c>
       <c r="I32" s="3">
-        <v>13600</v>
+        <v>-101400</v>
       </c>
       <c r="J32" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-87000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>60600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-151400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-257300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-426400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-401800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-212600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-281600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-105100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-64000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-172300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-109400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-213500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-180400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-394400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-81700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-298400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>424800</v>
+        <v>658600</v>
       </c>
       <c r="E33" s="3">
-        <v>438600</v>
+        <v>440400</v>
       </c>
       <c r="F33" s="3">
-        <v>714600</v>
+        <v>454700</v>
       </c>
       <c r="G33" s="3">
-        <v>458400</v>
+        <v>740800</v>
       </c>
       <c r="H33" s="3">
-        <v>577600</v>
+        <v>475200</v>
       </c>
       <c r="I33" s="3">
-        <v>462400</v>
+        <v>598800</v>
       </c>
       <c r="J33" s="3">
+        <v>479300</v>
+      </c>
+      <c r="K33" s="3">
         <v>357100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>353100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>341200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>426900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>514300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>775900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>826500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>634000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>841200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>766100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>697700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>726700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>513000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>817400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>689400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>811000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>497800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>665000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2772,173 +2846,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>424800</v>
+        <v>658600</v>
       </c>
       <c r="E35" s="3">
-        <v>438600</v>
+        <v>440400</v>
       </c>
       <c r="F35" s="3">
-        <v>714600</v>
+        <v>454700</v>
       </c>
       <c r="G35" s="3">
-        <v>458400</v>
+        <v>740800</v>
       </c>
       <c r="H35" s="3">
-        <v>577600</v>
+        <v>475200</v>
       </c>
       <c r="I35" s="3">
-        <v>462400</v>
+        <v>598800</v>
       </c>
       <c r="J35" s="3">
+        <v>479300</v>
+      </c>
+      <c r="K35" s="3">
         <v>357100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>353100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>341200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>426900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>514300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>775900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>826500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>634000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>841200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>766100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>697700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>726700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>513000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>817400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>689400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>811000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>497800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>665000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2967,8 +3050,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2997,88 +3081,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7416300</v>
+        <v>7842600</v>
       </c>
       <c r="E41" s="3">
-        <v>7054500</v>
+        <v>7688300</v>
       </c>
       <c r="F41" s="3">
-        <v>7740900</v>
+        <v>7313200</v>
       </c>
       <c r="G41" s="3">
-        <v>7311000</v>
+        <v>8024800</v>
       </c>
       <c r="H41" s="3">
-        <v>8237800</v>
+        <v>7579100</v>
       </c>
       <c r="I41" s="3">
-        <v>8054300</v>
+        <v>8539900</v>
       </c>
       <c r="J41" s="3">
+        <v>8349700</v>
+      </c>
+      <c r="K41" s="3">
         <v>7654200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8305200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10183900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10067500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10001900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9297700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10195800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10468300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12335200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12604300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11656800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12061800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12702300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11964900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11518800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11731700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10051600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9284500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3157,168 +3245,177 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2055500</v>
+        <v>2211300</v>
       </c>
       <c r="E43" s="3">
-        <v>2368100</v>
+        <v>2130900</v>
       </c>
       <c r="F43" s="3">
-        <v>2059600</v>
+        <v>2454900</v>
       </c>
       <c r="G43" s="3">
-        <v>1628700</v>
+        <v>2135100</v>
       </c>
       <c r="H43" s="3">
-        <v>1494100</v>
+        <v>1688400</v>
       </c>
       <c r="I43" s="3">
-        <v>1717000</v>
+        <v>1548900</v>
       </c>
       <c r="J43" s="3">
+        <v>1779900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1952500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1566800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1312300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1704500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2254500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1999500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1879200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2136800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2139000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1930100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2040800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2255700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2170500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2281800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1973500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1850500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1988700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1868400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1095900</v>
+        <v>1072400</v>
       </c>
       <c r="E44" s="3">
-        <v>1038400</v>
+        <v>1136100</v>
       </c>
       <c r="F44" s="3">
-        <v>989500</v>
+        <v>1076400</v>
       </c>
       <c r="G44" s="3">
-        <v>978600</v>
+        <v>1025800</v>
       </c>
       <c r="H44" s="3">
-        <v>942200</v>
+        <v>1014500</v>
       </c>
       <c r="I44" s="3">
-        <v>970600</v>
+        <v>976700</v>
       </c>
       <c r="J44" s="3">
+        <v>1006200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1007900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1080000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1053500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1105000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1110200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1202100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1161000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1146700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1111800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1369000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1220500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1117200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1003400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1246700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1174100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1116500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1045400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1265400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3397,8 +3494,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3477,179 +3577,188 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56706400</v>
+        <v>56947700</v>
       </c>
       <c r="E47" s="3">
-        <v>56205100</v>
+        <v>58785900</v>
       </c>
       <c r="F47" s="3">
-        <v>54543300</v>
+        <v>58266200</v>
       </c>
       <c r="G47" s="3">
-        <v>53991100</v>
+        <v>56543400</v>
       </c>
       <c r="H47" s="3">
-        <v>51629600</v>
+        <v>55971100</v>
       </c>
       <c r="I47" s="3">
-        <v>51099400</v>
+        <v>53523000</v>
       </c>
       <c r="J47" s="3">
+        <v>52973200</v>
+      </c>
+      <c r="K47" s="3">
         <v>51182600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51463300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53541500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>58386100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>59973800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>74441200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>71989200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>69844300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82078400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>78817700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>75266400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>69855700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>69467000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>71014900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>70684000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>70420000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>69927900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>70281800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16147600</v>
+        <v>16782900</v>
       </c>
       <c r="E48" s="3">
-        <v>16168400</v>
+        <v>16739800</v>
       </c>
       <c r="F48" s="3">
-        <v>16062200</v>
+        <v>16761300</v>
       </c>
       <c r="G48" s="3">
-        <v>15985200</v>
+        <v>16651200</v>
       </c>
       <c r="H48" s="3">
-        <v>16117900</v>
+        <v>16571400</v>
       </c>
       <c r="I48" s="3">
-        <v>15191700</v>
+        <v>16709000</v>
       </c>
       <c r="J48" s="3">
+        <v>15748800</v>
+      </c>
+      <c r="K48" s="3">
         <v>15218300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16071400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16625000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18395500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19086100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6587600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6033700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6371700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5285700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5647800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5234600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5009900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4951600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4682600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4655100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4632500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4521200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4311900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6782800</v>
+        <v>6867200</v>
       </c>
       <c r="E49" s="3">
-        <v>6327700</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+        <v>7031600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6559700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -3663,8 +3772,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3717,8 +3826,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3797,8 +3909,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3877,8 +3992,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3957,8 +4075,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4037,88 +4158,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>104832800</v>
+        <v>106971100</v>
       </c>
       <c r="E54" s="3">
-        <v>103673400</v>
+        <v>108677100</v>
       </c>
       <c r="F54" s="3">
-        <v>101179100</v>
+        <v>107475300</v>
       </c>
       <c r="G54" s="3">
-        <v>99906300</v>
+        <v>104889400</v>
       </c>
       <c r="H54" s="3">
-        <v>98087900</v>
+        <v>103570000</v>
       </c>
       <c r="I54" s="3">
-        <v>96296100</v>
+        <v>101684900</v>
       </c>
       <c r="J54" s="3">
+        <v>99827500</v>
+      </c>
+      <c r="K54" s="3">
         <v>96162300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97668500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102579300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>111679100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>115124900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116999300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114976800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113629300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117001000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>114429700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>109422700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>103370600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>103290900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>104429300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>103291400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>102314200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>99626900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>98834300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4147,8 +4274,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4177,248 +4305,258 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1762000</v>
+        <v>1857800</v>
       </c>
       <c r="E57" s="3">
-        <v>1866700</v>
+        <v>1826600</v>
       </c>
       <c r="F57" s="3">
-        <v>2066200</v>
+        <v>1935100</v>
       </c>
       <c r="G57" s="3">
-        <v>1605800</v>
+        <v>2142000</v>
       </c>
       <c r="H57" s="3">
-        <v>1632700</v>
+        <v>1664700</v>
       </c>
       <c r="I57" s="3">
-        <v>1491700</v>
+        <v>1692600</v>
       </c>
       <c r="J57" s="3">
+        <v>1546400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1848400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1558500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1535100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1627400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2490800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2067100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2140100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2032100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2820300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2206000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2131700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2416200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2371200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1898700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1915700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1891500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2233500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1846800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3273300</v>
+        <v>3274700</v>
       </c>
       <c r="E58" s="3">
-        <v>4191500</v>
+        <v>3393300</v>
       </c>
       <c r="F58" s="3">
-        <v>3117000</v>
+        <v>4345200</v>
       </c>
       <c r="G58" s="3">
-        <v>4721100</v>
+        <v>3231300</v>
       </c>
       <c r="H58" s="3">
-        <v>3502300</v>
+        <v>4894300</v>
       </c>
       <c r="I58" s="3">
-        <v>3236300</v>
+        <v>3630700</v>
       </c>
       <c r="J58" s="3">
+        <v>3355000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2178500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2722800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2816300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3217100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2967500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3499400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2525500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3084300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2974800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6124400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3014300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2165000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2773100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3241500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3034400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3398100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2514400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2628100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18206800</v>
+        <v>19410200</v>
       </c>
       <c r="E59" s="3">
-        <v>18487100</v>
+        <v>18874400</v>
       </c>
       <c r="F59" s="3">
-        <v>21358100</v>
+        <v>19165100</v>
       </c>
       <c r="G59" s="3">
-        <v>19153300</v>
+        <v>22141400</v>
       </c>
       <c r="H59" s="3">
-        <v>19131300</v>
+        <v>19855700</v>
       </c>
       <c r="I59" s="3">
-        <v>19021200</v>
+        <v>19832900</v>
       </c>
       <c r="J59" s="3">
+        <v>19718700</v>
+      </c>
+      <c r="K59" s="3">
         <v>21080400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19858200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20846200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22491300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22800700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23138900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22619100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21575000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21945200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21264700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21021000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19682100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19204700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19329900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19044800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>18495000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>18275000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17244500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4497,88 +4635,94 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35086400</v>
+        <v>34983900</v>
       </c>
       <c r="E61" s="3">
-        <v>33436100</v>
+        <v>36373000</v>
       </c>
       <c r="F61" s="3">
-        <v>31442300</v>
+        <v>34662200</v>
       </c>
       <c r="G61" s="3">
-        <v>30846800</v>
+        <v>32595400</v>
       </c>
       <c r="H61" s="3">
-        <v>30852100</v>
+        <v>31978000</v>
       </c>
       <c r="I61" s="3">
-        <v>30621900</v>
+        <v>31983500</v>
       </c>
       <c r="J61" s="3">
+        <v>31744800</v>
+      </c>
+      <c r="K61" s="3">
         <v>31339600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31786500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33212400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37004500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37701100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37525700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37410700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37668500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>40229600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37481900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>35869000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34202200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>34591600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>35174700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>34962700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>35088200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>34193700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>34384900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4657,8 +4801,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4737,8 +4884,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4817,8 +4967,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4897,88 +5050,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>81118100</v>
+        <v>83043800</v>
       </c>
       <c r="E66" s="3">
-        <v>80320900</v>
+        <v>84092800</v>
       </c>
       <c r="F66" s="3">
-        <v>78055600</v>
+        <v>83266400</v>
       </c>
       <c r="G66" s="3">
-        <v>77587300</v>
+        <v>80918000</v>
       </c>
       <c r="H66" s="3">
-        <v>75983700</v>
+        <v>80432500</v>
       </c>
       <c r="I66" s="3">
-        <v>74689100</v>
+        <v>78770100</v>
       </c>
       <c r="J66" s="3">
+        <v>77428100</v>
+      </c>
+      <c r="K66" s="3">
         <v>74690500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76131100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79367500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86642100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>88751200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89592700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87755300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87183700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89160100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87832500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>83373800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>78716600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>79041800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>80311500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79690300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>79485200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>77383600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>77218100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5007,8 +5166,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5087,8 +5247,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5167,8 +5330,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5247,8 +5413,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5327,88 +5496,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21095500</v>
+        <v>22156000</v>
       </c>
       <c r="E72" s="3">
-        <v>20670700</v>
+        <v>21869100</v>
       </c>
       <c r="F72" s="3">
-        <v>20627100</v>
+        <v>21428700</v>
       </c>
       <c r="G72" s="3">
-        <v>20254300</v>
+        <v>21383500</v>
       </c>
       <c r="H72" s="3">
-        <v>20128800</v>
+        <v>20997100</v>
       </c>
       <c r="I72" s="3">
-        <v>19551200</v>
+        <v>20867000</v>
       </c>
       <c r="J72" s="3">
+        <v>20268200</v>
+      </c>
+      <c r="K72" s="3">
         <v>19459100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20219500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21453300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23117700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24266800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24561300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24406600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23503000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24559200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23318000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22550800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21382600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20930200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20440400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19935700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19246400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18427200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>17917900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5487,8 +5662,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5567,8 +5745,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5647,88 +5828,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23714700</v>
+        <v>23927300</v>
       </c>
       <c r="E76" s="3">
-        <v>23352500</v>
+        <v>24584400</v>
       </c>
       <c r="F76" s="3">
-        <v>23123500</v>
+        <v>24208900</v>
       </c>
       <c r="G76" s="3">
-        <v>22319000</v>
+        <v>23971400</v>
       </c>
       <c r="H76" s="3">
-        <v>22104200</v>
+        <v>23137500</v>
       </c>
       <c r="I76" s="3">
-        <v>21607000</v>
+        <v>22914800</v>
       </c>
       <c r="J76" s="3">
+        <v>22399400</v>
+      </c>
+      <c r="K76" s="3">
         <v>21471800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21537500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23211700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25037000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26373700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27406600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27221500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26445600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27840900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26597200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26048900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24653900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24249100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24117900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23601100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>22829000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22243300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21616300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5807,173 +5994,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>424800</v>
+        <v>658600</v>
       </c>
       <c r="E81" s="3">
-        <v>438600</v>
+        <v>440400</v>
       </c>
       <c r="F81" s="3">
-        <v>714600</v>
+        <v>454700</v>
       </c>
       <c r="G81" s="3">
-        <v>458400</v>
+        <v>740800</v>
       </c>
       <c r="H81" s="3">
-        <v>577600</v>
+        <v>475200</v>
       </c>
       <c r="I81" s="3">
-        <v>462400</v>
+        <v>598800</v>
       </c>
       <c r="J81" s="3">
+        <v>479300</v>
+      </c>
+      <c r="K81" s="3">
         <v>357100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>353100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>341200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>426900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>514300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>775900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>826500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>634000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>841200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>766100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>697700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>726700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>513000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>817400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>689400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>811000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>497800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>665000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6002,88 +6198,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>603400</v>
+        <v>684500</v>
       </c>
       <c r="E83" s="3">
-        <v>582600</v>
+        <v>625500</v>
       </c>
       <c r="F83" s="3">
-        <v>592500</v>
+        <v>604000</v>
       </c>
       <c r="G83" s="3">
-        <v>585300</v>
+        <v>614200</v>
       </c>
       <c r="H83" s="3">
-        <v>585300</v>
+        <v>606700</v>
       </c>
       <c r="I83" s="3">
-        <v>579200</v>
+        <v>606700</v>
       </c>
       <c r="J83" s="3">
+        <v>600400</v>
+      </c>
+      <c r="K83" s="3">
         <v>568500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>592200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>607800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>656400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>708000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>673700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>696300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>678900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>745700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>706100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>672500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>643600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>698100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>625100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>610500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>596800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>583400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>562000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6162,8 +6362,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6242,8 +6445,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6322,8 +6528,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6402,8 +6611,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6482,88 +6694,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2089100</v>
+        <v>2327900</v>
       </c>
       <c r="E89" s="3">
-        <v>-225100</v>
+        <v>2165700</v>
       </c>
       <c r="F89" s="3">
-        <v>2395300</v>
+        <v>-233300</v>
       </c>
       <c r="G89" s="3">
-        <v>1222100</v>
+        <v>2483100</v>
       </c>
       <c r="H89" s="3">
-        <v>2653800</v>
+        <v>1266900</v>
       </c>
       <c r="I89" s="3">
-        <v>1551700</v>
+        <v>2751100</v>
       </c>
       <c r="J89" s="3">
+        <v>1608600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2407900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1732000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2631100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1552600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2834900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1711200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3255200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1636300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1980300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1020200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1637600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>884100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1772000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1193700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1172300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>803500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1250000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>994000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6592,88 +6810,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-125300</v>
+        <v>-295300</v>
       </c>
       <c r="E91" s="3">
-        <v>-120600</v>
+        <v>-129900</v>
       </c>
       <c r="F91" s="3">
-        <v>-123500</v>
+        <v>-125000</v>
       </c>
       <c r="G91" s="3">
-        <v>-99900</v>
+        <v>-128000</v>
       </c>
       <c r="H91" s="3">
-        <v>-52700</v>
+        <v>-103600</v>
       </c>
       <c r="I91" s="3">
-        <v>-38100</v>
+        <v>-54600</v>
       </c>
       <c r="J91" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-42700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-84600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-133300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-79200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-172200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-116600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-62600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-106500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-127700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-198600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-147500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-155900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-197500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-222200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-148500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6752,8 +6974,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6832,88 +7057,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1514400</v>
+        <v>-1846000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1609200</v>
+        <v>-1570000</v>
       </c>
       <c r="F94" s="3">
-        <v>-252300</v>
+        <v>-1668200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2388600</v>
+        <v>-261500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2271800</v>
+        <v>-2476200</v>
       </c>
       <c r="I94" s="3">
-        <v>-822000</v>
+        <v>-2355100</v>
       </c>
       <c r="J94" s="3">
+        <v>-852200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2514400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3140600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1425100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2023400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3372700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>32500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-760600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>116900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6942,88 +7173,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-371800</v>
       </c>
       <c r="E96" s="3">
-        <v>-394900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-409400</v>
       </c>
       <c r="G96" s="3">
-        <v>-332900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-345100</v>
       </c>
       <c r="I96" s="3">
-        <v>-371800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-385400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-320100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-439200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-408700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-540100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-363000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-454400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-312700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-345000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-267500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7102,8 +7337,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7182,8 +7420,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7262,244 +7503,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-301400</v>
+        <v>-196800</v>
       </c>
       <c r="E100" s="3">
-        <v>982300</v>
+        <v>-312400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1832200</v>
+        <v>1018400</v>
       </c>
       <c r="G100" s="3">
-        <v>198500</v>
+        <v>-1899300</v>
       </c>
       <c r="H100" s="3">
-        <v>-202400</v>
+        <v>205800</v>
       </c>
       <c r="I100" s="3">
-        <v>-337800</v>
+        <v>-209900</v>
       </c>
       <c r="J100" s="3">
+        <v>-350200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-356000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>131600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-216700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>852700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1587500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>927700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-136900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>197600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-769700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3671900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>352000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-330300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>571200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>434300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>622800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>713600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-108100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>88600</v>
+        <v>-130800</v>
       </c>
       <c r="E101" s="3">
-        <v>165400</v>
+        <v>91800</v>
       </c>
       <c r="F101" s="3">
-        <v>119100</v>
+        <v>171500</v>
       </c>
       <c r="G101" s="3">
-        <v>41200</v>
+        <v>123500</v>
       </c>
       <c r="H101" s="3">
-        <v>4000</v>
+        <v>42700</v>
       </c>
       <c r="I101" s="3">
-        <v>8300</v>
+        <v>4100</v>
       </c>
       <c r="J101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K101" s="3">
         <v>83400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-39400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>51700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-35300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-58100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-69800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>49100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-82800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>24000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>42100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>41400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-11800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>141000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>361800</v>
+        <v>154300</v>
       </c>
       <c r="E102" s="3">
-        <v>-686500</v>
+        <v>375100</v>
       </c>
       <c r="F102" s="3">
-        <v>430000</v>
+        <v>-711600</v>
       </c>
       <c r="G102" s="3">
-        <v>-926900</v>
+        <v>445800</v>
       </c>
       <c r="H102" s="3">
-        <v>183500</v>
+        <v>-960800</v>
       </c>
       <c r="I102" s="3">
-        <v>400100</v>
+        <v>190200</v>
       </c>
       <c r="J102" s="3">
+        <v>414800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-379100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1277400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>989800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>383500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1010300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-809300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-306900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-496100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>759200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-670400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-710700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>798800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>424100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-166800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1487500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>874100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-181900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4630700</v>
+        <v>4841700</v>
       </c>
       <c r="E8" s="3">
-        <v>5196500</v>
+        <v>4542500</v>
       </c>
       <c r="F8" s="3">
-        <v>4834900</v>
+        <v>5097500</v>
       </c>
       <c r="G8" s="3">
-        <v>4794100</v>
+        <v>4742800</v>
       </c>
       <c r="H8" s="3">
-        <v>4605400</v>
+        <v>4702700</v>
       </c>
       <c r="I8" s="3">
-        <v>4650500</v>
+        <v>4517600</v>
       </c>
       <c r="J8" s="3">
+        <v>4561900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4474800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4445500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4258400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4261900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4586100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5250300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5208200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5394500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5023800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6138000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5042300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6113700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5489600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6037700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6120900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6558500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7162400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6678100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6250200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2549000</v>
+        <v>2926600</v>
       </c>
       <c r="E9" s="3">
-        <v>3446400</v>
+        <v>2500500</v>
       </c>
       <c r="F9" s="3">
-        <v>3075400</v>
+        <v>3380700</v>
       </c>
       <c r="G9" s="3">
-        <v>3091500</v>
+        <v>3016800</v>
       </c>
       <c r="H9" s="3">
-        <v>2824000</v>
+        <v>3032600</v>
       </c>
       <c r="I9" s="3">
-        <v>2918900</v>
+        <v>2770200</v>
       </c>
       <c r="J9" s="3">
+        <v>2863300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2678900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2911600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2651900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2623600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2965900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3323400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3188900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3275300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2984300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3960200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3109200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3952000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3459500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4148400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4173600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4727200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5316600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4878500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4517300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2081700</v>
+        <v>1915100</v>
       </c>
       <c r="E10" s="3">
-        <v>1750100</v>
+        <v>2042000</v>
       </c>
       <c r="F10" s="3">
-        <v>1759500</v>
+        <v>1716800</v>
       </c>
       <c r="G10" s="3">
-        <v>1702500</v>
+        <v>1726000</v>
       </c>
       <c r="H10" s="3">
-        <v>1781300</v>
+        <v>1670100</v>
       </c>
       <c r="I10" s="3">
-        <v>1731600</v>
+        <v>1747400</v>
       </c>
       <c r="J10" s="3">
+        <v>1698700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1795800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1534000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1606500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1638300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1620200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1926900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2019300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2119200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2039500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2177800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1933100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2161700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2030100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1889300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1947200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1831300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1845700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1799600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1732900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1059,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1130,8 +1143,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1213,174 +1229,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3">
         <v>3900</v>
       </c>
-      <c r="E14" s="3">
-        <v>1100</v>
-      </c>
       <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
-        <v>151400</v>
-      </c>
       <c r="H14" s="3">
-        <v>110100</v>
+        <v>148500</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-35000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>23000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>22600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>38400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>30100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>16300</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>16000</v>
       </c>
       <c r="F15" s="3">
-        <v>16000</v>
+        <v>15700</v>
       </c>
       <c r="G15" s="3">
-        <v>17000</v>
+        <v>15700</v>
       </c>
       <c r="H15" s="3">
-        <v>17100</v>
+        <v>16700</v>
       </c>
       <c r="I15" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>15100</v>
       </c>
-      <c r="J15" s="3">
-        <v>17500</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
-        <v>15100</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>16400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>16200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>9900</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="3">
         <v>11400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>11000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>13300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>11900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1407,174 +1432,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3975100</v>
+        <v>4287700</v>
       </c>
       <c r="E17" s="3">
-        <v>4712500</v>
+        <v>3899400</v>
       </c>
       <c r="F17" s="3">
-        <v>4222700</v>
+        <v>4622800</v>
       </c>
       <c r="G17" s="3">
-        <v>4647300</v>
+        <v>4142300</v>
       </c>
       <c r="H17" s="3">
-        <v>4067300</v>
+        <v>4558800</v>
       </c>
       <c r="I17" s="3">
-        <v>3864500</v>
+        <v>3989800</v>
       </c>
       <c r="J17" s="3">
+        <v>3790900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3725200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3979600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3717000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3682900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4160600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4960500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4524800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4603700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4330800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5453200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4446700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5155900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4653400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5469000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5359200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5681200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6330900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5953800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5529800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>655600</v>
+        <v>554000</v>
       </c>
       <c r="E18" s="3">
-        <v>483900</v>
+        <v>643100</v>
       </c>
       <c r="F18" s="3">
-        <v>612200</v>
+        <v>474700</v>
       </c>
       <c r="G18" s="3">
-        <v>146700</v>
+        <v>600500</v>
       </c>
       <c r="H18" s="3">
-        <v>538000</v>
+        <v>143900</v>
       </c>
       <c r="I18" s="3">
-        <v>786000</v>
+        <v>527800</v>
       </c>
       <c r="J18" s="3">
+        <v>771000</v>
+      </c>
+      <c r="K18" s="3">
         <v>749500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>465900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>541400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>579000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>425500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>289800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>683400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>790800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>693000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>684800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>595600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>957800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>836200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>568700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>761700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>877300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>831500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>724300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>720400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1604,174 +1636,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>220000</v>
+        <v>49500</v>
       </c>
       <c r="E20" s="3">
-        <v>99200</v>
+        <v>215800</v>
       </c>
       <c r="F20" s="3">
-        <v>12700</v>
+        <v>97300</v>
       </c>
       <c r="G20" s="3">
-        <v>1236400</v>
+        <v>12400</v>
       </c>
       <c r="H20" s="3">
-        <v>166800</v>
+        <v>1212900</v>
       </c>
       <c r="I20" s="3">
-        <v>101400</v>
+        <v>163700</v>
       </c>
       <c r="J20" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>87000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-60600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>151400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>257300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>426400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>401800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>212600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>281600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>105100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>64000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>172300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>109400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>213500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>180400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>394400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>81700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>298400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1560100</v>
+        <v>1274100</v>
       </c>
       <c r="E21" s="3">
-        <v>1208600</v>
+        <v>1530400</v>
       </c>
       <c r="F21" s="3">
-        <v>1228900</v>
+        <v>1185600</v>
       </c>
       <c r="G21" s="3">
-        <v>1997400</v>
+        <v>1205500</v>
       </c>
       <c r="H21" s="3">
-        <v>1311600</v>
+        <v>1959300</v>
       </c>
       <c r="I21" s="3">
-        <v>1494100</v>
+        <v>1286600</v>
       </c>
       <c r="J21" s="3">
+        <v>1465700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1335800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1121400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1144900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1126200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1233300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1255100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1783600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1888900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1584500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1712100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1406800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1694300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1652200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1376200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1600300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1668200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1822700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1389400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1580800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1853,174 +1892,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>875600</v>
+        <v>603400</v>
       </c>
       <c r="E23" s="3">
-        <v>583100</v>
+        <v>858900</v>
       </c>
       <c r="F23" s="3">
-        <v>624900</v>
+        <v>572000</v>
       </c>
       <c r="G23" s="3">
-        <v>1383200</v>
+        <v>613000</v>
       </c>
       <c r="H23" s="3">
-        <v>704900</v>
+        <v>1356800</v>
       </c>
       <c r="I23" s="3">
-        <v>887400</v>
+        <v>691400</v>
       </c>
       <c r="J23" s="3">
+        <v>870500</v>
+      </c>
+      <c r="K23" s="3">
         <v>735400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>552900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>552700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>518400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>576900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>547100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1109900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1192600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>905600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>966400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1021800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1008600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>678100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>975200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1057700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1225900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>806000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1018800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>206400</v>
+        <v>149100</v>
       </c>
       <c r="E24" s="3">
-        <v>132400</v>
+        <v>202400</v>
       </c>
       <c r="F24" s="3">
-        <v>152300</v>
+        <v>129900</v>
       </c>
       <c r="G24" s="3">
-        <v>635400</v>
+        <v>149400</v>
       </c>
       <c r="H24" s="3">
-        <v>241700</v>
+        <v>623300</v>
       </c>
       <c r="I24" s="3">
-        <v>283800</v>
+        <v>237100</v>
       </c>
       <c r="J24" s="3">
+        <v>278400</v>
+      </c>
+      <c r="K24" s="3">
         <v>216500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>179500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>187500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>167500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>146500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>86600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>325100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>349300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>265200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>120600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-77300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>310300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>281100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>135400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>142100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>348400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>403800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>300000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>336300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2102,174 +2150,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>669200</v>
+        <v>454300</v>
       </c>
       <c r="E26" s="3">
-        <v>450700</v>
+        <v>656500</v>
       </c>
       <c r="F26" s="3">
-        <v>472500</v>
+        <v>442100</v>
       </c>
       <c r="G26" s="3">
-        <v>747800</v>
+        <v>463500</v>
       </c>
       <c r="H26" s="3">
-        <v>463100</v>
+        <v>733600</v>
       </c>
       <c r="I26" s="3">
-        <v>603600</v>
+        <v>454300</v>
       </c>
       <c r="J26" s="3">
+        <v>592100</v>
+      </c>
+      <c r="K26" s="3">
         <v>518900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>373300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>365200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>350800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>430400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>460500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>784800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>843300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>640300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>845800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>777900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>711500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>727500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>542700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>833100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>709300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>822100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>506000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>682500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>658600</v>
+        <v>444800</v>
       </c>
       <c r="E27" s="3">
-        <v>440400</v>
+        <v>646100</v>
       </c>
       <c r="F27" s="3">
-        <v>454700</v>
+        <v>432000</v>
       </c>
       <c r="G27" s="3">
-        <v>739800</v>
+        <v>446000</v>
       </c>
       <c r="H27" s="3">
-        <v>475200</v>
+        <v>725700</v>
       </c>
       <c r="I27" s="3">
-        <v>598800</v>
+        <v>466200</v>
       </c>
       <c r="J27" s="3">
+        <v>587400</v>
+      </c>
+      <c r="K27" s="3">
         <v>479300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>365300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>353100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>341200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>426900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>455800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>775900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>826500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>634000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>841200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>766100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>697700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>726700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>513000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>817400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>689400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>811000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>497800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>665000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2351,8 +2408,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2365,11 +2425,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>1000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2377,11 +2437,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-8200</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2389,11 +2449,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>58500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2407,14 +2467,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2425,8 +2485,8 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
@@ -2434,8 +2494,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2517,8 +2580,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2600,174 +2666,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-220000</v>
+        <v>-49500</v>
       </c>
       <c r="E32" s="3">
-        <v>-99200</v>
+        <v>-215800</v>
       </c>
       <c r="F32" s="3">
-        <v>-12700</v>
+        <v>-97300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1236400</v>
+        <v>-12400</v>
       </c>
       <c r="H32" s="3">
-        <v>-166800</v>
+        <v>-1212900</v>
       </c>
       <c r="I32" s="3">
-        <v>-101400</v>
+        <v>-163700</v>
       </c>
       <c r="J32" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="K32" s="3">
         <v>14100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-87000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>60600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-151400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-257300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-426400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-401800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-212600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-281600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-105100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-64000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-172300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-109400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-213500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-180400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-394400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-81700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-298400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>658600</v>
+        <v>444800</v>
       </c>
       <c r="E33" s="3">
-        <v>440400</v>
+        <v>646100</v>
       </c>
       <c r="F33" s="3">
-        <v>454700</v>
+        <v>432000</v>
       </c>
       <c r="G33" s="3">
-        <v>740800</v>
+        <v>446000</v>
       </c>
       <c r="H33" s="3">
-        <v>475200</v>
+        <v>726700</v>
       </c>
       <c r="I33" s="3">
-        <v>598800</v>
+        <v>466200</v>
       </c>
       <c r="J33" s="3">
+        <v>587400</v>
+      </c>
+      <c r="K33" s="3">
         <v>479300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>357100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>353100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>341200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>426900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>514300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>775900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>826500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>634000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>841200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>766100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>697700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>726700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>513000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>817400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>689400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>811000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>497800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>665000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2849,179 +2924,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>658600</v>
+        <v>444800</v>
       </c>
       <c r="E35" s="3">
-        <v>440400</v>
+        <v>646100</v>
       </c>
       <c r="F35" s="3">
-        <v>454700</v>
+        <v>432000</v>
       </c>
       <c r="G35" s="3">
-        <v>740800</v>
+        <v>446000</v>
       </c>
       <c r="H35" s="3">
-        <v>475200</v>
+        <v>726700</v>
       </c>
       <c r="I35" s="3">
-        <v>598800</v>
+        <v>466200</v>
       </c>
       <c r="J35" s="3">
+        <v>587400</v>
+      </c>
+      <c r="K35" s="3">
         <v>479300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>357100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>353100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>341200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>426900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>514300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>775900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>826500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>634000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>841200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>766100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>697700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>726700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>513000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>817400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>689400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>811000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>497800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>665000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3051,8 +3135,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3082,91 +3167,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7842600</v>
+        <v>9855400</v>
       </c>
       <c r="E41" s="3">
-        <v>7688300</v>
+        <v>7693200</v>
       </c>
       <c r="F41" s="3">
-        <v>7313200</v>
+        <v>7541800</v>
       </c>
       <c r="G41" s="3">
-        <v>8024800</v>
+        <v>7173900</v>
       </c>
       <c r="H41" s="3">
-        <v>7579100</v>
+        <v>7872000</v>
       </c>
       <c r="I41" s="3">
-        <v>8539900</v>
+        <v>7434700</v>
       </c>
       <c r="J41" s="3">
+        <v>8377200</v>
+      </c>
+      <c r="K41" s="3">
         <v>8349700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7654200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8305200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10183900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10067500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10001900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9297700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10195800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10468300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12335200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12604300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11656800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12061800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12702300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11964900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11518800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11731700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10051600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9284500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3248,174 +3337,183 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2211300</v>
+        <v>2718700</v>
       </c>
       <c r="E43" s="3">
-        <v>2130900</v>
+        <v>2169100</v>
       </c>
       <c r="F43" s="3">
-        <v>2454900</v>
+        <v>2090300</v>
       </c>
       <c r="G43" s="3">
-        <v>2135100</v>
+        <v>2408200</v>
       </c>
       <c r="H43" s="3">
-        <v>1688400</v>
+        <v>2094400</v>
       </c>
       <c r="I43" s="3">
-        <v>1548900</v>
+        <v>1656200</v>
       </c>
       <c r="J43" s="3">
+        <v>1519400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1779900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1952500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1566800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1312300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1704500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2254500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1999500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1879200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2136800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2139000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1930100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2040800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2255700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2170500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2281800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1973500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1850500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1988700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1868400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1072400</v>
+        <v>1218600</v>
       </c>
       <c r="E44" s="3">
-        <v>1136100</v>
+        <v>1052000</v>
       </c>
       <c r="F44" s="3">
-        <v>1076400</v>
+        <v>1114400</v>
       </c>
       <c r="G44" s="3">
-        <v>1025800</v>
+        <v>1055900</v>
       </c>
       <c r="H44" s="3">
-        <v>1014500</v>
+        <v>1006200</v>
       </c>
       <c r="I44" s="3">
-        <v>976700</v>
+        <v>995100</v>
       </c>
       <c r="J44" s="3">
+        <v>958100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1006200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1007900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1080000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1053500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1105000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1110200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1202100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1161000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1146700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1111800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1369000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1220500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1117200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1003400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1246700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1174100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1116500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1045400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1265400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3497,8 +3595,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3580,188 +3681,197 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56947700</v>
+        <v>56376200</v>
       </c>
       <c r="E47" s="3">
-        <v>58785900</v>
+        <v>55863000</v>
       </c>
       <c r="F47" s="3">
-        <v>58266200</v>
+        <v>57666200</v>
       </c>
       <c r="G47" s="3">
-        <v>56543400</v>
+        <v>57156400</v>
       </c>
       <c r="H47" s="3">
-        <v>55971100</v>
+        <v>55466400</v>
       </c>
       <c r="I47" s="3">
-        <v>53523000</v>
+        <v>54905000</v>
       </c>
       <c r="J47" s="3">
+        <v>52503500</v>
+      </c>
+      <c r="K47" s="3">
         <v>52973200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51182600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51463300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53541500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>58386100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>59973800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>74441200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>71989200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>69844300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82078400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>78817700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>75266400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>69855700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>69467000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>71014900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>70684000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>70420000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>69927900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>70281800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16782900</v>
+        <v>17389200</v>
       </c>
       <c r="E48" s="3">
-        <v>16739800</v>
+        <v>16463200</v>
       </c>
       <c r="F48" s="3">
-        <v>16761300</v>
+        <v>16420900</v>
       </c>
       <c r="G48" s="3">
-        <v>16651200</v>
+        <v>16442000</v>
       </c>
       <c r="H48" s="3">
-        <v>16571400</v>
+        <v>16334000</v>
       </c>
       <c r="I48" s="3">
-        <v>16709000</v>
+        <v>16255700</v>
       </c>
       <c r="J48" s="3">
+        <v>16390700</v>
+      </c>
+      <c r="K48" s="3">
         <v>15748800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15218300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16071400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16625000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18395500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19086100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6587600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6033700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6371700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5285700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5647800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5234600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5009900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4951600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4682600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4655100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4632500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4521200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4311900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>6867200</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>7031600</v>
+        <v>6736400</v>
       </c>
       <c r="F49" s="3">
-        <v>6559700</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+        <v>6897600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6434800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -3775,8 +3885,8 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3829,8 +3939,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3912,8 +4025,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3995,8 +4111,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4078,8 +4197,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4161,91 +4283,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>106971100</v>
+        <v>110069200</v>
       </c>
       <c r="E54" s="3">
-        <v>108677100</v>
+        <v>104933500</v>
       </c>
       <c r="F54" s="3">
-        <v>107475300</v>
+        <v>106607100</v>
       </c>
       <c r="G54" s="3">
-        <v>104889400</v>
+        <v>105428100</v>
       </c>
       <c r="H54" s="3">
-        <v>103570000</v>
+        <v>102891500</v>
       </c>
       <c r="I54" s="3">
-        <v>101684900</v>
+        <v>101597300</v>
       </c>
       <c r="J54" s="3">
+        <v>99748000</v>
+      </c>
+      <c r="K54" s="3">
         <v>99827500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96162300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97668500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>102579300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>111679100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>115124900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>116999300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>114976800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113629300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>117001000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>114429700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>109422700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>103370600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>103290900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>104429300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>103291400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>102314200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>99626900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>98834300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4275,8 +4403,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4306,257 +4435,267 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1857800</v>
+        <v>2645000</v>
       </c>
       <c r="E57" s="3">
-        <v>1826600</v>
+        <v>1822400</v>
       </c>
       <c r="F57" s="3">
-        <v>1935100</v>
+        <v>1791900</v>
       </c>
       <c r="G57" s="3">
-        <v>2142000</v>
+        <v>1898300</v>
       </c>
       <c r="H57" s="3">
-        <v>1664700</v>
+        <v>2101200</v>
       </c>
       <c r="I57" s="3">
-        <v>1692600</v>
+        <v>1633000</v>
       </c>
       <c r="J57" s="3">
+        <v>1660300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1546400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1848400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1558500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1535100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1627400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2490800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2067100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2140100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2032100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2820300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2206000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2131700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2416200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2371200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1898700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1915700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1891500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2233500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1846800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3274700</v>
+        <v>3668400</v>
       </c>
       <c r="E58" s="3">
-        <v>3393300</v>
+        <v>3212300</v>
       </c>
       <c r="F58" s="3">
-        <v>4345200</v>
+        <v>3328700</v>
       </c>
       <c r="G58" s="3">
-        <v>3231300</v>
+        <v>4262400</v>
       </c>
       <c r="H58" s="3">
-        <v>4894300</v>
+        <v>3169800</v>
       </c>
       <c r="I58" s="3">
-        <v>3630700</v>
+        <v>4801000</v>
       </c>
       <c r="J58" s="3">
+        <v>3561600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3355000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2178500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2722800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2816300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3217100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2967500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3499400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2525500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3084300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2974800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6124400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3014300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2165000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2773100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3241500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3034400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3398100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2514400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2628100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19410200</v>
+        <v>18970400</v>
       </c>
       <c r="E59" s="3">
-        <v>18874400</v>
+        <v>19040500</v>
       </c>
       <c r="F59" s="3">
-        <v>19165100</v>
+        <v>18514900</v>
       </c>
       <c r="G59" s="3">
-        <v>22141400</v>
+        <v>18800000</v>
       </c>
       <c r="H59" s="3">
-        <v>19855700</v>
+        <v>21719600</v>
       </c>
       <c r="I59" s="3">
-        <v>19832900</v>
+        <v>19477500</v>
       </c>
       <c r="J59" s="3">
+        <v>19455100</v>
+      </c>
+      <c r="K59" s="3">
         <v>19718700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21080400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19858200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20846200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22491300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22800700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23138900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22619100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21575000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21945200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21264700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21021000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19682100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19204700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19329900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19044800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>18495000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>18275000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17244500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4638,91 +4777,97 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34983900</v>
+        <v>37562100</v>
       </c>
       <c r="E61" s="3">
-        <v>36373000</v>
+        <v>34317600</v>
       </c>
       <c r="F61" s="3">
-        <v>34662200</v>
+        <v>35680200</v>
       </c>
       <c r="G61" s="3">
-        <v>32595400</v>
+        <v>34002000</v>
       </c>
       <c r="H61" s="3">
-        <v>31978000</v>
+        <v>31974500</v>
       </c>
       <c r="I61" s="3">
-        <v>31983500</v>
+        <v>31368800</v>
       </c>
       <c r="J61" s="3">
+        <v>31374300</v>
+      </c>
+      <c r="K61" s="3">
         <v>31744800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31339600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31786500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33212400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37004500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37701100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37525700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37410700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37668500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40229600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37481900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>35869000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>34202200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34591600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>35174700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>34962700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>35088200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>34193700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>34384900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4804,8 +4949,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4887,8 +5035,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4970,8 +5121,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5053,91 +5207,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83043800</v>
+        <v>85868300</v>
       </c>
       <c r="E66" s="3">
-        <v>84092800</v>
+        <v>81462000</v>
       </c>
       <c r="F66" s="3">
-        <v>83266400</v>
+        <v>82491000</v>
       </c>
       <c r="G66" s="3">
-        <v>80918000</v>
+        <v>81680400</v>
       </c>
       <c r="H66" s="3">
-        <v>80432500</v>
+        <v>79376700</v>
       </c>
       <c r="I66" s="3">
-        <v>78770100</v>
+        <v>78900500</v>
       </c>
       <c r="J66" s="3">
+        <v>77269700</v>
+      </c>
+      <c r="K66" s="3">
         <v>77428100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74690500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76131100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79367500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86642100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88751200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89592700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87755300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87183700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89160100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87832500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>83373800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>78716600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>79041800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>80311500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>79690300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>79485200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>77383600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>77218100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5167,8 +5327,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5250,8 +5411,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5333,8 +5497,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5416,8 +5583,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5499,91 +5669,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22156000</v>
+        <v>21860300</v>
       </c>
       <c r="E72" s="3">
-        <v>21869100</v>
+        <v>21733900</v>
       </c>
       <c r="F72" s="3">
-        <v>21428700</v>
+        <v>21452600</v>
       </c>
       <c r="G72" s="3">
-        <v>21383500</v>
+        <v>21020600</v>
       </c>
       <c r="H72" s="3">
-        <v>20997100</v>
+        <v>20976200</v>
       </c>
       <c r="I72" s="3">
-        <v>20867000</v>
+        <v>20597200</v>
       </c>
       <c r="J72" s="3">
+        <v>20469500</v>
+      </c>
+      <c r="K72" s="3">
         <v>20268200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19459100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20219500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21453300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23117700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24266800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24561300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24406600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23503000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24559200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23318000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22550800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21382600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20930200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20440400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19935700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19246400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>18427200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>17917900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5665,8 +5841,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5748,8 +5927,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5831,91 +6013,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23927300</v>
+        <v>24201000</v>
       </c>
       <c r="E76" s="3">
-        <v>24584400</v>
+        <v>23471500</v>
       </c>
       <c r="F76" s="3">
-        <v>24208900</v>
+        <v>24116100</v>
       </c>
       <c r="G76" s="3">
-        <v>23971400</v>
+        <v>23747800</v>
       </c>
       <c r="H76" s="3">
-        <v>23137500</v>
+        <v>23514800</v>
       </c>
       <c r="I76" s="3">
-        <v>22914800</v>
+        <v>22696800</v>
       </c>
       <c r="J76" s="3">
+        <v>22478300</v>
+      </c>
+      <c r="K76" s="3">
         <v>22399400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21471800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21537500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23211700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25037000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26373700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27406600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27221500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26445600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27840900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26597200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26048900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24653900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24249100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24117900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>23601100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22829000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>22243300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21616300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5997,179 +6185,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>658600</v>
+        <v>444800</v>
       </c>
       <c r="E81" s="3">
-        <v>440400</v>
+        <v>646100</v>
       </c>
       <c r="F81" s="3">
-        <v>454700</v>
+        <v>432000</v>
       </c>
       <c r="G81" s="3">
-        <v>740800</v>
+        <v>446000</v>
       </c>
       <c r="H81" s="3">
-        <v>475200</v>
+        <v>726700</v>
       </c>
       <c r="I81" s="3">
-        <v>598800</v>
+        <v>466200</v>
       </c>
       <c r="J81" s="3">
+        <v>587400</v>
+      </c>
+      <c r="K81" s="3">
         <v>479300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>357100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>353100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>341200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>426900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>514300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>775900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>826500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>634000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>841200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>766100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>697700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>726700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>513000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>817400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>689400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>811000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>497800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>665000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6199,91 +6396,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>684500</v>
+        <v>670700</v>
       </c>
       <c r="E83" s="3">
-        <v>625500</v>
+        <v>671400</v>
       </c>
       <c r="F83" s="3">
-        <v>604000</v>
+        <v>613600</v>
       </c>
       <c r="G83" s="3">
-        <v>614200</v>
+        <v>592500</v>
       </c>
       <c r="H83" s="3">
-        <v>606700</v>
+        <v>602500</v>
       </c>
       <c r="I83" s="3">
-        <v>606700</v>
+        <v>595200</v>
       </c>
       <c r="J83" s="3">
+        <v>595200</v>
+      </c>
+      <c r="K83" s="3">
         <v>600400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>568500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>592200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>607800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>656400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>708000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>673700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>696300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>678900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>745700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>706100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>672500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>643600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>698100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>625100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>610500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>596800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>583400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>562000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6365,8 +6566,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6448,8 +6652,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6531,8 +6738,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6614,8 +6824,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6697,91 +6910,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2327900</v>
+        <v>2404300</v>
       </c>
       <c r="E89" s="3">
-        <v>2165700</v>
+        <v>2283600</v>
       </c>
       <c r="F89" s="3">
-        <v>-233300</v>
+        <v>2124400</v>
       </c>
       <c r="G89" s="3">
-        <v>2483100</v>
+        <v>-228900</v>
       </c>
       <c r="H89" s="3">
-        <v>1266900</v>
+        <v>2435800</v>
       </c>
       <c r="I89" s="3">
-        <v>2751100</v>
+        <v>1242800</v>
       </c>
       <c r="J89" s="3">
+        <v>2698700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1608600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2407900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1732000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2631100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1552600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2834900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1711200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3255200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1636300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1980300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1020200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1637600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>884100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1772000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1193700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1172300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>803500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1250000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>994000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6811,91 +7030,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-295300</v>
+        <v>-303186000</v>
       </c>
       <c r="E91" s="3">
-        <v>-129900</v>
+        <v>-298865000</v>
       </c>
       <c r="F91" s="3">
-        <v>-125000</v>
+        <v>-254596000</v>
       </c>
       <c r="G91" s="3">
-        <v>-128000</v>
+        <v>-223427000</v>
       </c>
       <c r="H91" s="3">
-        <v>-103600</v>
+        <v>-248094000</v>
       </c>
       <c r="I91" s="3">
-        <v>-54600</v>
+        <v>-229768000</v>
       </c>
       <c r="J91" s="3">
+        <v>-256101000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-39500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-84600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-133300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-79200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-172200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-116600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-62600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-48600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-106500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-127700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-198600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-147500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-155900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-197500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-222200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-148500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6977,8 +7200,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7060,91 +7286,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1846000</v>
+        <v>-2932700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1570000</v>
+        <v>-1810800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1668200</v>
+        <v>-1540100</v>
       </c>
       <c r="G94" s="3">
-        <v>-261500</v>
+        <v>-1636400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2476200</v>
+        <v>-256500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2355100</v>
+        <v>-2429100</v>
       </c>
       <c r="J94" s="3">
+        <v>-2310200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-852200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2514400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3140600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1425100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2023400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3372700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>32500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-760600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>116900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7174,91 +7406,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-371800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-364700</v>
       </c>
       <c r="F96" s="3">
-        <v>-409400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-401600</v>
       </c>
       <c r="H96" s="3">
-        <v>-345100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-338600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-385400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-320100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-439200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-408700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-540100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-363000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-454400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-312700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-345000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-267500</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7340,8 +7576,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7423,8 +7662,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7506,253 +7748,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-196800</v>
+        <v>2660800</v>
       </c>
       <c r="E100" s="3">
-        <v>-312400</v>
+        <v>-193000</v>
       </c>
       <c r="F100" s="3">
-        <v>1018400</v>
+        <v>-306500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1899300</v>
+        <v>999000</v>
       </c>
       <c r="H100" s="3">
-        <v>205800</v>
+        <v>-1863200</v>
       </c>
       <c r="I100" s="3">
-        <v>-209900</v>
+        <v>201900</v>
       </c>
       <c r="J100" s="3">
+        <v>-205900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-350200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-356000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>131600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-216700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>852700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1587500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>927700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-136900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>197600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-769700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3671900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>352000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-330300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>571200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>434300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>622800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>713600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-108100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-130800</v>
+        <v>29900</v>
       </c>
       <c r="E101" s="3">
-        <v>91800</v>
+        <v>-128300</v>
       </c>
       <c r="F101" s="3">
-        <v>171500</v>
+        <v>90100</v>
       </c>
       <c r="G101" s="3">
-        <v>123500</v>
+        <v>168200</v>
       </c>
       <c r="H101" s="3">
-        <v>42700</v>
+        <v>121100</v>
       </c>
       <c r="I101" s="3">
-        <v>4100</v>
+        <v>41800</v>
       </c>
       <c r="J101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K101" s="3">
         <v>8600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>83400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-39400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>51700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-35300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-58100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-69800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>49100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-82800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>24000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>42100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>41400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-11800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>141000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>154300</v>
+        <v>2162200</v>
       </c>
       <c r="E102" s="3">
-        <v>375100</v>
+        <v>151400</v>
       </c>
       <c r="F102" s="3">
-        <v>-711600</v>
+        <v>367900</v>
       </c>
       <c r="G102" s="3">
-        <v>445800</v>
+        <v>-698100</v>
       </c>
       <c r="H102" s="3">
-        <v>-960800</v>
+        <v>437300</v>
       </c>
       <c r="I102" s="3">
-        <v>190200</v>
+        <v>-942500</v>
       </c>
       <c r="J102" s="3">
+        <v>186600</v>
+      </c>
+      <c r="K102" s="3">
         <v>414800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-379100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1277400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>989800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>383500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1010300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-809300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-306900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-496100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>759200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-670400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-710700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>798800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>424100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-166800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1487500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>874100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-181900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,383 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4841700</v>
+        <v>4650800</v>
       </c>
       <c r="E8" s="3">
-        <v>4542500</v>
+        <v>4613400</v>
       </c>
       <c r="F8" s="3">
-        <v>5097500</v>
+        <v>4328300</v>
       </c>
       <c r="G8" s="3">
-        <v>4742800</v>
+        <v>4857100</v>
       </c>
       <c r="H8" s="3">
-        <v>4702700</v>
+        <v>4519200</v>
       </c>
       <c r="I8" s="3">
-        <v>4517600</v>
+        <v>4481000</v>
       </c>
       <c r="J8" s="3">
+        <v>4304600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4561900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4474800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4445500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4258400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4261900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4586100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5250300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5208200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5394500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5023800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6138000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5042300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6113700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5489600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6037700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6120900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6558500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7162400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6678100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6250200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2926600</v>
+        <v>2729400</v>
       </c>
       <c r="E9" s="3">
-        <v>2500500</v>
+        <v>2788600</v>
       </c>
       <c r="F9" s="3">
-        <v>3380700</v>
+        <v>2382600</v>
       </c>
       <c r="G9" s="3">
-        <v>3016800</v>
+        <v>3221300</v>
       </c>
       <c r="H9" s="3">
-        <v>3032600</v>
+        <v>2870800</v>
       </c>
       <c r="I9" s="3">
-        <v>2770200</v>
+        <v>2889600</v>
       </c>
       <c r="J9" s="3">
+        <v>2639600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2863300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2678900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2911600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2651900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2623600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2965900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3323400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3188900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3275300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2984300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3960200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3109200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3952000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3459500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4148400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4173600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4727200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5316600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4878500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4517300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1915100</v>
+        <v>1921400</v>
       </c>
       <c r="E10" s="3">
-        <v>2042000</v>
+        <v>1824800</v>
       </c>
       <c r="F10" s="3">
-        <v>1716800</v>
+        <v>1945700</v>
       </c>
       <c r="G10" s="3">
-        <v>1726000</v>
+        <v>1635800</v>
       </c>
       <c r="H10" s="3">
-        <v>1670100</v>
+        <v>1648400</v>
       </c>
       <c r="I10" s="3">
-        <v>1747400</v>
+        <v>1591400</v>
       </c>
       <c r="J10" s="3">
+        <v>1665000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1698700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1795800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1534000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1606500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1638300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1620200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1926900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2019300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2119200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2039500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2177800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1933100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2161700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2030100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1889300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1947200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1831300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1845700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1799600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1732900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1146,8 +1159,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1232,180 +1248,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>3900</v>
+        <v>2300</v>
       </c>
       <c r="F14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>800</v>
-      </c>
       <c r="H14" s="3">
-        <v>148500</v>
+        <v>700</v>
       </c>
       <c r="I14" s="3">
-        <v>108000</v>
+        <v>141500</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>102900</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-35000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>23000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>22600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>38400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>30100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>15700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>15700</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="N15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>16500</v>
+      </c>
+      <c r="P15" s="3">
         <v>16700</v>
       </c>
-      <c r="I15" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>14800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>17500</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3">
-        <v>15100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>16500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>16700</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>16400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>16200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>10500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>9900</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="3">
         <v>11400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>11000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>13300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>11900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1433,180 +1458,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4287700</v>
+        <v>4078900</v>
       </c>
       <c r="E17" s="3">
-        <v>3899400</v>
+        <v>4085500</v>
       </c>
       <c r="F17" s="3">
-        <v>4622800</v>
+        <v>3715500</v>
       </c>
       <c r="G17" s="3">
-        <v>4142300</v>
+        <v>4404800</v>
       </c>
       <c r="H17" s="3">
-        <v>4558800</v>
+        <v>3943200</v>
       </c>
       <c r="I17" s="3">
-        <v>3989800</v>
+        <v>4343800</v>
       </c>
       <c r="J17" s="3">
+        <v>3801700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3790900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3725200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3979600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3717000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3682900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4160600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4960500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4524800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4603700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4330800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5453200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4446700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5155900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4653400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5469000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5359200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5681200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6330900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5953800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5529800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>554000</v>
+        <v>571900</v>
       </c>
       <c r="E18" s="3">
-        <v>643100</v>
+        <v>527900</v>
       </c>
       <c r="F18" s="3">
-        <v>474700</v>
+        <v>612800</v>
       </c>
       <c r="G18" s="3">
-        <v>600500</v>
+        <v>452300</v>
       </c>
       <c r="H18" s="3">
-        <v>143900</v>
+        <v>576000</v>
       </c>
       <c r="I18" s="3">
-        <v>527800</v>
+        <v>137200</v>
       </c>
       <c r="J18" s="3">
+        <v>502900</v>
+      </c>
+      <c r="K18" s="3">
         <v>771000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>749500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>465900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>541400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>579000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>425500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>289800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>683400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>790800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>693000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>684800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>595600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>957800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>836200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>568700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>761700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>877300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>831500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>724300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>720400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1637,180 +1669,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>49500</v>
+        <v>42200</v>
       </c>
       <c r="E20" s="3">
-        <v>215800</v>
+        <v>47100</v>
       </c>
       <c r="F20" s="3">
-        <v>97300</v>
+        <v>205600</v>
       </c>
       <c r="G20" s="3">
-        <v>12400</v>
+        <v>92700</v>
       </c>
       <c r="H20" s="3">
-        <v>1212900</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
-        <v>163700</v>
+        <v>1155700</v>
       </c>
       <c r="J20" s="3">
+        <v>155900</v>
+      </c>
+      <c r="K20" s="3">
         <v>99500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>87000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-60600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>151400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>257300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>426400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>401800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>212600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>281600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>105100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>64000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>172300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>109400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>213500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>180400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>394400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>81700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>298400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1274100</v>
+        <v>1200800</v>
       </c>
       <c r="E21" s="3">
-        <v>1530400</v>
+        <v>1214100</v>
       </c>
       <c r="F21" s="3">
-        <v>1185600</v>
+        <v>1458200</v>
       </c>
       <c r="G21" s="3">
-        <v>1205500</v>
+        <v>1129700</v>
       </c>
       <c r="H21" s="3">
-        <v>1959300</v>
+        <v>1152400</v>
       </c>
       <c r="I21" s="3">
-        <v>1286600</v>
+        <v>1866900</v>
       </c>
       <c r="J21" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1465700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1335800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1121400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1144900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1126200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1233300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1255100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1783600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1888900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1584500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1712100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1406800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1694300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1652200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1376200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1600300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1668200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1822700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1389400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1580800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1895,180 +1934,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>603400</v>
+        <v>614100</v>
       </c>
       <c r="E23" s="3">
-        <v>858900</v>
+        <v>575000</v>
       </c>
       <c r="F23" s="3">
-        <v>572000</v>
+        <v>818400</v>
       </c>
       <c r="G23" s="3">
-        <v>613000</v>
+        <v>545000</v>
       </c>
       <c r="H23" s="3">
-        <v>1356800</v>
+        <v>587800</v>
       </c>
       <c r="I23" s="3">
-        <v>691400</v>
+        <v>1292800</v>
       </c>
       <c r="J23" s="3">
+        <v>658800</v>
+      </c>
+      <c r="K23" s="3">
         <v>870500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>735400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>552900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>552700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>518400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>576900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>547100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1109900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1192600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>905600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>966400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1021800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1008600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>678100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>975200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1057700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1225900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>806000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1018800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>149100</v>
+        <v>173400</v>
       </c>
       <c r="E24" s="3">
-        <v>202400</v>
+        <v>142100</v>
       </c>
       <c r="F24" s="3">
-        <v>129900</v>
+        <v>192900</v>
       </c>
       <c r="G24" s="3">
-        <v>149400</v>
+        <v>123700</v>
       </c>
       <c r="H24" s="3">
-        <v>623300</v>
+        <v>145700</v>
       </c>
       <c r="I24" s="3">
-        <v>237100</v>
+        <v>593900</v>
       </c>
       <c r="J24" s="3">
+        <v>226000</v>
+      </c>
+      <c r="K24" s="3">
         <v>278400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>216500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>179500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>187500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>167500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>146500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>86600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>325100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>349300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>265200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>120600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-77300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>310300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>281100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>135400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>142100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>348400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>403800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>300000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>336300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2153,180 +2201,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>454300</v>
+        <v>440800</v>
       </c>
       <c r="E26" s="3">
-        <v>656500</v>
+        <v>432900</v>
       </c>
       <c r="F26" s="3">
+        <v>625500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>421300</v>
+      </c>
+      <c r="H26" s="3">
         <v>442100</v>
       </c>
-      <c r="G26" s="3">
-        <v>463500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>733600</v>
-      </c>
       <c r="I26" s="3">
-        <v>454300</v>
+        <v>699000</v>
       </c>
       <c r="J26" s="3">
+        <v>432900</v>
+      </c>
+      <c r="K26" s="3">
         <v>592100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>518900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>373300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>365200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>350800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>430400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>460500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>784800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>843300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>640300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>845800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>777900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>711500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>727500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>542700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>833100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>709300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>822100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>506000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>682500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>444800</v>
+        <v>432600</v>
       </c>
       <c r="E27" s="3">
-        <v>646100</v>
+        <v>423800</v>
       </c>
       <c r="F27" s="3">
-        <v>432000</v>
+        <v>615600</v>
       </c>
       <c r="G27" s="3">
-        <v>446000</v>
+        <v>411600</v>
       </c>
       <c r="H27" s="3">
-        <v>725700</v>
+        <v>425400</v>
       </c>
       <c r="I27" s="3">
-        <v>466200</v>
+        <v>691500</v>
       </c>
       <c r="J27" s="3">
+        <v>444200</v>
+      </c>
+      <c r="K27" s="3">
         <v>587400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>479300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>365300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>353100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>341200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>426900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>455800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>775900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>826500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>634000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>841200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>766100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>697700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>726700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>513000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>817400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>689400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>811000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>497800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>665000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2411,8 +2468,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2428,11 +2488,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>1000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -2440,11 +2500,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-8200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2452,11 +2512,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>58500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2470,14 +2530,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2488,8 +2548,8 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
@@ -2497,8 +2557,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2583,8 +2646,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2669,180 +2735,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49500</v>
+        <v>-42200</v>
       </c>
       <c r="E32" s="3">
-        <v>-215800</v>
+        <v>-47100</v>
       </c>
       <c r="F32" s="3">
-        <v>-97300</v>
+        <v>-205600</v>
       </c>
       <c r="G32" s="3">
-        <v>-12400</v>
+        <v>-92700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1212900</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
-        <v>-163700</v>
+        <v>-1155700</v>
       </c>
       <c r="J32" s="3">
+        <v>-155900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-99500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-87000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>60600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-151400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-257300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-426400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-401800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-212600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-281600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-105100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-64000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-172300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-109400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-213500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-180400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-394400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-81700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-298400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>444800</v>
+        <v>432600</v>
       </c>
       <c r="E33" s="3">
-        <v>646100</v>
+        <v>423800</v>
       </c>
       <c r="F33" s="3">
-        <v>432000</v>
+        <v>615600</v>
       </c>
       <c r="G33" s="3">
-        <v>446000</v>
+        <v>411600</v>
       </c>
       <c r="H33" s="3">
+        <v>425400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>692500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>444200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>587400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>479300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>357100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>353100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>341200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>426900</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>514300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>775900</v>
+      </c>
+      <c r="S33" s="3">
+        <v>826500</v>
+      </c>
+      <c r="T33" s="3">
+        <v>634000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>841200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>766100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>697700</v>
+      </c>
+      <c r="X33" s="3">
         <v>726700</v>
       </c>
-      <c r="I33" s="3">
-        <v>466200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>587400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>479300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>357100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>353100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>341200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>426900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>514300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>775900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>826500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>634000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>841200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>766100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>697700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>726700</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>513000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>817400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>689400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>811000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>497800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>665000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2927,185 +3002,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>444800</v>
+        <v>432600</v>
       </c>
       <c r="E35" s="3">
-        <v>646100</v>
+        <v>423800</v>
       </c>
       <c r="F35" s="3">
-        <v>432000</v>
+        <v>615600</v>
       </c>
       <c r="G35" s="3">
-        <v>446000</v>
+        <v>411600</v>
       </c>
       <c r="H35" s="3">
+        <v>425400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>692500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>444200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>587400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>479300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>357100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>353100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>341200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>426900</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>514300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>775900</v>
+      </c>
+      <c r="S35" s="3">
+        <v>826500</v>
+      </c>
+      <c r="T35" s="3">
+        <v>634000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>841200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>766100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>697700</v>
+      </c>
+      <c r="X35" s="3">
         <v>726700</v>
       </c>
-      <c r="I35" s="3">
-        <v>466200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>587400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>479300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>357100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>353100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>341200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>426900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>514300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>775900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>826500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>634000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>841200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>766100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>697700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>726700</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>513000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>817400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>689400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>811000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>497800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>665000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3136,8 +3220,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3168,94 +3253,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9855400</v>
+        <v>7285400</v>
       </c>
       <c r="E41" s="3">
-        <v>7693200</v>
+        <v>9390700</v>
       </c>
       <c r="F41" s="3">
-        <v>7541800</v>
+        <v>7330400</v>
       </c>
       <c r="G41" s="3">
-        <v>7173900</v>
+        <v>7186200</v>
       </c>
       <c r="H41" s="3">
-        <v>7872000</v>
+        <v>6835600</v>
       </c>
       <c r="I41" s="3">
-        <v>7434700</v>
+        <v>7500700</v>
       </c>
       <c r="J41" s="3">
+        <v>7084100</v>
+      </c>
+      <c r="K41" s="3">
         <v>8377200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8349700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7654200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8305200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10183900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10067500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10001900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9297700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10195800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10468300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12335200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12604300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11656800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12061800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12702300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11964900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11518800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11731700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10051600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9284500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3340,180 +3429,189 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2718700</v>
+        <v>2483000</v>
       </c>
       <c r="E43" s="3">
-        <v>2169100</v>
+        <v>2590500</v>
       </c>
       <c r="F43" s="3">
-        <v>2090300</v>
+        <v>2066800</v>
       </c>
       <c r="G43" s="3">
-        <v>2408200</v>
+        <v>1991700</v>
       </c>
       <c r="H43" s="3">
-        <v>2094400</v>
+        <v>2294600</v>
       </c>
       <c r="I43" s="3">
-        <v>1656200</v>
+        <v>1995700</v>
       </c>
       <c r="J43" s="3">
+        <v>1578100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1519400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1779900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1952500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1566800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1312300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1704500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2254500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1999500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1879200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2136800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2139000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1930100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2040800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2255700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2170500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2281800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1973500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1850500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1988700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1868400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1218600</v>
+        <v>1168000</v>
       </c>
       <c r="E44" s="3">
-        <v>1052000</v>
+        <v>1161200</v>
       </c>
       <c r="F44" s="3">
-        <v>1114400</v>
+        <v>1002400</v>
       </c>
       <c r="G44" s="3">
-        <v>1055900</v>
+        <v>1061900</v>
       </c>
       <c r="H44" s="3">
+        <v>1006100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>958800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>948200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>958100</v>
+      </c>
+      <c r="L44" s="3">
         <v>1006200</v>
       </c>
-      <c r="I44" s="3">
-        <v>995100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>958100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1006200</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1007900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1080000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1053500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1105000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1110200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1202100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1161000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1146700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1111800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1369000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1220500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1117200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1003400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1246700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1174100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1116500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1045400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1265400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3598,8 +3696,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3684,197 +3785,206 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56376200</v>
+        <v>56137000</v>
       </c>
       <c r="E47" s="3">
-        <v>55863000</v>
+        <v>53717700</v>
       </c>
       <c r="F47" s="3">
-        <v>57666200</v>
+        <v>53228700</v>
       </c>
       <c r="G47" s="3">
-        <v>57156400</v>
+        <v>54946800</v>
       </c>
       <c r="H47" s="3">
-        <v>55466400</v>
+        <v>54461100</v>
       </c>
       <c r="I47" s="3">
-        <v>54905000</v>
+        <v>52850800</v>
       </c>
       <c r="J47" s="3">
+        <v>52315800</v>
+      </c>
+      <c r="K47" s="3">
         <v>52503500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>52973200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51182600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>51463300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53541500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>58386100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>59973800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>74441200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71989200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>69844300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82078400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>78817700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>75266400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>69855700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>69467000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>71014900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>70684000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>70420000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>69927900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>70281800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17389200</v>
+        <v>17447200</v>
       </c>
       <c r="E48" s="3">
-        <v>16463200</v>
+        <v>16569200</v>
       </c>
       <c r="F48" s="3">
-        <v>16420900</v>
+        <v>15686900</v>
       </c>
       <c r="G48" s="3">
-        <v>16442000</v>
+        <v>15646600</v>
       </c>
       <c r="H48" s="3">
-        <v>16334000</v>
+        <v>15666700</v>
       </c>
       <c r="I48" s="3">
-        <v>16255700</v>
+        <v>15563800</v>
       </c>
       <c r="J48" s="3">
+        <v>15489200</v>
+      </c>
+      <c r="K48" s="3">
         <v>16390700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15748800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15218300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16071400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16625000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18395500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19086100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6587600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6033700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6371700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5285700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5647800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5234600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5009900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4951600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4682600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4655100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4632500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4521200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4311900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>7871800</v>
       </c>
       <c r="E49" s="3">
-        <v>6736400</v>
+        <v>8208900</v>
       </c>
       <c r="F49" s="3">
-        <v>6897600</v>
+        <v>6418800</v>
       </c>
       <c r="G49" s="3">
-        <v>6434800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+        <v>6572400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6131300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3888,8 +3998,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3942,8 +4052,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4028,8 +4141,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4114,8 +4230,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4200,8 +4319,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4286,94 +4408,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110069200</v>
+        <v>107063100</v>
       </c>
       <c r="E54" s="3">
-        <v>104933500</v>
+        <v>105038100</v>
       </c>
       <c r="F54" s="3">
-        <v>106607100</v>
+        <v>99985200</v>
       </c>
       <c r="G54" s="3">
-        <v>105428100</v>
+        <v>101579900</v>
       </c>
       <c r="H54" s="3">
-        <v>102891500</v>
+        <v>100456500</v>
       </c>
       <c r="I54" s="3">
-        <v>101597300</v>
+        <v>98039500</v>
       </c>
       <c r="J54" s="3">
+        <v>96806300</v>
+      </c>
+      <c r="K54" s="3">
         <v>99748000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>99827500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96162300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97668500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102579300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>111679100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115124900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116999300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>114976800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113629300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>117001000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>114429700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>109422700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>103370600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>103290900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>104429300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>103291400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>102314200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>99626900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>98834300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4404,8 +4532,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4436,266 +4565,276 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2645000</v>
+        <v>2164000</v>
       </c>
       <c r="E57" s="3">
-        <v>1822400</v>
+        <v>2520300</v>
       </c>
       <c r="F57" s="3">
-        <v>1791900</v>
+        <v>1736500</v>
       </c>
       <c r="G57" s="3">
-        <v>1898300</v>
+        <v>1707400</v>
       </c>
       <c r="H57" s="3">
-        <v>2101200</v>
+        <v>1808800</v>
       </c>
       <c r="I57" s="3">
-        <v>1633000</v>
+        <v>2002100</v>
       </c>
       <c r="J57" s="3">
+        <v>1556000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1660300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1546400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1848400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1558500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1535100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1627400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2490800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2067100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2140100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2032100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2820300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2206000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2131700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2416200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2371200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1898700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1915700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1891500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2233500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1846800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3668400</v>
+        <v>3952700</v>
       </c>
       <c r="E58" s="3">
-        <v>3212300</v>
+        <v>5694000</v>
       </c>
       <c r="F58" s="3">
-        <v>3328700</v>
+        <v>3060800</v>
       </c>
       <c r="G58" s="3">
-        <v>4262400</v>
+        <v>3171700</v>
       </c>
       <c r="H58" s="3">
-        <v>3169800</v>
+        <v>4061400</v>
       </c>
       <c r="I58" s="3">
-        <v>4801000</v>
+        <v>3020300</v>
       </c>
       <c r="J58" s="3">
+        <v>4574600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3561600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3355000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2178500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2722800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2816300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3217100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2967500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3499400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2525500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3084300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2974800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6124400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3014300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2165000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2773100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3241500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3034400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3398100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2514400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2628100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18970400</v>
+        <v>18712300</v>
       </c>
       <c r="E59" s="3">
-        <v>19040500</v>
+        <v>22943100</v>
       </c>
       <c r="F59" s="3">
-        <v>18514900</v>
+        <v>18142600</v>
       </c>
       <c r="G59" s="3">
-        <v>18800000</v>
+        <v>17641800</v>
       </c>
       <c r="H59" s="3">
-        <v>21719600</v>
+        <v>17913500</v>
       </c>
       <c r="I59" s="3">
-        <v>19477500</v>
+        <v>20695400</v>
       </c>
       <c r="J59" s="3">
+        <v>18559000</v>
+      </c>
+      <c r="K59" s="3">
         <v>19455100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19718700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21080400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19858200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20846200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22491300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22800700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23138900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22619100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21575000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21945200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21264700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21021000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19682100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19204700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19329900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>19044800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>18495000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>18275000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17244500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4780,94 +4919,100 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37562100</v>
+        <v>36245100</v>
       </c>
       <c r="E61" s="3">
-        <v>34317600</v>
+        <v>35790800</v>
       </c>
       <c r="F61" s="3">
-        <v>35680200</v>
+        <v>32699300</v>
       </c>
       <c r="G61" s="3">
-        <v>34002000</v>
+        <v>33997700</v>
       </c>
       <c r="H61" s="3">
-        <v>31974500</v>
+        <v>32398600</v>
       </c>
       <c r="I61" s="3">
-        <v>31368800</v>
+        <v>30466700</v>
       </c>
       <c r="J61" s="3">
+        <v>29889600</v>
+      </c>
+      <c r="K61" s="3">
         <v>31374300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31744800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31339600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31786500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33212400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37004500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37701100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37525700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37410700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37668500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>40229600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>37481900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>35869000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34202200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>34591600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>35174700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>34962700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>35088200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>34193700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>34384900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4952,8 +5097,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5038,8 +5186,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5124,8 +5275,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5210,94 +5364,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85868300</v>
+        <v>82033600</v>
       </c>
       <c r="E66" s="3">
-        <v>81462000</v>
+        <v>80693500</v>
       </c>
       <c r="F66" s="3">
-        <v>82491000</v>
+        <v>77620500</v>
       </c>
       <c r="G66" s="3">
-        <v>81680400</v>
+        <v>78601000</v>
       </c>
       <c r="H66" s="3">
-        <v>79376700</v>
+        <v>77828600</v>
       </c>
       <c r="I66" s="3">
-        <v>78900500</v>
+        <v>75633600</v>
       </c>
       <c r="J66" s="3">
+        <v>75179800</v>
+      </c>
+      <c r="K66" s="3">
         <v>77269700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77428100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74690500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76131100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79367500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86642100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>88751200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89592700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87755300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87183700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89160100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>87832500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>83373800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>78716600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79041800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>80311500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>79690300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>79485200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>77383600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>77218100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5328,8 +5488,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5414,8 +5575,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5500,8 +5664,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5586,8 +5753,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5672,94 +5842,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21860300</v>
+        <v>21071700</v>
       </c>
       <c r="E72" s="3">
-        <v>21733900</v>
+        <v>20984100</v>
       </c>
       <c r="F72" s="3">
-        <v>21452600</v>
+        <v>20709000</v>
       </c>
       <c r="G72" s="3">
-        <v>21020600</v>
+        <v>20440900</v>
       </c>
       <c r="H72" s="3">
-        <v>20976200</v>
+        <v>20029300</v>
       </c>
       <c r="I72" s="3">
-        <v>20597200</v>
+        <v>19987000</v>
       </c>
       <c r="J72" s="3">
+        <v>19625900</v>
+      </c>
+      <c r="K72" s="3">
         <v>20469500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20268200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19459100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20219500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21453300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23117700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24266800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24561300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24406600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23503000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24559200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23318000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22550800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21382600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20930200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20440400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19935700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>19246400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>18427200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>17917900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5844,8 +6020,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5930,8 +6109,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6016,94 +6198,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24201000</v>
+        <v>25029500</v>
       </c>
       <c r="E76" s="3">
-        <v>23471500</v>
+        <v>24344600</v>
       </c>
       <c r="F76" s="3">
-        <v>24116100</v>
+        <v>22364700</v>
       </c>
       <c r="G76" s="3">
-        <v>23747800</v>
+        <v>22978900</v>
       </c>
       <c r="H76" s="3">
-        <v>23514800</v>
+        <v>22627900</v>
       </c>
       <c r="I76" s="3">
-        <v>22696800</v>
+        <v>22405900</v>
       </c>
       <c r="J76" s="3">
+        <v>21626500</v>
+      </c>
+      <c r="K76" s="3">
         <v>22478300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22399400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21471800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21537500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23211700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25037000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26373700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27406600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27221500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26445600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27840900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26597200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26048900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24653900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24249100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24117900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>23601100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>22829000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>22243300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21616300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6188,185 +6376,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>444800</v>
+        <v>432600</v>
       </c>
       <c r="E81" s="3">
-        <v>646100</v>
+        <v>423800</v>
       </c>
       <c r="F81" s="3">
-        <v>432000</v>
+        <v>615600</v>
       </c>
       <c r="G81" s="3">
-        <v>446000</v>
+        <v>411600</v>
       </c>
       <c r="H81" s="3">
+        <v>425400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>692500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>444200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>587400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>479300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>357100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>353100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>341200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>426900</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>514300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>775900</v>
+      </c>
+      <c r="S81" s="3">
+        <v>826500</v>
+      </c>
+      <c r="T81" s="3">
+        <v>634000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>841200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>766100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>697700</v>
+      </c>
+      <c r="X81" s="3">
         <v>726700</v>
       </c>
-      <c r="I81" s="3">
-        <v>466200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>587400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>479300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>357100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>353100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>341200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>426900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>514300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>775900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>826500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>634000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>841200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>766100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>697700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>726700</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>513000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>817400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>689400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>811000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>497800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>665000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6397,94 +6594,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>670700</v>
+        <v>586700</v>
       </c>
       <c r="E83" s="3">
-        <v>671400</v>
+        <v>639100</v>
       </c>
       <c r="F83" s="3">
-        <v>613600</v>
+        <v>639800</v>
       </c>
       <c r="G83" s="3">
-        <v>592500</v>
+        <v>584700</v>
       </c>
       <c r="H83" s="3">
-        <v>602500</v>
+        <v>564600</v>
       </c>
       <c r="I83" s="3">
+        <v>574100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>567100</v>
+      </c>
+      <c r="K83" s="3">
         <v>595200</v>
       </c>
-      <c r="J83" s="3">
-        <v>595200</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>568500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>592200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>607800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>656400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>708000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>673700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>696300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>678900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>745700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>706100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>672500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>643600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>698100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>625100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>610500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>596800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>583400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>562000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6569,8 +6770,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6655,8 +6859,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6741,8 +6948,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6827,8 +7037,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6913,94 +7126,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2404300</v>
+        <v>1352700</v>
       </c>
       <c r="E89" s="3">
-        <v>2283600</v>
+        <v>2290900</v>
       </c>
       <c r="F89" s="3">
-        <v>2124400</v>
+        <v>2175900</v>
       </c>
       <c r="G89" s="3">
-        <v>-228900</v>
+        <v>2024200</v>
       </c>
       <c r="H89" s="3">
-        <v>2435800</v>
+        <v>-218100</v>
       </c>
       <c r="I89" s="3">
-        <v>1242800</v>
+        <v>2321000</v>
       </c>
       <c r="J89" s="3">
+        <v>1184200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2698700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1608600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2407900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1732000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2631100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1552600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2834900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1711200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3255200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1636300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1980300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1020200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1637600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>884100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1772000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1193700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1172300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>803500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1250000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>994000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7031,94 +7250,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-321237000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-303186000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-298865000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-254596000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-223427000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-248094000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-229768000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-256101000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-84600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-133300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-79200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-172200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-116600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-62600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-106500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-127700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-198600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-147500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-155900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-197500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-222200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-148500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7203,8 +7426,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7289,94 +7515,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2932700</v>
+        <v>-2814300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1810800</v>
+        <v>-2794400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1540100</v>
+        <v>-1725400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1636400</v>
+        <v>-1467400</v>
       </c>
       <c r="H94" s="3">
-        <v>-256500</v>
+        <v>-1559200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2429100</v>
+        <v>-244400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2314500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2310200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-852200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2514400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3140600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1425100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2023400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3372700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>32500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-760600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>116900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7407,94 +7639,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-344900</v>
       </c>
       <c r="E96" s="3">
-        <v>-364700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-347500</v>
       </c>
       <c r="G96" s="3">
-        <v>-401600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-382700</v>
       </c>
       <c r="I96" s="3">
-        <v>-338600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-322600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-385400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-320100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-439200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-408700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-540100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-363000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-454400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-312700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-345000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-267500</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7579,8 +7815,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7665,8 +7904,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7751,262 +7993,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2660800</v>
+        <v>-779700</v>
       </c>
       <c r="E100" s="3">
-        <v>-193000</v>
+        <v>2535300</v>
       </c>
       <c r="F100" s="3">
-        <v>-306500</v>
+        <v>-183900</v>
       </c>
       <c r="G100" s="3">
-        <v>999000</v>
+        <v>-292000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1863200</v>
+        <v>951900</v>
       </c>
       <c r="I100" s="3">
-        <v>201900</v>
+        <v>-1775300</v>
       </c>
       <c r="J100" s="3">
+        <v>192400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-205900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-350200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-356000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>131600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-216700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>852700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1587500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>927700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-136900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>197600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-769700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3671900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>352000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-330300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>571200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>434300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>622800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>713600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-108100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29900</v>
+        <v>136000</v>
       </c>
       <c r="E101" s="3">
-        <v>-128300</v>
+        <v>28500</v>
       </c>
       <c r="F101" s="3">
-        <v>90100</v>
+        <v>-122300</v>
       </c>
       <c r="G101" s="3">
-        <v>168200</v>
+        <v>85800</v>
       </c>
       <c r="H101" s="3">
-        <v>121100</v>
+        <v>160300</v>
       </c>
       <c r="I101" s="3">
-        <v>41800</v>
+        <v>115400</v>
       </c>
       <c r="J101" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>83400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-39400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>51700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-35300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-58100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-69800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>49100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-82800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>24000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>42100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>41400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-11800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>141000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2162200</v>
+        <v>-2105200</v>
       </c>
       <c r="E102" s="3">
-        <v>151400</v>
+        <v>2060200</v>
       </c>
       <c r="F102" s="3">
-        <v>367900</v>
+        <v>144200</v>
       </c>
       <c r="G102" s="3">
-        <v>-698100</v>
+        <v>350600</v>
       </c>
       <c r="H102" s="3">
-        <v>437300</v>
+        <v>-665200</v>
       </c>
       <c r="I102" s="3">
-        <v>-942500</v>
+        <v>416600</v>
       </c>
       <c r="J102" s="3">
+        <v>-898100</v>
+      </c>
+      <c r="K102" s="3">
         <v>186600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>414800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-379100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1277400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>989800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>383500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1010300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-809300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-306900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-496100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>759200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-670400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-710700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>798800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>424100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-166800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1487500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>874100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-181900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4650800</v>
+        <v>4533500</v>
       </c>
       <c r="E8" s="3">
-        <v>4613400</v>
+        <v>4495100</v>
       </c>
       <c r="F8" s="3">
-        <v>4328300</v>
+        <v>4459000</v>
       </c>
       <c r="G8" s="3">
-        <v>4857100</v>
+        <v>4183400</v>
       </c>
       <c r="H8" s="3">
-        <v>4519200</v>
+        <v>4694500</v>
       </c>
       <c r="I8" s="3">
-        <v>4481000</v>
+        <v>4367900</v>
       </c>
       <c r="J8" s="3">
+        <v>4331000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4304600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4561900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4474800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4445500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4258400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4261900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4586100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5250300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5208200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5394500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5023800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6138000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5042300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6113700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5489600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6037700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6120900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6558500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7162400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6678100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6250200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2729400</v>
+        <v>2613900</v>
       </c>
       <c r="E9" s="3">
-        <v>2788600</v>
+        <v>2638100</v>
       </c>
       <c r="F9" s="3">
-        <v>2382600</v>
+        <v>2695300</v>
       </c>
       <c r="G9" s="3">
-        <v>3221300</v>
+        <v>2302800</v>
       </c>
       <c r="H9" s="3">
-        <v>2870800</v>
+        <v>3105300</v>
       </c>
       <c r="I9" s="3">
-        <v>2889600</v>
+        <v>2774700</v>
       </c>
       <c r="J9" s="3">
+        <v>2792900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2639600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2863300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2678900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2911600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2651900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2623600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2965900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3323400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3188900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3275300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2984300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3960200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3109200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3952000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3459500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4148400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4173600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4727200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5316600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4878500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4517300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1921400</v>
+        <v>1919600</v>
       </c>
       <c r="E10" s="3">
-        <v>1824800</v>
+        <v>1857000</v>
       </c>
       <c r="F10" s="3">
-        <v>1945700</v>
+        <v>1763700</v>
       </c>
       <c r="G10" s="3">
-        <v>1635800</v>
+        <v>1880600</v>
       </c>
       <c r="H10" s="3">
-        <v>1648400</v>
+        <v>1589200</v>
       </c>
       <c r="I10" s="3">
-        <v>1591400</v>
+        <v>1593200</v>
       </c>
       <c r="J10" s="3">
+        <v>1538100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1665000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1698700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1795800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1534000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1606500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1638300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1620200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1926900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2019300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2119200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2039500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2177800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1933100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2161700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2030100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1889300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1947200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1831300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1845700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1799600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1732900</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1085,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1162,8 +1175,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1251,186 +1267,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>2300</v>
-      </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="G14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
-        <v>141500</v>
-      </c>
       <c r="J14" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K14" s="3">
         <v>102900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>23000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>22600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>14100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>9800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>38400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>30100</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="E15" s="3">
-        <v>12400</v>
+        <v>14100</v>
       </c>
       <c r="F15" s="3">
-        <v>15200</v>
+        <v>12000</v>
       </c>
       <c r="G15" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="H15" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="I15" s="3">
-        <v>15900</v>
+        <v>14400</v>
       </c>
       <c r="J15" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K15" s="3">
         <v>16000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17500</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>16500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>16700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>16400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>16200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>10500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>9900</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="3">
         <v>11400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>11000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>13300</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>11900</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1459,186 +1484,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4078900</v>
+        <v>3997100</v>
       </c>
       <c r="E17" s="3">
-        <v>4085500</v>
+        <v>3942300</v>
       </c>
       <c r="F17" s="3">
-        <v>3715500</v>
+        <v>3948800</v>
       </c>
       <c r="G17" s="3">
-        <v>4404800</v>
+        <v>3591100</v>
       </c>
       <c r="H17" s="3">
-        <v>3943200</v>
+        <v>4249200</v>
       </c>
       <c r="I17" s="3">
-        <v>4343800</v>
+        <v>3811200</v>
       </c>
       <c r="J17" s="3">
+        <v>4198400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3801700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3790900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3725200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3979600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3717000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3682900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4160600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4960500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4524800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4603700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4330800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5453200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4446700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5155900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4653400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5469000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5359200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5681200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6330900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5953800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5529800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>571900</v>
+        <v>536400</v>
       </c>
       <c r="E18" s="3">
-        <v>527900</v>
+        <v>552800</v>
       </c>
       <c r="F18" s="3">
-        <v>612800</v>
+        <v>510200</v>
       </c>
       <c r="G18" s="3">
-        <v>452300</v>
+        <v>592200</v>
       </c>
       <c r="H18" s="3">
-        <v>576000</v>
+        <v>445300</v>
       </c>
       <c r="I18" s="3">
-        <v>137200</v>
+        <v>556700</v>
       </c>
       <c r="J18" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K18" s="3">
         <v>502900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>771000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>749500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>465900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>541400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>579000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>425500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>289800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>683400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>790800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>693000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>684800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>595600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>957800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>836200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>568700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>761700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>877300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>831500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>724300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>720400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1670,186 +1702,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42200</v>
+        <v>94900</v>
       </c>
       <c r="E20" s="3">
-        <v>47100</v>
+        <v>40800</v>
       </c>
       <c r="F20" s="3">
-        <v>205600</v>
+        <v>45500</v>
       </c>
       <c r="G20" s="3">
-        <v>92700</v>
+        <v>198800</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>89600</v>
       </c>
       <c r="I20" s="3">
-        <v>1155700</v>
+        <v>11400</v>
       </c>
       <c r="J20" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="K20" s="3">
         <v>155900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>99500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>87000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-60600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>151400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>257300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>426400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>401800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>212600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>281600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>105100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>64000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>172300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>109400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>213500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>180400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>394400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>81700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>298400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1200800</v>
+        <v>1249500</v>
       </c>
       <c r="E21" s="3">
-        <v>1214100</v>
+        <v>1160600</v>
       </c>
       <c r="F21" s="3">
-        <v>1458200</v>
+        <v>1173400</v>
       </c>
       <c r="G21" s="3">
-        <v>1129700</v>
+        <v>1409400</v>
       </c>
       <c r="H21" s="3">
-        <v>1152400</v>
+        <v>1100000</v>
       </c>
       <c r="I21" s="3">
-        <v>1866900</v>
+        <v>1113800</v>
       </c>
       <c r="J21" s="3">
+        <v>1804400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1225900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1465700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1335800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1121400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1144900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1126200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1233300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1255100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1783600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1888900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1584500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1712100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1406800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1694300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1652200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1376200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1600300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1668200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1822700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1389400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1580800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1937,186 +1976,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>614100</v>
+        <v>631300</v>
       </c>
       <c r="E23" s="3">
-        <v>575000</v>
+        <v>593600</v>
       </c>
       <c r="F23" s="3">
-        <v>818400</v>
+        <v>555700</v>
       </c>
       <c r="G23" s="3">
-        <v>545000</v>
+        <v>791000</v>
       </c>
       <c r="H23" s="3">
-        <v>587800</v>
+        <v>534900</v>
       </c>
       <c r="I23" s="3">
-        <v>1292800</v>
+        <v>568100</v>
       </c>
       <c r="J23" s="3">
+        <v>1249600</v>
+      </c>
+      <c r="K23" s="3">
         <v>658800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>870500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>735400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>552900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>552700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>518400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>576900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>547100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1109900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1192600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>905600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>966400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1021800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1008600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>678100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>975200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1057700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1225900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>806000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1018800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>173400</v>
+        <v>189900</v>
       </c>
       <c r="E24" s="3">
+        <v>167600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>137300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>186400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>124600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>140900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>574000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>226000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>278400</v>
+      </c>
+      <c r="M24" s="3">
+        <v>216500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>179500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>187500</v>
+      </c>
+      <c r="P24" s="3">
+        <v>167500</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>146500</v>
+      </c>
+      <c r="R24" s="3">
+        <v>86600</v>
+      </c>
+      <c r="S24" s="3">
+        <v>325100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>349300</v>
+      </c>
+      <c r="U24" s="3">
+        <v>265200</v>
+      </c>
+      <c r="V24" s="3">
+        <v>120600</v>
+      </c>
+      <c r="W24" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="X24" s="3">
+        <v>310300</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>281100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>135400</v>
+      </c>
+      <c r="AA24" s="3">
         <v>142100</v>
       </c>
-      <c r="F24" s="3">
-        <v>192900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>123700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>145700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>593900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>226000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>278400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>216500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>179500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>187500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>167500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>146500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>86600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>325100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>349300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>265200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>120600</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-77300</v>
-      </c>
-      <c r="W24" s="3">
-        <v>310300</v>
-      </c>
-      <c r="X24" s="3">
-        <v>281100</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>135400</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>142100</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>348400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>403800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>300000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>336300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2204,186 +2252,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>440800</v>
+        <v>441400</v>
       </c>
       <c r="E26" s="3">
+        <v>426000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>418400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>604600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>410300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>427300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>675600</v>
+      </c>
+      <c r="K26" s="3">
         <v>432900</v>
       </c>
-      <c r="F26" s="3">
-        <v>625500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>421300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>442100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>699000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>432900</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>592100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>518900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>373300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>365200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>350800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>430400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>460500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>784800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>843300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>640300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>845800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>777900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>711500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>727500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>542700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>833100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>709300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>822100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>506000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>682500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>432600</v>
+        <v>432500</v>
       </c>
       <c r="E27" s="3">
-        <v>423800</v>
+        <v>418100</v>
       </c>
       <c r="F27" s="3">
-        <v>615600</v>
+        <v>409600</v>
       </c>
       <c r="G27" s="3">
-        <v>411600</v>
+        <v>595000</v>
       </c>
       <c r="H27" s="3">
-        <v>425400</v>
+        <v>401000</v>
       </c>
       <c r="I27" s="3">
-        <v>691500</v>
+        <v>411200</v>
       </c>
       <c r="J27" s="3">
+        <v>668300</v>
+      </c>
+      <c r="K27" s="3">
         <v>444200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>587400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>479300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>365300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>353100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>341200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>426900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>455800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>775900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>826500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>634000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>841200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>766100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>697700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>726700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>513000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>817400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>689400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>811000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>497800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>665000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2471,8 +2528,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2491,11 +2551,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2503,11 +2563,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-8200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2515,11 +2575,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>58500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2533,14 +2593,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2551,8 +2611,8 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
@@ -2560,8 +2620,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2649,8 +2712,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2738,186 +2804,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42200</v>
+        <v>-94900</v>
       </c>
       <c r="E32" s="3">
-        <v>-47100</v>
+        <v>-40800</v>
       </c>
       <c r="F32" s="3">
-        <v>-205600</v>
+        <v>-45500</v>
       </c>
       <c r="G32" s="3">
-        <v>-92700</v>
+        <v>-198800</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-89600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1155700</v>
+        <v>-11400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1117000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-155900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-99500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-87000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>60600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-151400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-257300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-426400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-401800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-212600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-281600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-105100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-64000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-172300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-109400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-213500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-180400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-394400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-81700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-298400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>432600</v>
+        <v>432500</v>
       </c>
       <c r="E33" s="3">
-        <v>423800</v>
+        <v>418100</v>
       </c>
       <c r="F33" s="3">
-        <v>615600</v>
+        <v>409600</v>
       </c>
       <c r="G33" s="3">
-        <v>411600</v>
+        <v>595000</v>
       </c>
       <c r="H33" s="3">
-        <v>425400</v>
+        <v>401000</v>
       </c>
       <c r="I33" s="3">
-        <v>692500</v>
+        <v>411200</v>
       </c>
       <c r="J33" s="3">
+        <v>669300</v>
+      </c>
+      <c r="K33" s="3">
         <v>444200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>587400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>479300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>357100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>353100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>341200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>426900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>514300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>775900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>826500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>634000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>841200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>766100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>697700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>726700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>513000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>817400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>689400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>811000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>497800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>665000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3005,191 +3080,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>432600</v>
+        <v>432500</v>
       </c>
       <c r="E35" s="3">
-        <v>423800</v>
+        <v>418100</v>
       </c>
       <c r="F35" s="3">
-        <v>615600</v>
+        <v>409600</v>
       </c>
       <c r="G35" s="3">
-        <v>411600</v>
+        <v>595000</v>
       </c>
       <c r="H35" s="3">
-        <v>425400</v>
+        <v>401000</v>
       </c>
       <c r="I35" s="3">
-        <v>692500</v>
+        <v>411200</v>
       </c>
       <c r="J35" s="3">
+        <v>669300</v>
+      </c>
+      <c r="K35" s="3">
         <v>444200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>587400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>479300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>357100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>353100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>341200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>426900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>514300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>775900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>826500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>634000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>841200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>766100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>697700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>726700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>513000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>817400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>689400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>811000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>497800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>665000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3221,8 +3305,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3254,97 +3339,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7285400</v>
+        <v>7000100</v>
       </c>
       <c r="E41" s="3">
-        <v>9390700</v>
+        <v>7041500</v>
       </c>
       <c r="F41" s="3">
-        <v>7330400</v>
+        <v>9076300</v>
       </c>
       <c r="G41" s="3">
-        <v>7186200</v>
+        <v>7085000</v>
       </c>
       <c r="H41" s="3">
-        <v>6835600</v>
+        <v>6945600</v>
       </c>
       <c r="I41" s="3">
-        <v>7500700</v>
+        <v>6606700</v>
       </c>
       <c r="J41" s="3">
+        <v>7249600</v>
+      </c>
+      <c r="K41" s="3">
         <v>7084100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8377200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8349700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7654200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8305200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10183900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10067500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10001900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9297700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10195800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10468300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12335200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12604300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11656800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12061800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12702300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11964900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11518800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11731700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10051600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9284500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3432,186 +3521,195 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2483000</v>
+        <v>2023400</v>
       </c>
       <c r="E43" s="3">
-        <v>2590500</v>
+        <v>2399900</v>
       </c>
       <c r="F43" s="3">
-        <v>2066800</v>
+        <v>2503800</v>
       </c>
       <c r="G43" s="3">
-        <v>1991700</v>
+        <v>1997700</v>
       </c>
       <c r="H43" s="3">
-        <v>2294600</v>
+        <v>1925100</v>
       </c>
       <c r="I43" s="3">
-        <v>1995700</v>
+        <v>2217800</v>
       </c>
       <c r="J43" s="3">
+        <v>1928900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1578100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1519400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1779900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1952500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1566800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1312300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1704500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2254500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1999500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1879200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2136800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2139000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1930100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2040800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2255700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2170500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2281800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1973500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1850500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1988700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1868400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1168000</v>
+        <v>1480100</v>
       </c>
       <c r="E44" s="3">
-        <v>1161200</v>
+        <v>1128900</v>
       </c>
       <c r="F44" s="3">
-        <v>1002400</v>
+        <v>1122300</v>
       </c>
       <c r="G44" s="3">
-        <v>1061900</v>
+        <v>968800</v>
       </c>
       <c r="H44" s="3">
-        <v>1006100</v>
+        <v>1026300</v>
       </c>
       <c r="I44" s="3">
-        <v>958800</v>
+        <v>972500</v>
       </c>
       <c r="J44" s="3">
+        <v>926700</v>
+      </c>
+      <c r="K44" s="3">
         <v>948200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>958100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1006200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1007900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1080000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1053500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1105000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1110200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1202100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1161000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1146700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1111800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1369000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1220500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1117200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1003400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1246700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1174100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1116500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1045400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1265400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3699,8 +3797,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3788,206 +3889,215 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56137000</v>
+        <v>54739600</v>
       </c>
       <c r="E47" s="3">
-        <v>53717700</v>
+        <v>54257600</v>
       </c>
       <c r="F47" s="3">
-        <v>53228700</v>
+        <v>51919200</v>
       </c>
       <c r="G47" s="3">
-        <v>54946800</v>
+        <v>51446600</v>
       </c>
       <c r="H47" s="3">
-        <v>54461100</v>
+        <v>53107300</v>
       </c>
       <c r="I47" s="3">
-        <v>52850800</v>
+        <v>52637800</v>
       </c>
       <c r="J47" s="3">
+        <v>51081400</v>
+      </c>
+      <c r="K47" s="3">
         <v>52315800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>52503500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>52973200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>51182600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>51463300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53541500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>58386100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>59973800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>74441200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>71989200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>69844300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82078400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>78817700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>75266400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>69855700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>69467000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>71014900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>70684000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>70420000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>69927900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>70281800</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17447200</v>
+        <v>17337500</v>
       </c>
       <c r="E48" s="3">
-        <v>16569200</v>
+        <v>16863100</v>
       </c>
       <c r="F48" s="3">
-        <v>15686900</v>
+        <v>16014500</v>
       </c>
       <c r="G48" s="3">
-        <v>15646600</v>
+        <v>15161700</v>
       </c>
       <c r="H48" s="3">
-        <v>15666700</v>
+        <v>15122700</v>
       </c>
       <c r="I48" s="3">
-        <v>15563800</v>
+        <v>15142200</v>
       </c>
       <c r="J48" s="3">
+        <v>15042700</v>
+      </c>
+      <c r="K48" s="3">
         <v>15489200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16390700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15748800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15218300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16071400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16625000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18395500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19086100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6587600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6033700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6371700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5285700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5647800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5234600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5009900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4951600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4682600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4655100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4632500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4521200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4311900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7871800</v>
+        <v>8002600</v>
       </c>
       <c r="E49" s="3">
-        <v>8208900</v>
+        <v>7608300</v>
       </c>
       <c r="F49" s="3">
-        <v>6418800</v>
+        <v>7934100</v>
       </c>
       <c r="G49" s="3">
-        <v>6572400</v>
+        <v>6203900</v>
       </c>
       <c r="H49" s="3">
-        <v>6131300</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+        <v>6352300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5926000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -4001,8 +4111,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -4055,8 +4165,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4144,8 +4257,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4233,8 +4349,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4322,8 +4441,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4411,97 +4533,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107063100</v>
+        <v>104880300</v>
       </c>
       <c r="E54" s="3">
-        <v>105038100</v>
+        <v>103478700</v>
       </c>
       <c r="F54" s="3">
-        <v>99985200</v>
+        <v>101521500</v>
       </c>
       <c r="G54" s="3">
-        <v>101579900</v>
+        <v>96637800</v>
       </c>
       <c r="H54" s="3">
-        <v>100456500</v>
+        <v>98179100</v>
       </c>
       <c r="I54" s="3">
-        <v>98039500</v>
+        <v>97093300</v>
       </c>
       <c r="J54" s="3">
+        <v>94757300</v>
+      </c>
+      <c r="K54" s="3">
         <v>96806300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>99748000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>99827500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96162300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97668500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102579300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>111679100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>115124900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>116999300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>114976800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113629300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>117001000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>114429700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>109422700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>103370600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>103290900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>104429300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>103291400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>102314200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>99626900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>98834300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4533,8 +4661,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4566,275 +4695,285 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2164000</v>
+        <v>2190200</v>
       </c>
       <c r="E57" s="3">
-        <v>2520300</v>
+        <v>2091500</v>
       </c>
       <c r="F57" s="3">
-        <v>1736500</v>
+        <v>2435900</v>
       </c>
       <c r="G57" s="3">
-        <v>1707400</v>
+        <v>1678400</v>
       </c>
       <c r="H57" s="3">
-        <v>1808800</v>
+        <v>1650200</v>
       </c>
       <c r="I57" s="3">
-        <v>2002100</v>
+        <v>1748200</v>
       </c>
       <c r="J57" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1556000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1660300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1546400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1848400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1558500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1535100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1627400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2490800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2067100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2140100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2032100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2820300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2206000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2131700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2416200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2371200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1898700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1915700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1891500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2233500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1846800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3952700</v>
+        <v>3893600</v>
       </c>
       <c r="E58" s="3">
-        <v>5694000</v>
+        <v>3820400</v>
       </c>
       <c r="F58" s="3">
-        <v>3060800</v>
+        <v>5503400</v>
       </c>
       <c r="G58" s="3">
-        <v>3171700</v>
+        <v>2958400</v>
       </c>
       <c r="H58" s="3">
-        <v>4061400</v>
+        <v>3065500</v>
       </c>
       <c r="I58" s="3">
-        <v>3020300</v>
+        <v>3925400</v>
       </c>
       <c r="J58" s="3">
+        <v>2919200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4574600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3561600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3355000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2178500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2722800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2816300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3217100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2967500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3499400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2525500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3084300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2974800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6124400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3014300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2165000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2773100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3241500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3034400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3398100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2514400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2628100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18712300</v>
+        <v>18004600</v>
       </c>
       <c r="E59" s="3">
-        <v>22943100</v>
+        <v>18085800</v>
       </c>
       <c r="F59" s="3">
-        <v>18142600</v>
+        <v>22175000</v>
       </c>
       <c r="G59" s="3">
-        <v>17641800</v>
+        <v>17535200</v>
       </c>
       <c r="H59" s="3">
-        <v>17913500</v>
+        <v>17051200</v>
       </c>
       <c r="I59" s="3">
-        <v>20695400</v>
+        <v>17313700</v>
       </c>
       <c r="J59" s="3">
+        <v>20002500</v>
+      </c>
+      <c r="K59" s="3">
         <v>18559000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19455100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19718700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21080400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19858200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20846200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22491300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22800700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23138900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22619100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21575000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21945200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21264700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21021000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19682100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19204700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>19329900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>19044800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>18495000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>18275000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>17244500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4922,97 +5061,103 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36245100</v>
+        <v>36176300</v>
       </c>
       <c r="E61" s="3">
-        <v>35790800</v>
+        <v>35031700</v>
       </c>
       <c r="F61" s="3">
-        <v>32699300</v>
+        <v>34592600</v>
       </c>
       <c r="G61" s="3">
-        <v>33997700</v>
+        <v>31604500</v>
       </c>
       <c r="H61" s="3">
-        <v>32398600</v>
+        <v>32859400</v>
       </c>
       <c r="I61" s="3">
-        <v>30466700</v>
+        <v>31313900</v>
       </c>
       <c r="J61" s="3">
+        <v>29446700</v>
+      </c>
+      <c r="K61" s="3">
         <v>29889600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31374300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31744800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31339600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31786500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33212400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37004500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37701100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37525700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37410700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37668500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>40229600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>37481900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>35869000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>34202200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>34591600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>35174700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>34962700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>35088200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>34193700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>34384900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5100,8 +5245,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5189,8 +5337,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5278,8 +5429,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5367,97 +5521,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82033600</v>
+        <v>79906600</v>
       </c>
       <c r="E66" s="3">
-        <v>80693500</v>
+        <v>79287200</v>
       </c>
       <c r="F66" s="3">
-        <v>77620500</v>
+        <v>77992000</v>
       </c>
       <c r="G66" s="3">
-        <v>78601000</v>
+        <v>75021900</v>
       </c>
       <c r="H66" s="3">
-        <v>77828600</v>
+        <v>75969500</v>
       </c>
       <c r="I66" s="3">
-        <v>75633600</v>
+        <v>75223000</v>
       </c>
       <c r="J66" s="3">
+        <v>73101400</v>
+      </c>
+      <c r="K66" s="3">
         <v>75179800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77269700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77428100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74690500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>76131100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79367500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86642100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>88751200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89592700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87755300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87183700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89160100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>87832500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>83373800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>78716600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>79041800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>80311500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>79690300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>79485200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>77383600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>77218100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5489,8 +5649,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5578,8 +5739,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5667,8 +5831,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5756,8 +5923,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5845,97 +6015,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21071700</v>
+        <v>20798700</v>
       </c>
       <c r="E72" s="3">
-        <v>20984100</v>
+        <v>20366200</v>
       </c>
       <c r="F72" s="3">
-        <v>20709000</v>
+        <v>20281500</v>
       </c>
       <c r="G72" s="3">
-        <v>20440900</v>
+        <v>20015700</v>
       </c>
       <c r="H72" s="3">
-        <v>20029300</v>
+        <v>19756600</v>
       </c>
       <c r="I72" s="3">
-        <v>19987000</v>
+        <v>19358800</v>
       </c>
       <c r="J72" s="3">
+        <v>19317900</v>
+      </c>
+      <c r="K72" s="3">
         <v>19625900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20469500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20268200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19459100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20219500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21453300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23117700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24266800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24561300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24406600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23503000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24559200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23318000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22550800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21382600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20930200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20440400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>19935700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>19246400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>18427200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>17917900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6023,8 +6199,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6112,8 +6291,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6201,97 +6383,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25029500</v>
+        <v>24973700</v>
       </c>
       <c r="E76" s="3">
-        <v>24344600</v>
+        <v>24191600</v>
       </c>
       <c r="F76" s="3">
-        <v>22364700</v>
+        <v>23529600</v>
       </c>
       <c r="G76" s="3">
-        <v>22978900</v>
+        <v>21615900</v>
       </c>
       <c r="H76" s="3">
-        <v>22627900</v>
+        <v>22209600</v>
       </c>
       <c r="I76" s="3">
-        <v>22405900</v>
+        <v>21870300</v>
       </c>
       <c r="J76" s="3">
+        <v>21655800</v>
+      </c>
+      <c r="K76" s="3">
         <v>21626500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22478300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22399400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21471800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21537500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23211700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25037000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26373700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27406600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27221500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26445600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27840900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26597200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26048900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24653900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24249100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>24117900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>23601100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>22829000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>22243300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>21616300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6379,191 +6567,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>432600</v>
+        <v>432500</v>
       </c>
       <c r="E81" s="3">
-        <v>423800</v>
+        <v>418100</v>
       </c>
       <c r="F81" s="3">
-        <v>615600</v>
+        <v>409600</v>
       </c>
       <c r="G81" s="3">
-        <v>411600</v>
+        <v>595000</v>
       </c>
       <c r="H81" s="3">
-        <v>425400</v>
+        <v>401000</v>
       </c>
       <c r="I81" s="3">
-        <v>692500</v>
+        <v>411200</v>
       </c>
       <c r="J81" s="3">
+        <v>669300</v>
+      </c>
+      <c r="K81" s="3">
         <v>444200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>587400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>479300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>357100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>353100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>341200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>426900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>514300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>775900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>826500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>634000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>841200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>766100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>697700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>726700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>513000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>817400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>689400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>811000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>497800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>665000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6595,97 +6792,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>586700</v>
+        <v>618200</v>
       </c>
       <c r="E83" s="3">
-        <v>639100</v>
+        <v>567000</v>
       </c>
       <c r="F83" s="3">
-        <v>639800</v>
+        <v>617700</v>
       </c>
       <c r="G83" s="3">
-        <v>584700</v>
+        <v>618400</v>
       </c>
       <c r="H83" s="3">
-        <v>564600</v>
+        <v>565100</v>
       </c>
       <c r="I83" s="3">
-        <v>574100</v>
+        <v>545700</v>
       </c>
       <c r="J83" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K83" s="3">
         <v>567100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>595200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>568500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>592200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>607800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>656400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>708000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>673700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>696300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>678900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>745700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>706100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>672500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>643600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>698100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>625100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>610500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>596800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>583400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>562000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6773,8 +6974,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6862,8 +7066,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6951,8 +7158,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7040,8 +7250,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7129,97 +7342,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1352700</v>
+        <v>2617000</v>
       </c>
       <c r="E89" s="3">
-        <v>2290900</v>
+        <v>1307400</v>
       </c>
       <c r="F89" s="3">
-        <v>2175900</v>
+        <v>2214200</v>
       </c>
       <c r="G89" s="3">
-        <v>2024200</v>
+        <v>2103000</v>
       </c>
       <c r="H89" s="3">
-        <v>-218100</v>
+        <v>1956500</v>
       </c>
       <c r="I89" s="3">
-        <v>2321000</v>
+        <v>-210800</v>
       </c>
       <c r="J89" s="3">
+        <v>2243300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1184200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2698700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1608600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2407900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1732000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2631100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1552600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2834900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1711200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3255200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1636300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1980300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1020200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1637600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>884100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1772000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1193700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1172300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>803500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1250000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>994000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7251,97 +7470,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-336475000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-321237000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-303186000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-298865000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-254596000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-223427000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-248094000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-229768000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-256101000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-84600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-133300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-79200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-172200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-116600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-62600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-106500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-127700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-198600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-147500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-155900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-197500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-222200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-148500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7429,8 +7652,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7518,97 +7744,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2814300</v>
+        <v>-2989500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2794400</v>
+        <v>-2720100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1725400</v>
+        <v>-2700900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1467400</v>
+        <v>-1667700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1559200</v>
+        <v>-1418300</v>
       </c>
       <c r="I94" s="3">
-        <v>-244400</v>
+        <v>-1507000</v>
       </c>
       <c r="J94" s="3">
+        <v>-236300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2314500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2310200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-852200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2514400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3140600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1425100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2023400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3372700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3499800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3389900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3065100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1698000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3863100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2709000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>32500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-760600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>116900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7640,97 +7872,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-344900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-333400</v>
       </c>
       <c r="F96" s="3">
-        <v>-347500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-335900</v>
       </c>
       <c r="H96" s="3">
-        <v>-382700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-369900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-322600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-385400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-320100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-439200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-408700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-540100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-363000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-454400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-312700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-345000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-267500</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7818,8 +8054,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7907,8 +8146,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7996,271 +8238,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-779700</v>
+        <v>284400</v>
       </c>
       <c r="E100" s="3">
-        <v>2535300</v>
+        <v>-753600</v>
       </c>
       <c r="F100" s="3">
-        <v>-183900</v>
+        <v>2450400</v>
       </c>
       <c r="G100" s="3">
-        <v>-292000</v>
+        <v>-177800</v>
       </c>
       <c r="H100" s="3">
-        <v>951900</v>
+        <v>-282300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1775300</v>
+        <v>920000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1715900</v>
+      </c>
+      <c r="K100" s="3">
         <v>192400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-205900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-350200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-356000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>131600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-216700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>852700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1587500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>927700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-136900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>197600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-769700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3671900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>352000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1637300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-330300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>571200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>434300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>622800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>713600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-108100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>136000</v>
+        <v>46700</v>
       </c>
       <c r="E101" s="3">
-        <v>28500</v>
+        <v>131500</v>
       </c>
       <c r="F101" s="3">
-        <v>-122300</v>
+        <v>27500</v>
       </c>
       <c r="G101" s="3">
-        <v>85800</v>
+        <v>-118200</v>
       </c>
       <c r="H101" s="3">
-        <v>160300</v>
+        <v>83000</v>
       </c>
       <c r="I101" s="3">
-        <v>115400</v>
+        <v>154900</v>
       </c>
       <c r="J101" s="3">
+        <v>111600</v>
+      </c>
+      <c r="K101" s="3">
         <v>39900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>83400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-39400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>51700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-35300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-58100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-8700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-69800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>49100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-82800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>24000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>42100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>41400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-11800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>141000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2105200</v>
+        <v>-41400</v>
       </c>
       <c r="E102" s="3">
-        <v>2060200</v>
+        <v>-2034800</v>
       </c>
       <c r="F102" s="3">
-        <v>144200</v>
+        <v>1991300</v>
       </c>
       <c r="G102" s="3">
-        <v>350600</v>
+        <v>139400</v>
       </c>
       <c r="H102" s="3">
-        <v>-665200</v>
+        <v>338800</v>
       </c>
       <c r="I102" s="3">
-        <v>416600</v>
+        <v>-642900</v>
       </c>
       <c r="J102" s="3">
+        <v>402700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-898100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>186600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>414800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-379100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1277400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>989800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>383500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1010300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-809300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-306900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1289300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-496100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>759200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-670400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-710700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>798800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>424100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-166800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1487500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>874100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-181900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1061400</v>
       </c>
     </row>
